--- a/Results/BITCOIN(07-2016-05-2020)Results.xlsx
+++ b/Results/BITCOIN(07-2016-05-2020)Results.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.348809255826885</v>
+        <v>6.401647150088404</v>
       </c>
       <c r="C3" t="n">
-        <v>995024.4399999999</v>
+        <v>994943.342776204</v>
       </c>
       <c r="D3" t="n">
         <v>663.7810059</v>
       </c>
       <c r="E3" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.84505176196556</v>
+        <v>12.93172539885289</v>
       </c>
       <c r="C4" t="n">
-        <v>990048.8799999999</v>
+        <v>989886.685552408</v>
       </c>
       <c r="D4" t="n">
         <v>650.7260132</v>
       </c>
       <c r="E4" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.26957341842531</v>
+        <v>19.39932664529417</v>
       </c>
       <c r="C5" t="n">
-        <v>985073.3199999998</v>
+        <v>984830.028328612</v>
       </c>
       <c r="D5" t="n">
         <v>657.0120239</v>
       </c>
       <c r="E5" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.75260865388619</v>
+        <v>26.78901338891577</v>
       </c>
       <c r="C6" t="n">
-        <v>980097.7599999998</v>
+        <v>979773.371104816</v>
       </c>
       <c r="D6" t="n">
         <v>575.0300293</v>
       </c>
       <c r="E6" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.05760892603243</v>
+        <v>34.02361146771516</v>
       </c>
       <c r="C7" t="n">
-        <v>975122.1999999997</v>
+        <v>974716.71388102</v>
       </c>
       <c r="D7" t="n">
         <v>587.3569946</v>
       </c>
       <c r="E7" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.52512430936757</v>
+        <v>41.399778658213</v>
       </c>
       <c r="C8" t="n">
-        <v>970146.6399999997</v>
+        <v>969660.056657224</v>
       </c>
       <c r="D8" t="n">
         <v>576.0839844</v>
       </c>
       <c r="E8" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.94342259422451</v>
+        <v>48.73307216846683</v>
       </c>
       <c r="C9" t="n">
-        <v>965171.0799999996</v>
+        <v>964603.399433428</v>
       </c>
       <c r="D9" t="n">
         <v>579.4520264</v>
       </c>
       <c r="E9" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.41872045779911</v>
+        <v>56.11601878277486</v>
       </c>
       <c r="C10" t="n">
-        <v>960195.5199999996</v>
+        <v>959546.7422096319</v>
       </c>
       <c r="D10" t="n">
         <v>575.5549927</v>
       </c>
       <c r="E10" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.24949354090268</v>
+        <v>62.93751114232833</v>
       </c>
       <c r="C11" t="n">
-        <v>955219.9599999995</v>
+        <v>954490.0849858359</v>
       </c>
       <c r="D11" t="n">
         <v>622.927002</v>
       </c>
       <c r="E11" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.28285200295896</v>
+        <v>69.93547836585978</v>
       </c>
       <c r="C12" t="n">
-        <v>950244.3999999994</v>
+        <v>949433.4277620399</v>
       </c>
       <c r="D12" t="n">
         <v>607.2180176000001</v>
       </c>
       <c r="E12" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.37292750060328</v>
+        <v>76.98285256630328</v>
       </c>
       <c r="C13" t="n">
-        <v>945268.8399999994</v>
+        <v>944376.7705382439</v>
       </c>
       <c r="D13" t="n">
         <v>602.9609985</v>
       </c>
       <c r="E13" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.37057947523935</v>
+        <v>83.94971538564137</v>
       </c>
       <c r="C14" t="n">
-        <v>940293.2799999993</v>
+        <v>939320.1133144479</v>
       </c>
       <c r="D14" t="n">
         <v>609.9290161</v>
       </c>
       <c r="E14" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>104.2722091631014</v>
+        <v>90.83293189207721</v>
       </c>
       <c r="C15" t="n">
-        <v>935317.7199999993</v>
+        <v>934263.4560906519</v>
       </c>
       <c r="D15" t="n">
         <v>617.3410034</v>
       </c>
       <c r="E15" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>111.890382515286</v>
+        <v>97.46922575019079</v>
       </c>
       <c r="C16" t="n">
-        <v>930342.1599999992</v>
+        <v>929206.7988668559</v>
       </c>
       <c r="D16" t="n">
         <v>640.3109741</v>
       </c>
       <c r="E16" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>119.5948885069715</v>
+        <v>104.180725138395</v>
       </c>
       <c r="C17" t="n">
-        <v>925366.5999999992</v>
+        <v>924150.1416430599</v>
       </c>
       <c r="D17" t="n">
         <v>633.1359863</v>
       </c>
       <c r="E17" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="18">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>126.6614939278895</v>
+        <v>110.3365407105233</v>
       </c>
       <c r="C18" t="n">
-        <v>920391.0399999991</v>
+        <v>919093.4844192639</v>
       </c>
       <c r="D18" t="n">
         <v>690.2890015</v>
       </c>
       <c r="E18" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="19">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.5951492078281</v>
+        <v>116.3765416164279</v>
       </c>
       <c r="C19" t="n">
-        <v>915415.4799999991</v>
+        <v>914036.8271954679</v>
       </c>
       <c r="D19" t="n">
         <v>703.5250244</v>
       </c>
       <c r="E19" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="20">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>140.4008503476352</v>
+        <v>122.3050799400284</v>
       </c>
       <c r="C20" t="n">
-        <v>910439.919999999</v>
+        <v>908980.1699716719</v>
       </c>
       <c r="D20" t="n">
         <v>716.7520142</v>
       </c>
       <c r="E20" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="21">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>146.8889932588835</v>
+        <v>127.9569889951213</v>
       </c>
       <c r="C21" t="n">
-        <v>905464.3599999989</v>
+        <v>903923.5127478759</v>
       </c>
       <c r="D21" t="n">
         <v>751.8330078</v>
       </c>
       <c r="E21" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="22">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.46745276943</v>
+        <v>133.6875740615755</v>
       </c>
       <c r="C22" t="n">
-        <v>900488.7999999989</v>
+        <v>898866.8555240799</v>
       </c>
       <c r="D22" t="n">
         <v>741.5109863</v>
       </c>
       <c r="E22" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="23">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.7353777612122</v>
+        <v>139.147648308134</v>
       </c>
       <c r="C23" t="n">
-        <v>895513.2399999988</v>
+        <v>893810.1983002839</v>
       </c>
       <c r="D23" t="n">
         <v>778.2479858</v>
       </c>
       <c r="E23" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="24">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.0456685740393</v>
+        <v>144.644627994487</v>
       </c>
       <c r="C24" t="n">
-        <v>890537.6799999988</v>
+        <v>888753.5410764879</v>
       </c>
       <c r="D24" t="n">
         <v>773.0230103</v>
       </c>
       <c r="E24" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="25">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>172.2583674212664</v>
+        <v>150.0565939994794</v>
       </c>
       <c r="C25" t="n">
-        <v>885562.1199999987</v>
+        <v>883696.8838526919</v>
       </c>
       <c r="D25" t="n">
         <v>785.1660156</v>
       </c>
       <c r="E25" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="26">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>177.5480072297792</v>
+        <v>154.6644707896289</v>
       </c>
       <c r="C26" t="n">
-        <v>880586.5599999987</v>
+        <v>878640.2266288958</v>
       </c>
       <c r="D26" t="n">
         <v>922.1799927</v>
       </c>
       <c r="E26" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="27">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>182.6259406294165</v>
+        <v>159.0879272632544</v>
       </c>
       <c r="C27" t="n">
-        <v>875610.9999999986</v>
+        <v>873583.5694050998</v>
       </c>
       <c r="D27" t="n">
         <v>960.6270142</v>
       </c>
       <c r="E27" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="28">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.0250221908551</v>
+        <v>163.7911402447961</v>
       </c>
       <c r="C28" t="n">
-        <v>870635.4399999985</v>
+        <v>868526.9121813038</v>
       </c>
       <c r="D28" t="n">
         <v>903.4869995</v>
       </c>
       <c r="E28" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="29">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193.936731726599</v>
+        <v>168.9409103890733</v>
       </c>
       <c r="C29" t="n">
-        <v>865659.8799999985</v>
+        <v>863470.2549575078</v>
       </c>
       <c r="D29" t="n">
         <v>825.1420288</v>
       </c>
       <c r="E29" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="30">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>199.3836697936331</v>
+        <v>173.685811819994</v>
       </c>
       <c r="C30" t="n">
-        <v>860684.3199999984</v>
+        <v>858413.5977337118</v>
       </c>
       <c r="D30" t="n">
         <v>895.5490112</v>
       </c>
       <c r="E30" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="31">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>204.6869333307668</v>
+        <v>178.3055564244333</v>
       </c>
       <c r="C31" t="n">
-        <v>855708.7599999984</v>
+        <v>853356.9405099158</v>
       </c>
       <c r="D31" t="n">
         <v>919.8109741</v>
       </c>
       <c r="E31" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="32">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>209.4167484317644</v>
+        <v>182.4257623391179</v>
       </c>
       <c r="C32" t="n">
-        <v>850733.1999999983</v>
+        <v>848300.2832861198</v>
       </c>
       <c r="D32" t="n">
         <v>1031.329956</v>
       </c>
       <c r="E32" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="33">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>214.3495119212168</v>
+        <v>186.7227593402681</v>
       </c>
       <c r="C33" t="n">
-        <v>845757.6399999983</v>
+        <v>843243.6260623238</v>
       </c>
       <c r="D33" t="n">
         <v>988.8980103</v>
       </c>
       <c r="E33" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="34">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>218.9987243584976</v>
+        <v>190.7727511842767</v>
       </c>
       <c r="C34" t="n">
-        <v>840782.0799999982</v>
+        <v>838186.9688385278</v>
       </c>
       <c r="D34" t="n">
         <v>1049.209961</v>
       </c>
       <c r="E34" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="35">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>223.1664945059637</v>
+        <v>194.4033521371583</v>
       </c>
       <c r="C35" t="n">
-        <v>835806.5199999982</v>
+        <v>833130.3116147318</v>
       </c>
       <c r="D35" t="n">
         <v>1170.410034</v>
       </c>
       <c r="E35" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="36">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>226.985098886474</v>
+        <v>197.7297900672796</v>
       </c>
       <c r="C36" t="n">
-        <v>830830.9599999981</v>
+        <v>828073.6543909358</v>
       </c>
       <c r="D36" t="n">
         <v>1277.430054</v>
       </c>
       <c r="E36" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="37">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>231.3548138749761</v>
+        <v>201.5363079028953</v>
       </c>
       <c r="C37" t="n">
-        <v>825855.399999998</v>
+        <v>823016.9971671398</v>
       </c>
       <c r="D37" t="n">
         <v>1116.319946</v>
       </c>
       <c r="E37" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="38">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.7906096553432</v>
+        <v>205.4003896101795</v>
       </c>
       <c r="C38" t="n">
-        <v>820879.839999998</v>
+        <v>817960.3399433438</v>
       </c>
       <c r="D38" t="n">
         <v>1099.689941</v>
       </c>
       <c r="E38" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="39">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>240.9991433160387</v>
+        <v>209.9376137378425</v>
       </c>
       <c r="C39" t="n">
-        <v>815904.2799999979</v>
+        <v>812903.6827195478</v>
       </c>
       <c r="D39" t="n">
         <v>936.539978</v>
       </c>
       <c r="E39" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="40">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.550747926906</v>
+        <v>213.9025780839213</v>
       </c>
       <c r="C40" t="n">
-        <v>810928.7199999979</v>
+        <v>807847.0254957518</v>
       </c>
       <c r="D40" t="n">
         <v>1071.709961</v>
       </c>
       <c r="E40" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="41">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>249.7105568214309</v>
+        <v>217.5262438816739</v>
       </c>
       <c r="C41" t="n">
-        <v>805953.1599999978</v>
+        <v>802790.3682719558</v>
       </c>
       <c r="D41" t="n">
         <v>1172.650024</v>
       </c>
       <c r="E41" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="42">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>253.8894309713796</v>
+        <v>221.1665176813219</v>
       </c>
       <c r="C42" t="n">
-        <v>800977.5999999978</v>
+        <v>797733.7110481597</v>
       </c>
       <c r="D42" t="n">
         <v>1167.300049</v>
       </c>
       <c r="E42" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="43">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>257.8789298350435</v>
+        <v>224.6418241074078</v>
       </c>
       <c r="C43" t="n">
-        <v>796002.0399999977</v>
+        <v>792677.0538243637</v>
       </c>
       <c r="D43" t="n">
         <v>1222.709961</v>
       </c>
       <c r="E43" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="44">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>261.5804414949198</v>
+        <v>227.8662609846717</v>
       </c>
       <c r="C44" t="n">
-        <v>791026.4799999977</v>
+        <v>787620.3966005677</v>
       </c>
       <c r="D44" t="n">
         <v>1317.839966</v>
       </c>
       <c r="E44" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="45">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>264.7137717119235</v>
+        <v>230.5957473212592</v>
       </c>
       <c r="C45" t="n">
-        <v>786050.9199999976</v>
+        <v>782563.7393767717</v>
       </c>
       <c r="D45" t="n">
         <v>1556.810059</v>
       </c>
       <c r="E45" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="46">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>267.5446830902109</v>
+        <v>233.0617925166216</v>
       </c>
       <c r="C46" t="n">
-        <v>781075.3599999975</v>
+        <v>777507.0821529757</v>
       </c>
       <c r="D46" t="n">
         <v>1723.119995</v>
       </c>
       <c r="E46" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="47">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>270.0030550737329</v>
+        <v>235.2033136058637</v>
       </c>
       <c r="C47" t="n">
-        <v>776099.7999999975</v>
+        <v>772450.4249291797</v>
       </c>
       <c r="D47" t="n">
         <v>1984.23999</v>
       </c>
       <c r="E47" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>272.2240934504258</v>
+        <v>237.1380901797854</v>
       </c>
       <c r="C48" t="n">
-        <v>771124.2399999974</v>
+        <v>767393.7677053837</v>
       </c>
       <c r="D48" t="n">
         <v>2196.27002</v>
       </c>
       <c r="E48" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="49">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>274.1802072309333</v>
+        <v>238.8420873543352</v>
       </c>
       <c r="C49" t="n">
-        <v>766148.6799999974</v>
+        <v>762337.1104815877</v>
       </c>
       <c r="D49" t="n">
         <v>2493.719971</v>
       </c>
       <c r="E49" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="50">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>275.9050158275921</v>
+        <v>240.3445914543694</v>
       </c>
       <c r="C50" t="n">
-        <v>761173.1199999973</v>
+        <v>757280.4532577917</v>
       </c>
       <c r="D50" t="n">
         <v>2828.139893</v>
       </c>
       <c r="E50" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="51">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>277.8453422306679</v>
+        <v>242.0348360308826</v>
       </c>
       <c r="C51" t="n">
-        <v>756197.5599999973</v>
+        <v>752223.7960339957</v>
       </c>
       <c r="D51" t="n">
         <v>2514.01001</v>
       </c>
       <c r="E51" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="52">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>279.6265963257174</v>
+        <v>243.5865105681031</v>
       </c>
       <c r="C52" t="n">
-        <v>751221.9999999972</v>
+        <v>747167.1388101997</v>
       </c>
       <c r="D52" t="n">
         <v>2738.52002</v>
       </c>
       <c r="E52" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="53">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>281.5835889471628</v>
+        <v>245.291273312882</v>
       </c>
       <c r="C53" t="n">
-        <v>746246.4399999972</v>
+        <v>742110.4815864037</v>
       </c>
       <c r="D53" t="n">
         <v>2492.600098</v>
       </c>
       <c r="E53" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="54">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>283.5190958417772</v>
+        <v>246.977319550381</v>
       </c>
       <c r="C54" t="n">
-        <v>741270.8799999971</v>
+        <v>737053.8243626077</v>
       </c>
       <c r="D54" t="n">
         <v>2520.27002</v>
       </c>
       <c r="E54" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="55">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>285.7064219695563</v>
+        <v>248.8827289282484</v>
       </c>
       <c r="C55" t="n">
-        <v>736295.319999997</v>
+        <v>731997.1671388117</v>
       </c>
       <c r="D55" t="n">
         <v>2230.120117</v>
       </c>
       <c r="E55" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="56">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>287.5343262552253</v>
+        <v>250.4750410775546</v>
       </c>
       <c r="C56" t="n">
-        <v>731319.759999997</v>
+        <v>726940.5099150157</v>
       </c>
       <c r="D56" t="n">
         <v>2668.629883</v>
       </c>
       <c r="E56" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="57">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>289.2721122222809</v>
+        <v>251.9888499404863</v>
       </c>
       <c r="C57" t="n">
-        <v>726344.1999999969</v>
+        <v>721883.8526912197</v>
       </c>
       <c r="D57" t="n">
         <v>2807.02002</v>
       </c>
       <c r="E57" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="58">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>290.9555570364784</v>
+        <v>253.4553214900905</v>
       </c>
       <c r="C58" t="n">
-        <v>721368.6399999969</v>
+        <v>716827.1954674236</v>
       </c>
       <c r="D58" t="n">
         <v>2897.629883</v>
       </c>
       <c r="E58" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="59">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>292.2917648023534</v>
+        <v>254.6193101498257</v>
       </c>
       <c r="C59" t="n">
-        <v>716393.0799999968</v>
+        <v>711770.5382436276</v>
       </c>
       <c r="D59" t="n">
         <v>3650.629883</v>
       </c>
       <c r="E59" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="60">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>293.4706663792974</v>
+        <v>255.6462672605024</v>
       </c>
       <c r="C60" t="n">
-        <v>711417.5199999968</v>
+        <v>706713.8810198316</v>
       </c>
       <c r="D60" t="n">
         <v>4137.75</v>
       </c>
       <c r="E60" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="61">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>294.5863875574542</v>
+        <v>256.6181870711544</v>
       </c>
       <c r="C61" t="n">
-        <v>706441.9599999967</v>
+        <v>701657.2237960356</v>
       </c>
       <c r="D61" t="n">
         <v>4372.060059</v>
       </c>
       <c r="E61" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="62">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>295.5816093661601</v>
+        <v>257.4851382510828</v>
       </c>
       <c r="C62" t="n">
-        <v>701466.3999999966</v>
+        <v>696600.5665722396</v>
       </c>
       <c r="D62" t="n">
         <v>4901.419922</v>
       </c>
       <c r="E62" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="63">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>296.7348526399617</v>
+        <v>258.4897440668124</v>
       </c>
       <c r="C63" t="n">
-        <v>696490.8399999966</v>
+        <v>691543.9093484436</v>
       </c>
       <c r="D63" t="n">
         <v>4229.810059</v>
       </c>
       <c r="E63" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="64">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>298.0757914070567</v>
+        <v>259.6578539657066</v>
       </c>
       <c r="C64" t="n">
-        <v>691515.2799999965</v>
+        <v>686487.2521246476</v>
       </c>
       <c r="D64" t="n">
         <v>3637.75</v>
       </c>
       <c r="E64" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="65">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>299.4196227049418</v>
+        <v>260.8284835872993</v>
       </c>
       <c r="C65" t="n">
-        <v>686539.7199999965</v>
+        <v>681430.5949008516</v>
       </c>
       <c r="D65" t="n">
         <v>3629.919922</v>
       </c>
       <c r="E65" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="66">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>300.5904991725363</v>
+        <v>261.848449916666</v>
       </c>
       <c r="C66" t="n">
-        <v>681564.1599999964</v>
+        <v>676373.9376770556</v>
       </c>
       <c r="D66" t="n">
         <v>4166.109863</v>
       </c>
       <c r="E66" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="67">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>301.7069123439672</v>
+        <v>262.8209725320197</v>
       </c>
       <c r="C67" t="n">
-        <v>676588.5999999964</v>
+        <v>671317.2804532596</v>
       </c>
       <c r="D67" t="n">
         <v>4369.350098</v>
       </c>
       <c r="E67" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="68">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>302.5712650072534</v>
+        <v>263.5739218291062</v>
       </c>
       <c r="C68" t="n">
-        <v>671613.0399999963</v>
+        <v>666260.6232294636</v>
       </c>
       <c r="D68" t="n">
         <v>5643.529785</v>
       </c>
       <c r="E68" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="69">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>303.3847001897888</v>
+        <v>264.2825162199498</v>
       </c>
       <c r="C69" t="n">
-        <v>666637.4799999963</v>
+        <v>661203.9660056676</v>
       </c>
       <c r="D69" t="n">
         <v>5996.790039</v>
       </c>
       <c r="E69" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="70">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>304.227504587357</v>
+        <v>265.016694531286</v>
       </c>
       <c r="C70" t="n">
-        <v>661661.9199999962</v>
+        <v>656147.3087818716</v>
       </c>
       <c r="D70" t="n">
         <v>5787.819824</v>
       </c>
       <c r="E70" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="71">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>304.9083634931837</v>
+        <v>265.6097999341296</v>
       </c>
       <c r="C71" t="n">
-        <v>656686.3599999961</v>
+        <v>651090.6515580756</v>
       </c>
       <c r="D71" t="n">
         <v>7164.47998</v>
       </c>
       <c r="E71" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="72">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>305.6453762648943</v>
+        <v>266.2518217291378</v>
       </c>
       <c r="C72" t="n">
-        <v>651710.7999999961</v>
+        <v>646033.9943342796</v>
       </c>
       <c r="D72" t="n">
         <v>6618.609863</v>
       </c>
       <c r="E72" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>306.279112388076</v>
+        <v>266.8038778385895</v>
       </c>
       <c r="C73" t="n">
-        <v>646735.239999996</v>
+        <v>640977.3371104836</v>
       </c>
       <c r="D73" t="n">
         <v>7697.209961</v>
       </c>
       <c r="E73" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="74">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>306.8709798552743</v>
+        <v>267.3194615954567</v>
       </c>
       <c r="C74" t="n">
-        <v>641759.679999996</v>
+        <v>635920.6798866875</v>
       </c>
       <c r="D74" t="n">
         <v>8241.709961</v>
       </c>
       <c r="E74" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="75">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>307.315310952882</v>
+        <v>267.7065244250492</v>
       </c>
       <c r="C75" t="n">
-        <v>636784.1199999959</v>
+        <v>630864.0226628915</v>
       </c>
       <c r="D75" t="n">
         <v>10978.2998</v>
       </c>
       <c r="E75" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>307.6105304168951</v>
+        <v>267.9636940935846</v>
       </c>
       <c r="C76" t="n">
-        <v>631808.5599999959</v>
+        <v>625807.3654390955</v>
       </c>
       <c r="D76" t="n">
         <v>16523.30078</v>
       </c>
       <c r="E76" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="77">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>307.8851879275097</v>
+        <v>268.2029519663728</v>
       </c>
       <c r="C77" t="n">
-        <v>626832.9999999958</v>
+        <v>620750.7082152995</v>
       </c>
       <c r="D77" t="n">
         <v>17760.30078</v>
       </c>
       <c r="E77" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="78">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>308.2348979313135</v>
+        <v>268.5075890812133</v>
       </c>
       <c r="C78" t="n">
-        <v>621857.4399999958</v>
+        <v>615694.0509915035</v>
       </c>
       <c r="D78" t="n">
         <v>13948.7002</v>
       </c>
       <c r="E78" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="79">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>308.5671437489818</v>
+        <v>268.7970129072731</v>
       </c>
       <c r="C79" t="n">
-        <v>616881.8799999957</v>
+        <v>610637.3937677075</v>
       </c>
       <c r="D79" t="n">
         <v>14681.90039</v>
       </c>
       <c r="E79" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="80">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>308.8464915999817</v>
+        <v>269.0403565990173</v>
       </c>
       <c r="C80" t="n">
-        <v>611906.3199999956</v>
+        <v>605580.7365439115</v>
       </c>
       <c r="D80" t="n">
         <v>17462.09961</v>
       </c>
       <c r="E80" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="81">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>309.1961088603562</v>
+        <v>269.3449129238019</v>
       </c>
       <c r="C81" t="n">
-        <v>606930.7599999956</v>
+        <v>600524.0793201155</v>
       </c>
       <c r="D81" t="n">
         <v>13952.40039</v>
       </c>
       <c r="E81" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="82">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>309.6145985839627</v>
+        <v>269.7094649829457</v>
       </c>
       <c r="C82" t="n">
-        <v>601955.1999999955</v>
+        <v>595467.4220963195</v>
       </c>
       <c r="D82" t="n">
         <v>11656.2002</v>
       </c>
       <c r="E82" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="83">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>310.0511125420079</v>
+        <v>270.0897181965229</v>
       </c>
       <c r="C83" t="n">
-        <v>596979.6399999955</v>
+        <v>590410.7648725235</v>
       </c>
       <c r="D83" t="n">
         <v>11174.90039</v>
       </c>
       <c r="E83" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="84">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>310.6021669714019</v>
+        <v>270.5697491640809</v>
       </c>
       <c r="C84" t="n">
-        <v>592004.0799999954</v>
+        <v>585354.1076487275</v>
       </c>
       <c r="D84" t="n">
         <v>8852.120117</v>
       </c>
       <c r="E84" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="85">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>311.1615655040262</v>
+        <v>271.0570487928335</v>
       </c>
       <c r="C85" t="n">
-        <v>587028.5199999954</v>
+        <v>580297.4504249315</v>
       </c>
       <c r="D85" t="n">
         <v>8720.080078000001</v>
       </c>
       <c r="E85" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="86">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>311.6394494129167</v>
+        <v>271.4733399302033</v>
       </c>
       <c r="C86" t="n">
-        <v>582052.9599999953</v>
+        <v>575240.7932011355</v>
       </c>
       <c r="D86" t="n">
         <v>10207.5</v>
       </c>
       <c r="E86" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="87">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>312.1136078647737</v>
+        <v>271.8863857715569</v>
       </c>
       <c r="C87" t="n">
-        <v>577077.3999999953</v>
+        <v>570184.1359773395</v>
       </c>
       <c r="D87" t="n">
         <v>10287.7002</v>
       </c>
       <c r="E87" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="88">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>312.5529920988814</v>
+        <v>272.2691393214384</v>
       </c>
       <c r="C88" t="n">
-        <v>572101.8399999952</v>
+        <v>565127.4787535435</v>
       </c>
       <c r="D88" t="n">
         <v>11101.90039</v>
       </c>
       <c r="E88" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="89">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>313.0746704187929</v>
+        <v>272.7235803626556</v>
       </c>
       <c r="C89" t="n">
-        <v>567126.2799999951</v>
+        <v>560070.8215297475</v>
       </c>
       <c r="D89" t="n">
         <v>9350.589844</v>
       </c>
       <c r="E89" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="90">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>313.6608339207485</v>
+        <v>273.2341953182424</v>
       </c>
       <c r="C90" t="n">
-        <v>562150.7199999951</v>
+        <v>555014.1643059514</v>
       </c>
       <c r="D90" t="n">
         <v>8321.910156</v>
       </c>
       <c r="E90" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="91">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>314.2088037355807</v>
+        <v>273.7115392363301</v>
       </c>
       <c r="C91" t="n">
-        <v>557175.159999995</v>
+        <v>549957.5070821554</v>
       </c>
       <c r="D91" t="n">
         <v>8901.950194999999</v>
       </c>
       <c r="E91" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="92">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>314.9165315801525</v>
+        <v>274.3280505351706</v>
       </c>
       <c r="C92" t="n">
-        <v>552199.599999995</v>
+        <v>544900.8498583594</v>
       </c>
       <c r="D92" t="n">
         <v>6892.47998</v>
       </c>
       <c r="E92" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="93">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>315.6522216209113</v>
+        <v>274.9689200813543</v>
       </c>
       <c r="C93" t="n">
-        <v>547224.0399999949</v>
+        <v>539844.1926345634</v>
       </c>
       <c r="D93" t="n">
         <v>6630.509766</v>
       </c>
       <c r="E93" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="94">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>316.2716761565703</v>
+        <v>275.5085353067278</v>
       </c>
       <c r="C94" t="n">
-        <v>542248.4799999949</v>
+        <v>534787.5354107674</v>
       </c>
       <c r="D94" t="n">
         <v>7874.669922</v>
       </c>
       <c r="E94" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="95">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>316.8229379650775</v>
+        <v>275.9887469250366</v>
       </c>
       <c r="C95" t="n">
-        <v>537272.9199999948</v>
+        <v>529730.8781869714</v>
       </c>
       <c r="D95" t="n">
         <v>8848.790039</v>
       </c>
       <c r="E95" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="96">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>317.3686201355372</v>
+        <v>276.4640980451663</v>
       </c>
       <c r="C96" t="n">
-        <v>532297.3599999947</v>
+        <v>524674.2209631754</v>
       </c>
       <c r="D96" t="n">
         <v>8939.269531</v>
       </c>
       <c r="E96" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="97">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>317.8714922034276</v>
+        <v>276.9021567058558</v>
       </c>
       <c r="C97" t="n">
-        <v>527321.7999999947</v>
+        <v>519617.5637393793</v>
       </c>
       <c r="D97" t="n">
         <v>9700.280273</v>
       </c>
       <c r="E97" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="98">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>318.4493556664764</v>
+        <v>277.4055413852763</v>
       </c>
       <c r="C98" t="n">
-        <v>522346.2399999947</v>
+        <v>514560.9065155833</v>
       </c>
       <c r="D98" t="n">
         <v>8441.440430000001</v>
       </c>
       <c r="E98" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="99">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>319.0402179794257</v>
+        <v>277.9202495386805</v>
       </c>
       <c r="C99" t="n">
-        <v>517370.6799999947</v>
+        <v>509504.2492917872</v>
       </c>
       <c r="D99" t="n">
         <v>8255.730469</v>
       </c>
       <c r="E99" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="100">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>319.6917925529278</v>
+        <v>278.487844963507</v>
       </c>
       <c r="C100" t="n">
-        <v>512395.1199999947</v>
+        <v>504447.5920679912</v>
       </c>
       <c r="D100" t="n">
         <v>7486.47998</v>
       </c>
       <c r="E100" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="101">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>320.3390236907232</v>
+        <v>279.0516567627357</v>
       </c>
       <c r="C101" t="n">
-        <v>507419.5599999947</v>
+        <v>499390.9348441951</v>
       </c>
       <c r="D101" t="n">
         <v>7536.720215</v>
       </c>
       <c r="E101" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="102">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>320.9781310873914</v>
+        <v>279.6083918611786</v>
       </c>
       <c r="C102" t="n">
-        <v>502443.9999999947</v>
+        <v>494334.277620399</v>
       </c>
       <c r="D102" t="n">
         <v>7632.52002</v>
       </c>
       <c r="E102" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="103">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>321.7337716473291</v>
+        <v>280.2666405744897</v>
       </c>
       <c r="C103" t="n">
-        <v>497468.4399999947</v>
+        <v>489277.620396603</v>
       </c>
       <c r="D103" t="n">
         <v>6455.450195</v>
       </c>
       <c r="E103" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="104">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>322.5347437038643</v>
+        <v>280.9643781676859</v>
       </c>
       <c r="C104" t="n">
-        <v>492492.8799999947</v>
+        <v>484220.9631728069</v>
       </c>
       <c r="D104" t="n">
         <v>6090.100098</v>
       </c>
       <c r="E104" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="105">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>323.3197174948196</v>
+        <v>281.6481794553271</v>
       </c>
       <c r="C105" t="n">
-        <v>487517.3199999947</v>
+        <v>479164.3059490108</v>
       </c>
       <c r="D105" t="n">
         <v>6214.220215</v>
       </c>
       <c r="E105" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="106">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>324.0511933017639</v>
+        <v>282.285377925429</v>
       </c>
       <c r="C106" t="n">
-        <v>482541.7599999947</v>
+        <v>474107.6487252148</v>
       </c>
       <c r="D106" t="n">
         <v>6668.709961</v>
       </c>
       <c r="E106" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="107">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>324.8319856186907</v>
+        <v>282.965536674481</v>
       </c>
       <c r="C107" t="n">
-        <v>477566.1999999947</v>
+        <v>469050.9915014187</v>
       </c>
       <c r="D107" t="n">
         <v>6247.5</v>
       </c>
       <c r="E107" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="108">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>325.4954135552044</v>
+        <v>283.5434577241674</v>
       </c>
       <c r="C108" t="n">
-        <v>472590.6399999947</v>
+        <v>463994.3342776226</v>
       </c>
       <c r="D108" t="n">
         <v>7352.720215</v>
       </c>
       <c r="E108" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="109">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>326.0925446773616</v>
+        <v>284.0636267220708</v>
       </c>
       <c r="C109" t="n">
-        <v>467615.0799999947</v>
+        <v>458937.6770538266</v>
       </c>
       <c r="D109" t="n">
         <v>8169.060059</v>
       </c>
       <c r="E109" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="110">
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>326.7483070649927</v>
+        <v>284.6348702084336</v>
       </c>
       <c r="C110" t="n">
-        <v>462639.5199999947</v>
+        <v>453881.0198300305</v>
       </c>
       <c r="D110" t="n">
         <v>7438.67</v>
       </c>
       <c r="E110" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="111">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>327.536888636627</v>
+        <v>285.3218142826266</v>
       </c>
       <c r="C111" t="n">
-        <v>457663.9599999947</v>
+        <v>448824.3626062344</v>
       </c>
       <c r="D111" t="n">
         <v>6185.79</v>
       </c>
       <c r="E111" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="112">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>328.2778397821545</v>
+        <v>285.9672668483412</v>
       </c>
       <c r="C112" t="n">
-        <v>452688.3999999947</v>
+        <v>443767.7053824384</v>
       </c>
       <c r="D112" t="n">
         <v>6583.43</v>
       </c>
       <c r="E112" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="113">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>329.0037380403261</v>
+        <v>286.5996066402597</v>
       </c>
       <c r="C113" t="n">
-        <v>447712.8399999947</v>
+        <v>438711.0481586423</v>
       </c>
       <c r="D113" t="n">
         <v>6719.95</v>
       </c>
       <c r="E113" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="114">
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>329.6961626763347</v>
+        <v>287.2027871071144</v>
       </c>
       <c r="C114" t="n">
-        <v>442737.2799999947</v>
+        <v>433654.3909348462</v>
       </c>
       <c r="D114" t="n">
         <v>7044.81</v>
       </c>
       <c r="E114" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="115">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>330.4512511647181</v>
+        <v>287.8605549034266</v>
       </c>
       <c r="C115" t="n">
-        <v>437761.7199999947</v>
+        <v>428597.7337110502</v>
       </c>
       <c r="D115" t="n">
         <v>6460.17</v>
       </c>
       <c r="E115" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="116">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>331.200628987559</v>
+        <v>288.5133480617366</v>
       </c>
       <c r="C116" t="n">
-        <v>432786.1599999947</v>
+        <v>423541.0764872541</v>
       </c>
       <c r="D116" t="n">
         <v>6509.4</v>
       </c>
       <c r="E116" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="117">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>331.9248997799065</v>
+        <v>289.144270146161</v>
       </c>
       <c r="C117" t="n">
-        <v>427810.5999999947</v>
+        <v>418484.4192634581</v>
       </c>
       <c r="D117" t="n">
         <v>6735.05</v>
       </c>
       <c r="E117" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="118">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>332.6591955153312</v>
+        <v>289.7839250941074</v>
       </c>
       <c r="C118" t="n">
-        <v>422835.0399999947</v>
+        <v>413427.762039662</v>
       </c>
       <c r="D118" t="n">
         <v>6643.1</v>
       </c>
       <c r="E118" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="119">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>333.3957809180145</v>
+        <v>290.425574602175</v>
       </c>
       <c r="C119" t="n">
-        <v>417859.4799999947</v>
+        <v>408371.1048158659</v>
       </c>
       <c r="D119" t="n">
         <v>6622.45</v>
       </c>
       <c r="E119" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="120">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>334.1727700611921</v>
+        <v>291.1024203551285</v>
       </c>
       <c r="C120" t="n">
-        <v>412883.9199999947</v>
+        <v>403314.4475920699</v>
       </c>
       <c r="D120" t="n">
         <v>6278.08</v>
       </c>
       <c r="E120" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="121">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>334.9277708969864</v>
+        <v>291.7601117960847</v>
       </c>
       <c r="C121" t="n">
-        <v>407908.3599999947</v>
+        <v>398257.7903682738</v>
       </c>
       <c r="D121" t="n">
         <v>6460.92</v>
       </c>
       <c r="E121" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="122">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>335.6804511051075</v>
+        <v>292.4157817068837</v>
       </c>
       <c r="C122" t="n">
-        <v>402932.7999999947</v>
+        <v>393201.1331444777</v>
       </c>
       <c r="D122" t="n">
         <v>6480.84</v>
       </c>
       <c r="E122" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="123">
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>336.4441612522133</v>
+        <v>293.0810599467342</v>
       </c>
       <c r="C123" t="n">
-        <v>397957.2399999948</v>
+        <v>388144.4759206817</v>
       </c>
       <c r="D123" t="n">
         <v>6387.24</v>
       </c>
       <c r="E123" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="124">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>337.2080041429781</v>
+        <v>293.7464538213816</v>
       </c>
       <c r="C124" t="n">
-        <v>392981.6799999948</v>
+        <v>383087.8186968856</v>
       </c>
       <c r="D124" t="n">
         <v>6386.13</v>
       </c>
       <c r="E124" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="125">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>338.0824202130174</v>
+        <v>294.5081694882185</v>
       </c>
       <c r="C125" t="n">
-        <v>388006.1199999948</v>
+        <v>378031.1614730895</v>
       </c>
       <c r="D125" t="n">
         <v>5578.58</v>
       </c>
       <c r="E125" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="126">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>339.2043953308386</v>
+        <v>295.4855371903091</v>
       </c>
       <c r="C126" t="n">
-        <v>383030.5599999948</v>
+        <v>372974.5042492935</v>
       </c>
       <c r="D126" t="n">
         <v>4347.69</v>
       </c>
       <c r="E126" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="127">
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>340.4164821346155</v>
+        <v>296.5414024009765</v>
       </c>
       <c r="C127" t="n">
-        <v>378054.9999999948</v>
+        <v>367917.8470254974</v>
       </c>
       <c r="D127" t="n">
         <v>4024.464242</v>
       </c>
       <c r="E127" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="128">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>341.8420016322323</v>
+        <v>297.7831917183518</v>
       </c>
       <c r="C128" t="n">
-        <v>373079.4399999948</v>
+        <v>362861.1898017013</v>
       </c>
       <c r="D128" t="n">
         <v>3421.910404</v>
       </c>
       <c r="E128" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="129">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>343.345701909391</v>
+        <v>299.0930853703372</v>
       </c>
       <c r="C129" t="n">
-        <v>368103.8799999948</v>
+        <v>357804.5325779053</v>
       </c>
       <c r="D129" t="n">
         <v>3243.99754</v>
       </c>
       <c r="E129" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="130">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>344.5970860263564</v>
+        <v>300.1831830020979</v>
       </c>
       <c r="C130" t="n">
-        <v>363128.3199999948</v>
+        <v>352747.8753541092</v>
       </c>
       <c r="D130" t="n">
         <v>3898.083677</v>
       </c>
       <c r="E130" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="131">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>345.8375209050346</v>
+        <v>301.2637426042762</v>
       </c>
       <c r="C131" t="n">
-        <v>358152.7599999948</v>
+        <v>347691.2181303132</v>
       </c>
       <c r="D131" t="n">
         <v>3932.491809</v>
       </c>
       <c r="E131" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="132">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>347.1038846043542</v>
+        <v>302.3668891528544</v>
       </c>
       <c r="C132" t="n">
-        <v>353177.1999999948</v>
+        <v>342634.5609065171</v>
       </c>
       <c r="D132" t="n">
         <v>3851.973965</v>
       </c>
       <c r="E132" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="133">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>348.4269211092771</v>
+        <v>303.5194041490066</v>
       </c>
       <c r="C133" t="n">
-        <v>348201.6399999948</v>
+        <v>337577.903682721</v>
       </c>
       <c r="D133" t="n">
         <v>3686.973097</v>
       </c>
       <c r="E133" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="134">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>349.7624893939313</v>
+        <v>304.6828357480001</v>
       </c>
       <c r="C134" t="n">
-        <v>343226.0799999948</v>
+        <v>332521.246458925</v>
       </c>
       <c r="D134" t="n">
         <v>3652.377835</v>
       </c>
       <c r="E134" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="135">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>351.1175965366068</v>
+        <v>305.8632879105181</v>
       </c>
       <c r="C135" t="n">
-        <v>338250.5199999948</v>
+        <v>327464.5892351289</v>
       </c>
       <c r="D135" t="n">
         <v>3599.715363</v>
       </c>
       <c r="E135" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="136">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>352.5174598699986</v>
+        <v>307.082727796186</v>
       </c>
       <c r="C136" t="n">
-        <v>333274.9599999948</v>
+        <v>322407.9320113328</v>
       </c>
       <c r="D136" t="n">
         <v>3484.62588</v>
       </c>
       <c r="E136" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="137">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>353.8460410491209</v>
+        <v>308.2400728330362</v>
       </c>
       <c r="C137" t="n">
-        <v>328299.3999999948</v>
+        <v>317351.2747875368</v>
       </c>
       <c r="D137" t="n">
         <v>3671.585957</v>
       </c>
       <c r="E137" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="138">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>355.1953177669713</v>
+        <v>309.4154460336209</v>
       </c>
       <c r="C138" t="n">
-        <v>323323.8399999948</v>
+        <v>312294.6175637407</v>
       </c>
       <c r="D138" t="n">
         <v>3615.270267</v>
       </c>
       <c r="E138" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="139">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>356.4151482577809</v>
+        <v>310.4780568748113</v>
       </c>
       <c r="C139" t="n">
-        <v>318348.2799999948</v>
+        <v>307237.9603399446</v>
       </c>
       <c r="D139" t="n">
         <v>3998.916273</v>
       </c>
       <c r="E139" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="140">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>357.6804134626514</v>
+        <v>311.5802465100155</v>
       </c>
       <c r="C140" t="n">
-        <v>313372.7199999948</v>
+        <v>302181.3031161486</v>
       </c>
       <c r="D140" t="n">
         <v>3855.318222</v>
       </c>
       <c r="E140" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="141">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>358.9329321968152</v>
+        <v>312.6713325221656</v>
       </c>
       <c r="C141" t="n">
-        <v>308397.1599999948</v>
+        <v>297124.6458923525</v>
       </c>
       <c r="D141" t="n">
         <v>3894.552526</v>
       </c>
       <c r="E141" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="142">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>360.1635383807067</v>
+        <v>313.7433302153624</v>
       </c>
       <c r="C142" t="n">
-        <v>303421.5999999948</v>
+        <v>292067.9886685564</v>
       </c>
       <c r="D142" t="n">
         <v>3963.90012</v>
       </c>
       <c r="E142" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="143">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>361.3761527600391</v>
+        <v>314.7996550042328</v>
       </c>
       <c r="C143" t="n">
-        <v>298446.0399999948</v>
+        <v>287011.3314447604</v>
       </c>
       <c r="D143" t="n">
         <v>4022.713307</v>
       </c>
       <c r="E143" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="144">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>362.5681952054771</v>
+        <v>315.8380593032111</v>
       </c>
       <c r="C144" t="n">
-        <v>293470.4799999948</v>
+        <v>281954.6742209643</v>
       </c>
       <c r="D144" t="n">
         <v>4092.136164</v>
       </c>
       <c r="E144" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="145">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>363.5366685925623</v>
+        <v>316.6817095712398</v>
       </c>
       <c r="C145" t="n">
-        <v>288494.9199999948</v>
+        <v>276898.0169971682</v>
       </c>
       <c r="D145" t="n">
         <v>5036.793024</v>
       </c>
       <c r="E145" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="146">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>364.4952348749014</v>
+        <v>317.5167296263108</v>
       </c>
       <c r="C146" t="n">
-        <v>283519.3599999948</v>
+        <v>271841.3597733722</v>
       </c>
       <c r="D146" t="n">
         <v>5088.849973</v>
       </c>
       <c r="E146" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="147">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>365.4148902969449</v>
+        <v>318.3178539046311</v>
       </c>
       <c r="C147" t="n">
-        <v>278543.7999999948</v>
+        <v>266784.7025495761</v>
       </c>
       <c r="D147" t="n">
         <v>5304.16054</v>
       </c>
       <c r="E147" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="148">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>366.3388464790696</v>
+        <v>319.1227246332346</v>
       </c>
       <c r="C148" t="n">
-        <v>273568.2399999948</v>
+        <v>261728.0453257801</v>
       </c>
       <c r="D148" t="n">
         <v>5279.471142</v>
       </c>
       <c r="E148" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="149">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>367.1843706173015</v>
+        <v>319.8592721474528</v>
       </c>
       <c r="C149" t="n">
-        <v>268592.6799999948</v>
+        <v>256671.388101984</v>
       </c>
       <c r="D149" t="n">
         <v>5769.202533</v>
       </c>
       <c r="E149" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="150">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>367.9489873398732</v>
+        <v>320.5253401174548</v>
       </c>
       <c r="C150" t="n">
-        <v>263617.1199999948</v>
+        <v>251614.730878188</v>
       </c>
       <c r="D150" t="n">
         <v>6379.666905</v>
       </c>
       <c r="E150" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="151">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>368.6134143310301</v>
+        <v>321.1041314571551</v>
       </c>
       <c r="C151" t="n">
-        <v>258641.5599999948</v>
+        <v>246558.073654392</v>
       </c>
       <c r="D151" t="n">
         <v>7341.664419</v>
       </c>
       <c r="E151" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="152">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>369.2237834712511</v>
+        <v>321.6358322716646</v>
       </c>
       <c r="C152" t="n">
-        <v>253665.9999999948</v>
+        <v>241501.4164305959</v>
       </c>
       <c r="D152" t="n">
         <v>7991.885039</v>
       </c>
       <c r="E152" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="153">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>369.7927234277302</v>
+        <v>322.1314435638039</v>
       </c>
       <c r="C153" t="n">
-        <v>248690.4399999948</v>
+        <v>236444.7592067999</v>
       </c>
       <c r="D153" t="n">
         <v>8573.839725</v>
       </c>
       <c r="E153" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="154">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>370.3996833138593</v>
+        <v>322.6601745309569</v>
       </c>
       <c r="C154" t="n">
-        <v>243714.8799999948</v>
+        <v>231388.1019830039</v>
       </c>
       <c r="D154" t="n">
         <v>8036.774936</v>
       </c>
       <c r="E154" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="155">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>370.961034562515</v>
+        <v>323.1491751970588</v>
       </c>
       <c r="C155" t="n">
-        <v>238739.3199999948</v>
+        <v>226331.4447592078</v>
       </c>
       <c r="D155" t="n">
         <v>8689.746413999999</v>
       </c>
       <c r="E155" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="156">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>371.440401352123</v>
+        <v>323.5667580918806</v>
       </c>
       <c r="C156" t="n">
-        <v>233763.7599999948</v>
+        <v>221274.7875354118</v>
       </c>
       <c r="D156" t="n">
         <v>10175.92396</v>
       </c>
       <c r="E156" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="157">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>371.8337642225028</v>
+        <v>323.9094218092877</v>
       </c>
       <c r="C157" t="n">
-        <v>228788.1999999948</v>
+        <v>216218.1303116158</v>
       </c>
       <c r="D157" t="n">
         <v>12400.76369</v>
       </c>
       <c r="E157" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="158">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>372.2779236121646</v>
+        <v>324.2963350617658</v>
       </c>
       <c r="C158" t="n">
-        <v>223812.6399999948</v>
+        <v>211161.4730878197</v>
       </c>
       <c r="D158" t="n">
         <v>10982.54391</v>
       </c>
       <c r="E158" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="159">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>372.6908540638445</v>
+        <v>324.6560443639341</v>
       </c>
       <c r="C159" t="n">
-        <v>218837.0799999948</v>
+        <v>206104.8158640237</v>
       </c>
       <c r="D159" t="n">
         <v>11813.12732</v>
       </c>
       <c r="E159" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="160">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>373.1542859355117</v>
+        <v>325.059746136186</v>
       </c>
       <c r="C160" t="n">
-        <v>213861.5199999948</v>
+        <v>201048.1586402277</v>
       </c>
       <c r="D160" t="n">
         <v>10525.819</v>
       </c>
       <c r="E160" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="161">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>373.6484525312932</v>
+        <v>325.4902213423625</v>
       </c>
       <c r="C161" t="n">
-        <v>208885.9599999948</v>
+        <v>195991.5014164316</v>
       </c>
       <c r="D161" t="n">
         <v>9871.164991</v>
       </c>
       <c r="E161" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="162">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>374.1121725544448</v>
+        <v>325.8941741272703</v>
       </c>
       <c r="C162" t="n">
-        <v>203910.3999999948</v>
+        <v>190934.8441926356</v>
       </c>
       <c r="D162" t="n">
         <v>10519.27835</v>
       </c>
       <c r="E162" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="163">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>374.5234170582965</v>
+        <v>326.2524147774797</v>
       </c>
       <c r="C163" t="n">
-        <v>198934.8399999948</v>
+        <v>185878.1869688396</v>
       </c>
       <c r="D163" t="n">
         <v>11861.5567</v>
       </c>
       <c r="E163" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="164">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>374.9943245453118</v>
+        <v>326.6626286593839</v>
       </c>
       <c r="C164" t="n">
-        <v>193959.2799999948</v>
+        <v>180821.5297450435</v>
       </c>
       <c r="D164" t="n">
         <v>10358.72254</v>
       </c>
       <c r="E164" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="165">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>375.4630185064235</v>
+        <v>327.0709143089312</v>
       </c>
       <c r="C165" t="n">
-        <v>188983.7199999948</v>
+        <v>175764.8725212475</v>
       </c>
       <c r="D165" t="n">
         <v>10407.64423</v>
       </c>
       <c r="E165" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="166">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>375.971273776061</v>
+        <v>327.5136623494811</v>
       </c>
       <c r="C166" t="n">
-        <v>184008.1599999949</v>
+        <v>170708.2152974514</v>
       </c>
       <c r="D166" t="n">
         <v>9597.539448</v>
       </c>
       <c r="E166" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="167">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>376.4423991608783</v>
+        <v>327.9240660451083</v>
       </c>
       <c r="C167" t="n">
-        <v>179032.5999999949</v>
+        <v>165651.5580736554</v>
       </c>
       <c r="D167" t="n">
         <v>10353.93158</v>
       </c>
       <c r="E167" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="168">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>376.9139128990719</v>
+        <v>328.3348080406148</v>
       </c>
       <c r="C168" t="n">
-        <v>174057.0399999949</v>
+        <v>160594.9008498594</v>
       </c>
       <c r="D168" t="n">
         <v>10345.40376</v>
       </c>
       <c r="E168" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="169">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>377.3929160963643</v>
+        <v>328.7520742052521</v>
       </c>
       <c r="C169" t="n">
-        <v>169081.4799999949</v>
+        <v>155538.2436260633</v>
       </c>
       <c r="D169" t="n">
         <v>10183.6481</v>
       </c>
       <c r="E169" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="170">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>377.9840975579029</v>
+        <v>329.2670603733096</v>
       </c>
       <c r="C170" t="n">
-        <v>164105.9199999949</v>
+        <v>150481.5864022673</v>
       </c>
       <c r="D170" t="n">
         <v>8251.273622999999</v>
       </c>
       <c r="E170" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="171">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>378.5782402397639</v>
+        <v>329.7846261004464</v>
       </c>
       <c r="C171" t="n">
-        <v>159130.3599999949</v>
+        <v>145424.9291784713</v>
       </c>
       <c r="D171" t="n">
         <v>8210.149092</v>
       </c>
       <c r="E171" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="172">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>379.1648439814433</v>
+        <v>330.2956245548116</v>
       </c>
       <c r="C172" t="n">
-        <v>154154.7999999949</v>
+        <v>140368.2719546752</v>
       </c>
       <c r="D172" t="n">
         <v>8315.664653</v>
       </c>
       <c r="E172" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="173">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>379.7765971850493</v>
+        <v>330.8285310456579</v>
       </c>
       <c r="C173" t="n">
-        <v>149179.2399999949</v>
+        <v>135311.6147308792</v>
       </c>
       <c r="D173" t="n">
         <v>7973.803768</v>
       </c>
       <c r="E173" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="174">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>380.3393842145464</v>
+        <v>331.3187824398727</v>
       </c>
       <c r="C174" t="n">
-        <v>144203.6799999949</v>
+        <v>130254.9575070832</v>
       </c>
       <c r="D174" t="n">
         <v>8667.577155000001</v>
       </c>
       <c r="E174" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="175">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>380.8661784167885</v>
+        <v>331.7776799953905</v>
       </c>
       <c r="C175" t="n">
-        <v>139228.1199999949</v>
+        <v>125198.3002832871</v>
       </c>
       <c r="D175" t="n">
         <v>9259.783003</v>
       </c>
       <c r="E175" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="176">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>381.4199007683131</v>
+        <v>332.2600350260055</v>
       </c>
       <c r="C176" t="n">
-        <v>134252.5599999949</v>
+        <v>120141.6430594911</v>
       </c>
       <c r="D176" t="n">
         <v>8809.469198000001</v>
       </c>
       <c r="E176" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="177">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>381.9943801528747</v>
+        <v>332.7604717888793</v>
       </c>
       <c r="C177" t="n">
-        <v>129276.9999999949</v>
+        <v>115084.9858356951</v>
       </c>
       <c r="D177" t="n">
         <v>8491.166316999999</v>
       </c>
       <c r="E177" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="178">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>382.6629506120718</v>
+        <v>333.342872559638</v>
       </c>
       <c r="C178" t="n">
-        <v>124301.4399999949</v>
+        <v>110028.328611899</v>
       </c>
       <c r="D178" t="n">
         <v>7296.164425</v>
       </c>
       <c r="E178" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="179">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>383.2912303677963</v>
+        <v>333.8901755535894</v>
       </c>
       <c r="C179" t="n">
-        <v>119325.8799999949</v>
+        <v>104971.671388103</v>
       </c>
       <c r="D179" t="n">
         <v>7764.057262</v>
       </c>
       <c r="E179" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="180">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>383.9375571780616</v>
+        <v>334.4531995808738</v>
       </c>
       <c r="C180" t="n">
-        <v>114350.3199999949</v>
+        <v>99915.01416430695</v>
       </c>
       <c r="D180" t="n">
         <v>7547.265443</v>
       </c>
       <c r="E180" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="181">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>384.6086350825639</v>
+        <v>335.0377846211561</v>
       </c>
       <c r="C181" t="n">
-        <v>109374.7599999949</v>
+        <v>94858.35694051092</v>
       </c>
       <c r="D181" t="n">
         <v>7268.902712</v>
       </c>
       <c r="E181" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="182">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>385.2842028131383</v>
+        <v>335.6262808096636</v>
       </c>
       <c r="C182" t="n">
-        <v>104399.1999999949</v>
+        <v>89801.69971671488</v>
       </c>
       <c r="D182" t="n">
         <v>7220.593553</v>
       </c>
       <c r="E182" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="183">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>385.9534275582383</v>
+        <v>336.2092515377229</v>
       </c>
       <c r="C183" t="n">
-        <v>99423.63999999489</v>
+        <v>84745.04249291884</v>
       </c>
       <c r="D183" t="n">
         <v>7289.03113</v>
       </c>
       <c r="E183" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="184">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>386.6175188833748</v>
+        <v>336.7877504742122</v>
       </c>
       <c r="C184" t="n">
-        <v>94448.07999999489</v>
+        <v>79688.38526912281</v>
       </c>
       <c r="D184" t="n">
         <v>7345.375275</v>
       </c>
       <c r="E184" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="185">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>387.2151525233529</v>
+        <v>337.3083572221869</v>
       </c>
       <c r="C185" t="n">
-        <v>89472.5199999949</v>
+        <v>74631.72804532677</v>
       </c>
       <c r="D185" t="n">
         <v>8162.191138</v>
       </c>
       <c r="E185" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="186">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>387.7615717030398</v>
+        <v>337.7843503610241</v>
       </c>
       <c r="C186" t="n">
-        <v>84496.9599999949</v>
+        <v>69575.07082153074</v>
       </c>
       <c r="D186" t="n">
         <v>8927.21226</v>
       </c>
       <c r="E186" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="187">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>388.3395255992753</v>
+        <v>338.2878138180167</v>
       </c>
       <c r="C187" t="n">
-        <v>79521.3999999949</v>
+        <v>64518.4135977347</v>
       </c>
       <c r="D187" t="n">
         <v>8440.119586999999</v>
       </c>
       <c r="E187" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="188">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>388.861440145471</v>
+        <v>338.7424606391455</v>
       </c>
       <c r="C188" t="n">
-        <v>74545.8399999949</v>
+        <v>59461.75637393867</v>
       </c>
       <c r="D188" t="n">
         <v>9346.357628</v>
       </c>
       <c r="E188" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="189">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>389.3595474591933</v>
+        <v>339.1763686580263</v>
       </c>
       <c r="C189" t="n">
-        <v>69570.27999999491</v>
+        <v>54405.09915014263</v>
       </c>
       <c r="D189" t="n">
         <v>9793.07042</v>
       </c>
       <c r="E189" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="190">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>389.8325034130788</v>
+        <v>339.5883669871307</v>
       </c>
       <c r="C190" t="n">
-        <v>64594.71999999491</v>
+        <v>49348.4419263466</v>
       </c>
       <c r="D190" t="n">
         <v>10313.85684</v>
       </c>
       <c r="E190" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="191">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>390.3360281502375</v>
+        <v>340.0269941968485</v>
       </c>
       <c r="C191" t="n">
-        <v>59619.15999999491</v>
+        <v>44291.78470255056</v>
       </c>
       <c r="D191" t="n">
         <v>9687.706759999999</v>
       </c>
       <c r="E191" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="192">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>390.8985792324965</v>
+        <v>340.5170400542324</v>
       </c>
       <c r="C192" t="n">
-        <v>54643.59999999491</v>
+        <v>39235.12747875453</v>
       </c>
       <c r="D192" t="n">
         <v>8671.212541999999</v>
       </c>
       <c r="E192" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="193">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>391.4333538020195</v>
+        <v>340.9828894156391</v>
       </c>
       <c r="C193" t="n">
-        <v>49668.03999999491</v>
+        <v>34178.47025495849</v>
       </c>
       <c r="D193" t="n">
         <v>9121.600536</v>
       </c>
       <c r="E193" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="194">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>392.3086331909582</v>
+        <v>341.7453571312473</v>
       </c>
       <c r="C194" t="n">
-        <v>44692.47999999492</v>
+        <v>29121.81303116246</v>
       </c>
       <c r="D194" t="n">
         <v>5573.07765</v>
       </c>
       <c r="E194" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="195">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>393.0945806628405</v>
+        <v>342.4300066055148</v>
       </c>
       <c r="C195" t="n">
-        <v>39716.91999999492</v>
+        <v>24065.15580736643</v>
       </c>
       <c r="D195" t="n">
         <v>6206.52165</v>
       </c>
       <c r="E195" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="196">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>393.8488420487864</v>
+        <v>343.0870539017055</v>
       </c>
       <c r="C196" t="n">
-        <v>34741.35999999492</v>
+        <v>19008.4985835704</v>
       </c>
       <c r="D196" t="n">
         <v>6467.254046</v>
       </c>
       <c r="E196" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="197">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>394.5727545936093</v>
+        <v>343.7176639118653</v>
       </c>
       <c r="C197" t="n">
-        <v>29765.79999999492</v>
+        <v>13951.84135977436</v>
       </c>
       <c r="D197" t="n">
         <v>6738.38302</v>
       </c>
       <c r="E197" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="198">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>395.2830629004807</v>
+        <v>344.3364230863208</v>
       </c>
       <c r="C198" t="n">
-        <v>24790.23999999492</v>
+        <v>8895.184135978327</v>
       </c>
       <c r="D198" t="n">
         <v>6867.440452</v>
       </c>
       <c r="E198" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="199">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>395.9708518871828</v>
+        <v>344.9355653763582</v>
       </c>
       <c r="C199" t="n">
-        <v>19814.67999999492</v>
+        <v>3838.526912182293</v>
       </c>
       <c r="D199" t="n">
         <v>7092.291523</v>
       </c>
       <c r="E199" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="200">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>396.6169032712131</v>
+        <v>345.4983494761236</v>
       </c>
       <c r="C200" t="n">
-        <v>14839.11999999492</v>
+        <v>-1218.130311613741</v>
       </c>
       <c r="D200" t="n">
         <v>7550.483012</v>
       </c>
       <c r="E200" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="201">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>397.1669053356433</v>
+        <v>345.9774637143263</v>
       </c>
       <c r="C201" t="n">
-        <v>9863.559999994919</v>
+        <v>-6274.787535409775</v>
       </c>
       <c r="D201" t="n">
         <v>8869.057618999999</v>
       </c>
       <c r="E201" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="202">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>397.6625913842303</v>
+        <v>346.4092625363953</v>
       </c>
       <c r="C202" t="n">
-        <v>4887.999999994919</v>
+        <v>-11331.44475920581</v>
       </c>
       <c r="D202" t="n">
         <v>9840.906384</v>
       </c>
       <c r="E202" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
     <row r="203">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>398.1852394749658</v>
+        <v>346.8645483580954</v>
       </c>
       <c r="C203" t="n">
-        <v>-87.56000000508135</v>
+        <v>-16388.10198300184</v>
       </c>
       <c r="D203" t="n">
         <v>9333.239873</v>
       </c>
       <c r="E203" t="n">
-        <v>97.56</v>
+        <v>99.15014164305948</v>
       </c>
     </row>
   </sheetData>
@@ -4309,7 +4309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4340,7 +4340,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>percent_changes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transaction_fee</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>bitcoin_change</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cash_change</t>
         </is>
       </c>
     </row>
@@ -4360,6 +4375,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4377,7 +4401,16 @@
         <v>663.7810059</v>
       </c>
       <c r="E3" t="n">
+        <v>-0.003906105801744624</v>
+      </c>
+      <c r="F3" t="n">
         <v>78.12211603489249</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-5.884630272673224</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-3906.105801744624</v>
       </c>
     </row>
     <row r="4">
@@ -4396,7 +4429,16 @@
         <v>650.7260132</v>
       </c>
       <c r="E4" t="n">
+        <v>-0.01966762016984668</v>
+      </c>
+      <c r="F4" t="n">
         <v>391.7851977697939</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-30.10369877816603</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-19589.25988848969</v>
       </c>
     </row>
     <row r="5">
@@ -4406,16 +4448,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-21.63776735828193</v>
+        <v>-35.98832905083925</v>
       </c>
       <c r="C5" t="n">
-        <v>985274.6487460554</v>
+        <v>976034.726995961</v>
       </c>
       <c r="D5" t="n">
         <v>657.0120239</v>
       </c>
       <c r="E5" t="n">
+        <v>0.009659996023653692</v>
+      </c>
+      <c r="F5" t="n">
         <v>188.569831634578</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9428.4915817289</v>
       </c>
     </row>
     <row r="6">
@@ -4425,16 +4476,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-235.4398573015509</v>
+        <v>-247.7853795022298</v>
       </c>
       <c r="C6" t="n">
-        <v>859873.1742606867</v>
+        <v>851809.26958671</v>
       </c>
       <c r="D6" t="n">
         <v>575.0300293</v>
       </c>
       <c r="E6" t="n">
-        <v>2458.852440889583</v>
+        <v>-0.124780052141752</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2435.793282534334</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-211.7970504513905</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-121789.6641267167</v>
       </c>
     </row>
     <row r="7">
@@ -4444,16 +4504,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-204.0566082169389</v>
+        <v>-247.7853795022298</v>
       </c>
       <c r="C7" t="n">
-        <v>877937.6817065453</v>
+        <v>851809.26958671</v>
       </c>
       <c r="D7" t="n">
         <v>587.3569946</v>
       </c>
       <c r="E7" t="n">
-        <v>368.6634172624182</v>
+        <v>0.02143708097298143</v>
+      </c>
+      <c r="F7" t="n">
+        <v>365.2060857133294</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18260.30428566647</v>
       </c>
     </row>
     <row r="8">
@@ -4463,16 +4532,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-233.30591940174</v>
+        <v>-276.1641983129341</v>
       </c>
       <c r="C8" t="n">
-        <v>860750.6207836836</v>
+        <v>835133.7149134132</v>
       </c>
       <c r="D8" t="n">
         <v>576.0839844</v>
       </c>
       <c r="E8" t="n">
-        <v>337.0011945659148</v>
+        <v>-0.01919277424741856</v>
+      </c>
+      <c r="F8" t="n">
+        <v>326.9716602607245</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-28.37881881070434</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-16348.58301303622</v>
       </c>
     </row>
     <row r="9">
@@ -4482,16 +4560,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-224.6212847013958</v>
+        <v>-276.1641983129341</v>
       </c>
       <c r="C9" t="n">
-        <v>865682.3033758288</v>
+        <v>835133.7149134132</v>
       </c>
       <c r="D9" t="n">
         <v>579.4520264</v>
       </c>
       <c r="E9" t="n">
-        <v>100.646583513165</v>
+        <v>0.005846442691004377</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.65122807133716</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4882.561403566858</v>
       </c>
     </row>
     <row r="10">
@@ -4501,16 +4588,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-234.736808808765</v>
+        <v>-285.9227612327723</v>
       </c>
       <c r="C10" t="n">
-        <v>859743.8221639798</v>
+        <v>829404.7935111213</v>
       </c>
       <c r="D10" t="n">
         <v>575.5549927</v>
       </c>
       <c r="E10" t="n">
-        <v>116.4408080754719</v>
+        <v>-0.006725377636888121</v>
+      </c>
+      <c r="F10" t="n">
+        <v>112.3317922017994</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-9.758562919838207</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-5616.589610089969</v>
       </c>
     </row>
     <row r="11">
@@ -4520,16 +4616,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-121.1398021991786</v>
+        <v>-285.9227612327723</v>
       </c>
       <c r="C11" t="n">
-        <v>929091.2120721939</v>
+        <v>829404.7935111213</v>
       </c>
       <c r="D11" t="n">
         <v>622.927002</v>
       </c>
       <c r="E11" t="n">
-        <v>1415.252855269677</v>
+        <v>0.08230666035537643</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1365.31077273282</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>68265.53863664098</v>
       </c>
     </row>
     <row r="12">
@@ -4539,16 +4644,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-159.7253485868958</v>
+        <v>-320.3682889897732</v>
       </c>
       <c r="C12" t="n">
-        <v>905192.7763069202</v>
+        <v>808070.5295297336</v>
       </c>
       <c r="D12" t="n">
         <v>607.2180176000001</v>
       </c>
       <c r="E12" t="n">
-        <v>468.5967797112494</v>
+        <v>-0.02521801808167558</v>
+      </c>
+      <c r="F12" t="n">
+        <v>418.3189015958372</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-34.4455277570009</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-20915.94507979186</v>
       </c>
     </row>
     <row r="13">
@@ -4558,16 +4672,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-170.250123270748</v>
+        <v>-329.7638127661117</v>
       </c>
       <c r="C13" t="n">
-        <v>898719.82708151</v>
+        <v>802292.0924441698</v>
       </c>
       <c r="D13" t="n">
         <v>602.9609985</v>
       </c>
       <c r="E13" t="n">
-        <v>126.9205730472603</v>
+        <v>-0.007010692991004707</v>
+      </c>
+      <c r="F13" t="n">
+        <v>113.3026879522313</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-9.395523776338521</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-5665.134397611565</v>
       </c>
     </row>
     <row r="14">
@@ -4577,16 +4700,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-153.2220682038693</v>
+        <v>-329.7638127661117</v>
       </c>
       <c r="C14" t="n">
-        <v>908898.0138570871</v>
+        <v>802292.0924441698</v>
       </c>
       <c r="D14" t="n">
         <v>609.9290161</v>
       </c>
       <c r="E14" t="n">
-        <v>207.7180974607586</v>
+        <v>0.01155633219616949</v>
+      </c>
+      <c r="F14" t="n">
+        <v>185.4310787728949</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9271.553938644747</v>
       </c>
     </row>
     <row r="15">
@@ -4596,16 +4728,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-135.3306238137705</v>
+        <v>-329.7638127661117</v>
       </c>
       <c r="C15" t="n">
-        <v>919722.2336445048</v>
+        <v>802292.0924441698</v>
       </c>
       <c r="D15" t="n">
         <v>617.3410034</v>
       </c>
       <c r="E15" t="n">
-        <v>220.902444641178</v>
+        <v>0.01215221296962324</v>
+      </c>
+      <c r="F15" t="n">
+        <v>194.9924874245242</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9749.624371226211</v>
       </c>
     </row>
     <row r="16">
@@ -4615,16 +4756,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-81.8863650622439</v>
+        <v>-329.7638127661117</v>
       </c>
       <c r="C16" t="n">
-        <v>953258.7601181223</v>
+        <v>802292.0924441698</v>
       </c>
       <c r="D16" t="n">
         <v>640.3109741</v>
       </c>
       <c r="E16" t="n">
-        <v>684.418907624849</v>
+        <v>0.0372079135736863</v>
+      </c>
+      <c r="F16" t="n">
+        <v>597.032296730292</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>29851.6148365146</v>
       </c>
     </row>
     <row r="17">
@@ -4634,16 +4784,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-98.7574894755771</v>
+        <v>-343.9630735269378</v>
       </c>
       <c r="C17" t="n">
-        <v>942363.4098027881</v>
+        <v>793122.2282183026</v>
       </c>
       <c r="D17" t="n">
         <v>633.1359863</v>
       </c>
       <c r="E17" t="n">
-        <v>213.6343199085145</v>
+        <v>-0.01120547373108022</v>
+      </c>
+      <c r="F17" t="n">
+        <v>179.8012593307307</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-14.19926076082612</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-8990.062966536532</v>
       </c>
     </row>
     <row r="18">
@@ -4653,16 +4812,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24.47624504338205</v>
+        <v>-343.9630735269378</v>
       </c>
       <c r="C18" t="n">
-        <v>1025728.963523952</v>
+        <v>793122.2282183026</v>
       </c>
       <c r="D18" t="n">
         <v>690.2890015</v>
       </c>
       <c r="E18" t="n">
-        <v>1701.337831044168</v>
+        <v>0.09026973104782439</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1431.898604586347</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>71594.93022931737</v>
       </c>
     </row>
     <row r="19">
@@ -4672,16 +4840,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.43254071931303</v>
+        <v>-343.9630735269378</v>
       </c>
       <c r="C19" t="n">
-        <v>1045003.558049544</v>
+        <v>793122.2282183026</v>
       </c>
       <c r="D19" t="n">
         <v>703.5250244</v>
       </c>
       <c r="E19" t="n">
-        <v>393.3590719508592</v>
+        <v>0.01917461073729706</v>
+      </c>
+      <c r="F19" t="n">
+        <v>304.1561998636727</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15207.80999318363</v>
       </c>
     </row>
     <row r="20">
@@ -4691,16 +4868,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79.84388383217927</v>
+        <v>-343.9630735269378</v>
       </c>
       <c r="C20" t="n">
-        <v>1064257.750729857</v>
+        <v>793122.2282183026</v>
       </c>
       <c r="D20" t="n">
         <v>716.7520142</v>
       </c>
       <c r="E20" t="n">
-        <v>392.9427077614834</v>
+        <v>0.0188010224814399</v>
+      </c>
+      <c r="F20" t="n">
+        <v>298.2301768652403</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>14911.50884326202</v>
       </c>
     </row>
     <row r="21">
@@ -4710,16 +4896,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>149.1271569055426</v>
+        <v>-343.9630735269378</v>
       </c>
       <c r="C21" t="n">
-        <v>1115305.413283133</v>
+        <v>793122.2282183026</v>
       </c>
       <c r="D21" t="n">
         <v>751.8330078</v>
       </c>
       <c r="E21" t="n">
-        <v>1041.78903169951</v>
+        <v>0.04894439486041148</v>
+      </c>
+      <c r="F21" t="n">
+        <v>776.3777502097198</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>38818.88751048599</v>
       </c>
     </row>
     <row r="22">
@@ -4729,16 +4924,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>128.4771790238767</v>
+        <v>-358.6478013827398</v>
       </c>
       <c r="C22" t="n">
-        <v>1099686.984107704</v>
+        <v>782015.5634416817</v>
       </c>
       <c r="D22" t="n">
         <v>741.5109863</v>
       </c>
       <c r="E22" t="n">
-        <v>306.2437093221458</v>
+        <v>-0.01372914116953194</v>
+      </c>
+      <c r="F22" t="n">
+        <v>217.7777407180561</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-14.68472785580197</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-10888.8870359028</v>
       </c>
     </row>
     <row r="23">
@@ -4748,16 +4952,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>198.4834866092177</v>
+        <v>-358.6478013827398</v>
       </c>
       <c r="C23" t="n">
-        <v>1153079.606621859</v>
+        <v>782015.5634416817</v>
       </c>
       <c r="D23" t="n">
         <v>778.2479858</v>
       </c>
       <c r="E23" t="n">
-        <v>1089.645357431739</v>
+        <v>0.04954343250301756</v>
+      </c>
+      <c r="F23" t="n">
+        <v>774.874705673644</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>38743.7352836822</v>
       </c>
     </row>
     <row r="24">
@@ -4767,16 +4980,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>188.4688977890914</v>
+        <v>-365.4396692415008</v>
       </c>
       <c r="C24" t="n">
-        <v>1145183.268873275</v>
+        <v>776660.2879011877</v>
       </c>
       <c r="D24" t="n">
         <v>773.0230103</v>
       </c>
       <c r="E24" t="n">
-        <v>154.8301519330159</v>
+        <v>-0.006713766813837641</v>
+      </c>
+      <c r="F24" t="n">
+        <v>105.0054027547861</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-6.791867858761082</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-5250.270137739307</v>
       </c>
     </row>
     <row r="25">
@@ -4786,16 +5008,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.3800675680051</v>
+        <v>-365.4396692415008</v>
       </c>
       <c r="C25" t="n">
-        <v>1162812.559323559</v>
+        <v>776660.2879011877</v>
       </c>
       <c r="D25" t="n">
         <v>785.1660156</v>
       </c>
       <c r="E25" t="n">
-        <v>359.7814377608969</v>
+        <v>0.01570846551551873</v>
+      </c>
+      <c r="F25" t="n">
+        <v>244.002826995373</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12200.14134976865</v>
       </c>
     </row>
     <row r="26">
@@ -4805,16 +5036,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>431.4179198054077</v>
+        <v>-365.4396692415008</v>
       </c>
       <c r="C26" t="n">
-        <v>1361668.77419417</v>
+        <v>776660.2879011877</v>
       </c>
       <c r="D26" t="n">
         <v>922.1799927</v>
       </c>
       <c r="E26" t="n">
-        <v>4058.290099400232</v>
+        <v>0.1745031934364836</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2710.59400908112</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>135529.700454056</v>
       </c>
     </row>
     <row r="27">
@@ -4824,16 +5064,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>490.5146820568746</v>
+        <v>-365.4396692415008</v>
       </c>
       <c r="C27" t="n">
-        <v>1417303.321539273</v>
+        <v>776660.2879011877</v>
       </c>
       <c r="D27" t="n">
         <v>960.6270142</v>
       </c>
       <c r="E27" t="n">
-        <v>1135.398925410278</v>
+        <v>0.04169145048076037</v>
+      </c>
+      <c r="F27" t="n">
+        <v>647.6018786681092</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>32380.09393340546</v>
       </c>
     </row>
     <row r="28">
@@ -4843,16 +5092,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>397.2050558930028</v>
+        <v>-416.5719004435546</v>
       </c>
       <c r="C28" t="n">
-        <v>1331313.206688665</v>
+        <v>729539.0356317742</v>
       </c>
       <c r="D28" t="n">
         <v>903.4869995</v>
       </c>
       <c r="E28" t="n">
-        <v>1686.080683345264</v>
+        <v>-0.05948199858566911</v>
+      </c>
+      <c r="F28" t="n">
+        <v>923.9461229296762</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-51.13223120205374</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-46197.30614648381</v>
       </c>
     </row>
     <row r="29">
@@ -4862,16 +5120,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>257.2976363951423</v>
+        <v>-493.239001307122</v>
       </c>
       <c r="C29" t="n">
-        <v>1213560.844880655</v>
+        <v>665012.5635400204</v>
       </c>
       <c r="D29" t="n">
         <v>825.1420288</v>
       </c>
       <c r="E29" t="n">
-        <v>2308.869839372746</v>
+        <v>-0.08671399892124289</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1265.224942975565</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-76.66710086356741</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-63261.24714877825</v>
       </c>
     </row>
     <row r="30">
@@ -4881,16 +5148,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>372.9246261950365</v>
+        <v>-493.239001307122</v>
       </c>
       <c r="C30" t="n">
-        <v>1315039.488536316</v>
+        <v>665012.5635400204</v>
       </c>
       <c r="D30" t="n">
         <v>895.5490112</v>
       </c>
       <c r="E30" t="n">
-        <v>2070.992727666554</v>
+        <v>0.08532710726466385</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1134.871966830568</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>56743.5983415284</v>
       </c>
     </row>
     <row r="31">
@@ -4900,16 +5176,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>411.6572379858974</v>
+        <v>-493.239001307122</v>
       </c>
       <c r="C31" t="n">
-        <v>1349953.636289489</v>
+        <v>665012.5635400204</v>
       </c>
       <c r="D31" t="n">
         <v>919.8109741</v>
       </c>
       <c r="E31" t="n">
-        <v>712.5336276157796</v>
+        <v>0.02709171982389874</v>
+      </c>
+      <c r="F31" t="n">
+        <v>360.3266810159779</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>18016.33405079889</v>
       </c>
     </row>
     <row r="32">
@@ -4919,16 +5204,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>570.3552292910422</v>
+        <v>-493.239001307122</v>
       </c>
       <c r="C32" t="n">
-        <v>1510350.228831712</v>
+        <v>665012.5635400204</v>
       </c>
       <c r="D32" t="n">
         <v>1031.329956</v>
       </c>
       <c r="E32" t="n">
-        <v>3273.399847800465</v>
+        <v>0.1212411952457049</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1612.538361140047</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>80626.91805700233</v>
       </c>
     </row>
     <row r="33">
@@ -4938,16 +5232,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>507.5173561988371</v>
+        <v>-520.9067397394018</v>
       </c>
       <c r="C33" t="n">
-        <v>1446967.176205899</v>
+        <v>637104.7806251344</v>
       </c>
       <c r="D33" t="n">
         <v>988.8980103</v>
       </c>
       <c r="E33" t="n">
-        <v>1242.80495344731</v>
+        <v>-0.04114293922438924</v>
+      </c>
+      <c r="F33" t="n">
+        <v>547.2114297036469</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-27.66773843227981</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-27360.57148518235</v>
       </c>
     </row>
     <row r="34">
@@ -4957,16 +5260,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>591.6274556804171</v>
+        <v>-520.9067397394018</v>
       </c>
       <c r="C34" t="n">
-        <v>1533451.347318739</v>
+        <v>637104.7806251344</v>
       </c>
       <c r="D34" t="n">
         <v>1049.209961</v>
       </c>
       <c r="E34" t="n">
-        <v>1764.983083935495</v>
+        <v>0.06098905051058126</v>
+      </c>
+      <c r="F34" t="n">
+        <v>777.1283129215823</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>38856.41564607911</v>
       </c>
     </row>
     <row r="35">
@@ -4976,16 +5288,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>742.9739763799656</v>
+        <v>-520.9067397394018</v>
       </c>
       <c r="C35" t="n">
-        <v>1707046.084027724</v>
+        <v>637104.7806251344</v>
       </c>
       <c r="D35" t="n">
         <v>1170.410034</v>
       </c>
       <c r="E35" t="n">
-        <v>3542.749728754804</v>
+        <v>0.1155155569477099</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1471.910271359219</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>73595.51356796092</v>
       </c>
     </row>
     <row r="36">
@@ -4995,16 +5316,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>865.163819585857</v>
+        <v>-520.9067397394018</v>
       </c>
       <c r="C36" t="n">
-        <v>1860013.282472382</v>
+        <v>637104.7806251344</v>
       </c>
       <c r="D36" t="n">
         <v>1277.430054</v>
       </c>
       <c r="E36" t="n">
-        <v>3121.779560095067</v>
+        <v>0.09143805751070648</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1165.112471422942</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>58255.62357114707</v>
       </c>
     </row>
     <row r="37">
@@ -5014,16 +5344,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>655.0217427150178</v>
+        <v>-592.8860761487341</v>
       </c>
       <c r="C37" t="n">
-        <v>1620735.774729504</v>
+        <v>555145.772312881</v>
       </c>
       <c r="D37" t="n">
         <v>1116.319946</v>
       </c>
       <c r="E37" t="n">
-        <v>4691.715838095661</v>
+        <v>-0.1261204928563547</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1607.039378671634</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-71.97933640933233</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-80351.96893358171</v>
       </c>
     </row>
     <row r="38">
@@ -5033,16 +5372,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>633.0661249622051</v>
+        <v>-600.4064681608286</v>
       </c>
       <c r="C38" t="n">
-        <v>1596108.51529847</v>
+        <v>546710.2708758423</v>
       </c>
       <c r="D38" t="n">
         <v>1099.689941</v>
       </c>
       <c r="E38" t="n">
-        <v>482.8874398241826</v>
+        <v>-0.01489716730368265</v>
+      </c>
+      <c r="F38" t="n">
+        <v>165.4019889615421</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-7.520392012094527</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-8270.099448077102</v>
       </c>
     </row>
     <row r="39">
@@ -5052,16 +5400,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>380.2220267896485</v>
+        <v>-687.012400073564</v>
       </c>
       <c r="C39" t="n">
-        <v>1354573.937035715</v>
+        <v>463978.1549562552</v>
       </c>
       <c r="D39" t="n">
         <v>936.539978</v>
       </c>
       <c r="E39" t="n">
-        <v>4735.972122799119</v>
+        <v>-0.1483599666753704</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1622.198351364454</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-86.60593191273539</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-81109.91756822269</v>
       </c>
     </row>
     <row r="40">
@@ -5071,16 +5428,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.6449397414527</v>
+        <v>-687.012400073564</v>
       </c>
       <c r="C40" t="n">
-        <v>1546168.300902298</v>
+        <v>463978.1549562552</v>
       </c>
       <c r="D40" t="n">
         <v>1071.709961</v>
       </c>
       <c r="E40" t="n">
-        <v>3910.08905850169</v>
+        <v>0.1443291115971987</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1339.311098106874</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>66965.5549053437</v>
       </c>
     </row>
     <row r="41">
@@ -5090,16 +5456,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>686.8315155999924</v>
+        <v>-687.012400073564</v>
       </c>
       <c r="C41" t="n">
-        <v>1688883.144240072</v>
+        <v>463978.1549562552</v>
       </c>
       <c r="D41" t="n">
         <v>1172.650024</v>
       </c>
       <c r="E41" t="n">
-        <v>2912.547823219886</v>
+        <v>0.09418598937516082</v>
+      </c>
+      <c r="F41" t="n">
+        <v>874.0048314603314</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>43700.24157301657</v>
       </c>
     </row>
     <row r="42">
@@ -5109,16 +5484,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>680.2306569435732</v>
+        <v>-688.825819925007</v>
       </c>
       <c r="C42" t="n">
-        <v>1681023.85795433</v>
+        <v>461819.0137731792</v>
       </c>
       <c r="D42" t="n">
         <v>1167.300049</v>
       </c>
       <c r="E42" t="n">
-        <v>154.1036526616048</v>
+        <v>-0.004562294708996727</v>
+      </c>
+      <c r="F42" t="n">
+        <v>42.33610162893973</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1.813419851443</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-2116.805081446987</v>
       </c>
     </row>
     <row r="43">
@@ -5128,16 +5512,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>745.4919062981846</v>
+        <v>-688.825819925007</v>
       </c>
       <c r="C43" t="n">
-        <v>1759223.526014455</v>
+        <v>461819.0137731792</v>
       </c>
       <c r="D43" t="n">
         <v>1222.709961</v>
       </c>
       <c r="E43" t="n">
-        <v>1595.911593063765</v>
+        <v>0.04746843971048276</v>
+      </c>
+      <c r="F43" t="n">
+        <v>438.4365602489353</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>21921.82801244677</v>
       </c>
     </row>
     <row r="44">
@@ -5147,16 +5540,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>849.3528870473035</v>
+        <v>-688.825819925007</v>
       </c>
       <c r="C44" t="n">
-        <v>1893358.234326818</v>
+        <v>461819.0137731792</v>
       </c>
       <c r="D44" t="n">
         <v>1317.839966</v>
       </c>
       <c r="E44" t="n">
-        <v>2737.44302678291</v>
+        <v>0.07780259262973321</v>
+      </c>
+      <c r="F44" t="n">
+        <v>718.6143319451963</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>35930.71659725982</v>
       </c>
     </row>
     <row r="45">
@@ -5166,16 +5568,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1069.88815015812</v>
+        <v>-688.825819925007</v>
       </c>
       <c r="C45" t="n">
-        <v>2229823.119982446</v>
+        <v>461819.0137731792</v>
       </c>
       <c r="D45" t="n">
         <v>1556.810059</v>
       </c>
       <c r="E45" t="n">
-        <v>6866.630319502621</v>
+        <v>0.1813346833950852</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1674.876092967799</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>83743.80464838997</v>
       </c>
     </row>
     <row r="46">
@@ -5185,16 +5596,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1208.12933886002</v>
+        <v>-688.825819925007</v>
       </c>
       <c r="C46" t="n">
-        <v>2463265.153239561</v>
+        <v>461819.0137731792</v>
       </c>
       <c r="D46" t="n">
         <v>1723.119995</v>
       </c>
       <c r="E46" t="n">
-        <v>4764.123127696225</v>
+        <v>0.1068273775844097</v>
+      </c>
+      <c r="F46" t="n">
+        <v>986.6982832001423</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>49334.91416000712</v>
       </c>
     </row>
     <row r="47">
@@ -5204,16 +5624,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1396.252198502187</v>
+        <v>-688.825819925007</v>
       </c>
       <c r="C47" t="n">
-        <v>2829080.436352004</v>
+        <v>461819.0137731792</v>
       </c>
       <c r="D47" t="n">
         <v>1984.23999</v>
       </c>
       <c r="E47" t="n">
-        <v>7465.618022702922</v>
+        <v>0.1515390662041502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1399.672442050183</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>69983.62210250917</v>
       </c>
     </row>
     <row r="48">
@@ -5223,16 +5652,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1533.897927073161</v>
+        <v>-688.825819925007</v>
       </c>
       <c r="C48" t="n">
-        <v>3125341.479652662</v>
+        <v>461819.0137731792</v>
       </c>
       <c r="D48" t="n">
         <v>2196.27002</v>
       </c>
       <c r="E48" t="n">
-        <v>6046.14374082974</v>
+        <v>0.1068570490810438</v>
+      </c>
+      <c r="F48" t="n">
+        <v>986.9723404263973</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>49348.61702131986</v>
       </c>
     </row>
     <row r="49">
@@ -5242,16 +5680,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1703.635489483611</v>
+        <v>-688.825819925007</v>
       </c>
       <c r="C49" t="n">
-        <v>3540153.869880223</v>
+        <v>461819.0137731792</v>
       </c>
       <c r="D49" t="n">
         <v>2493.719971</v>
       </c>
       <c r="E49" t="n">
-        <v>8465.558984235937</v>
+        <v>0.1354341443863082</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1250.921259833985</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>62546.06299169923</v>
       </c>
     </row>
     <row r="50">
@@ -5261,16 +5708,25 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1871.502636208836</v>
+        <v>-688.825819925007</v>
       </c>
       <c r="C50" t="n">
-        <v>4005410.608770363</v>
+        <v>461819.0137731792</v>
       </c>
       <c r="D50" t="n">
         <v>2828.139893</v>
       </c>
       <c r="E50" t="n">
-        <v>9495.035487553887</v>
+        <v>0.1341048417180118</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1238.64331488841</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>61932.16574442052</v>
       </c>
     </row>
     <row r="51">
@@ -5280,16 +5736,25 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1694.53721837326</v>
+        <v>-709.2297192300706</v>
       </c>
       <c r="C51" t="n">
-        <v>3551619.920270644</v>
+        <v>409497.4945352979</v>
       </c>
       <c r="D51" t="n">
         <v>2514.01001</v>
       </c>
       <c r="E51" t="n">
-        <v>8897.856637249402</v>
+        <v>-0.1110729648761403</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1025.912141919241</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-20.40389930506365</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-51295.60709596206</v>
       </c>
     </row>
     <row r="52">
@@ -5299,16 +5764,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1810.356074041544</v>
+        <v>-709.2297192300706</v>
       </c>
       <c r="C52" t="n">
-        <v>3862448.730112908</v>
+        <v>409497.4945352979</v>
       </c>
       <c r="D52" t="n">
         <v>2738.52002</v>
       </c>
       <c r="E52" t="n">
-        <v>6343.445098821713</v>
+        <v>0.08930354656781973</v>
+      </c>
+      <c r="F52" t="n">
+        <v>731.3915714527698</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>36569.57857263849</v>
       </c>
     </row>
     <row r="53">
@@ -5318,16 +5792,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1671.204567663994</v>
+        <v>-723.9825864404927</v>
       </c>
       <c r="C53" t="n">
-        <v>3508662.69051071</v>
+        <v>371989.0363157293</v>
       </c>
       <c r="D53" t="n">
         <v>2492.600098</v>
       </c>
       <c r="E53" t="n">
-        <v>6936.981168670555</v>
+        <v>-0.08980030096694347</v>
+      </c>
+      <c r="F53" t="n">
+        <v>735.4599650895808</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-14.75286721042207</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-36772.99825447904</v>
       </c>
     </row>
     <row r="54">
@@ -5337,16 +5820,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1686.658886669792</v>
+        <v>-723.9825864404927</v>
       </c>
       <c r="C54" t="n">
-        <v>3546832.766243141</v>
+        <v>371989.0363157293</v>
       </c>
       <c r="D54" t="n">
         <v>2520.27002</v>
       </c>
       <c r="E54" t="n">
-        <v>778.9811373965664</v>
+        <v>0.01110082681221175</v>
+      </c>
+      <c r="F54" t="n">
+        <v>82.58771736364919</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4129.385868182459</v>
       </c>
     </row>
     <row r="55">
@@ -5356,16 +5848,25 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1503.559110663452</v>
+        <v>-743.1859472175977</v>
       </c>
       <c r="C55" t="n">
-        <v>3130331.58247541</v>
+        <v>328306.7191090382</v>
       </c>
       <c r="D55" t="n">
         <v>2230.120117</v>
       </c>
       <c r="E55" t="n">
-        <v>8166.689877798643</v>
+        <v>-0.1151265144994265</v>
+      </c>
+      <c r="F55" t="n">
+        <v>856.5160236606104</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-19.20336077710496</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-42825.80118303052</v>
       </c>
     </row>
     <row r="56">
@@ -5375,16 +5876,25 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1734.208873637822</v>
+        <v>-743.1859472175977</v>
       </c>
       <c r="C56" t="n">
-        <v>3733540.055456073</v>
+        <v>328306.7191090382</v>
       </c>
       <c r="D56" t="n">
         <v>2668.629883</v>
       </c>
       <c r="E56" t="n">
-        <v>12310.37699960537</v>
+        <v>0.1966305593395085</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1291.102676266582</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>64555.13381332908</v>
       </c>
     </row>
     <row r="57">
@@ -5394,16 +5904,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1803.183935604523</v>
+        <v>-743.1859472175977</v>
       </c>
       <c r="C57" t="n">
-        <v>3923282.147680918</v>
+        <v>328306.7191090382</v>
       </c>
       <c r="D57" t="n">
         <v>2807.02002</v>
       </c>
       <c r="E57" t="n">
-        <v>3872.287596425399</v>
+        <v>0.05185812310713747</v>
+      </c>
+      <c r="F57" t="n">
+        <v>340.5074051291381</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>17025.3702564569</v>
       </c>
     </row>
     <row r="58">
@@ -5413,16 +5932,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1846.889486012985</v>
+        <v>-743.1859472175977</v>
       </c>
       <c r="C58" t="n">
-        <v>4047391.806419112</v>
+        <v>328306.7191090382</v>
       </c>
       <c r="D58" t="n">
         <v>2897.629883</v>
       </c>
       <c r="E58" t="n">
-        <v>2532.8501783305</v>
+        <v>0.03227973521898862</v>
+      </c>
+      <c r="F58" t="n">
+        <v>211.9530792690925</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10597.65396345462</v>
       </c>
     </row>
     <row r="59">
@@ -5432,16 +5960,25 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2135.000265895211</v>
+        <v>-743.1859472175977</v>
       </c>
       <c r="C59" t="n">
-        <v>5078141.912618552</v>
+        <v>328306.7191090382</v>
       </c>
       <c r="D59" t="n">
         <v>3650.629883</v>
       </c>
       <c r="E59" t="n">
-        <v>21035.71645304979</v>
+        <v>0.2598675574191682</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1706.325303583334</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>85316.2651791667</v>
       </c>
     </row>
     <row r="60">
@@ -5451,16 +5988,25 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2298.760649479657</v>
+        <v>-743.1859472175977</v>
       </c>
       <c r="C60" t="n">
-        <v>5742189.449251562</v>
+        <v>328306.7191090382</v>
       </c>
       <c r="D60" t="n">
         <v>4137.75</v>
       </c>
       <c r="E60" t="n">
-        <v>13551.99054353083</v>
+        <v>0.1334345394115101</v>
+      </c>
+      <c r="F60" t="n">
+        <v>876.1491170003704</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>43807.45585001852</v>
       </c>
     </row>
     <row r="61">
@@ -5470,16 +6016,25 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2373.134126174002</v>
+        <v>-743.1859472175977</v>
       </c>
       <c r="C61" t="n">
-        <v>6060851.450017788</v>
+        <v>328306.7191090382</v>
       </c>
       <c r="D61" t="n">
         <v>4372.060059</v>
       </c>
       <c r="E61" t="n">
-        <v>6503.306138086223</v>
+        <v>0.05662740837411646</v>
+      </c>
+      <c r="F61" t="n">
+        <v>371.8231730990769</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>18591.15865495385</v>
       </c>
     </row>
     <row r="62">
@@ -5489,16 +6044,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2522.853022865884</v>
+        <v>-743.1859472175977</v>
       </c>
       <c r="C62" t="n">
-        <v>6780009.92930433</v>
+        <v>328306.7191090382</v>
       </c>
       <c r="D62" t="n">
         <v>4901.419922</v>
       </c>
       <c r="E62" t="n">
-        <v>14676.70365890902</v>
+        <v>0.1210779028321668</v>
+      </c>
+      <c r="F62" t="n">
+        <v>795.0137807086322</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>39750.68903543161</v>
       </c>
     </row>
     <row r="63">
@@ -5508,16 +6072,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2303.216470510028</v>
+        <v>-753.8213528662986</v>
       </c>
       <c r="C63" t="n">
-        <v>5832408.612855872</v>
+        <v>282421.2583987293</v>
       </c>
       <c r="D63" t="n">
         <v>4229.810059</v>
       </c>
       <c r="E63" t="n">
-        <v>18580.41796957759</v>
+        <v>-0.1370235306682217</v>
+      </c>
+      <c r="F63" t="n">
+        <v>899.7149158884106</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-10.63540564870091</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-44985.74579442053</v>
       </c>
     </row>
     <row r="64">
@@ -5527,16 +6100,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2078.797279923916</v>
+        <v>-764.6883470056409</v>
       </c>
       <c r="C64" t="n">
-        <v>4999700.084090149</v>
+        <v>242099.2223097291</v>
       </c>
       <c r="D64" t="n">
         <v>3637.75</v>
       </c>
       <c r="E64" t="n">
-        <v>16327.61821109262</v>
+        <v>-0.1399732022813274</v>
+      </c>
+      <c r="F64" t="n">
+        <v>790.6281586078474</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-10.86699413934228</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-39531.40793039236</v>
       </c>
     </row>
     <row r="65">
@@ -5546,16 +6128,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2075.832584057999</v>
+        <v>-764.8319057294547</v>
       </c>
       <c r="C65" t="n">
-        <v>4988723.243332061</v>
+        <v>241567.6935047499</v>
       </c>
       <c r="D65" t="n">
         <v>3629.919922</v>
       </c>
       <c r="E65" t="n">
-        <v>215.2321717272062</v>
+        <v>-0.002152450828121767</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10.42213343096424</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.1435587238136908</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-521.1066715482121</v>
       </c>
     </row>
     <row r="66">
@@ -5565,16 +6156,25 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2252.713228157424</v>
+        <v>-764.8319057294547</v>
       </c>
       <c r="C66" t="n">
-        <v>5710889.355369337</v>
+        <v>241567.6935047499</v>
       </c>
       <c r="D66" t="n">
         <v>4166.109863</v>
       </c>
       <c r="E66" t="n">
-        <v>14738.08391912809</v>
+        <v>0.1477139861268817</v>
+      </c>
+      <c r="F66" t="n">
+        <v>713.658538541269</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>35682.92692706345</v>
       </c>
     </row>
     <row r="67">
@@ -5584,16 +6184,25 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2316.475806738623</v>
+        <v>-764.8319057294547</v>
       </c>
       <c r="C67" t="n">
-        <v>5983918.363762383</v>
+        <v>241567.6935047499</v>
       </c>
       <c r="D67" t="n">
         <v>4369.350098</v>
       </c>
       <c r="E67" t="n">
-        <v>5572.020579449918</v>
+        <v>0.04878417556987989</v>
+      </c>
+      <c r="F67" t="n">
+        <v>235.693615438933</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>11784.68077194665</v>
       </c>
     </row>
     <row r="68">
@@ -5603,16 +6212,25 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2625.682347014545</v>
+        <v>-764.8319057294547</v>
       </c>
       <c r="C68" t="n">
-        <v>7694034.357131074</v>
+        <v>241567.6935047499</v>
       </c>
       <c r="D68" t="n">
         <v>5643.529785</v>
       </c>
       <c r="E68" t="n">
-        <v>34900.32639527942</v>
+        <v>0.2916176681706589</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1408.908149704391</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>70445.40748521958</v>
       </c>
     </row>
     <row r="69">
@@ -5622,16 +6240,25 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2705.994123618916</v>
+        <v>-764.8319057294547</v>
       </c>
       <c r="C69" t="n">
-        <v>8166014.961847446</v>
+        <v>241567.6935047499</v>
       </c>
       <c r="D69" t="n">
         <v>5996.790039</v>
       </c>
       <c r="E69" t="n">
-        <v>9632.25723910964</v>
+        <v>0.06259562143871998</v>
+      </c>
+      <c r="F69" t="n">
+        <v>302.4215978889612</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>15121.07989444806</v>
       </c>
     </row>
     <row r="70">
@@ -5641,16 +6268,25 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2656.828594841403</v>
+        <v>-766.2863242484281</v>
       </c>
       <c r="C70" t="n">
-        <v>7875762.515289196</v>
+        <v>232981.4229215125</v>
       </c>
       <c r="D70" t="n">
         <v>5787.819824</v>
       </c>
       <c r="E70" t="n">
-        <v>5691.224442318614</v>
+        <v>-0.03484701209163015</v>
+      </c>
+      <c r="F70" t="n">
+        <v>168.3582467301445</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1.454418518973445</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-8417.912336507226</v>
       </c>
     </row>
     <row r="71">
@@ -5660,16 +6296,25 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2918.297277370806</v>
+        <v>-766.2863242484281</v>
       </c>
       <c r="C71" t="n">
-        <v>9711583.913840499</v>
+        <v>232981.4229215125</v>
       </c>
       <c r="D71" t="n">
         <v>7164.47998</v>
       </c>
       <c r="E71" t="n">
-        <v>37465.74282757761</v>
+        <v>0.2378547014009467</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1108.314535619281</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>55415.72678096403</v>
       </c>
     </row>
     <row r="72">
@@ -5679,16 +6324,25 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2806.500848380014</v>
+        <v>-768.9683266215629</v>
       </c>
       <c r="C72" t="n">
-        <v>8956848.227322536</v>
+        <v>214875.2730149044</v>
       </c>
       <c r="D72" t="n">
         <v>6618.609863</v>
       </c>
       <c r="E72" t="n">
-        <v>14798.73895133261</v>
+        <v>-0.07619117068144846</v>
+      </c>
+      <c r="F72" t="n">
+        <v>355.0225471883937</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-2.682002373134845</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-17751.12735941969</v>
       </c>
     </row>
     <row r="73">
@@ -5698,16 +6352,25 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2996.134564308374</v>
+        <v>-768.9683266215629</v>
       </c>
       <c r="C73" t="n">
-        <v>10387305.74396405</v>
+        <v>214875.2730149044</v>
       </c>
       <c r="D73" t="n">
         <v>7697.209961</v>
       </c>
       <c r="E73" t="n">
-        <v>29193.0105437043</v>
+        <v>0.1629647494453021</v>
+      </c>
+      <c r="F73" t="n">
+        <v>700.3419005772956</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>35017.09502886478</v>
       </c>
     </row>
     <row r="74">
@@ -5717,16 +6380,25 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3085.290474679205</v>
+        <v>-768.9683266215629</v>
       </c>
       <c r="C74" t="n">
-        <v>11107406.95545764</v>
+        <v>214875.2730149044</v>
       </c>
       <c r="D74" t="n">
         <v>8241.709961</v>
       </c>
       <c r="E74" t="n">
-        <v>14695.94309170601</v>
+        <v>0.07073991780903181</v>
+      </c>
+      <c r="F74" t="n">
+        <v>304.0051830453522</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>15200.25915226761</v>
       </c>
     </row>
     <row r="75">
@@ -5736,16 +6408,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3421.23686618677</v>
+        <v>-768.9683266215629</v>
       </c>
       <c r="C75" t="n">
-        <v>14721764.7541019</v>
+        <v>214875.2730149044</v>
       </c>
       <c r="D75" t="n">
         <v>10978.2998</v>
       </c>
       <c r="E75" t="n">
-        <v>73762.40405396452</v>
+        <v>0.3320415122528722</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1426.950211952353</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>71347.51059761764</v>
       </c>
     </row>
     <row r="76">
@@ -5755,16 +6436,25 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3871.254576698861</v>
+        <v>-768.9683266215629</v>
       </c>
       <c r="C76" t="n">
-        <v>22008827.18147777</v>
+        <v>214875.2730149044</v>
       </c>
       <c r="D76" t="n">
         <v>16523.30078</v>
       </c>
       <c r="E76" t="n">
-        <v>148715.5597423647</v>
+        <v>0.5050874070682603</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2170.615889803652</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>108530.7944901826</v>
       </c>
     </row>
     <row r="77">
@@ -5774,16 +6464,25 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3964.02712259152</v>
+        <v>-768.9683266215629</v>
       </c>
       <c r="C77" t="n">
-        <v>23623542.13427416</v>
+        <v>214875.2730149044</v>
       </c>
       <c r="D77" t="n">
         <v>17760.30078</v>
       </c>
       <c r="E77" t="n">
-        <v>32953.36638359978</v>
+        <v>0.07486397642154402</v>
+      </c>
+      <c r="F77" t="n">
+        <v>321.7283474512128</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>16086.41737256064</v>
       </c>
     </row>
     <row r="78">
@@ -5793,16 +6492,25 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3600.557312189909</v>
+        <v>-772.2743792998109</v>
       </c>
       <c r="C78" t="n">
-        <v>18452212.08889038</v>
+        <v>167837.8326075301</v>
       </c>
       <c r="D78" t="n">
         <v>13948.7002</v>
       </c>
       <c r="E78" t="n">
-        <v>101398.6283408584</v>
+        <v>-0.2146135151208853</v>
+      </c>
+      <c r="F78" t="n">
+        <v>922.3027530857711</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-3.30605267824801</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-46115.13765428856</v>
       </c>
     </row>
     <row r="79">
@@ -5812,16 +6520,25 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3666.619810453977</v>
+        <v>-772.2743792998109</v>
       </c>
       <c r="C79" t="n">
-        <v>19402736.64753742</v>
+        <v>167837.8326075301</v>
       </c>
       <c r="D79" t="n">
         <v>14681.90039</v>
       </c>
       <c r="E79" t="n">
-        <v>19398.46038055181</v>
+        <v>0.05256405109344894</v>
+      </c>
+      <c r="F79" t="n">
+        <v>176.4447281719189</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8822.236408595943</v>
       </c>
     </row>
     <row r="80">
@@ -5831,16 +6548,25 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3877.026804397545</v>
+        <v>-772.2743792998109</v>
       </c>
       <c r="C80" t="n">
-        <v>23003401.57668301</v>
+        <v>167837.8326075301</v>
       </c>
       <c r="D80" t="n">
         <v>17462.09961</v>
       </c>
       <c r="E80" t="n">
-        <v>73482.95773766513</v>
+        <v>0.1893623540651198</v>
+      </c>
+      <c r="F80" t="n">
+        <v>635.6433416749885</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>31782.16708374942</v>
       </c>
     </row>
     <row r="81">
@@ -5850,16 +6576,25 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3545.654224979749</v>
+        <v>-774.6921458779253</v>
       </c>
       <c r="C81" t="n">
-        <v>18287489.81225277</v>
+        <v>133429.5123131688</v>
       </c>
       <c r="D81" t="n">
         <v>13952.40039</v>
       </c>
       <c r="E81" t="n">
-        <v>92468.8581260832</v>
+        <v>-0.2009895315217481</v>
+      </c>
+      <c r="F81" t="n">
+        <v>674.6729469482611</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-2.417766578114453</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-33733.64734741305</v>
       </c>
     </row>
     <row r="82">
@@ -5869,16 +6604,25 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3287.45322668131</v>
+        <v>-776.5760366489076</v>
       </c>
       <c r="C82" t="n">
-        <v>15217654.43368618</v>
+        <v>111031.3241720379</v>
       </c>
       <c r="D82" t="n">
         <v>11656.2002</v>
       </c>
       <c r="E82" t="n">
-        <v>60192.85056012916</v>
+        <v>-0.1645738457767984</v>
+      </c>
+      <c r="F82" t="n">
+        <v>439.1801596300172</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1.883890770982199</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-21959.00798150086</v>
       </c>
     </row>
     <row r="83">
@@ -5888,16 +6632,25 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3231.223917308563</v>
+        <v>-776.986297947989</v>
       </c>
       <c r="C83" t="n">
-        <v>14576730.36382245</v>
+        <v>106355.0024379096</v>
       </c>
       <c r="D83" t="n">
         <v>11174.90039</v>
       </c>
       <c r="E83" t="n">
-        <v>12567.13862477893</v>
+        <v>-0.0412913129271749</v>
+      </c>
+      <c r="F83" t="n">
+        <v>91.69258302212431</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.4102612990813617</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-4584.629151106215</v>
       </c>
     </row>
     <row r="84">
@@ -5907,16 +6660,25 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2888.947253389887</v>
+        <v>-779.4836231036945</v>
       </c>
       <c r="C84" t="n">
-        <v>11486258.73872321</v>
+        <v>83806.24774340834</v>
       </c>
       <c r="D84" t="n">
         <v>8852.120117</v>
       </c>
       <c r="E84" t="n">
-        <v>60597.48284508317</v>
+        <v>-0.2078569107496089</v>
+      </c>
+      <c r="F84" t="n">
+        <v>442.1324449902202</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-2.497325155705522</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-22106.62224951101</v>
       </c>
     </row>
     <row r="85">
@@ -5926,16 +6688,25 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2869.299338538076</v>
+        <v>-779.6269785736667</v>
       </c>
       <c r="C85" t="n">
-        <v>11311500.72003222</v>
+        <v>82531.17514207562</v>
       </c>
       <c r="D85" t="n">
         <v>8720.080078000001</v>
       </c>
       <c r="E85" t="n">
-        <v>3426.627817470449</v>
+        <v>-0.01491620507345173</v>
+      </c>
+      <c r="F85" t="n">
+        <v>25.0014235555436</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.1433554699722311</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-1250.07117777718</v>
       </c>
     </row>
     <row r="86">
@@ -5945,16 +6716,25 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3058.322037402019</v>
+        <v>-779.6269785736667</v>
       </c>
       <c r="C86" t="n">
-        <v>13202360.93471285</v>
+        <v>82531.17514207562</v>
       </c>
       <c r="D86" t="n">
         <v>10207.5</v>
       </c>
       <c r="E86" t="n">
-        <v>38588.98397307415</v>
+        <v>0.1705741127025461</v>
+      </c>
+      <c r="F86" t="n">
+        <v>281.5536394031596</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>14077.68197015798</v>
       </c>
     </row>
     <row r="87">
@@ -5964,16 +6744,25 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3068.405028054856</v>
+        <v>-779.6269785736667</v>
       </c>
       <c r="C87" t="n">
-        <v>13304017.10396952</v>
+        <v>82531.17514207562</v>
       </c>
       <c r="D87" t="n">
         <v>10287.7002</v>
       </c>
       <c r="E87" t="n">
-        <v>2074.615699115648</v>
+        <v>0.007856987509184355</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12.96892824419189</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>648.4464122095945</v>
       </c>
     </row>
     <row r="88">
@@ -5983,16 +6772,25 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3163.246517950873</v>
+        <v>-779.6269785736667</v>
       </c>
       <c r="C88" t="n">
-        <v>14335879.462161</v>
+        <v>82531.17514207562</v>
       </c>
       <c r="D88" t="n">
         <v>11101.90039</v>
       </c>
       <c r="E88" t="n">
-        <v>21058.41547329548</v>
+        <v>0.07914307125707273</v>
+      </c>
+      <c r="F88" t="n">
+        <v>130.6354135039848</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>6531.770675199241</v>
       </c>
     </row>
     <row r="89">
@@ -6002,16 +6800,25 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2921.393690043327</v>
+        <v>-781.019317156823</v>
       </c>
       <c r="C89" t="n">
-        <v>12029183.53385852</v>
+        <v>69251.60438670407</v>
       </c>
       <c r="D89" t="n">
         <v>9350.589844</v>
       </c>
       <c r="E89" t="n">
-        <v>45229.33192749962</v>
+        <v>-0.1577487172896532</v>
+      </c>
+      <c r="F89" t="n">
+        <v>260.3837403014028</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1.392338583156246</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-13019.18701507014</v>
       </c>
     </row>
     <row r="90">
@@ -6021,16 +6828,25 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2762.372761379766</v>
+        <v>-781.9347952863252</v>
       </c>
       <c r="C90" t="n">
-        <v>10679358.49497144</v>
+        <v>61480.707108334</v>
       </c>
       <c r="D90" t="n">
         <v>8321.910156</v>
       </c>
       <c r="E90" t="n">
-        <v>26467.15762523681</v>
+        <v>-0.1100122778521907</v>
+      </c>
+      <c r="F90" t="n">
+        <v>152.3705348700015</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.9154781295021799</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-7618.526743500074</v>
       </c>
     </row>
     <row r="91">
@@ -6040,16 +6856,25 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2845.989833342463</v>
+        <v>-781.9347952863252</v>
       </c>
       <c r="C91" t="n">
-        <v>11408826.40483382</v>
+        <v>61480.707108334</v>
       </c>
       <c r="D91" t="n">
         <v>8901.950194999999</v>
       </c>
       <c r="E91" t="n">
-        <v>14887.1002012731</v>
+        <v>0.06970034861308824</v>
+      </c>
+      <c r="F91" t="n">
+        <v>85.70453436860103</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4285.226718430052</v>
       </c>
     </row>
     <row r="92">
@@ -6059,16 +6884,25 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2472.342513113392</v>
+        <v>-783.9483329317998</v>
       </c>
       <c r="C92" t="n">
-        <v>8781962.597089112</v>
+        <v>47324.87383971587</v>
       </c>
       <c r="D92" t="n">
         <v>6892.47998</v>
       </c>
       <c r="E92" t="n">
-        <v>51507.13348519042</v>
+        <v>-0.2257337067700814</v>
+      </c>
+      <c r="F92" t="n">
+        <v>277.5653582081986</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-2.013537645474587</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-13878.26791040993</v>
       </c>
     </row>
     <row r="93">
@@ -6078,16 +6912,25 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2422.00160268984</v>
+        <v>-784.2196136630068</v>
       </c>
       <c r="C93" t="n">
-        <v>8441500.980932569</v>
+        <v>45490.1697113682</v>
       </c>
       <c r="D93" t="n">
         <v>6630.509766</v>
       </c>
       <c r="E93" t="n">
-        <v>6675.717963853788</v>
+        <v>-0.03800812113494161</v>
+      </c>
+      <c r="F93" t="n">
+        <v>35.974590751915</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.2712807312070175</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-1798.72953759575</v>
       </c>
     </row>
     <row r="94">
@@ -6097,16 +6940,25 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2623.150050889795</v>
+        <v>-784.2196136630068</v>
       </c>
       <c r="C94" t="n">
-        <v>9993799.063131789</v>
+        <v>45490.1697113682</v>
       </c>
       <c r="D94" t="n">
         <v>7874.669922</v>
       </c>
       <c r="E94" t="n">
-        <v>31679.55269794324</v>
+        <v>0.1876417047720551</v>
+      </c>
+      <c r="F94" t="n">
+        <v>170.7170599002247</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8535.852995011233</v>
       </c>
     </row>
     <row r="95">
@@ -6116,16 +6968,25 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2762.859852595645</v>
+        <v>-784.2196136630068</v>
       </c>
       <c r="C95" t="n">
-        <v>11205336.51078347</v>
+        <v>45490.1697113682</v>
       </c>
       <c r="D95" t="n">
         <v>8848.790039</v>
       </c>
       <c r="E95" t="n">
-        <v>24725.25403370786</v>
+        <v>0.1237029776039925</v>
+      </c>
+      <c r="F95" t="n">
+        <v>112.545388900144</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5627.269445007199</v>
       </c>
     </row>
     <row r="96">
@@ -6135,16 +6996,25 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2775.676933762415</v>
+        <v>-784.2196136630068</v>
       </c>
       <c r="C96" t="n">
-        <v>11317620.34707092</v>
+        <v>45490.1697113682</v>
       </c>
       <c r="D96" t="n">
         <v>8939.269531</v>
       </c>
       <c r="E96" t="n">
-        <v>2291.506863009083</v>
+        <v>0.01022506937120473</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9.302802820132321</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>465.140141006616</v>
       </c>
     </row>
     <row r="97">
@@ -6154,16 +7024,25 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2875.002167033842</v>
+        <v>-784.2196136630068</v>
       </c>
       <c r="C97" t="n">
-        <v>12261833.2959666</v>
+        <v>45490.1697113682</v>
       </c>
       <c r="D97" t="n">
         <v>9700.280273</v>
       </c>
       <c r="E97" t="n">
-        <v>19269.65201827908</v>
+        <v>0.08513119996672359</v>
+      </c>
+      <c r="F97" t="n">
+        <v>77.45265468437358</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3872.632734218679</v>
       </c>
     </row>
     <row r="98">
@@ -6173,16 +7052,25 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2686.496224831243</v>
+        <v>-784.9189517713808</v>
       </c>
       <c r="C98" t="n">
-        <v>10638746.38052624</v>
+        <v>39468.68030945553</v>
       </c>
       <c r="D98" t="n">
         <v>8441.440430000001</v>
       </c>
       <c r="E98" t="n">
-        <v>31825.23363608539</v>
+        <v>-0.1297735537089465</v>
+      </c>
+      <c r="F98" t="n">
+        <v>118.0684196453467</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.6993381083739203</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-5903.420982267333</v>
       </c>
     </row>
     <row r="99">
@@ -6192,16 +7080,25 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2658.146190528101</v>
+        <v>-785.0241275506174</v>
       </c>
       <c r="C99" t="n">
-        <v>10400015.13369272</v>
+        <v>38583.01136650591</v>
       </c>
       <c r="D99" t="n">
         <v>8255.730469</v>
       </c>
       <c r="E99" t="n">
-        <v>4681.004839872866</v>
+        <v>-0.02199979524110679</v>
+      </c>
+      <c r="F99" t="n">
+        <v>17.3660577048945</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.1051757792366374</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-868.302885244725</v>
       </c>
     </row>
     <row r="100">
@@ -6211,16 +7108,25 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2528.706168275479</v>
+        <v>-785.5043370297051</v>
       </c>
       <c r="C100" t="n">
-        <v>9411583.99578362</v>
+        <v>34916.0311420825</v>
       </c>
       <c r="D100" t="n">
         <v>7486.47998</v>
       </c>
       <c r="E100" t="n">
-        <v>19381.0027041001</v>
+        <v>-0.09317776202705631</v>
+      </c>
+      <c r="F100" t="n">
+        <v>71.90157302790993</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.4802094790875934</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-3595.078651395497</v>
       </c>
     </row>
     <row r="101">
@@ -6230,16 +7136,25 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2537.086367124045</v>
+        <v>-785.5043370297051</v>
       </c>
       <c r="C101" t="n">
-        <v>9473480.02556997</v>
+        <v>34916.0311420825</v>
       </c>
       <c r="D101" t="n">
         <v>7536.720215</v>
       </c>
       <c r="E101" t="n">
-        <v>1263.184281354106</v>
+        <v>0.006710795344970683</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4.686286785062773</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>234.3143392531386</v>
       </c>
     </row>
     <row r="102">
@@ -6249,16 +7164,25 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2552.863345250639</v>
+        <v>-785.5043370297051</v>
       </c>
       <c r="C102" t="n">
-        <v>9591489.764948172</v>
+        <v>34916.0311420825</v>
       </c>
       <c r="D102" t="n">
         <v>7632.52002</v>
       </c>
       <c r="E102" t="n">
-        <v>2408.362028126567</v>
+        <v>0.0127110735528345</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8.876404800401414</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>443.8202400200707</v>
       </c>
     </row>
     <row r="103">
@@ -6268,16 +7192,25 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2323.727092118826</v>
+        <v>-786.3384648603335</v>
       </c>
       <c r="C103" t="n">
-        <v>8082728.541587613</v>
+        <v>29423.66706185993</v>
       </c>
       <c r="D103" t="n">
         <v>6455.450195</v>
       </c>
       <c r="E103" t="n">
-        <v>29583.55339922668</v>
+        <v>-0.1542177186454337</v>
+      </c>
+      <c r="F103" t="n">
+        <v>107.6934133376976</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.8341278306283764</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-5384.670666884879</v>
       </c>
     </row>
     <row r="104">
@@ -6287,16 +7220,25 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2248.613893803781</v>
+        <v>-786.6119004616656</v>
       </c>
       <c r="C104" t="n">
-        <v>7616132.707239675</v>
+        <v>27725.11187574108</v>
       </c>
       <c r="D104" t="n">
         <v>6090.100098</v>
       </c>
       <c r="E104" t="n">
-        <v>9148.937928390931</v>
+        <v>-0.05659560308946051</v>
+      </c>
+      <c r="F104" t="n">
+        <v>33.30500364938914</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-0.273435601332124</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-1665.250182469457</v>
       </c>
     </row>
     <row r="105">
@@ -6306,16 +7248,25 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2273.592350905329</v>
+        <v>-786.6119004616656</v>
       </c>
       <c r="C105" t="n">
-        <v>7768249.907638426</v>
+        <v>27725.11187574108</v>
       </c>
       <c r="D105" t="n">
         <v>6214.220215</v>
       </c>
       <c r="E105" t="n">
-        <v>3104.432661198989</v>
+        <v>0.02038063660739528</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11.30110860077717</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>565.0554300388584</v>
       </c>
     </row>
     <row r="106">
@@ -6325,16 +7276,25 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2358.788273281865</v>
+        <v>-786.6119004616656</v>
       </c>
       <c r="C106" t="n">
-        <v>8325033.865903633</v>
+        <v>27725.11187574108</v>
       </c>
       <c r="D106" t="n">
         <v>6668.709961</v>
       </c>
       <c r="E106" t="n">
-        <v>11362.93792377973</v>
+        <v>0.07313705183845005</v>
+      </c>
+      <c r="F106" t="n">
+        <v>40.55465888965806</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2027.732944482903</v>
       </c>
     </row>
     <row r="107">
@@ -6344,16 +7304,25 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2274.622300392935</v>
+        <v>-786.8922009447704</v>
       </c>
       <c r="C107" t="n">
-        <v>7788690.411967571</v>
+        <v>25938.91106218023</v>
       </c>
       <c r="D107" t="n">
         <v>6247.5</v>
       </c>
       <c r="E107" t="n">
-        <v>10516.53831247181</v>
+        <v>-0.06316213532502131</v>
+      </c>
+      <c r="F107" t="n">
+        <v>35.02354536393828</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.2803004831047481</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-1751.177268196914</v>
       </c>
     </row>
     <row r="108">
@@ -6363,16 +7332,25 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2462.017713355177</v>
+        <v>-786.8922009447704</v>
       </c>
       <c r="C108" t="n">
-        <v>9138999.132231608</v>
+        <v>25938.91106218023</v>
       </c>
       <c r="D108" t="n">
         <v>7352.720215</v>
       </c>
       <c r="E108" t="n">
-        <v>27557.32082171505</v>
+        <v>0.1769059967987195</v>
+      </c>
+      <c r="F108" t="n">
+        <v>91.77497834656656</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>4588.748917328327</v>
       </c>
     </row>
     <row r="109">
@@ -6382,16 +7360,25 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2586.225693854155</v>
+        <v>-786.8922009447704</v>
       </c>
       <c r="C109" t="n">
-        <v>10133368.33568479</v>
+        <v>25938.91106218023</v>
       </c>
       <c r="D109" t="n">
         <v>8169.060059</v>
       </c>
       <c r="E109" t="n">
-        <v>20293.2490500649</v>
+        <v>0.1110255551863128</v>
+      </c>
+      <c r="F109" t="n">
+        <v>57.597640032139</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2879.88200160695</v>
       </c>
     </row>
     <row r="110">
@@ -6401,16 +7388,25 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2464.4273730188</v>
+        <v>-787.2039744545268</v>
       </c>
       <c r="C110" t="n">
-        <v>9209230.470131494</v>
+        <v>23573.34720328394</v>
       </c>
       <c r="D110" t="n">
         <v>7438.67</v>
       </c>
       <c r="E110" t="n">
-        <v>18120.35030496658</v>
+        <v>-0.08940931437948194</v>
+      </c>
+      <c r="F110" t="n">
+        <v>46.38360507639788</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.3117735097564341</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-2319.180253819894</v>
       </c>
     </row>
     <row r="111">
@@ -6420,16 +7416,25 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2213.676557860854</v>
+        <v>-787.8458343847778</v>
       </c>
       <c r="C111" t="n">
-        <v>7627116.747537708</v>
+        <v>19523.52825057715</v>
       </c>
       <c r="D111" t="n">
         <v>6185.79</v>
       </c>
       <c r="E111" t="n">
-        <v>31021.83769791736</v>
+        <v>-0.1684279582237147</v>
+      </c>
+      <c r="F111" t="n">
+        <v>79.4082147589566</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.6418599302510803</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-3970.41073794783</v>
       </c>
     </row>
     <row r="112">
@@ -6439,16 +7444,25 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2288.15028083174</v>
+        <v>-787.8458343847778</v>
       </c>
       <c r="C112" t="n">
-        <v>8107603.438715565</v>
+        <v>19523.52825057715</v>
       </c>
       <c r="D112" t="n">
         <v>6583.43</v>
       </c>
       <c r="E112" t="n">
-        <v>9805.850840364437</v>
+        <v>0.06428281593781883</v>
+      </c>
+      <c r="F112" t="n">
+        <v>25.10054745977314</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1255.027372988657</v>
       </c>
     </row>
     <row r="113">
@@ -6458,16 +7472,25 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2313.169313486404</v>
+        <v>-787.8458343847778</v>
       </c>
       <c r="C113" t="n">
-        <v>8272367.554233521</v>
+        <v>19523.52825057715</v>
       </c>
       <c r="D113" t="n">
         <v>6719.95</v>
       </c>
       <c r="E113" t="n">
-        <v>3362.532969754202</v>
+        <v>0.02073691069852638</v>
+      </c>
+      <c r="F113" t="n">
+        <v>8.097153237047507</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>404.8576618523754</v>
       </c>
     </row>
     <row r="114">
@@ -6477,16 +7500,25 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2369.93563285977</v>
+        <v>-787.8458343847778</v>
       </c>
       <c r="C114" t="n">
-        <v>8664277.329930503</v>
+        <v>19523.52825057715</v>
       </c>
       <c r="D114" t="n">
         <v>7044.81</v>
       </c>
       <c r="E114" t="n">
-        <v>7998.158687693531</v>
+        <v>0.04834262159688697</v>
+      </c>
+      <c r="F114" t="n">
+        <v>18.87637076907568</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>943.8185384537841</v>
       </c>
     </row>
     <row r="115">
@@ -6496,16 +7528,25 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2258.632435742701</v>
+        <v>-788.0966378886994</v>
       </c>
       <c r="C115" t="n">
-        <v>7930859.003512333</v>
+        <v>17870.89031320967</v>
       </c>
       <c r="D115" t="n">
         <v>6460.17</v>
       </c>
       <c r="E115" t="n">
-        <v>14380.75149839548</v>
+        <v>-0.08298875342273253</v>
+      </c>
+      <c r="F115" t="n">
+        <v>32.404665438578</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-0.2508035039215532</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-1620.2332719289</v>
       </c>
     </row>
     <row r="116">
@@ -6515,16 +7556,25 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2267.917077652237</v>
+        <v>-788.0966378886994</v>
       </c>
       <c r="C116" t="n">
-        <v>7990087.70259735</v>
+        <v>17870.89031320967</v>
       </c>
       <c r="D116" t="n">
         <v>6509.4</v>
       </c>
       <c r="E116" t="n">
-        <v>1208.748960918702</v>
+        <v>0.007620542493463727</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.723717580556872</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>136.1858790278436</v>
       </c>
     </row>
     <row r="117">
@@ -6534,16 +7584,25 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2309.042000898118</v>
+        <v>-788.0966378886994</v>
       </c>
       <c r="C117" t="n">
-        <v>8261526.548618377</v>
+        <v>17870.89031320967</v>
       </c>
       <c r="D117" t="n">
         <v>6735.05</v>
       </c>
       <c r="E117" t="n">
-        <v>5539.568286143412</v>
+        <v>0.03466525332595947</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12.38997879735697</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>619.4989398678485</v>
       </c>
     </row>
     <row r="118">
@@ -6553,16 +7612,25 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2292.063457769596</v>
+        <v>-788.1333649608866</v>
       </c>
       <c r="C118" t="n">
-        <v>8146480.58556415</v>
+        <v>17622.02906769767</v>
       </c>
       <c r="D118" t="n">
         <v>6643.1</v>
       </c>
       <c r="E118" t="n">
-        <v>2255.803197141694</v>
+        <v>-0.0136524598926511</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4.879632264941244</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.03672707218724123</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-243.9816132470622</v>
       </c>
     </row>
     <row r="119">
@@ -6572,16 +7640,25 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2288.239609907901</v>
+        <v>-788.1416365031141</v>
       </c>
       <c r="C119" t="n">
-        <v>8120650.879467036</v>
+        <v>17566.15563537648</v>
       </c>
       <c r="D119" t="n">
         <v>6622.45</v>
       </c>
       <c r="E119" t="n">
-        <v>506.4648254336203</v>
+        <v>-0.003108488506871874</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.095557496494006</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-0.008271542227529132</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-54.7778748247003</v>
       </c>
     </row>
     <row r="120">
@@ -6591,16 +7668,25 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2220.977479777055</v>
+        <v>-788.2871343288159</v>
       </c>
       <c r="C120" t="n">
-        <v>7689928.304856536</v>
+        <v>16634.43970600326</v>
       </c>
       <c r="D120" t="n">
         <v>6278.08</v>
       </c>
       <c r="E120" t="n">
-        <v>8445.54067863725</v>
+        <v>-0.05200039260394566</v>
+      </c>
+      <c r="F120" t="n">
+        <v>18.26893979163179</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-0.1454978257017415</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-913.4469895815894</v>
       </c>
     </row>
     <row r="121">
@@ -6610,16 +7696,25 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2255.640970413039</v>
+        <v>-788.2871343288159</v>
       </c>
       <c r="C121" t="n">
-        <v>7909407.183977982</v>
+        <v>16634.43970600326</v>
       </c>
       <c r="D121" t="n">
         <v>6460.92</v>
       </c>
       <c r="E121" t="n">
-        <v>4479.160798396867</v>
+        <v>0.02912355369794589</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9.689079960260583</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>484.4539980130291</v>
       </c>
     </row>
     <row r="122">
@@ -6629,16 +7724,25 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2259.403739824491</v>
+        <v>-788.2871343288159</v>
       </c>
       <c r="C122" t="n">
-        <v>7933305.372360247</v>
+        <v>16634.43970600326</v>
       </c>
       <c r="D122" t="n">
         <v>6480.84</v>
       </c>
       <c r="E122" t="n">
-        <v>487.718130250311</v>
+        <v>0.003083152244571992</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.025730202335228</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>51.2865101167614</v>
       </c>
     </row>
     <row r="123">
@@ -6648,16 +7752,25 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2241.465266228035</v>
+        <v>-788.3247474602224</v>
       </c>
       <c r="C123" t="n">
-        <v>7816436.489544134</v>
+        <v>16389.39072660991</v>
       </c>
       <c r="D123" t="n">
         <v>6387.24</v>
       </c>
       <c r="E123" t="n">
-        <v>2291.546721884577</v>
+        <v>-0.01444257225915165</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4.804881948889067</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.03761313140643742</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-240.2440974444533</v>
       </c>
     </row>
     <row r="124">
@@ -6667,16 +7780,25 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2241.252559713017</v>
+        <v>-788.3251934601598</v>
       </c>
       <c r="C124" t="n">
-        <v>7815050.950658252</v>
+        <v>16386.48554875834</v>
       </c>
       <c r="D124" t="n">
         <v>6386.13</v>
       </c>
       <c r="E124" t="n">
-        <v>27.167429134936</v>
+        <v>-0.0001737839818136899</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0569642715994127</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.0004459999373596584</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-2.848213579970635</v>
       </c>
     </row>
     <row r="125">
@@ -6686,16 +7808,25 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2064.103107108162</v>
+        <v>-788.6966378644775</v>
       </c>
       <c r="C125" t="n">
-        <v>6807043.709479611</v>
+        <v>14272.9105772188</v>
       </c>
       <c r="D125" t="n">
         <v>5578.58</v>
       </c>
       <c r="E125" t="n">
-        <v>19764.84786624786</v>
+        <v>-0.1264537364569779</v>
+      </c>
+      <c r="F125" t="n">
+        <v>41.44264650077528</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.3714444043177232</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-2072.132325038764</v>
       </c>
     </row>
     <row r="126">
@@ -6705,16 +7836,25 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1718.644874445542</v>
+        <v>-789.4209896790678</v>
       </c>
       <c r="C126" t="n">
-        <v>5275059.499843362</v>
+        <v>11060.66829362679</v>
       </c>
       <c r="D126" t="n">
         <v>4347.69</v>
       </c>
       <c r="E126" t="n">
-        <v>30038.90607129901</v>
+        <v>-0.2206457557299528</v>
+      </c>
+      <c r="F126" t="n">
+        <v>62.9851428155296</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.7243518145903871</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-3149.25714077648</v>
       </c>
     </row>
     <row r="127">
@@ -6724,16 +7864,25 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1621.198276444862</v>
+        <v>-789.6253142931996</v>
       </c>
       <c r="C127" t="n">
-        <v>4875045.743701914</v>
+        <v>10221.92524822614</v>
       </c>
       <c r="D127" t="n">
         <v>4024.464242</v>
       </c>
       <c r="E127" t="n">
-        <v>7843.406983165632</v>
+        <v>-0.07434425131506607</v>
+      </c>
+      <c r="F127" t="n">
+        <v>16.44594206667946</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.2043246141318239</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-822.2971033339732</v>
       </c>
     </row>
     <row r="128">
@@ -6743,16 +7892,25 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1407.894843547856</v>
+        <v>-790.0725658393169</v>
       </c>
       <c r="C128" t="n">
-        <v>4130542.402737949</v>
+        <v>8660.861434985003</v>
       </c>
       <c r="D128" t="n">
         <v>3421.910404</v>
       </c>
       <c r="E128" t="n">
-        <v>14598.10472478365</v>
+        <v>-0.1497227461264644</v>
+      </c>
+      <c r="F128" t="n">
+        <v>30.60909437727717</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-0.4472515461172952</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-1530.454718863858</v>
       </c>
     </row>
     <row r="129">
@@ -6762,16 +7920,25 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1341.693731416556</v>
+        <v>-790.2113753716028</v>
       </c>
       <c r="C129" t="n">
-        <v>3911491.032940763</v>
+        <v>8201.557698095741</v>
       </c>
       <c r="D129" t="n">
         <v>3243.99754</v>
       </c>
       <c r="E129" t="n">
-        <v>4295.12489798404</v>
+        <v>-0.05199226250694094</v>
+      </c>
+      <c r="F129" t="n">
+        <v>9.005955625279631</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.1388095322858912</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-450.2977812639815</v>
       </c>
     </row>
     <row r="130">
@@ -6781,16 +7948,25 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1544.016896250884</v>
+        <v>-790.2113753716028</v>
       </c>
       <c r="C130" t="n">
-        <v>4684390.206734044</v>
+        <v>8201.557698095741</v>
       </c>
       <c r="D130" t="n">
         <v>3898.083677</v>
       </c>
       <c r="E130" t="n">
-        <v>15773.4525263935</v>
+        <v>0.201629664922619</v>
+      </c>
+      <c r="F130" t="n">
+        <v>33.07354661021142</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1653.677330510571</v>
       </c>
     </row>
     <row r="131">
@@ -6800,16 +7976,25 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1554.531554841251</v>
+        <v>-790.2113753716028</v>
       </c>
       <c r="C131" t="n">
-        <v>4724912.039339474</v>
+        <v>8201.557698095741</v>
       </c>
       <c r="D131" t="n">
         <v>3932.491809</v>
       </c>
       <c r="E131" t="n">
-        <v>826.9761756210364</v>
+        <v>0.008826935194598189</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.44789236591698</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>72.39461829584901</v>
       </c>
     </row>
     <row r="132">
@@ -6819,16 +8004,25 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1529.416467343484</v>
+        <v>-790.2549704348528</v>
       </c>
       <c r="C132" t="n">
-        <v>4626234.522905974</v>
+        <v>8030.272108481404</v>
       </c>
       <c r="D132" t="n">
         <v>3851.973965</v>
       </c>
       <c r="E132" t="n">
-        <v>1934.853263401966</v>
+        <v>-0.02047501887117089</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3.358540972830145</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-0.04359506324999453</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-167.9270486415072</v>
       </c>
     </row>
     <row r="133">
@@ -6838,16 +8032,25 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1475.668683458161</v>
+        <v>-790.3482664680932</v>
       </c>
       <c r="C133" t="n">
-        <v>4424104.557033249</v>
+        <v>7679.412544574893</v>
       </c>
       <c r="D133" t="n">
         <v>3686.973097</v>
       </c>
       <c r="E133" t="n">
-        <v>3963.332664171067</v>
+        <v>-0.0428354058202987</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6.879599292284533</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-0.09329603324041469</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-343.9799646142267</v>
       </c>
     </row>
     <row r="134">
@@ -6857,16 +8060,25 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1464.302979518722</v>
+        <v>-790.3679951902076</v>
       </c>
       <c r="C134" t="n">
-        <v>4381762.474982717</v>
+        <v>7605.91466226437</v>
       </c>
       <c r="D134" t="n">
         <v>3652.377835</v>
       </c>
       <c r="E134" t="n">
-        <v>830.2369029516161</v>
+        <v>-0.009383106708359113</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.441134947265156</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.01972872211433126</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-72.05674736325781</v>
       </c>
     </row>
     <row r="135">
@@ -6876,16 +8088,25 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1446.751803856222</v>
+        <v>-790.3984607266381</v>
       </c>
       <c r="C135" t="n">
-        <v>4317319.653578284</v>
+        <v>7494.054057542843</v>
       </c>
       <c r="D135" t="n">
         <v>3599.715363</v>
       </c>
       <c r="E135" t="n">
-        <v>1263.584733420265</v>
+        <v>-0.01441868130272453</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.193345190618192</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-0.03046553643050071</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-109.6672595309096</v>
       </c>
     </row>
     <row r="136">
@@ -6895,16 +8116,25 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1407.139917468635</v>
+        <v>-790.4672195033165</v>
       </c>
       <c r="C136" t="n">
-        <v>4176526.397027242</v>
+        <v>7249.6634725982</v>
       </c>
       <c r="D136" t="n">
         <v>3484.62588</v>
       </c>
       <c r="E136" t="n">
-        <v>2760.652089236105</v>
+        <v>-0.03197182871261361</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4.791972253816537</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-0.06875877667843838</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-239.5986126908268</v>
       </c>
     </row>
     <row r="137">
@@ -6914,16 +8144,25 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1468.171446567303</v>
+        <v>-790.4672195033165</v>
       </c>
       <c r="C137" t="n">
-        <v>4396127.252096691</v>
+        <v>7249.6634725982</v>
       </c>
       <c r="D137" t="n">
         <v>3671.585957</v>
       </c>
       <c r="E137" t="n">
-        <v>4481.650103458135</v>
+        <v>0.05365284063148831</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7.779300778544667</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>388.9650389272334</v>
       </c>
     </row>
     <row r="138">
@@ -6933,16 +8172,25 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1449.520314587092</v>
+        <v>-790.4979771275812</v>
       </c>
       <c r="C138" t="n">
-        <v>4327349.79154486</v>
+        <v>7136.242405620928</v>
       </c>
       <c r="D138" t="n">
         <v>3615.270267</v>
       </c>
       <c r="E138" t="n">
-        <v>1348.577657879024</v>
+        <v>-0.01533824637623754</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.223942489750421</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-0.03075762426464285</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-111.197124487521</v>
       </c>
     </row>
     <row r="139">
@@ -6952,16 +8200,25 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1564.354079163043</v>
+        <v>-790.4979771275812</v>
       </c>
       <c r="C139" t="n">
-        <v>4777376.189200429</v>
+        <v>7136.242405620928</v>
       </c>
       <c r="D139" t="n">
         <v>3998.916273</v>
       </c>
       <c r="E139" t="n">
-        <v>9184.21219705242</v>
+        <v>0.1061182090594722</v>
+      </c>
+      <c r="F139" t="n">
+        <v>15.14570526997505</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>757.2852634987527</v>
       </c>
     </row>
     <row r="140">
@@ -6971,16 +8228,25 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1519.85659635902</v>
+        <v>-790.5644455845654</v>
       </c>
       <c r="C140" t="n">
-        <v>4602393.193787199</v>
+        <v>6874.860211153329</v>
       </c>
       <c r="D140" t="n">
         <v>3855.318222</v>
       </c>
       <c r="E140" t="n">
-        <v>3431.039125749601</v>
+        <v>-0.03590924170369594</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5.12514106799213</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-0.06646845698425112</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-256.2570533996065</v>
       </c>
     </row>
     <row r="141">
@@ -6990,16 +8256,25 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1531.882891977204</v>
+        <v>-790.5644455845654</v>
       </c>
       <c r="C141" t="n">
-        <v>4648293.492965856</v>
+        <v>6874.860211153329</v>
       </c>
       <c r="D141" t="n">
         <v>3894.552526</v>
       </c>
       <c r="E141" t="n">
-        <v>936.7407995644215</v>
+        <v>0.01017667070285231</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.399263769940983</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>69.96318849704915</v>
       </c>
     </row>
     <row r="142">
@@ -7009,16 +8284,25 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1552.763573577323</v>
+        <v>-790.5644455845654</v>
       </c>
       <c r="C142" t="n">
-        <v>4729407.050540242</v>
+        <v>6874.860211153329</v>
       </c>
       <c r="D142" t="n">
         <v>3963.90012</v>
       </c>
       <c r="E142" t="n">
-        <v>1655.378726007904</v>
+        <v>0.01780630599716807</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2.448317292151033</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>122.4158646075517</v>
       </c>
     </row>
     <row r="143">
@@ -7028,16 +8312,25 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1570.207314318084</v>
+        <v>-790.5644455845654</v>
       </c>
       <c r="C143" t="n">
-        <v>4798174.795181924</v>
+        <v>6874.860211153329</v>
       </c>
       <c r="D143" t="n">
         <v>4022.713307</v>
       </c>
       <c r="E143" t="n">
-        <v>1403.423360034322</v>
+        <v>0.01483720205341607</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.040073800837452</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>102.0036900418726</v>
       </c>
     </row>
     <row r="144">
@@ -7047,16 +8340,25 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1590.44260228448</v>
+        <v>-790.5644455845654</v>
       </c>
       <c r="C144" t="n">
-        <v>4879324.237784641</v>
+        <v>6874.860211153329</v>
       </c>
       <c r="D144" t="n">
         <v>4092.136164</v>
       </c>
       <c r="E144" t="n">
-        <v>1656.111073524828</v>
+        <v>0.01725771928096292</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2.372888152398913</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>118.6444076199457</v>
       </c>
     </row>
     <row r="145">
@@ -7066,16 +8368,25 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1814.072353256205</v>
+        <v>-790.5644455845654</v>
       </c>
       <c r="C145" t="n">
-        <v>5983173.472044818</v>
+        <v>6874.860211153329</v>
       </c>
       <c r="D145" t="n">
         <v>5036.793024</v>
       </c>
       <c r="E145" t="n">
-        <v>22527.53539306485</v>
+        <v>0.2308468785351004</v>
+      </c>
+      <c r="F145" t="n">
+        <v>31.74080040219814</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1587.040020109907</v>
       </c>
     </row>
     <row r="146">
@@ -7085,16 +8396,25 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1826.224039664819</v>
+        <v>-790.5644455845654</v>
       </c>
       <c r="C146" t="n">
-        <v>6043774.818916154</v>
+        <v>6874.860211153329</v>
       </c>
       <c r="D146" t="n">
         <v>5088.849973</v>
       </c>
       <c r="E146" t="n">
-        <v>1236.762181047662</v>
+        <v>0.01033533614582784</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.421079824756933</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>71.05399123784663</v>
       </c>
     </row>
     <row r="147">
@@ -7104,16 +8424,25 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1874.434059680618</v>
+        <v>-790.5644455845654</v>
       </c>
       <c r="C147" t="n">
-        <v>6294374.231000558</v>
+        <v>6874.860211153329</v>
       </c>
       <c r="D147" t="n">
         <v>5304.16054</v>
       </c>
       <c r="E147" t="n">
-        <v>5114.273716008238</v>
+        <v>0.0423102603028929</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5.817542501597972</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>290.8771250798986</v>
       </c>
     </row>
     <row r="148">
@@ -7123,16 +8452,25 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1868.884532532359</v>
+        <v>-790.5705069056725</v>
       </c>
       <c r="C148" t="n">
-        <v>6264489.691200955</v>
+        <v>6842.219629888706</v>
       </c>
       <c r="D148" t="n">
         <v>5279.471142</v>
       </c>
       <c r="E148" t="n">
-        <v>585.9713686196751</v>
+        <v>-0.004654722988456064</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.6400113973455461</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-0.00606132110709003</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-32.00056986727731</v>
       </c>
     </row>
     <row r="149">
@@ -7142,16 +8480,25 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1969.609569520176</v>
+        <v>-790.5705069056725</v>
       </c>
       <c r="C149" t="n">
-        <v>6833970.766957058</v>
+        <v>6842.219629888706</v>
       </c>
       <c r="D149" t="n">
         <v>5769.202533</v>
       </c>
       <c r="E149" t="n">
-        <v>11622.06277053271</v>
+        <v>0.0927614486049594</v>
+      </c>
+      <c r="F149" t="n">
+        <v>12.69388409083531</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>634.6942045417654</v>
       </c>
     </row>
     <row r="150">
@@ -7161,16 +8508,25 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2082.959080272937</v>
+        <v>-790.5705069056725</v>
       </c>
       <c r="C150" t="n">
-        <v>7542640.24695544</v>
+        <v>6842.219629888706</v>
       </c>
       <c r="D150" t="n">
         <v>6379.666905</v>
       </c>
       <c r="E150" t="n">
-        <v>14462.6424489466</v>
+        <v>0.1058143423650196</v>
+      </c>
+      <c r="F150" t="n">
+        <v>14.48009940907403</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>724.0049704537013</v>
       </c>
     </row>
     <row r="151">
@@ -7180,16 +8536,25 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2237.878125065983</v>
+        <v>-790.5705069056725</v>
       </c>
       <c r="C151" t="n">
-        <v>8657256.61315836</v>
+        <v>6842.219629888706</v>
       </c>
       <c r="D151" t="n">
         <v>7341.664419</v>
       </c>
       <c r="E151" t="n">
-        <v>22747.27277965142</v>
+        <v>0.1507911820985581</v>
+      </c>
+      <c r="F151" t="n">
+        <v>20.63492772337754</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1031.746386168877</v>
       </c>
     </row>
     <row r="152">
@@ -7199,16 +8564,25 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2333.817585399644</v>
+        <v>-790.5705069056725</v>
       </c>
       <c r="C152" t="n">
-        <v>9408659.008094875</v>
+        <v>6842.219629888706</v>
       </c>
       <c r="D152" t="n">
         <v>7991.885039</v>
       </c>
       <c r="E152" t="n">
-        <v>15334.74275380641</v>
+        <v>0.08856583233595494</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12.11973753093006</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>605.9868765465028</v>
       </c>
     </row>
     <row r="153">
@@ -7218,16 +8592,25 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2413.725962359902</v>
+        <v>-790.5705069056725</v>
       </c>
       <c r="C153" t="n">
-        <v>10080078.19250216</v>
+        <v>6842.219629888706</v>
       </c>
       <c r="D153" t="n">
         <v>8573.839725</v>
       </c>
       <c r="E153" t="n">
-        <v>13702.43233484261</v>
+        <v>0.07281820035699842</v>
+      </c>
+      <c r="F153" t="n">
+        <v>9.964762397916466</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>498.2381198958233</v>
       </c>
     </row>
     <row r="154">
@@ -7237,16 +8620,25 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2335.160184634184</v>
+        <v>-790.6238362843069</v>
       </c>
       <c r="C154" t="n">
-        <v>9436034.409783697</v>
+        <v>6405.051492056015</v>
       </c>
       <c r="D154" t="n">
         <v>8036.774936</v>
       </c>
       <c r="E154" t="n">
-        <v>12628.309465068</v>
+        <v>-0.06263993802380065</v>
+      </c>
+      <c r="F154" t="n">
+        <v>8.571924271229214</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-0.05332937863440758</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-428.5962135614607</v>
       </c>
     </row>
     <row r="155">
@@ -7256,16 +8648,25 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2423.385824770089</v>
+        <v>-790.6238362843069</v>
       </c>
       <c r="C155" t="n">
-        <v>10187359.68097765</v>
+        <v>6405.051492056015</v>
       </c>
       <c r="D155" t="n">
         <v>8689.746413999999</v>
       </c>
       <c r="E155" t="n">
-        <v>15333.1687998767</v>
+        <v>0.08124794873563938</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10.40794590551396</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>520.3972952756977</v>
       </c>
     </row>
     <row r="156">
@@ -7275,16 +8676,25 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2594.604597334519</v>
+        <v>-790.6238362843069</v>
       </c>
       <c r="C156" t="n">
-        <v>11894822.70691502</v>
+        <v>6405.051492056015</v>
       </c>
       <c r="D156" t="n">
         <v>10175.92396</v>
       </c>
       <c r="E156" t="n">
-        <v>34846.18420280342</v>
+        <v>0.1710265726058046</v>
+      </c>
+      <c r="F156" t="n">
+        <v>21.9086800810007</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1095.434004050035</v>
       </c>
     </row>
     <row r="157">
@@ -7294,16 +8704,25 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2804.321975628675</v>
+        <v>-790.6238362843069</v>
       </c>
       <c r="C157" t="n">
-        <v>14443465.24382895</v>
+        <v>6405.051492056015</v>
       </c>
       <c r="D157" t="n">
         <v>12400.76369</v>
       </c>
       <c r="E157" t="n">
-        <v>52013.11299824352</v>
+        <v>0.2186376135224186</v>
+      </c>
+      <c r="F157" t="n">
+        <v>28.00770345422668</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1400.385172711334</v>
       </c>
     </row>
     <row r="158">
@@ -7313,16 +8732,25 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2653.916530618899</v>
+        <v>-790.6905345872218</v>
       </c>
       <c r="C158" t="n">
-        <v>12758594.15162354</v>
+        <v>5657.88411076134</v>
       </c>
       <c r="D158" t="n">
         <v>10982.54391</v>
       </c>
       <c r="E158" t="n">
-        <v>33036.68808245912</v>
+        <v>-0.1143655193706864</v>
+      </c>
+      <c r="F158" t="n">
+        <v>14.65034080969952</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-0.0666983029148641</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-732.5170404849761</v>
       </c>
     </row>
     <row r="159">
@@ -7332,16 +8760,25 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2735.597003250632</v>
+        <v>-790.6905345872218</v>
       </c>
       <c r="C159" t="n">
-        <v>13704197.93792484</v>
+        <v>5657.88411076134</v>
       </c>
       <c r="D159" t="n">
         <v>11813.12732</v>
       </c>
       <c r="E159" t="n">
-        <v>19298.03645512859</v>
+        <v>0.07562759746798947</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8.557843640983844</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>427.8921820491922</v>
       </c>
     </row>
     <row r="160">
@@ -7351,16 +8788,25 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2593.718886060854</v>
+        <v>-790.7491100652285</v>
       </c>
       <c r="C160" t="n">
-        <v>12180946.88869245</v>
+        <v>5028.998133837284</v>
       </c>
       <c r="D160" t="n">
         <v>10525.819</v>
       </c>
       <c r="E160" t="n">
-        <v>29867.6676320077</v>
+        <v>-0.108972694962878</v>
+      </c>
+      <c r="F160" t="n">
+        <v>12.33109758674619</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-0.05857547800672894</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-616.5548793373096</v>
       </c>
     </row>
     <row r="161">
@@ -7370,16 +8816,25 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2516.970619952794</v>
+        <v>-790.7807961804837</v>
       </c>
       <c r="C161" t="n">
-        <v>11408200.1952161</v>
+        <v>4709.963684797119</v>
       </c>
       <c r="D161" t="n">
         <v>9871.164991</v>
       </c>
       <c r="E161" t="n">
-        <v>15151.89595051669</v>
+        <v>-0.06219506615114699</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6.255577432160093</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-0.03168611525520845</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-312.7788716080046</v>
       </c>
     </row>
     <row r="162">
@@ -7389,16 +8844,25 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2588.176154151284</v>
+        <v>-790.7807961804837</v>
       </c>
       <c r="C162" t="n">
-        <v>12142250.41282456</v>
+        <v>4709.963684797119</v>
       </c>
       <c r="D162" t="n">
         <v>10519.27835</v>
       </c>
       <c r="E162" t="n">
-        <v>14980.61668588712</v>
+        <v>0.0656572308933055</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6.184863463036168</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>309.2431731518084</v>
       </c>
     </row>
     <row r="163">
@@ -7408,16 +8872,25 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2718.797494020608</v>
+        <v>-790.7807961804837</v>
       </c>
       <c r="C163" t="n">
-        <v>13660635.39333273</v>
+        <v>4709.963684797119</v>
       </c>
       <c r="D163" t="n">
         <v>11861.5567</v>
       </c>
       <c r="E163" t="n">
-        <v>30987.44858179925</v>
+        <v>0.127601752262787</v>
+      </c>
+      <c r="F163" t="n">
+        <v>12.0199923854841</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>600.9996192742052</v>
       </c>
     </row>
     <row r="164">
@@ -7427,16 +8900,25 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2551.713799990955</v>
+        <v>-790.8384039057865</v>
       </c>
       <c r="C164" t="n">
-        <v>11895246.29337306</v>
+        <v>4101.286393372964</v>
       </c>
       <c r="D164" t="n">
         <v>10358.72254</v>
       </c>
       <c r="E164" t="n">
-        <v>34615.47254822875</v>
+        <v>-0.1266978861214733</v>
+      </c>
+      <c r="F164" t="n">
+        <v>11.934848851454</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-0.05760772530284415</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-596.7424425727</v>
       </c>
     </row>
     <row r="165">
@@ -7446,16 +8928,25 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2557.111593307877</v>
+        <v>-790.8384039057865</v>
       </c>
       <c r="C165" t="n">
-        <v>11950301.03959327</v>
+        <v>4101.286393372964</v>
       </c>
       <c r="D165" t="n">
         <v>10407.64423</v>
       </c>
       <c r="E165" t="n">
-        <v>1123.566249392054</v>
+        <v>0.004722753197712274</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.3873872685807201</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>19.36936342903601</v>
       </c>
     </row>
     <row r="166">
@@ -7465,16 +8956,25 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2460.192867107828</v>
+        <v>-790.871665950961</v>
       </c>
       <c r="C166" t="n">
-        <v>11001516.11567929</v>
+        <v>3775.667926876302</v>
       </c>
       <c r="D166" t="n">
         <v>9597.539448</v>
       </c>
       <c r="E166" t="n">
-        <v>18603.62595909773</v>
+        <v>-0.07783747830896025</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6.384675813660038</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-0.03326204517445625</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-319.2337906830019</v>
       </c>
     </row>
     <row r="167">
@@ -7484,16 +8984,25 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2543.93313488611</v>
+        <v>-790.871665950961</v>
       </c>
       <c r="C167" t="n">
-        <v>11851216.29868515</v>
+        <v>3775.667926876302</v>
       </c>
       <c r="D167" t="n">
         <v>10353.93158</v>
       </c>
       <c r="E167" t="n">
-        <v>17340.82006134417</v>
+        <v>0.07881104694574848</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5.951286844732102</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>297.5643422366051</v>
       </c>
     </row>
     <row r="168">
@@ -7503,16 +9012,25 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2542.989621179141</v>
+        <v>-790.8719665441113</v>
       </c>
       <c r="C168" t="n">
-        <v>11841260.04782843</v>
+        <v>3772.495974218935</v>
       </c>
       <c r="D168" t="n">
         <v>10345.40376</v>
       </c>
       <c r="E168" t="n">
-        <v>195.2206050337198</v>
+        <v>-0.0008236310945374391</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.06219515014446065</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-0.0003005931502883202</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-3.109757507223033</v>
       </c>
     </row>
     <row r="169">
@@ -7522,16 +9040,25 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2524.809089648726</v>
+        <v>-790.8777586626637</v>
       </c>
       <c r="C169" t="n">
-        <v>11652413.02974419</v>
+        <v>3712.331379185259</v>
       </c>
       <c r="D169" t="n">
         <v>10183.6481</v>
       </c>
       <c r="E169" t="n">
-        <v>3702.882707534088</v>
+        <v>-0.01563550961881443</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.179697941836777</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-0.005792118552470293</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-58.98489709183885</v>
       </c>
     </row>
     <row r="170">
@@ -7541,16 +9068,25 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2256.841179038388</v>
+        <v>-790.9631303089171</v>
       </c>
       <c r="C170" t="n">
-        <v>9397114.946062105</v>
+        <v>2993.818070045101</v>
       </c>
       <c r="D170" t="n">
         <v>8251.273622999999</v>
       </c>
       <c r="E170" t="n">
-        <v>44221.53105258995</v>
+        <v>-0.1897526758608245</v>
+      </c>
+      <c r="F170" t="n">
+        <v>14.08849625765016</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-0.08537164625336872</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-704.424812882508</v>
       </c>
     </row>
     <row r="171">
@@ -7560,16 +9096,25 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2251.136601803705</v>
+        <v>-790.964947724848</v>
       </c>
       <c r="C171" t="n">
-        <v>9349342.807866452</v>
+        <v>2978.598389175414</v>
       </c>
       <c r="D171" t="n">
         <v>8210.149092</v>
       </c>
       <c r="E171" t="n">
-        <v>936.7085920715916</v>
+        <v>-0.00498402221026424</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.2984251150919042</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-0.001817415930867143</v>
+      </c>
+      <c r="H171" t="n">
+        <v>-14.92125575459521</v>
       </c>
     </row>
     <row r="172">
@@ -7579,16 +9124,25 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2265.585994211937</v>
+        <v>-790.964947724848</v>
       </c>
       <c r="C172" t="n">
-        <v>9467095.98353878</v>
+        <v>2978.598389175414</v>
       </c>
       <c r="D172" t="n">
         <v>8315.664653</v>
       </c>
       <c r="E172" t="n">
-        <v>2403.126034129139</v>
+        <v>0.01285184468852276</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.76560967774333</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>38.2804838871665</v>
       </c>
     </row>
     <row r="173">
@@ -7598,16 +9152,25 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2216.776570268719</v>
+        <v>-790.980304458506</v>
       </c>
       <c r="C173" t="n">
-        <v>9070115.279615393</v>
+        <v>2853.697776855021</v>
       </c>
       <c r="D173" t="n">
         <v>7973.803768</v>
       </c>
       <c r="E173" t="n">
-        <v>7783.935371046795</v>
+        <v>-0.04111047033103585</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2.449031614125341</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-0.01535673365799175</v>
+      </c>
+      <c r="H173" t="n">
+        <v>-122.4515807062671</v>
       </c>
     </row>
     <row r="174">
@@ -7617,16 +9180,25 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2307.82389375565</v>
+        <v>-790.980304458506</v>
       </c>
       <c r="C174" t="n">
-        <v>9843491.786673028</v>
+        <v>2853.697776855021</v>
       </c>
       <c r="D174" t="n">
         <v>8667.577155000001</v>
       </c>
       <c r="E174" t="n">
-        <v>15783.19402158439</v>
+        <v>0.08700657894093301</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4.96580961791003</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>248.2904808955015</v>
       </c>
     </row>
     <row r="175">
@@ -7636,16 +9208,25 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2380.455115458152</v>
+        <v>-790.980304458506</v>
       </c>
       <c r="C175" t="n">
-        <v>10502590.15183683</v>
+        <v>2853.697776855021</v>
       </c>
       <c r="D175" t="n">
         <v>9259.783003</v>
       </c>
       <c r="E175" t="n">
-        <v>13450.98704415913</v>
+        <v>0.06832426610224961</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3.899536125624812</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>194.9768062812406</v>
       </c>
     </row>
     <row r="176">
@@ -7655,16 +9236,25 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2322.477396011278</v>
+        <v>-790.9960577999866</v>
       </c>
       <c r="C176" t="n">
-        <v>9981622.159526547</v>
+        <v>2712.143628785323</v>
       </c>
       <c r="D176" t="n">
         <v>8809.469198000001</v>
       </c>
       <c r="E176" t="n">
-        <v>10215.05867275056</v>
+        <v>-0.0486311401524319</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2.775571530778397</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-0.01575334148059982</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-138.7785765389199</v>
       </c>
     </row>
     <row r="177">
@@ -7674,16 +9264,25 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2280.003254779658</v>
+        <v>-791.0075986066499</v>
       </c>
       <c r="C177" t="n">
-        <v>9613754.062209729</v>
+        <v>2612.188821798468</v>
       </c>
       <c r="D177" t="n">
         <v>8491.166316999999</v>
       </c>
       <c r="E177" t="n">
-        <v>7213.099947388579</v>
+        <v>-0.03613190237072005</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1.959898176212834</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-0.01154080666332586</v>
+      </c>
+      <c r="H177" t="n">
+        <v>-97.99490881064168</v>
       </c>
     </row>
     <row r="178">
@@ -7693,16 +9292,25 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2094.564867941736</v>
+        <v>-791.0579847594572</v>
       </c>
       <c r="C178" t="n">
-        <v>8233705.321911975</v>
+        <v>2237.210653060682</v>
       </c>
       <c r="D178" t="n">
         <v>7296.164425</v>
       </c>
       <c r="E178" t="n">
-        <v>27059.7792215246</v>
+        <v>-0.1407347173977159</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7.3525131125056</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-0.05038615280730601</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-367.62565562528</v>
       </c>
     </row>
     <row r="179">
@@ -7712,16 +9320,25 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2162.572612838532</v>
+        <v>-791.0579847594572</v>
       </c>
       <c r="C179" t="n">
-        <v>8751161.027037421</v>
+        <v>2237.210653060682</v>
       </c>
       <c r="D179" t="n">
         <v>7764.057262</v>
       </c>
       <c r="E179" t="n">
-        <v>10560.3205127642</v>
+        <v>0.06412860370810521</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.869383907633595</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>143.4691953816798</v>
       </c>
     </row>
     <row r="180">
@@ -7731,16 +9348,25 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2130.196089601337</v>
+        <v>-791.0662617300753</v>
       </c>
       <c r="C180" t="n">
-        <v>8501919.727745002</v>
+        <v>2173.492788855359</v>
       </c>
       <c r="D180" t="n">
         <v>7547.265443</v>
       </c>
       <c r="E180" t="n">
-        <v>4887.084299851345</v>
+        <v>-0.0279224909972077</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.249369886378881</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-0.008276970618130684</v>
+      </c>
+      <c r="H180" t="n">
+        <v>-62.46849431894406</v>
       </c>
     </row>
     <row r="181">
@@ -7750,16 +9376,25 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2087.057135854627</v>
+        <v>-791.0772900869512</v>
       </c>
       <c r="C181" t="n">
-        <v>8182075.41270505</v>
+        <v>2091.725454587655</v>
       </c>
       <c r="D181" t="n">
         <v>7268.902712</v>
       </c>
       <c r="E181" t="n">
-        <v>6271.457157646117</v>
+        <v>-0.03688259451086066</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.603281064072638</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-0.01102835687583101</v>
+      </c>
+      <c r="H181" t="n">
+        <v>-80.16405320363191</v>
       </c>
     </row>
     <row r="182">
@@ -7769,16 +9404,25 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2079.52616096502</v>
+        <v>-791.0792153603177</v>
       </c>
       <c r="C182" t="n">
-        <v>8126609.741794636</v>
+        <v>2077.545805800876</v>
       </c>
       <c r="D182" t="n">
         <v>7220.593553</v>
       </c>
       <c r="E182" t="n">
-        <v>1087.562174714004</v>
+        <v>-0.006646004343991056</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.2780323291525244</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-0.001925273366460352</v>
+      </c>
+      <c r="H182" t="n">
+        <v>-13.90161645762622</v>
       </c>
     </row>
     <row r="183">
@@ -7788,16 +9432,25 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2090.093394984734</v>
+        <v>-791.0792153603177</v>
       </c>
       <c r="C183" t="n">
-        <v>8202094.141567769</v>
+        <v>2077.545805800876</v>
       </c>
       <c r="D183" t="n">
         <v>7289.03113</v>
       </c>
       <c r="E183" t="n">
-        <v>1540.497954553752</v>
+        <v>0.009478109589974951</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.3938241365114705</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>19.69120682557352</v>
       </c>
     </row>
     <row r="184">
@@ -7807,16 +9460,25 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2098.724964031101</v>
+        <v>-791.0792153603177</v>
       </c>
       <c r="C184" t="n">
-        <v>8264228.213148257</v>
+        <v>2077.545805800876</v>
       </c>
       <c r="D184" t="n">
         <v>7345.375275</v>
       </c>
       <c r="E184" t="n">
-        <v>1268.042277152808</v>
+        <v>0.007729990995387617</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.3211882074269217</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>16.05941037134608</v>
       </c>
     </row>
     <row r="185">
@@ -7826,16 +9488,25 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2211.316492663105</v>
+        <v>-791.0792153603177</v>
       </c>
       <c r="C185" t="n">
-        <v>9164841.918817991</v>
+        <v>2077.545805800876</v>
       </c>
       <c r="D185" t="n">
         <v>8162.191138</v>
       </c>
       <c r="E185" t="n">
-        <v>18379.87154428033</v>
+        <v>0.1112013794285003</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4.620519188619053</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>231.0259594309526</v>
       </c>
     </row>
     <row r="186">
@@ -7845,16 +9516,25 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2307.538803554155</v>
+        <v>-791.0792153603177</v>
       </c>
       <c r="C186" t="n">
-        <v>10006658.97242067</v>
+        <v>2077.545805800876</v>
       </c>
       <c r="D186" t="n">
         <v>8927.21226</v>
       </c>
       <c r="E186" t="n">
-        <v>17179.93986944238</v>
+        <v>0.09372742062341055</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3.894460192094023</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>194.7230096047011</v>
       </c>
     </row>
     <row r="187">
@@ -7864,16 +9544,25 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2242.848940025335</v>
+        <v>-791.0926460323354</v>
       </c>
       <c r="C187" t="n">
-        <v>9449748.984485719</v>
+        <v>1961.922198277956</v>
       </c>
       <c r="D187" t="n">
         <v>8440.119586999999</v>
       </c>
       <c r="E187" t="n">
-        <v>10919.80368499903</v>
+        <v>-0.05456268528334522</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2.267129559272941</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-0.0134306720177574</v>
+      </c>
+      <c r="H187" t="n">
+        <v>-113.3564779636471</v>
       </c>
     </row>
     <row r="188">
@@ -7883,16 +9572,25 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2351.409372811303</v>
+        <v>-791.0926460323354</v>
       </c>
       <c r="C188" t="n">
-        <v>10444100.72097247</v>
+        <v>1961.922198277956</v>
       </c>
       <c r="D188" t="n">
         <v>9346.357628</v>
       </c>
       <c r="E188" t="n">
-        <v>20292.89258136215</v>
+        <v>0.1073726541026557</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4.21313587144042</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>210.656793572021</v>
       </c>
     </row>
     <row r="189">
@@ -7902,16 +9600,25 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2402.382134975899</v>
+        <v>-791.0926460323354</v>
       </c>
       <c r="C189" t="n">
-        <v>10933296.97336467</v>
+        <v>1961.922198277956</v>
       </c>
       <c r="D189" t="n">
         <v>9793.07042</v>
       </c>
       <c r="E189" t="n">
-        <v>9983.596987596089</v>
+        <v>0.04779538829776098</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.875416665533835</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>93.77083327669173</v>
       </c>
     </row>
     <row r="190">
@@ -7921,16 +9628,25 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2458.755092413571</v>
+        <v>-791.0926460323354</v>
       </c>
       <c r="C190" t="n">
-        <v>11503091.13377104</v>
+        <v>1961.922198277956</v>
       </c>
       <c r="D190" t="n">
         <v>10313.85684</v>
       </c>
       <c r="E190" t="n">
-        <v>11628.45225319115</v>
+        <v>0.0531790743520458</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2.086664129103052</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>104.3332064551526</v>
       </c>
     </row>
     <row r="191">
@@ -7940,16 +9656,25 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2386.669094086099</v>
+        <v>-791.1049407380506</v>
       </c>
       <c r="C191" t="n">
-        <v>10790776.16020668</v>
+        <v>1840.432544536201</v>
       </c>
       <c r="D191" t="n">
         <v>9687.706759999999</v>
       </c>
       <c r="E191" t="n">
-        <v>13966.96026596786</v>
+        <v>-0.06070959581013548</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2.382150073367745</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-0.01229470571510024</v>
+      </c>
+      <c r="H191" t="n">
+        <v>-119.1075036683872</v>
       </c>
     </row>
     <row r="192">
@@ -7959,16 +9684,25 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2256.095072451809</v>
+        <v>-791.1272109320865</v>
       </c>
       <c r="C192" t="n">
-        <v>9635896.364270952</v>
+        <v>1643.460766981812</v>
       </c>
       <c r="D192" t="n">
         <v>8671.212541999999</v>
       </c>
       <c r="E192" t="n">
-        <v>22644.70188109271</v>
+        <v>-0.1049261959700357</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3.86219171675274</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-0.02227019403598849</v>
+      </c>
+      <c r="H192" t="n">
+        <v>-193.109585837637</v>
       </c>
     </row>
     <row r="193">
@@ -7978,16 +9712,25 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2310.964198750542</v>
+        <v>-791.1272109320865</v>
       </c>
       <c r="C193" t="n">
-        <v>10126380.7310902</v>
+        <v>1643.460766981812</v>
       </c>
       <c r="D193" t="n">
         <v>9121.600536</v>
       </c>
       <c r="E193" t="n">
-        <v>10009.88503712747</v>
+        <v>0.05194060136555244</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.707246811154547</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>85.36234055772735</v>
       </c>
     </row>
     <row r="194">
@@ -7997,16 +9740,25 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1604.100434467063</v>
+        <v>-791.2419313731849</v>
       </c>
       <c r="C194" t="n">
-        <v>6108185.95184061</v>
+        <v>991.3279221725207</v>
       </c>
       <c r="D194" t="n">
         <v>5573.07765</v>
       </c>
       <c r="E194" t="n">
-        <v>78788.13292646249</v>
+        <v>-0.3890241489961253</v>
+      </c>
+      <c r="F194" t="n">
+        <v>12.78691852567237</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-0.1147204410983971</v>
+      </c>
+      <c r="H194" t="n">
+        <v>-639.3459262836186</v>
       </c>
     </row>
     <row r="195">
@@ -8016,16 +9768,25 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1715.961025040091</v>
+        <v>-791.2419313731849</v>
       </c>
       <c r="C195" t="n">
-        <v>6788565.825470428</v>
+        <v>991.3279221725207</v>
       </c>
       <c r="D195" t="n">
         <v>6206.52165</v>
       </c>
       <c r="E195" t="n">
-        <v>13885.30354346568</v>
+        <v>0.1136614344499577</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2.253515072888495</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>112.6757536444248</v>
       </c>
     </row>
     <row r="196">
@@ -8035,16 +9796,25 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1760.057597432604</v>
+        <v>-791.2419313731849</v>
       </c>
       <c r="C196" t="n">
-        <v>7068045.886966235</v>
+        <v>991.3279221725207</v>
       </c>
       <c r="D196" t="n">
         <v>6467.254046</v>
       </c>
       <c r="E196" t="n">
-        <v>5703.674724404208</v>
+        <v>0.04200942342640509</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.8329022887392755</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>41.64511443696377</v>
       </c>
     </row>
     <row r="197">
@@ -8054,16 +9824,25 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1804.031972519321</v>
+        <v>-791.2419313731849</v>
       </c>
       <c r="C197" t="n">
-        <v>7358435.745717689</v>
+        <v>991.3279221725207</v>
       </c>
       <c r="D197" t="n">
         <v>6738.38302</v>
       </c>
       <c r="E197" t="n">
-        <v>5926.323647988876</v>
+        <v>0.04192335295189055</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.8311958074460575</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>41.55979037230287</v>
       </c>
     </row>
     <row r="198">
@@ -8073,16 +9852,25 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1824.553889459929</v>
+        <v>-791.2419313731849</v>
       </c>
       <c r="C198" t="n">
-        <v>7496550.127417194</v>
+        <v>991.3279221725207</v>
       </c>
       <c r="D198" t="n">
         <v>6867.440452</v>
       </c>
       <c r="E198" t="n">
-        <v>2818.660851010298</v>
+        <v>0.01915258180144227</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.37972978242926</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>18.986489121463</v>
       </c>
     </row>
     <row r="199">
@@ -8092,16 +9880,25 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1859.161764097951</v>
+        <v>-791.2419313731849</v>
       </c>
       <c r="C199" t="n">
-        <v>7737090.280623001</v>
+        <v>991.3279221725207</v>
       </c>
       <c r="D199" t="n">
         <v>7092.291523</v>
       </c>
       <c r="E199" t="n">
-        <v>4908.98271848588</v>
+        <v>0.03274161204186588</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.6491534846808338</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>32.45767423404169</v>
       </c>
     </row>
     <row r="200">
@@ -8111,16 +9908,25 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1925.36258409965</v>
+        <v>-791.2419313731849</v>
       </c>
       <c r="C200" t="n">
-        <v>8226941.484090228</v>
+        <v>991.3279221725207</v>
       </c>
       <c r="D200" t="n">
         <v>7550.483012</v>
       </c>
       <c r="E200" t="n">
-        <v>9996.963336065844</v>
+        <v>0.06460415332817387</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.280878021650671</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>64.04390108253355</v>
       </c>
     </row>
     <row r="201">
@@ -8130,16 +9936,25 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2087.353591056848</v>
+        <v>-791.2419313731849</v>
       </c>
       <c r="C201" t="n">
-        <v>9634914.907064183</v>
+        <v>991.3279221725207</v>
       </c>
       <c r="D201" t="n">
         <v>8869.057618999999</v>
       </c>
       <c r="E201" t="n">
-        <v>28734.1514892644</v>
+        <v>0.1746344710536248</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3.462400546585741</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>173.1200273292871</v>
       </c>
     </row>
     <row r="202">
@@ -8149,16 +9964,25 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2194.637352995984</v>
+        <v>-791.2419313731849</v>
       </c>
       <c r="C202" t="n">
-        <v>10669568.97567524</v>
+        <v>991.3279221725207</v>
       </c>
       <c r="D202" t="n">
         <v>9840.906384</v>
       </c>
       <c r="E202" t="n">
-        <v>21115.38915532763</v>
+        <v>0.1095774553226522</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2.172543822039141</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>108.627191101957</v>
       </c>
     </row>
     <row r="203">
@@ -8168,16 +9992,25 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2135.663722731918</v>
+        <v>-791.2474107141485</v>
       </c>
       <c r="C203" t="n">
-        <v>10108145.63749038</v>
+        <v>939.1651185418581</v>
       </c>
       <c r="D203" t="n">
         <v>9333.239873</v>
       </c>
       <c r="E203" t="n">
-        <v>11008.30074872275</v>
+        <v>-0.05158737327543299</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1.022800071189464</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-0.005479340963625655</v>
+      </c>
+      <c r="H203" t="n">
+        <v>-51.14000355947321</v>
       </c>
     </row>
   </sheetData>

--- a/Results/BITCOIN(07-2016-05-2020)Results.xlsx
+++ b/Results/BITCOIN(07-2016-05-2020)Results.xlsx
@@ -4392,10 +4392,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.884630272673224</v>
+        <v>5.76693766721976</v>
       </c>
       <c r="C3" t="n">
-        <v>996015.7720822205</v>
+        <v>996093.8941982554</v>
       </c>
       <c r="D3" t="n">
         <v>663.7810059</v>
@@ -4407,10 +4407,10 @@
         <v>78.12211603489249</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.884630272673224</v>
+        <v>5.76693766721976</v>
       </c>
       <c r="H3" t="n">
-        <v>-3906.105801744624</v>
+        <v>3906.105801744624</v>
       </c>
     </row>
     <row r="4">
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-35.98832905083925</v>
+        <v>35.27087641847735</v>
       </c>
       <c r="C4" t="n">
-        <v>976034.726995961</v>
+        <v>976503.0978336607</v>
       </c>
       <c r="D4" t="n">
         <v>650.7260132</v>
@@ -4432,13 +4432,13 @@
         <v>-0.01966762016984668</v>
       </c>
       <c r="F4" t="n">
-        <v>391.7851977697939</v>
+        <v>391.8159272918946</v>
       </c>
       <c r="G4" t="n">
-        <v>-30.10369877816603</v>
+        <v>29.50393875125759</v>
       </c>
       <c r="H4" t="n">
-        <v>-19589.25988848969</v>
+        <v>19590.79636459473</v>
       </c>
     </row>
     <row r="5">
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-35.98832905083925</v>
+        <v>21.20057726863632</v>
       </c>
       <c r="C5" t="n">
-        <v>976034.726995961</v>
+        <v>985936.1138758194</v>
       </c>
       <c r="D5" t="n">
         <v>657.0120239</v>
@@ -4460,13 +4460,13 @@
         <v>0.009659996023653692</v>
       </c>
       <c r="F5" t="n">
-        <v>188.569831634578</v>
+        <v>188.6603208431735</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>14.07029914984103</v>
       </c>
       <c r="H5" t="n">
-        <v>9428.4915817289</v>
+        <v>9433.016042158675</v>
       </c>
     </row>
     <row r="6">
@@ -4476,10 +4476,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-247.7853795022298</v>
+        <v>230.867290936913</v>
       </c>
       <c r="C6" t="n">
-        <v>851809.26958671</v>
+        <v>862910.9541779583</v>
       </c>
       <c r="D6" t="n">
         <v>575.0300293</v>
@@ -4488,13 +4488,13 @@
         <v>-0.124780052141752</v>
       </c>
       <c r="F6" t="n">
-        <v>2435.793282534334</v>
+        <v>2460.503193957221</v>
       </c>
       <c r="G6" t="n">
-        <v>-211.7970504513905</v>
+        <v>209.6667136682767</v>
       </c>
       <c r="H6" t="n">
-        <v>-121789.6641267167</v>
+        <v>123025.1596978611</v>
       </c>
     </row>
     <row r="7">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-247.7853795022298</v>
+        <v>200.0030527922944</v>
       </c>
       <c r="C7" t="n">
-        <v>851809.26958671</v>
+        <v>881409.2461751439</v>
       </c>
       <c r="D7" t="n">
         <v>587.3569946</v>
@@ -4516,13 +4516,13 @@
         <v>0.02143708097298143</v>
       </c>
       <c r="F7" t="n">
-        <v>365.2060857133294</v>
+        <v>369.9658399437112</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>30.86423814461858</v>
       </c>
       <c r="H7" t="n">
-        <v>18260.30428566647</v>
+        <v>18498.29199718556</v>
       </c>
     </row>
     <row r="8">
@@ -4532,10 +4532,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-276.1641983129341</v>
+        <v>228.7807229874917</v>
       </c>
       <c r="C8" t="n">
-        <v>835133.7149134132</v>
+        <v>864492.5574937169</v>
       </c>
       <c r="D8" t="n">
         <v>576.0839844</v>
@@ -4544,13 +4544,13 @@
         <v>-0.01919277424741856</v>
       </c>
       <c r="F8" t="n">
-        <v>326.9716602607245</v>
+        <v>338.3337736285382</v>
       </c>
       <c r="G8" t="n">
-        <v>-28.37881881070434</v>
+        <v>28.77767019519727</v>
       </c>
       <c r="H8" t="n">
-        <v>-16348.58301303622</v>
+        <v>16916.68868142691</v>
       </c>
     </row>
     <row r="9">
@@ -4560,10 +4560,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-276.1641983129341</v>
+        <v>220.2327814071064</v>
       </c>
       <c r="C9" t="n">
-        <v>835133.7149134132</v>
+        <v>869546.7636879038</v>
       </c>
       <c r="D9" t="n">
         <v>579.4520264</v>
@@ -4572,13 +4572,13 @@
         <v>0.005846442691004377</v>
       </c>
       <c r="F9" t="n">
-        <v>97.65122807133716</v>
+        <v>101.0841238837365</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>8.547941580385311</v>
       </c>
       <c r="H9" t="n">
-        <v>4882.561403566858</v>
+        <v>5054.206194186823</v>
       </c>
     </row>
     <row r="10">
@@ -4588,10 +4588,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-285.9227612327723</v>
+        <v>230.190248242161</v>
       </c>
       <c r="C10" t="n">
-        <v>829404.7935111213</v>
+        <v>863698.7333291686</v>
       </c>
       <c r="D10" t="n">
         <v>575.5549927</v>
@@ -4600,13 +4600,13 @@
         <v>-0.006725377636888121</v>
       </c>
       <c r="F10" t="n">
-        <v>112.3317922017994</v>
+        <v>116.9606071747014</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.758562919838207</v>
+        <v>9.957466835054644</v>
       </c>
       <c r="H10" t="n">
-        <v>-5616.589610089969</v>
+        <v>5848.030358735068</v>
       </c>
     </row>
     <row r="11">
@@ -4616,10 +4616,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-285.9227612327723</v>
+        <v>118.3530748591667</v>
       </c>
       <c r="C11" t="n">
-        <v>829404.7935111213</v>
+        <v>934786.8916226614</v>
       </c>
       <c r="D11" t="n">
         <v>622.927002</v>
@@ -4628,13 +4628,13 @@
         <v>0.08230666035537643</v>
       </c>
       <c r="F11" t="n">
-        <v>1365.31077273282</v>
+        <v>1421.763165869854</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>111.8371733829943</v>
       </c>
       <c r="H11" t="n">
-        <v>68265.53863664098</v>
+        <v>71088.15829349271</v>
       </c>
     </row>
     <row r="12">
@@ -4644,10 +4644,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-320.3682889897732</v>
+        <v>156.3987233925453</v>
       </c>
       <c r="C12" t="n">
-        <v>808070.5295297336</v>
+        <v>911213.4188872078</v>
       </c>
       <c r="D12" t="n">
         <v>607.2180176000001</v>
@@ -4656,13 +4656,13 @@
         <v>-0.02521801808167558</v>
       </c>
       <c r="F12" t="n">
-        <v>418.3189015958372</v>
+        <v>471.4694547090718</v>
       </c>
       <c r="G12" t="n">
-        <v>-34.4455277570009</v>
+        <v>38.04564853337862</v>
       </c>
       <c r="H12" t="n">
-        <v>-20915.94507979186</v>
+        <v>23573.47273545359</v>
       </c>
     </row>
     <row r="13">
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-329.7638127661117</v>
+        <v>166.7816051943439</v>
       </c>
       <c r="C13" t="n">
-        <v>802292.0924441698</v>
+        <v>904825.1813581057</v>
       </c>
       <c r="D13" t="n">
         <v>602.9609985</v>
@@ -4684,13 +4684,13 @@
         <v>-0.007010692991004707</v>
       </c>
       <c r="F13" t="n">
-        <v>113.3026879522313</v>
+        <v>127.7647505820397</v>
       </c>
       <c r="G13" t="n">
-        <v>-9.395523776338521</v>
+        <v>10.38288180179857</v>
       </c>
       <c r="H13" t="n">
-        <v>-5665.134397611565</v>
+        <v>6388.237529101983</v>
       </c>
     </row>
     <row r="14">
@@ -4700,10 +4700,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-329.7638127661117</v>
+        <v>149.9807465743486</v>
       </c>
       <c r="C14" t="n">
-        <v>802292.0924441698</v>
+        <v>915281.6417333393</v>
       </c>
       <c r="D14" t="n">
         <v>609.9290161</v>
@@ -4712,13 +4712,13 @@
         <v>0.01155633219616949</v>
       </c>
       <c r="F14" t="n">
-        <v>185.4310787728949</v>
+        <v>209.1292075046715</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>16.80085861999525</v>
       </c>
       <c r="H14" t="n">
-        <v>9271.553938644747</v>
+        <v>10456.46037523358</v>
       </c>
     </row>
     <row r="15">
@@ -4728,10 +4728,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-329.7638127661117</v>
+        <v>132.3239840577713</v>
       </c>
       <c r="C15" t="n">
-        <v>802292.0924441698</v>
+        <v>926404.3391708692</v>
       </c>
       <c r="D15" t="n">
         <v>617.3410034</v>
@@ -4740,13 +4740,13 @@
         <v>0.01215221296962324</v>
       </c>
       <c r="F15" t="n">
-        <v>194.9924874245242</v>
+        <v>222.4539487505988</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>17.65676251657731</v>
       </c>
       <c r="H15" t="n">
-        <v>9749.624371226211</v>
+        <v>11122.69743752994</v>
       </c>
     </row>
     <row r="16">
@@ -4756,10 +4756,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-329.7638127661117</v>
+        <v>79.56808496996508</v>
       </c>
       <c r="C16" t="n">
-        <v>802292.0924441698</v>
+        <v>960873.9117570269</v>
       </c>
       <c r="D16" t="n">
         <v>640.3109741</v>
@@ -4768,13 +4768,13 @@
         <v>0.0372079135736863</v>
       </c>
       <c r="F16" t="n">
-        <v>597.032296730292</v>
+        <v>689.3914517231533</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>52.75589908780624</v>
       </c>
       <c r="H16" t="n">
-        <v>29851.6148365146</v>
+        <v>34469.57258615766</v>
       </c>
     </row>
     <row r="17">
@@ -4784,10 +4784,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-343.9630735269378</v>
+        <v>96.23386713659816</v>
       </c>
       <c r="C17" t="n">
-        <v>793122.2282183026</v>
+        <v>950106.8643799532</v>
       </c>
       <c r="D17" t="n">
         <v>633.1359863</v>
@@ -4796,13 +4796,13 @@
         <v>-0.01120547373108022</v>
       </c>
       <c r="F17" t="n">
-        <v>179.8012593307307</v>
+        <v>215.3409475414733</v>
       </c>
       <c r="G17" t="n">
-        <v>-14.19926076082612</v>
+        <v>16.66578216663308</v>
       </c>
       <c r="H17" t="n">
-        <v>-8990.062966536532</v>
+        <v>10767.04737707366</v>
       </c>
     </row>
     <row r="18">
@@ -4812,10 +4812,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-343.9630735269378</v>
+        <v>96.23386713659816</v>
       </c>
       <c r="C18" t="n">
-        <v>793122.2282183026</v>
+        <v>950106.8643799532</v>
       </c>
       <c r="D18" t="n">
         <v>690.2890015</v>
@@ -4824,13 +4824,13 @@
         <v>0.09026973104782439</v>
       </c>
       <c r="F18" t="n">
-        <v>1431.898604586347</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>71594.93022931737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4840,10 +4840,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-343.9630735269378</v>
+        <v>70.85655989315009</v>
       </c>
       <c r="C19" t="n">
-        <v>793122.2282183026</v>
+        <v>968324.7936632728</v>
       </c>
       <c r="D19" t="n">
         <v>703.5250244</v>
@@ -4852,13 +4852,13 @@
         <v>0.01917461073729706</v>
       </c>
       <c r="F19" t="n">
-        <v>304.1561998636727</v>
+        <v>364.3585856663898</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>25.37730724344808</v>
       </c>
       <c r="H19" t="n">
-        <v>15207.80999318363</v>
+        <v>18217.92928331949</v>
       </c>
     </row>
     <row r="20">
@@ -4868,10 +4868,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-343.9630735269378</v>
+        <v>45.96456665527623</v>
       </c>
       <c r="C20" t="n">
-        <v>793122.2282183026</v>
+        <v>986530.2898782716</v>
       </c>
       <c r="D20" t="n">
         <v>716.7520142</v>
@@ -4880,13 +4880,13 @@
         <v>0.0188010224814399</v>
       </c>
       <c r="F20" t="n">
-        <v>298.2301768652403</v>
+        <v>364.1099242999769</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>24.89199323787386</v>
       </c>
       <c r="H20" t="n">
-        <v>14911.50884326202</v>
+        <v>18205.49621499885</v>
       </c>
     </row>
     <row r="21">
@@ -4896,10 +4896,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-343.9630735269378</v>
+        <v>45.96456665527623</v>
       </c>
       <c r="C21" t="n">
-        <v>793122.2282183026</v>
+        <v>986530.2898782716</v>
       </c>
       <c r="D21" t="n">
         <v>751.8330078</v>
@@ -4908,13 +4908,13 @@
         <v>0.04894439486041148</v>
       </c>
       <c r="F21" t="n">
-        <v>776.3777502097198</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>38818.88751048599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4924,10 +4924,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-358.6478013827398</v>
+        <v>63.8649478912095</v>
       </c>
       <c r="C22" t="n">
-        <v>782015.5634416817</v>
+        <v>972986.0762605136</v>
       </c>
       <c r="D22" t="n">
         <v>741.5109863</v>
@@ -4936,13 +4936,13 @@
         <v>-0.01372914116953194</v>
       </c>
       <c r="F22" t="n">
-        <v>217.7777407180561</v>
+        <v>270.8842723551611</v>
       </c>
       <c r="G22" t="n">
-        <v>-14.68472785580197</v>
+        <v>17.90038123593327</v>
       </c>
       <c r="H22" t="n">
-        <v>-10888.8870359028</v>
+        <v>13544.21361775805</v>
       </c>
     </row>
     <row r="23">
@@ -4952,10 +4952,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-358.6478013827398</v>
+        <v>3.163257096448845</v>
       </c>
       <c r="C23" t="n">
-        <v>782015.5634416817</v>
+        <v>972986.0762605136</v>
       </c>
       <c r="D23" t="n">
         <v>778.2479858</v>
@@ -4964,13 +4964,13 @@
         <v>0.04954343250301756</v>
       </c>
       <c r="F23" t="n">
-        <v>774.874705673644</v>
+        <v>964.1013999117731</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>60.70169079476065</v>
       </c>
       <c r="H23" t="n">
-        <v>38743.7352836822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-365.4396692415008</v>
+        <v>11.44470992675596</v>
       </c>
       <c r="C24" t="n">
-        <v>776660.2879011877</v>
+        <v>966453.6746313897</v>
       </c>
       <c r="D24" t="n">
         <v>773.0230103</v>
@@ -4992,13 +4992,13 @@
         <v>-0.006713766813837641</v>
       </c>
       <c r="F24" t="n">
-        <v>105.0054027547861</v>
+        <v>130.6480325824787</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.791867858761082</v>
+        <v>8.281452830307112</v>
       </c>
       <c r="H24" t="n">
-        <v>-5250.270137739307</v>
+        <v>6532.401629123937</v>
       </c>
     </row>
     <row r="25">
@@ -5008,10 +5008,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-365.4396692415008</v>
+        <v>11.44470992675596</v>
       </c>
       <c r="C25" t="n">
-        <v>776660.2879011877</v>
+        <v>966453.6746313897</v>
       </c>
       <c r="D25" t="n">
         <v>785.1660156</v>
@@ -5020,13 +5020,13 @@
         <v>0.01570846551551873</v>
       </c>
       <c r="F25" t="n">
-        <v>244.002826995373</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>12200.14134976865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-365.4396692415008</v>
+        <v>11.44470992675596</v>
       </c>
       <c r="C26" t="n">
-        <v>776660.2879011877</v>
+        <v>966453.6746313897</v>
       </c>
       <c r="D26" t="n">
         <v>922.1799927</v>
@@ -5048,13 +5048,13 @@
         <v>0.1745031934364836</v>
       </c>
       <c r="F26" t="n">
-        <v>2710.59400908112</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>135529.700454056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5064,10 +5064,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-365.4396692415008</v>
+        <v>11.44470992675596</v>
       </c>
       <c r="C27" t="n">
-        <v>776660.2879011877</v>
+        <v>966453.6746313897</v>
       </c>
       <c r="D27" t="n">
         <v>960.6270142</v>
@@ -5076,13 +5076,13 @@
         <v>0.04169145048076037</v>
       </c>
       <c r="F27" t="n">
-        <v>647.6018786681092</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>32380.09393340546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5092,10 +5092,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-416.5719004435546</v>
+        <v>73.79963502979089</v>
       </c>
       <c r="C28" t="n">
-        <v>729539.0356317742</v>
+        <v>908967.0785238507</v>
       </c>
       <c r="D28" t="n">
         <v>903.4869995</v>
@@ -5104,13 +5104,13 @@
         <v>-0.05948199858566911</v>
       </c>
       <c r="F28" t="n">
-        <v>923.9461229296762</v>
+        <v>1149.731922150781</v>
       </c>
       <c r="G28" t="n">
-        <v>-51.13223120205374</v>
+        <v>62.35492510303493</v>
       </c>
       <c r="H28" t="n">
-        <v>-46197.30614648381</v>
+        <v>57486.59610753904</v>
       </c>
     </row>
     <row r="29">
@@ -5120,10 +5120,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-493.239001307122</v>
+        <v>167.412327348429</v>
       </c>
       <c r="C29" t="n">
-        <v>665012.5635400204</v>
+        <v>830146.9082572882</v>
       </c>
       <c r="D29" t="n">
         <v>825.1420288</v>
@@ -5132,13 +5132,13 @@
         <v>-0.08671399892124289</v>
       </c>
       <c r="F29" t="n">
-        <v>1265.224942975565</v>
+        <v>1576.40340533125</v>
       </c>
       <c r="G29" t="n">
-        <v>-76.66710086356741</v>
+        <v>93.61269231863812</v>
       </c>
       <c r="H29" t="n">
-        <v>-63261.24714877825</v>
+        <v>78820.17026656249</v>
       </c>
     </row>
     <row r="30">
@@ -5148,10 +5148,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-493.239001307122</v>
+        <v>89.89858691388126</v>
       </c>
       <c r="C30" t="n">
-        <v>665012.5635400204</v>
+        <v>900980.9425435868</v>
       </c>
       <c r="D30" t="n">
         <v>895.5490112</v>
@@ -5160,13 +5160,13 @@
         <v>0.08532710726466385</v>
       </c>
       <c r="F30" t="n">
-        <v>1134.871966830568</v>
+        <v>1416.680685725974</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>77.51374043454776</v>
       </c>
       <c r="H30" t="n">
-        <v>56743.5983415284</v>
+        <v>70834.03428629869</v>
       </c>
     </row>
     <row r="31">
@@ -5176,10 +5176,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-493.239001307122</v>
+        <v>63.89222096436914</v>
       </c>
       <c r="C31" t="n">
-        <v>665012.5635400204</v>
+        <v>925390.0658056499</v>
       </c>
       <c r="D31" t="n">
         <v>919.8109741</v>
@@ -5188,13 +5188,13 @@
         <v>0.02709171982389874</v>
       </c>
       <c r="F31" t="n">
-        <v>360.3266810159779</v>
+        <v>488.1824652412614</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>26.00636594951211</v>
       </c>
       <c r="H31" t="n">
-        <v>18016.33405079889</v>
+        <v>24409.12326206307</v>
       </c>
     </row>
     <row r="32">
@@ -5204,10 +5204,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-493.239001307122</v>
+        <v>63.89222096436914</v>
       </c>
       <c r="C32" t="n">
-        <v>665012.5635400204</v>
+        <v>925390.0658056499</v>
       </c>
       <c r="D32" t="n">
         <v>1031.329956</v>
@@ -5216,13 +5216,13 @@
         <v>0.1212411952457049</v>
       </c>
       <c r="F32" t="n">
-        <v>1612.538361140047</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>80626.91805700233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5232,10 +5232,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-520.9067397394018</v>
+        <v>101.6229085610105</v>
       </c>
       <c r="C33" t="n">
-        <v>637104.7806251344</v>
+        <v>887316.7985693545</v>
       </c>
       <c r="D33" t="n">
         <v>988.8980103</v>
@@ -5244,13 +5244,13 @@
         <v>-0.04114293922438924</v>
       </c>
       <c r="F33" t="n">
-        <v>547.2114297036469</v>
+        <v>761.4653447259083</v>
       </c>
       <c r="G33" t="n">
-        <v>-27.66773843227981</v>
+        <v>37.73068759664133</v>
       </c>
       <c r="H33" t="n">
-        <v>-27360.57148518235</v>
+        <v>38073.26723629541</v>
       </c>
     </row>
     <row r="34">
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-520.9067397394018</v>
+        <v>51.07604107287676</v>
       </c>
       <c r="C34" t="n">
-        <v>637104.7806251344</v>
+        <v>887316.7985693545</v>
       </c>
       <c r="D34" t="n">
         <v>1049.209961</v>
@@ -5272,13 +5272,13 @@
         <v>0.06098905051058126</v>
       </c>
       <c r="F34" t="n">
-        <v>777.1283129215823</v>
+        <v>1082.332180936672</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>50.54686748813371</v>
       </c>
       <c r="H34" t="n">
-        <v>38856.41564607911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5288,10 +5288,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-520.9067397394018</v>
+        <v>51.07604107287676</v>
       </c>
       <c r="C35" t="n">
-        <v>637104.7806251344</v>
+        <v>887316.7985693545</v>
       </c>
       <c r="D35" t="n">
         <v>1170.410034</v>
@@ -5300,13 +5300,13 @@
         <v>0.1155155569477099</v>
       </c>
       <c r="F35" t="n">
-        <v>1471.910271359219</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>73595.51356796092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5316,10 +5316,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-520.9067397394018</v>
+        <v>51.07604107287676</v>
       </c>
       <c r="C36" t="n">
-        <v>637104.7806251344</v>
+        <v>887316.7985693545</v>
       </c>
       <c r="D36" t="n">
         <v>1277.430054</v>
@@ -5328,13 +5328,13 @@
         <v>0.09143805751070648</v>
       </c>
       <c r="F36" t="n">
-        <v>1165.112471422942</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>58255.62357114707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-592.8860761487341</v>
+        <v>149.3190723016532</v>
       </c>
       <c r="C37" t="n">
-        <v>555145.772312881</v>
+        <v>775407.9666140646</v>
       </c>
       <c r="D37" t="n">
         <v>1116.319946</v>
@@ -5356,13 +5356,13 @@
         <v>-0.1261204928563547</v>
       </c>
       <c r="F37" t="n">
-        <v>1607.039378671634</v>
+        <v>2238.176639105797</v>
       </c>
       <c r="G37" t="n">
-        <v>-71.97933640933233</v>
+        <v>98.24303122877645</v>
       </c>
       <c r="H37" t="n">
-        <v>-80351.96893358171</v>
+        <v>111908.8319552898</v>
       </c>
     </row>
     <row r="38">
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-600.4064681608286</v>
+        <v>159.6132053486635</v>
       </c>
       <c r="C38" t="n">
-        <v>546710.2708758423</v>
+        <v>763856.5844068065</v>
       </c>
       <c r="D38" t="n">
         <v>1099.689941</v>
@@ -5384,13 +5384,13 @@
         <v>-0.01489716730368265</v>
       </c>
       <c r="F38" t="n">
-        <v>165.4019889615421</v>
+        <v>231.0276441451618</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.520392012094527</v>
+        <v>10.29413304701032</v>
       </c>
       <c r="H38" t="n">
-        <v>-8270.099448077102</v>
+        <v>11551.38220725809</v>
       </c>
     </row>
     <row r="39">
@@ -5400,10 +5400,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-687.012400073564</v>
+        <v>278.1978096026946</v>
       </c>
       <c r="C39" t="n">
-        <v>463978.1549562552</v>
+        <v>650530.8469994505</v>
       </c>
       <c r="D39" t="n">
         <v>936.539978</v>
@@ -5412,13 +5412,13 @@
         <v>-0.1483599666753704</v>
       </c>
       <c r="F39" t="n">
-        <v>1622.198351364454</v>
+        <v>2266.514748147122</v>
       </c>
       <c r="G39" t="n">
-        <v>-86.60593191273539</v>
+        <v>118.5846042540311</v>
       </c>
       <c r="H39" t="n">
-        <v>-81109.91756822269</v>
+        <v>113325.7374073561</v>
       </c>
     </row>
     <row r="40">
@@ -5428,10 +5428,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-687.012400073564</v>
+        <v>192.341811451975</v>
       </c>
       <c r="C40" t="n">
-        <v>463978.1549562552</v>
+        <v>744421.3862134543</v>
       </c>
       <c r="D40" t="n">
         <v>1071.709961</v>
@@ -5440,13 +5440,13 @@
         <v>0.1443291115971987</v>
       </c>
       <c r="F40" t="n">
-        <v>1339.311098106874</v>
+        <v>1877.810784280078</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>85.85599815071961</v>
       </c>
       <c r="H40" t="n">
-        <v>66965.5549053437</v>
+        <v>93890.53921400387</v>
       </c>
     </row>
     <row r="41">
@@ -5456,10 +5456,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-687.012400073564</v>
+        <v>133.7465084452766</v>
       </c>
       <c r="C41" t="n">
-        <v>463978.1549562552</v>
+        <v>814535.4509859972</v>
       </c>
       <c r="D41" t="n">
         <v>1172.650024</v>
@@ -5468,13 +5468,13 @@
         <v>0.09418598937516082</v>
       </c>
       <c r="F41" t="n">
-        <v>874.0048314603314</v>
+        <v>1402.281295450858</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>58.59530300669831</v>
       </c>
       <c r="H41" t="n">
-        <v>43700.24157301657</v>
+        <v>70114.0647725429</v>
       </c>
     </row>
     <row r="42">
@@ -5484,10 +5484,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-688.825819925007</v>
+        <v>136.8663813227575</v>
       </c>
       <c r="C42" t="n">
-        <v>461819.0137731792</v>
+        <v>810819.3002076736</v>
       </c>
       <c r="D42" t="n">
         <v>1167.300049</v>
@@ -5496,13 +5496,13 @@
         <v>-0.004562294708996727</v>
       </c>
       <c r="F42" t="n">
-        <v>42.33610162893973</v>
+        <v>74.32301556647357</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.813419851443</v>
+        <v>3.119872877480882</v>
       </c>
       <c r="H42" t="n">
-        <v>-2116.805081446987</v>
+        <v>3716.150778323678</v>
       </c>
     </row>
     <row r="43">
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-688.825819925007</v>
+        <v>106.0180511956394</v>
       </c>
       <c r="C43" t="n">
-        <v>461819.0137731792</v>
+        <v>849307.6272756774</v>
       </c>
       <c r="D43" t="n">
         <v>1222.709961</v>
@@ -5524,13 +5524,13 @@
         <v>0.04746843971048276</v>
       </c>
       <c r="F43" t="n">
-        <v>438.4365602489353</v>
+        <v>769.7665413600755</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>30.8483301271181</v>
       </c>
       <c r="H43" t="n">
-        <v>21921.82801244677</v>
+        <v>38488.32706800377</v>
       </c>
     </row>
     <row r="44">
@@ -5540,10 +5540,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-688.825819925007</v>
+        <v>56.87948330718479</v>
       </c>
       <c r="C44" t="n">
-        <v>461819.0137731792</v>
+        <v>915385.9626179322</v>
       </c>
       <c r="D44" t="n">
         <v>1317.839966</v>
@@ -5552,13 +5552,13 @@
         <v>0.07780259262973321</v>
       </c>
       <c r="F44" t="n">
-        <v>718.6143319451963</v>
+        <v>1321.566706845096</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>49.13856788845462</v>
       </c>
       <c r="H44" t="n">
-        <v>35930.71659725982</v>
+        <v>66078.33534225482</v>
       </c>
     </row>
     <row r="45">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-688.825819925007</v>
+        <v>56.87948330718479</v>
       </c>
       <c r="C45" t="n">
-        <v>461819.0137731792</v>
+        <v>915385.9626179322</v>
       </c>
       <c r="D45" t="n">
         <v>1556.810059</v>
@@ -5580,13 +5580,13 @@
         <v>0.1813346833950852</v>
       </c>
       <c r="F45" t="n">
-        <v>1674.876092967799</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>83743.80464838997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-688.825819925007</v>
+        <v>1.26378822799613</v>
       </c>
       <c r="C46" t="n">
-        <v>461819.0137731792</v>
+        <v>915385.9626179322</v>
       </c>
       <c r="D46" t="n">
         <v>1723.119995</v>
@@ -5608,13 +5608,13 @@
         <v>0.1068273775844097</v>
       </c>
       <c r="F46" t="n">
-        <v>986.6982832001423</v>
+        <v>1955.765637281084</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>55.61569507918866</v>
       </c>
       <c r="H46" t="n">
-        <v>49334.91416000712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5624,10 +5624,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-688.825819925007</v>
+        <v>1.26378822799613</v>
       </c>
       <c r="C47" t="n">
-        <v>461819.0137731792</v>
+        <v>915385.9626179322</v>
       </c>
       <c r="D47" t="n">
         <v>1984.23999</v>
@@ -5636,13 +5636,13 @@
         <v>0.1515390662041502</v>
       </c>
       <c r="F47" t="n">
-        <v>1399.672442050183</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>69983.62210250917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5652,10 +5652,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-688.825819925007</v>
+        <v>1.26378822799613</v>
       </c>
       <c r="C48" t="n">
-        <v>461819.0137731792</v>
+        <v>915385.9626179322</v>
       </c>
       <c r="D48" t="n">
         <v>2196.27002</v>
@@ -5664,13 +5664,13 @@
         <v>0.1068570490810438</v>
       </c>
       <c r="F48" t="n">
-        <v>986.9723404263973</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>49348.61702131986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5680,10 +5680,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-688.825819925007</v>
+        <v>1.26378822799613</v>
       </c>
       <c r="C49" t="n">
-        <v>461819.0137731792</v>
+        <v>915385.9626179322</v>
       </c>
       <c r="D49" t="n">
         <v>2493.719971</v>
@@ -5692,13 +5692,13 @@
         <v>0.1354341443863082</v>
       </c>
       <c r="F49" t="n">
-        <v>1250.921259833985</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>62546.06299169923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5708,10 +5708,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-688.825819925007</v>
+        <v>1.26378822799613</v>
       </c>
       <c r="C50" t="n">
-        <v>461819.0137731792</v>
+        <v>915385.9626179322</v>
       </c>
       <c r="D50" t="n">
         <v>2828.139893</v>
@@ -5720,13 +5720,13 @@
         <v>0.1341048417180118</v>
       </c>
       <c r="F50" t="n">
-        <v>1238.64331488841</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>61932.16574442052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -5736,10 +5736,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-709.2297192300706</v>
+        <v>40.89813328634932</v>
       </c>
       <c r="C51" t="n">
-        <v>409497.4945352979</v>
+        <v>813711.3297439588</v>
       </c>
       <c r="D51" t="n">
         <v>2514.01001</v>
@@ -5748,13 +5748,13 @@
         <v>-0.1110729648761403</v>
       </c>
       <c r="F51" t="n">
-        <v>1025.912141919241</v>
+        <v>2033.492657479468</v>
       </c>
       <c r="G51" t="n">
-        <v>-20.40389930506365</v>
+        <v>39.63434505835319</v>
       </c>
       <c r="H51" t="n">
-        <v>-51295.60709596206</v>
+        <v>101674.6328739734</v>
       </c>
     </row>
     <row r="52">
@@ -5764,10 +5764,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-709.2297192300706</v>
+        <v>14.89359033764336</v>
       </c>
       <c r="C52" t="n">
-        <v>409497.4945352979</v>
+        <v>813711.3297439588</v>
       </c>
       <c r="D52" t="n">
         <v>2738.52002</v>
@@ -5776,13 +5776,13 @@
         <v>0.08930354656781973</v>
       </c>
       <c r="F52" t="n">
-        <v>731.3915714527698</v>
+        <v>1453.346152571043</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>26.00454294870596</v>
       </c>
       <c r="H52" t="n">
-        <v>36569.57857263849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5792,10 +5792,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-723.9825864404927</v>
+        <v>43.62266401554823</v>
       </c>
       <c r="C53" t="n">
-        <v>371989.0363157293</v>
+        <v>740639.8074327395</v>
       </c>
       <c r="D53" t="n">
         <v>2492.600098</v>
@@ -5804,13 +5804,13 @@
         <v>-0.08980030096694347</v>
       </c>
       <c r="F53" t="n">
-        <v>735.4599650895808</v>
+        <v>1461.430446224386</v>
       </c>
       <c r="G53" t="n">
-        <v>-14.75286721042207</v>
+        <v>28.72907367790487</v>
       </c>
       <c r="H53" t="n">
-        <v>-36772.99825447904</v>
+        <v>73071.52231121928</v>
       </c>
     </row>
     <row r="54">
@@ -5820,10 +5820,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-723.9825864404927</v>
+        <v>40.42567326298995</v>
       </c>
       <c r="C54" t="n">
-        <v>371989.0363157293</v>
+        <v>748861.5216652802</v>
       </c>
       <c r="D54" t="n">
         <v>2520.27002</v>
@@ -5832,13 +5832,13 @@
         <v>0.01110082681221175</v>
       </c>
       <c r="F54" t="n">
-        <v>82.58771736364919</v>
+        <v>164.4342846508141</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3.196990752558288</v>
       </c>
       <c r="H54" t="n">
-        <v>4129.385868182459</v>
+        <v>8221.714232540706</v>
       </c>
     </row>
     <row r="55">
@@ -5848,10 +5848,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-743.1859472175977</v>
+        <v>78.31131890663188</v>
       </c>
       <c r="C55" t="n">
-        <v>328306.7191090382</v>
+        <v>662647.7048332198</v>
       </c>
       <c r="D55" t="n">
         <v>2230.120117</v>
@@ -5860,13 +5860,13 @@
         <v>-0.1151265144994265</v>
       </c>
       <c r="F55" t="n">
-        <v>856.5160236606104</v>
+        <v>1724.27633664121</v>
       </c>
       <c r="G55" t="n">
-        <v>-19.20336077710496</v>
+        <v>37.88564564364194</v>
       </c>
       <c r="H55" t="n">
-        <v>-42825.80118303052</v>
+        <v>86213.8168320605</v>
       </c>
     </row>
     <row r="56">
@@ -5876,10 +5876,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-743.1859472175977</v>
+        <v>30.46247561708472</v>
       </c>
       <c r="C56" t="n">
-        <v>328306.7191090382</v>
+        <v>662647.7048332198</v>
       </c>
       <c r="D56" t="n">
         <v>2668.629883</v>
@@ -5888,13 +5888,13 @@
         <v>0.1966305593395085</v>
       </c>
       <c r="F56" t="n">
-        <v>1291.102676266582</v>
+        <v>2605.93577692795</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>47.84884328954716</v>
       </c>
       <c r="H56" t="n">
-        <v>64555.13381332908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-743.1859472175977</v>
+        <v>18.4652712192247</v>
       </c>
       <c r="C57" t="n">
-        <v>328306.7191090382</v>
+        <v>697011.3710871229</v>
       </c>
       <c r="D57" t="n">
         <v>2807.02002</v>
@@ -5916,13 +5916,13 @@
         <v>0.05185812310713747</v>
       </c>
       <c r="F57" t="n">
-        <v>340.5074051291381</v>
+        <v>687.2733250780641</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>11.99720439786003</v>
       </c>
       <c r="H57" t="n">
-        <v>17025.3702564569</v>
+        <v>34363.6662539032</v>
       </c>
     </row>
     <row r="58">
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-743.1859472175977</v>
+        <v>10.85582607144693</v>
       </c>
       <c r="C58" t="n">
-        <v>328306.7191090382</v>
+        <v>719510.7135904395</v>
       </c>
       <c r="D58" t="n">
         <v>2897.629883</v>
@@ -5944,13 +5944,13 @@
         <v>0.03227973521898862</v>
       </c>
       <c r="F58" t="n">
-        <v>211.9530792690925</v>
+        <v>449.9868500663309</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>7.609445147777768</v>
       </c>
       <c r="H58" t="n">
-        <v>10597.65396345462</v>
+        <v>22499.34250331654</v>
       </c>
     </row>
     <row r="59">
@@ -5960,10 +5960,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-743.1859472175977</v>
+        <v>10.85582607144693</v>
       </c>
       <c r="C59" t="n">
-        <v>328306.7191090382</v>
+        <v>719510.7135904395</v>
       </c>
       <c r="D59" t="n">
         <v>3650.629883</v>
@@ -5972,13 +5972,13 @@
         <v>0.2598675574191682</v>
       </c>
       <c r="F59" t="n">
-        <v>1706.325303583334</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>85316.2651791667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5988,10 +5988,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-743.1859472175977</v>
+        <v>10.85582607144693</v>
       </c>
       <c r="C60" t="n">
-        <v>328306.7191090382</v>
+        <v>719510.7135904395</v>
       </c>
       <c r="D60" t="n">
         <v>4137.75</v>
@@ -6000,13 +6000,13 @@
         <v>0.1334345394115101</v>
       </c>
       <c r="F60" t="n">
-        <v>876.1491170003704</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>43807.45585001852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -6016,10 +6016,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-743.1859472175977</v>
+        <v>1.723026903768112</v>
       </c>
       <c r="C61" t="n">
-        <v>328306.7191090382</v>
+        <v>719510.7135904395</v>
       </c>
       <c r="D61" t="n">
         <v>4372.060059</v>
@@ -6028,13 +6028,13 @@
         <v>0.05662740837411646</v>
       </c>
       <c r="F61" t="n">
-        <v>371.8231730990769</v>
+        <v>814.8805401607552</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>9.132799167678817</v>
       </c>
       <c r="H61" t="n">
-        <v>18591.15865495385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-743.1859472175977</v>
+        <v>1.723026903768112</v>
       </c>
       <c r="C62" t="n">
-        <v>328306.7191090382</v>
+        <v>719510.7135904395</v>
       </c>
       <c r="D62" t="n">
         <v>4901.419922</v>
@@ -6056,13 +6056,13 @@
         <v>0.1210779028321668</v>
       </c>
       <c r="F62" t="n">
-        <v>795.0137807086322</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>39750.68903543161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -6072,10 +6072,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-753.8213528662986</v>
+        <v>24.56521107173057</v>
       </c>
       <c r="C63" t="n">
-        <v>282421.2583987293</v>
+        <v>620920.8152606658</v>
       </c>
       <c r="D63" t="n">
         <v>4229.810059</v>
@@ -6084,13 +6084,13 @@
         <v>-0.1370235306682217</v>
       </c>
       <c r="F63" t="n">
-        <v>899.7149158884106</v>
+        <v>1971.797966595473</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.63540564870091</v>
+        <v>22.84218416796246</v>
       </c>
       <c r="H63" t="n">
-        <v>-44985.74579442053</v>
+        <v>98589.89832977366</v>
       </c>
     </row>
     <row r="64">
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-764.6883470056409</v>
+        <v>47.97914258919729</v>
       </c>
       <c r="C64" t="n">
-        <v>242099.2223097291</v>
+        <v>534008.540385498</v>
       </c>
       <c r="D64" t="n">
         <v>3637.75</v>
@@ -6112,13 +6112,13 @@
         <v>-0.1399732022813274</v>
       </c>
       <c r="F64" t="n">
-        <v>790.6281586078474</v>
+        <v>1738.245497503358</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.86699413934228</v>
+        <v>23.41393151746671</v>
       </c>
       <c r="H64" t="n">
-        <v>-39531.40793039236</v>
+        <v>86912.2748751679</v>
       </c>
     </row>
     <row r="65">
@@ -6128,10 +6128,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-764.8319057294547</v>
+        <v>48.28946309396938</v>
       </c>
       <c r="C65" t="n">
-        <v>241567.6935047499</v>
+        <v>532859.1132605211</v>
       </c>
       <c r="D65" t="n">
         <v>3629.919922</v>
@@ -6140,13 +6140,13 @@
         <v>-0.002152450828121767</v>
       </c>
       <c r="F65" t="n">
-        <v>10.42213343096424</v>
+        <v>22.98854249953722</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1435587238136908</v>
+        <v>0.3103205047720951</v>
       </c>
       <c r="H65" t="n">
-        <v>-521.1066715482121</v>
+        <v>1149.427124976861</v>
       </c>
     </row>
     <row r="66">
@@ -6156,10 +6156,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-764.8319057294547</v>
+        <v>29.77422193925666</v>
       </c>
       <c r="C66" t="n">
-        <v>241567.6935047499</v>
+        <v>611569.8569242682</v>
       </c>
       <c r="D66" t="n">
         <v>4166.109863</v>
@@ -6168,13 +6168,13 @@
         <v>0.1477139861268817</v>
       </c>
       <c r="F66" t="n">
-        <v>713.658538541269</v>
+        <v>1574.214873274943</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>18.51524115471272</v>
       </c>
       <c r="H66" t="n">
-        <v>35682.92692706345</v>
+        <v>78710.74366374713</v>
       </c>
     </row>
     <row r="67">
@@ -6184,10 +6184,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-764.8319057294547</v>
+        <v>23.0825556748952</v>
       </c>
       <c r="C67" t="n">
-        <v>241567.6935047499</v>
+        <v>641404.788197708</v>
       </c>
       <c r="D67" t="n">
         <v>4369.350098</v>
@@ -6196,13 +6196,13 @@
         <v>0.04878417556987989</v>
       </c>
       <c r="F67" t="n">
-        <v>235.693615438933</v>
+        <v>596.6986254687964</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>6.691666264361456</v>
       </c>
       <c r="H67" t="n">
-        <v>11784.68077194665</v>
+        <v>29834.93127343982</v>
       </c>
     </row>
     <row r="68">
@@ -6212,10 +6212,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-764.8319057294547</v>
+        <v>23.0825556748952</v>
       </c>
       <c r="C68" t="n">
-        <v>241567.6935047499</v>
+        <v>641404.788197708</v>
       </c>
       <c r="D68" t="n">
         <v>5643.529785</v>
@@ -6224,13 +6224,13 @@
         <v>0.2916176681706589</v>
       </c>
       <c r="F68" t="n">
-        <v>1408.908149704391</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>70445.40748521958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6240,10 +6240,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-764.8319057294547</v>
+        <v>16.52135402719717</v>
       </c>
       <c r="C69" t="n">
-        <v>241567.6935047499</v>
+        <v>681553.9195087141</v>
       </c>
       <c r="D69" t="n">
         <v>5996.790039</v>
@@ -6252,13 +6252,13 @@
         <v>0.06259562143871998</v>
       </c>
       <c r="F69" t="n">
-        <v>302.4215978889612</v>
+        <v>802.9826262201219</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>6.561201647698035</v>
       </c>
       <c r="H69" t="n">
-        <v>15121.07989444806</v>
+        <v>40149.13131100609</v>
       </c>
     </row>
     <row r="70">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-766.2863242484281</v>
+        <v>20.54274999813259</v>
       </c>
       <c r="C70" t="n">
-        <v>232981.4229215125</v>
+        <v>657803.801834496</v>
       </c>
       <c r="D70" t="n">
         <v>5787.819824</v>
@@ -6280,13 +6280,13 @@
         <v>-0.03484701209163015</v>
       </c>
       <c r="F70" t="n">
-        <v>168.3582467301445</v>
+        <v>475.0023534843617</v>
       </c>
       <c r="G70" t="n">
-        <v>-1.454418518973445</v>
+        <v>4.021395970935415</v>
       </c>
       <c r="H70" t="n">
-        <v>-8417.912336507226</v>
+        <v>23750.11767421808</v>
       </c>
     </row>
     <row r="71">
@@ -6296,10 +6296,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-766.2863242484281</v>
+        <v>20.54274999813259</v>
       </c>
       <c r="C71" t="n">
-        <v>232981.4229215125</v>
+        <v>657803.801834496</v>
       </c>
       <c r="D71" t="n">
         <v>7164.47998</v>
@@ -6308,13 +6308,13 @@
         <v>0.2378547014009467</v>
       </c>
       <c r="F71" t="n">
-        <v>1108.314535619281</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>55415.72678096403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -6324,10 +6324,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-768.9683266215629</v>
+        <v>27.96371390480488</v>
       </c>
       <c r="C72" t="n">
-        <v>214875.2730149044</v>
+        <v>607684.9600940181</v>
       </c>
       <c r="D72" t="n">
         <v>6618.609863</v>
@@ -6336,13 +6336,13 @@
         <v>-0.07619117068144846</v>
       </c>
       <c r="F72" t="n">
-        <v>355.0225471883937</v>
+        <v>1002.376834809556</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.682002373134845</v>
+        <v>7.42096390667229</v>
       </c>
       <c r="H72" t="n">
-        <v>-17751.12735941969</v>
+        <v>50118.84174047778</v>
       </c>
     </row>
     <row r="73">
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-768.9683266215629</v>
+        <v>15.35517091197173</v>
       </c>
       <c r="C73" t="n">
-        <v>214875.2730149044</v>
+        <v>706716.1873574182</v>
       </c>
       <c r="D73" t="n">
         <v>7697.209961</v>
@@ -6364,13 +6364,13 @@
         <v>0.1629647494453021</v>
       </c>
       <c r="F73" t="n">
-        <v>700.3419005772956</v>
+        <v>1980.624545268001</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>12.60854299283315</v>
       </c>
       <c r="H73" t="n">
-        <v>35017.09502886478</v>
+        <v>99031.22726340005</v>
       </c>
     </row>
     <row r="74">
@@ -6380,10 +6380,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-768.9683266215629</v>
+        <v>9.41062975004615</v>
       </c>
       <c r="C74" t="n">
-        <v>214875.2730149044</v>
+        <v>756709.2323653944</v>
       </c>
       <c r="D74" t="n">
         <v>8241.709961</v>
@@ -6392,13 +6392,13 @@
         <v>0.07073991780903181</v>
       </c>
       <c r="F74" t="n">
-        <v>304.0051830453522</v>
+        <v>999.8609001595219</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>5.94454116192558</v>
       </c>
       <c r="H74" t="n">
-        <v>15200.25915226761</v>
+        <v>49993.04500797609</v>
       </c>
     </row>
     <row r="75">
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-768.9683266215629</v>
+        <v>9.41062975004615</v>
       </c>
       <c r="C75" t="n">
-        <v>214875.2730149044</v>
+        <v>756709.2323653944</v>
       </c>
       <c r="D75" t="n">
         <v>10978.2998</v>
@@ -6420,13 +6420,13 @@
         <v>0.3320415122528722</v>
       </c>
       <c r="F75" t="n">
-        <v>1426.950211952353</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>71347.51059761764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6436,10 +6436,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-768.9683266215629</v>
+        <v>9.41062975004615</v>
       </c>
       <c r="C76" t="n">
-        <v>214875.2730149044</v>
+        <v>756709.2323653944</v>
       </c>
       <c r="D76" t="n">
         <v>16523.30078</v>
@@ -6448,13 +6448,13 @@
         <v>0.5050874070682603</v>
       </c>
       <c r="F76" t="n">
-        <v>2170.615889803652</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>108530.7944901826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -6464,10 +6464,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-768.9683266215629</v>
+        <v>6.284711018439387</v>
       </c>
       <c r="C77" t="n">
-        <v>214875.2730149044</v>
+        <v>813359.4944951619</v>
       </c>
       <c r="D77" t="n">
         <v>17760.30078</v>
@@ -6476,13 +6476,13 @@
         <v>0.07486397642154402</v>
       </c>
       <c r="F77" t="n">
-        <v>321.7283474512128</v>
+        <v>1133.005242595351</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>3.125918731606763</v>
       </c>
       <c r="H77" t="n">
-        <v>16086.41737256064</v>
+        <v>56650.26212976756</v>
       </c>
     </row>
     <row r="78">
@@ -6492,10 +6492,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-772.2743792998109</v>
+        <v>18.54870543471783</v>
       </c>
       <c r="C78" t="n">
-        <v>167837.8326075301</v>
+        <v>638801.5543246089</v>
       </c>
       <c r="D78" t="n">
         <v>13948.7002</v>
@@ -6504,13 +6504,13 @@
         <v>-0.2146135151208853</v>
       </c>
       <c r="F78" t="n">
-        <v>922.3027530857711</v>
+        <v>3491.158803411061</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.30605267824801</v>
+        <v>12.26399441627844</v>
       </c>
       <c r="H78" t="n">
-        <v>-46115.13765428856</v>
+        <v>174557.9401705531</v>
       </c>
     </row>
     <row r="79">
@@ -6520,10 +6520,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-772.2743792998109</v>
+        <v>16.30741263779187</v>
       </c>
       <c r="C79" t="n">
-        <v>167837.8326075301</v>
+        <v>672379.5518647023</v>
       </c>
       <c r="D79" t="n">
         <v>14681.90039</v>
@@ -6532,13 +6532,13 @@
         <v>0.05256405109344894</v>
       </c>
       <c r="F79" t="n">
-        <v>176.4447281719189</v>
+        <v>671.5599508018668</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2.241292796925962</v>
       </c>
       <c r="H79" t="n">
-        <v>8822.236408595943</v>
+        <v>33577.99754009334</v>
       </c>
     </row>
     <row r="80">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-772.2743792998109</v>
+        <v>9.161828197329312</v>
       </c>
       <c r="C80" t="n">
-        <v>167837.8326075301</v>
+        <v>799702.9266310525</v>
       </c>
       <c r="D80" t="n">
         <v>17462.09961</v>
@@ -6560,13 +6560,13 @@
         <v>0.1893623540651198</v>
       </c>
       <c r="F80" t="n">
-        <v>635.6433416749885</v>
+        <v>2546.467495327006</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>7.145584440462558</v>
       </c>
       <c r="H80" t="n">
-        <v>31782.16708374942</v>
+        <v>127323.3747663503</v>
       </c>
     </row>
     <row r="81">
@@ -6576,10 +6576,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-774.6921458779253</v>
+        <v>20.45144674651024</v>
       </c>
       <c r="C81" t="n">
-        <v>133429.5123131688</v>
+        <v>638971.0100509063</v>
       </c>
       <c r="D81" t="n">
         <v>13952.40039</v>
@@ -6588,13 +6588,13 @@
         <v>-0.2009895315217481</v>
       </c>
       <c r="F81" t="n">
-        <v>674.6729469482611</v>
+        <v>3214.638331602922</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.417766578114453</v>
+        <v>11.28961854918093</v>
       </c>
       <c r="H81" t="n">
-        <v>-33733.64734741305</v>
+        <v>160731.9165801461</v>
       </c>
     </row>
     <row r="82">
@@ -6604,10 +6604,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-776.5760366489076</v>
+        <v>29.29264339434095</v>
       </c>
       <c r="C82" t="n">
-        <v>111031.3241720379</v>
+        <v>533813.0935869433</v>
       </c>
       <c r="D82" t="n">
         <v>11656.2002</v>
@@ -6616,13 +6616,13 @@
         <v>-0.1645738457767984</v>
       </c>
       <c r="F82" t="n">
-        <v>439.1801596300172</v>
+        <v>2103.158329279259</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.883890770982199</v>
+        <v>8.841196647830714</v>
       </c>
       <c r="H82" t="n">
-        <v>-21959.00798150086</v>
+        <v>105157.9164639629</v>
       </c>
     </row>
     <row r="83">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-776.986297947989</v>
+        <v>31.22563660843826</v>
       </c>
       <c r="C83" t="n">
-        <v>106355.0024379096</v>
+        <v>511771.2500950216</v>
       </c>
       <c r="D83" t="n">
         <v>11174.90039</v>
@@ -6644,13 +6644,13 @@
         <v>-0.0412913129271749</v>
       </c>
       <c r="F83" t="n">
-        <v>91.69258302212431</v>
+        <v>440.8368698384355</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4102612990813617</v>
+        <v>1.932993214097306</v>
       </c>
       <c r="H83" t="n">
-        <v>-4584.629151106215</v>
+        <v>22041.84349192178</v>
       </c>
     </row>
     <row r="84">
@@ -6660,10 +6660,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-779.4836231036945</v>
+        <v>43.00221508413139</v>
       </c>
       <c r="C84" t="n">
-        <v>83806.24774340834</v>
+        <v>405396.0590398049</v>
       </c>
       <c r="D84" t="n">
         <v>8852.120117</v>
@@ -6672,13 +6672,13 @@
         <v>-0.2078569107496089</v>
       </c>
       <c r="F84" t="n">
-        <v>442.1324449902202</v>
+        <v>2127.503821104334</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.497325155705522</v>
+        <v>11.77657847569313</v>
       </c>
       <c r="H84" t="n">
-        <v>-22106.62224951101</v>
+        <v>106375.1910552167</v>
       </c>
     </row>
     <row r="85">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-779.6269785736667</v>
+        <v>43.68179959305186</v>
       </c>
       <c r="C85" t="n">
-        <v>82531.17514207562</v>
+        <v>399349.088287198</v>
       </c>
       <c r="D85" t="n">
         <v>8720.080078000001</v>
@@ -6700,13 +6700,13 @@
         <v>-0.01491620507345173</v>
       </c>
       <c r="F85" t="n">
-        <v>25.0014235555436</v>
+        <v>120.9394150521375</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1433554699722311</v>
+        <v>0.6795845089204623</v>
       </c>
       <c r="H85" t="n">
-        <v>-1250.07117777718</v>
+        <v>6046.970752606874</v>
       </c>
     </row>
     <row r="86">
@@ -6716,10 +6716,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-779.6269785736667</v>
+        <v>37.14187854820284</v>
       </c>
       <c r="C86" t="n">
-        <v>82531.17514207562</v>
+        <v>467467.7046803575</v>
       </c>
       <c r="D86" t="n">
         <v>10207.5</v>
@@ -6728,13 +6728,13 @@
         <v>0.1705741127025461</v>
       </c>
       <c r="F86" t="n">
-        <v>281.5536394031596</v>
+        <v>1362.372327863191</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>6.539921044849017</v>
       </c>
       <c r="H86" t="n">
-        <v>14077.68197015798</v>
+        <v>68118.61639315954</v>
       </c>
     </row>
     <row r="87">
@@ -6744,10 +6744,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-779.6269785736667</v>
+        <v>36.79200150199107</v>
       </c>
       <c r="C87" t="n">
-        <v>82531.17514207562</v>
+        <v>471140.5925969782</v>
       </c>
       <c r="D87" t="n">
         <v>10287.7002</v>
@@ -6756,13 +6756,13 @@
         <v>0.007856987509184355</v>
       </c>
       <c r="F87" t="n">
-        <v>12.96892824419189</v>
+        <v>73.45775833241301</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.3498770462117702</v>
       </c>
       <c r="H87" t="n">
-        <v>648.4464122095945</v>
+        <v>3672.88791662065</v>
       </c>
     </row>
     <row r="88">
@@ -6772,10 +6772,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-779.6269785736667</v>
+        <v>33.50051428462449</v>
       </c>
       <c r="C88" t="n">
-        <v>82531.17514207562</v>
+        <v>508428.1060889803</v>
       </c>
       <c r="D88" t="n">
         <v>11101.90039</v>
@@ -6784,13 +6784,13 @@
         <v>0.07914307125707273</v>
       </c>
       <c r="F88" t="n">
-        <v>130.6354135039848</v>
+        <v>745.7502698400423</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>3.291487217366582</v>
       </c>
       <c r="H88" t="n">
-        <v>6531.770675199241</v>
+        <v>37287.51349200212</v>
       </c>
     </row>
     <row r="89">
@@ -6800,10 +6800,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-781.019317156823</v>
+        <v>41.90638014436901</v>
       </c>
       <c r="C89" t="n">
-        <v>69251.60438670407</v>
+        <v>428224.2245194359</v>
       </c>
       <c r="D89" t="n">
         <v>9350.589844</v>
@@ -6812,13 +6812,13 @@
         <v>-0.1577487172896532</v>
       </c>
       <c r="F89" t="n">
-        <v>260.3837403014028</v>
+        <v>1604.077631390887</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.392338583156246</v>
+        <v>8.405865859744523</v>
       </c>
       <c r="H89" t="n">
-        <v>-13019.18701507014</v>
+        <v>80203.88156954435</v>
       </c>
     </row>
     <row r="90">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-781.9347952863252</v>
+        <v>47.45411174180367</v>
       </c>
       <c r="C90" t="n">
-        <v>61480.707108334</v>
+        <v>381114.3021485648</v>
       </c>
       <c r="D90" t="n">
         <v>8321.910156</v>
@@ -6840,13 +6840,13 @@
         <v>-0.1100122778521907</v>
       </c>
       <c r="F90" t="n">
-        <v>152.3705348700015</v>
+        <v>942.1984474174213</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.9154781295021799</v>
+        <v>5.547731597434665</v>
       </c>
       <c r="H90" t="n">
-        <v>-7618.526743500074</v>
+        <v>47109.92237087106</v>
       </c>
     </row>
     <row r="91">
@@ -6856,10 +6856,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-781.9347952863252</v>
+        <v>44.52974987091982</v>
       </c>
       <c r="C91" t="n">
-        <v>61480.707108334</v>
+        <v>407678.1018697537</v>
       </c>
       <c r="D91" t="n">
         <v>8901.950194999999</v>
@@ -6868,13 +6868,13 @@
         <v>0.06970034861308824</v>
       </c>
       <c r="F91" t="n">
-        <v>85.70453436860103</v>
+        <v>531.2759944237763</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2.924361870883848</v>
       </c>
       <c r="H91" t="n">
-        <v>4285.226718430052</v>
+        <v>26563.79972118881</v>
       </c>
     </row>
     <row r="92">
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-783.9483329317998</v>
+        <v>57.6144676479266</v>
       </c>
       <c r="C92" t="n">
-        <v>47324.87383971587</v>
+        <v>315651.4127657033</v>
       </c>
       <c r="D92" t="n">
         <v>6892.47998</v>
@@ -6896,13 +6896,13 @@
         <v>-0.2257337067700814</v>
       </c>
       <c r="F92" t="n">
-        <v>277.5653582081986</v>
+        <v>1840.533782081007</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.013537645474587</v>
+        <v>13.08471777700678</v>
       </c>
       <c r="H92" t="n">
-        <v>-13878.26791040993</v>
+        <v>92026.68910405037</v>
       </c>
     </row>
     <row r="93">
@@ -6912,10 +6912,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-784.2196136630068</v>
+        <v>59.38769040229876</v>
       </c>
       <c r="C93" t="n">
-        <v>45490.1697113682</v>
+        <v>303654.095632889</v>
       </c>
       <c r="D93" t="n">
         <v>6630.509766</v>
@@ -6924,13 +6924,13 @@
         <v>-0.03800812113494161</v>
       </c>
       <c r="F93" t="n">
-        <v>35.974590751915</v>
+        <v>239.9463426562861</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2712807312070175</v>
+        <v>1.773222754372159</v>
       </c>
       <c r="H93" t="n">
-        <v>-1798.72953759575</v>
+        <v>11997.31713281431</v>
       </c>
     </row>
     <row r="94">
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-784.2196136630068</v>
+        <v>52.29677620838945</v>
       </c>
       <c r="C94" t="n">
-        <v>45490.1697113682</v>
+        <v>360632.2677984609</v>
       </c>
       <c r="D94" t="n">
         <v>7874.669922</v>
@@ -6952,13 +6952,13 @@
         <v>0.1876417047720551</v>
       </c>
       <c r="F94" t="n">
-        <v>170.7170599002247</v>
+        <v>1139.563443311439</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>7.090914193909305</v>
       </c>
       <c r="H94" t="n">
-        <v>8535.852995011233</v>
+        <v>56978.17216557192</v>
       </c>
     </row>
     <row r="95">
@@ -6968,10 +6968,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-784.2196136630068</v>
+        <v>47.35609398549475</v>
       </c>
       <c r="C95" t="n">
-        <v>45490.1697113682</v>
+        <v>405243.553145211</v>
       </c>
       <c r="D95" t="n">
         <v>8848.790039</v>
@@ -6980,13 +6980,13 @@
         <v>0.1237029776039925</v>
       </c>
       <c r="F95" t="n">
-        <v>112.545388900144</v>
+        <v>892.2257069350007</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>4.940682222894704</v>
       </c>
       <c r="H95" t="n">
-        <v>5627.269445007199</v>
+        <v>44611.28534675004</v>
       </c>
     </row>
     <row r="96">
@@ -6996,10 +6996,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-784.2196136630068</v>
+        <v>46.90183197222865</v>
       </c>
       <c r="C96" t="n">
-        <v>45490.1697113682</v>
+        <v>409387.1965883542</v>
       </c>
       <c r="D96" t="n">
         <v>8939.269531</v>
@@ -7008,13 +7008,13 @@
         <v>0.01022506937120473</v>
       </c>
       <c r="F96" t="n">
-        <v>9.302802820132321</v>
+        <v>82.87286886286543</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.4542620132661046</v>
       </c>
       <c r="H96" t="n">
-        <v>465.140141006616</v>
+        <v>4143.643443143272</v>
       </c>
     </row>
     <row r="97">
@@ -7024,10 +7024,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-784.2196136630068</v>
+        <v>43.38084186994112</v>
       </c>
       <c r="C97" t="n">
-        <v>45490.1697113682</v>
+        <v>444238.8198849338</v>
       </c>
       <c r="D97" t="n">
         <v>9700.280273</v>
@@ -7036,13 +7036,13 @@
         <v>0.08513119996672359</v>
       </c>
       <c r="F97" t="n">
-        <v>77.45265468437358</v>
+        <v>697.0324659315914</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>3.52099010228753</v>
       </c>
       <c r="H97" t="n">
-        <v>3872.632734218679</v>
+        <v>34851.62329657957</v>
       </c>
     </row>
     <row r="98">
@@ -7052,10 +7052,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-784.9189517713808</v>
+        <v>50.07370925595166</v>
       </c>
       <c r="C98" t="n">
-        <v>39468.68030945553</v>
+        <v>386588.3695329974</v>
       </c>
       <c r="D98" t="n">
         <v>8441.440430000001</v>
@@ -7064,13 +7064,13 @@
         <v>-0.1297735537089465</v>
       </c>
       <c r="F98" t="n">
-        <v>118.0684196453467</v>
+        <v>1153.009007038729</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.6993381083739203</v>
+        <v>6.692867386010533</v>
       </c>
       <c r="H98" t="n">
-        <v>-5903.420982267333</v>
+        <v>57650.45035193647</v>
       </c>
     </row>
     <row r="99">
@@ -7080,10 +7080,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-785.0241275506174</v>
+        <v>51.08328287323116</v>
       </c>
       <c r="C99" t="n">
-        <v>38583.01136650591</v>
+        <v>378083.5045606781</v>
       </c>
       <c r="D99" t="n">
         <v>8255.730469</v>
@@ -7092,13 +7092,13 @@
         <v>-0.02199979524110679</v>
       </c>
       <c r="F99" t="n">
-        <v>17.3660577048945</v>
+        <v>170.0972994463854</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1051757792366374</v>
+        <v>1.009573617279496</v>
       </c>
       <c r="H99" t="n">
-        <v>-868.302885244725</v>
+        <v>8504.864972319268</v>
       </c>
     </row>
     <row r="100">
@@ -7108,10 +7108,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-785.5043370297051</v>
+        <v>55.69484871061474</v>
       </c>
       <c r="C100" t="n">
-        <v>34916.0311420825</v>
+        <v>342854.5297463678</v>
       </c>
       <c r="D100" t="n">
         <v>7486.47998</v>
@@ -7120,13 +7120,13 @@
         <v>-0.09317776202705631</v>
       </c>
       <c r="F100" t="n">
-        <v>71.90157302790993</v>
+        <v>704.5794962862064</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4802094790875934</v>
+        <v>4.611565837383581</v>
       </c>
       <c r="H100" t="n">
-        <v>-3595.078651395497</v>
+        <v>35228.97481431032</v>
       </c>
     </row>
     <row r="101">
@@ -7136,10 +7136,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-785.5043370297051</v>
+        <v>55.39567214756654</v>
       </c>
       <c r="C101" t="n">
-        <v>34916.0311420825</v>
+        <v>345155.3563285918</v>
       </c>
       <c r="D101" t="n">
         <v>7536.720215</v>
@@ -7148,13 +7148,13 @@
         <v>0.006710795344970683</v>
       </c>
       <c r="F101" t="n">
-        <v>4.686286785062773</v>
+        <v>46.01653164448075</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>0.2991765630481954</v>
       </c>
       <c r="H101" t="n">
-        <v>234.3143392531386</v>
+        <v>2300.826582224037</v>
       </c>
     </row>
     <row r="102">
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-785.5043370297051</v>
+        <v>54.8323524041853</v>
       </c>
       <c r="C102" t="n">
-        <v>34916.0311420825</v>
+        <v>349542.6514500394</v>
       </c>
       <c r="D102" t="n">
         <v>7632.52002</v>
@@ -7176,13 +7176,13 @@
         <v>0.0127110735528345</v>
       </c>
       <c r="F102" t="n">
-        <v>8.876404800401414</v>
+        <v>87.74590242895063</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.5633197433812405</v>
       </c>
       <c r="H102" t="n">
-        <v>443.8202400200707</v>
+        <v>4387.295121447532</v>
       </c>
     </row>
     <row r="103">
@@ -7192,10 +7192,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-786.3384648603335</v>
+        <v>63.01575639222939</v>
       </c>
       <c r="C103" t="n">
-        <v>29423.66706185993</v>
+        <v>295636.9811741383</v>
       </c>
       <c r="D103" t="n">
         <v>6455.450195</v>
@@ -7204,13 +7204,13 @@
         <v>-0.1542177186454337</v>
       </c>
       <c r="F103" t="n">
-        <v>107.6934133376976</v>
+        <v>1078.113405518021</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.8341278306283764</v>
+        <v>8.183403988044095</v>
       </c>
       <c r="H103" t="n">
-        <v>-5384.670666884879</v>
+        <v>53905.67027590105</v>
       </c>
     </row>
     <row r="104">
@@ -7220,10 +7220,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-786.6119004616656</v>
+        <v>65.70817817780575</v>
       </c>
       <c r="C104" t="n">
-        <v>27725.11187574108</v>
+        <v>278905.2279290405</v>
       </c>
       <c r="D104" t="n">
         <v>6090.100098</v>
@@ -7232,13 +7232,13 @@
         <v>-0.05659560308946051</v>
       </c>
       <c r="F104" t="n">
-        <v>33.30500364938914</v>
+        <v>334.6350649019568</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.273435601332124</v>
+        <v>2.692421785576353</v>
       </c>
       <c r="H104" t="n">
-        <v>-1665.250182469457</v>
+        <v>16731.75324509784</v>
       </c>
     </row>
     <row r="105">
@@ -7248,10 +7248,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-786.6119004616656</v>
+        <v>64.81175343204092</v>
       </c>
       <c r="C105" t="n">
-        <v>27725.11187574108</v>
+        <v>284589.494027365</v>
       </c>
       <c r="D105" t="n">
         <v>6214.220215</v>
@@ -7260,13 +7260,13 @@
         <v>0.02038063660739528</v>
       </c>
       <c r="F105" t="n">
-        <v>11.30110860077717</v>
+        <v>113.6853219664906</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>0.8964247457648291</v>
       </c>
       <c r="H105" t="n">
-        <v>565.0554300388584</v>
+        <v>5684.266098324528</v>
       </c>
     </row>
     <row r="106">
@@ -7276,10 +7276,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-786.6119004616656</v>
+        <v>61.75302753676269</v>
       </c>
       <c r="C106" t="n">
-        <v>27725.11187574108</v>
+        <v>305403.5306047227</v>
       </c>
       <c r="D106" t="n">
         <v>6668.709961</v>
@@ -7288,13 +7288,13 @@
         <v>0.07313705183845005</v>
       </c>
       <c r="F106" t="n">
-        <v>40.55465888965806</v>
+        <v>416.2807315471533</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>3.058725895278221</v>
       </c>
       <c r="H106" t="n">
-        <v>2027.732944482903</v>
+        <v>20814.03657735767</v>
       </c>
     </row>
     <row r="107">
@@ -7304,10 +7304,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-786.8922009447704</v>
+        <v>64.77890034127952</v>
       </c>
       <c r="C107" t="n">
-        <v>25938.91106218023</v>
+        <v>286113.5914759279</v>
       </c>
       <c r="D107" t="n">
         <v>6247.5</v>
@@ -7316,13 +7316,13 @@
         <v>-0.06316213532502131</v>
       </c>
       <c r="F107" t="n">
-        <v>35.02354536393828</v>
+        <v>385.7987825758956</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.2803004831047481</v>
+        <v>3.025872804516828</v>
       </c>
       <c r="H107" t="n">
-        <v>-1751.177268196914</v>
+        <v>19289.93912879478</v>
       </c>
     </row>
     <row r="108">
@@ -7332,10 +7332,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-786.8922009447704</v>
+        <v>58.03270241108174</v>
       </c>
       <c r="C108" t="n">
-        <v>25938.91106218023</v>
+        <v>336728.8015736386</v>
       </c>
       <c r="D108" t="n">
         <v>7352.720215</v>
@@ -7344,13 +7344,13 @@
         <v>0.1769059967987195</v>
       </c>
       <c r="F108" t="n">
-        <v>91.77497834656656</v>
+        <v>1012.304201954213</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>6.746197930197789</v>
       </c>
       <c r="H108" t="n">
-        <v>4588.748917328327</v>
+        <v>50615.21009771065</v>
       </c>
     </row>
     <row r="109">
@@ -7360,10 +7360,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-786.8922009447704</v>
+        <v>53.54775655017675</v>
       </c>
       <c r="C109" t="n">
-        <v>25938.91106218023</v>
+        <v>374114.3037155736</v>
       </c>
       <c r="D109" t="n">
         <v>8169.060059</v>
@@ -7372,13 +7372,13 @@
         <v>0.1110255551863128</v>
       </c>
       <c r="F109" t="n">
-        <v>57.597640032139</v>
+        <v>747.7100428386995</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>4.484945860904983</v>
       </c>
       <c r="H109" t="n">
-        <v>2879.88200160695</v>
+        <v>37385.50214193497</v>
       </c>
     </row>
     <row r="110">
@@ -7388,10 +7388,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-787.2039744545268</v>
+        <v>57.95450094492357</v>
       </c>
       <c r="C110" t="n">
-        <v>23573.34720328394</v>
+        <v>340665.0003208069</v>
       </c>
       <c r="D110" t="n">
         <v>7438.67</v>
@@ -7400,13 +7400,13 @@
         <v>-0.08940931437948194</v>
       </c>
       <c r="F110" t="n">
-        <v>46.38360507639788</v>
+        <v>668.9860678953341</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.3117735097564341</v>
+        <v>4.406744394746826</v>
       </c>
       <c r="H110" t="n">
-        <v>-2319.180253819894</v>
+        <v>33449.30339476671</v>
       </c>
     </row>
     <row r="111">
@@ -7416,10 +7416,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-787.8458343847778</v>
+        <v>67.04468348158717</v>
       </c>
       <c r="C111" t="n">
-        <v>19523.52825057715</v>
+        <v>283287.4898784923</v>
       </c>
       <c r="D111" t="n">
         <v>6185.79</v>
@@ -7428,13 +7428,13 @@
         <v>-0.1684279582237147</v>
       </c>
       <c r="F111" t="n">
-        <v>79.4082147589566</v>
+        <v>1147.550208846292</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.6418599302510803</v>
+        <v>9.090182536663601</v>
       </c>
       <c r="H111" t="n">
-        <v>-3970.41073794783</v>
+        <v>57377.51044231463</v>
       </c>
     </row>
     <row r="112">
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-787.8458343847778</v>
+        <v>64.33389180947113</v>
       </c>
       <c r="C112" t="n">
-        <v>19523.52825057715</v>
+        <v>301498.0074478381</v>
       </c>
       <c r="D112" t="n">
         <v>6583.43</v>
@@ -7456,13 +7456,13 @@
         <v>0.06428281593781883</v>
       </c>
       <c r="F112" t="n">
-        <v>25.10054745977314</v>
+        <v>364.2103513869167</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>2.710791672116042</v>
       </c>
       <c r="H112" t="n">
-        <v>1255.027372988657</v>
+        <v>18210.51756934583</v>
       </c>
     </row>
     <row r="113">
@@ -7472,10 +7472,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-787.8458343847778</v>
+        <v>63.42211500888408</v>
       </c>
       <c r="C113" t="n">
-        <v>19523.52825057715</v>
+        <v>307750.1447040676</v>
       </c>
       <c r="D113" t="n">
         <v>6719.95</v>
@@ -7484,13 +7484,13 @@
         <v>0.02073691069852638</v>
       </c>
       <c r="F113" t="n">
-        <v>8.097153237047507</v>
+        <v>125.0427451245892</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>0.9117768005870387</v>
       </c>
       <c r="H113" t="n">
-        <v>404.8576618523754</v>
+        <v>6252.13725622946</v>
       </c>
     </row>
     <row r="114">
@@ -7500,10 +7500,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-787.8458343847778</v>
+        <v>61.35252053919936</v>
       </c>
       <c r="C114" t="n">
-        <v>19523.52825057715</v>
+        <v>322627.5934958835</v>
       </c>
       <c r="D114" t="n">
         <v>7044.81</v>
@@ -7512,13 +7512,13 @@
         <v>0.04834262159688697</v>
       </c>
       <c r="F114" t="n">
-        <v>18.87637076907568</v>
+        <v>297.548975836319</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>2.069594469684722</v>
       </c>
       <c r="H114" t="n">
-        <v>943.8185384537841</v>
+        <v>14877.44879181595</v>
       </c>
     </row>
     <row r="115">
@@ -7528,10 +7528,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-788.0966378886994</v>
+        <v>65.41417411300925</v>
       </c>
       <c r="C115" t="n">
-        <v>17870.89031320967</v>
+        <v>295853.1316918841</v>
       </c>
       <c r="D115" t="n">
         <v>6460.17</v>
@@ -7540,13 +7540,13 @@
         <v>-0.08298875342273253</v>
       </c>
       <c r="F115" t="n">
-        <v>32.404665438578</v>
+        <v>535.4892360799893</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.2508035039215532</v>
+        <v>4.061653573809895</v>
       </c>
       <c r="H115" t="n">
-        <v>-1620.2332719289</v>
+        <v>26774.46180399946</v>
       </c>
     </row>
     <row r="116">
@@ -7556,10 +7556,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-788.0966378886994</v>
+        <v>65.07474649531105</v>
       </c>
       <c r="C116" t="n">
-        <v>17870.89031320967</v>
+        <v>298107.6930537664</v>
       </c>
       <c r="D116" t="n">
         <v>6509.4</v>
@@ -7568,13 +7568,13 @@
         <v>0.007620542493463727</v>
       </c>
       <c r="F116" t="n">
-        <v>2.723717580556872</v>
+        <v>45.09122723764646</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>0.3394276176982021</v>
       </c>
       <c r="H116" t="n">
-        <v>136.1858790278436</v>
+        <v>2254.561361882323</v>
       </c>
     </row>
     <row r="117">
@@ -7584,10 +7584,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-788.0966378886994</v>
+        <v>63.5710755315968</v>
       </c>
       <c r="C117" t="n">
-        <v>17870.89031320967</v>
+        <v>308441.6717518925</v>
       </c>
       <c r="D117" t="n">
         <v>6735.05</v>
@@ -7596,13 +7596,13 @@
         <v>0.03466525332595947</v>
       </c>
       <c r="F117" t="n">
-        <v>12.38997879735697</v>
+        <v>206.6795739625236</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1.503670963714249</v>
       </c>
       <c r="H117" t="n">
-        <v>619.4989398678485</v>
+        <v>10333.97869812618</v>
       </c>
     </row>
     <row r="118">
@@ -7612,10 +7612,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-788.1333649608866</v>
+        <v>64.19228668328181</v>
       </c>
       <c r="C118" t="n">
-        <v>17622.02906769767</v>
+        <v>304230.6841990776</v>
       </c>
       <c r="D118" t="n">
         <v>6643.1</v>
@@ -7624,13 +7624,13 @@
         <v>-0.0136524598926511</v>
       </c>
       <c r="F118" t="n">
-        <v>4.879632264941244</v>
+        <v>84.21975105629939</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.03672707218724123</v>
+        <v>0.6212111516850071</v>
       </c>
       <c r="H118" t="n">
-        <v>-243.9816132470622</v>
+        <v>4210.98755281497</v>
       </c>
     </row>
     <row r="119">
@@ -7640,10 +7640,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-788.1416365031141</v>
+        <v>64.33223241840479</v>
       </c>
       <c r="C119" t="n">
-        <v>17566.15563537648</v>
+        <v>303284.986613807</v>
       </c>
       <c r="D119" t="n">
         <v>6622.45</v>
@@ -7652,13 +7652,13 @@
         <v>-0.003108488506871874</v>
       </c>
       <c r="F119" t="n">
-        <v>1.095557496494006</v>
+        <v>18.91395170541199</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.008271542227529132</v>
+        <v>0.1399457351229813</v>
       </c>
       <c r="H119" t="n">
-        <v>-54.7778748247003</v>
+        <v>945.6975852705993</v>
       </c>
     </row>
     <row r="120">
@@ -7668,10 +7668,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-788.2871343288159</v>
+        <v>66.79405507872519</v>
       </c>
       <c r="C120" t="n">
-        <v>16634.43970600326</v>
+        <v>287514.0482390066</v>
       </c>
       <c r="D120" t="n">
         <v>6278.08</v>
@@ -7680,13 +7680,13 @@
         <v>-0.05200039260394566</v>
       </c>
       <c r="F120" t="n">
-        <v>18.26893979163179</v>
+        <v>315.4187674960073</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.1454978257017415</v>
+        <v>2.46182266032041</v>
       </c>
       <c r="H120" t="n">
-        <v>-913.4469895815894</v>
+        <v>15770.93837480037</v>
       </c>
     </row>
     <row r="121">
@@ -7696,10 +7696,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-788.2871343288159</v>
+        <v>65.52396317132711</v>
       </c>
       <c r="C121" t="n">
-        <v>16634.43970600326</v>
+        <v>295887.4790618091</v>
       </c>
       <c r="D121" t="n">
         <v>6460.92</v>
@@ -7708,13 +7708,13 @@
         <v>0.02912355369794589</v>
       </c>
       <c r="F121" t="n">
-        <v>9.689079960260583</v>
+        <v>167.4686164560503</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1.27009190739809</v>
       </c>
       <c r="H121" t="n">
-        <v>484.4539980130291</v>
+        <v>8373.430822802515</v>
       </c>
     </row>
     <row r="122">
@@ -7724,10 +7724,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-788.2871343288159</v>
+        <v>65.3860148772316</v>
       </c>
       <c r="C122" t="n">
-        <v>16634.43970600326</v>
+        <v>296799.7452070193</v>
       </c>
       <c r="D122" t="n">
         <v>6480.84</v>
@@ -7736,13 +7736,13 @@
         <v>0.003083152244571992</v>
       </c>
       <c r="F122" t="n">
-        <v>1.025730202335228</v>
+        <v>18.2453229042033</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>0.1379482940955126</v>
       </c>
       <c r="H122" t="n">
-        <v>51.2865101167614</v>
+        <v>912.266145210165</v>
       </c>
     </row>
     <row r="123">
@@ -7752,10 +7752,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-788.3247474602224</v>
+        <v>66.04370438495593</v>
       </c>
       <c r="C123" t="n">
-        <v>16389.39072660991</v>
+        <v>292513.1934403692</v>
       </c>
       <c r="D123" t="n">
         <v>6387.24</v>
@@ -7764,13 +7764,13 @@
         <v>-0.01444257225915165</v>
       </c>
       <c r="F123" t="n">
-        <v>4.804881948889067</v>
+        <v>85.73103533300349</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.03761313140643742</v>
+        <v>0.6576895077243334</v>
       </c>
       <c r="H123" t="n">
-        <v>-240.2440974444533</v>
+        <v>4286.551766650175</v>
       </c>
     </row>
     <row r="124">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-788.3251934601598</v>
+        <v>66.05150526363195</v>
       </c>
       <c r="C124" t="n">
-        <v>16386.48554875834</v>
+        <v>292462.3593328801</v>
       </c>
       <c r="D124" t="n">
         <v>6386.13</v>
@@ -7792,13 +7792,13 @@
         <v>-0.0001737839818136899</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0569642715994127</v>
+        <v>1.016682149782109</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.0004459999373596584</v>
+        <v>0.007800878676024972</v>
       </c>
       <c r="H124" t="n">
-        <v>-2.848213579970635</v>
+        <v>50.83410748910546</v>
       </c>
     </row>
     <row r="125">
@@ -7808,10 +7808,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-788.6966378644775</v>
+        <v>72.54837345382599</v>
       </c>
       <c r="C125" t="n">
-        <v>14272.9105772188</v>
+        <v>255479.4012222141</v>
       </c>
       <c r="D125" t="n">
         <v>5578.58</v>
@@ -7820,13 +7820,13 @@
         <v>-0.1264537364569779</v>
       </c>
       <c r="F125" t="n">
-        <v>41.44264650077528</v>
+        <v>739.6591622133196</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.3714444043177232</v>
+        <v>6.496868190194039</v>
       </c>
       <c r="H125" t="n">
-        <v>-2072.132325038764</v>
+        <v>36982.95811066598</v>
       </c>
     </row>
     <row r="126">
@@ -7836,10 +7836,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-789.4209896790678</v>
+        <v>85.25466958924251</v>
       </c>
       <c r="C126" t="n">
-        <v>11060.66829362679</v>
+        <v>199108.9556661028</v>
       </c>
       <c r="D126" t="n">
         <v>4347.69</v>
@@ -7848,13 +7848,13 @@
         <v>-0.2206457557299528</v>
       </c>
       <c r="F126" t="n">
-        <v>62.9851428155296</v>
+        <v>1127.408911122225</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.7243518145903871</v>
+        <v>12.70629613541652</v>
       </c>
       <c r="H126" t="n">
-        <v>-3149.25714077648</v>
+        <v>56370.44555611126</v>
       </c>
     </row>
     <row r="127">
@@ -7864,10 +7864,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-789.6253142931996</v>
+        <v>88.85926221127299</v>
       </c>
       <c r="C127" t="n">
-        <v>10221.92524822614</v>
+        <v>184306.3494269817</v>
       </c>
       <c r="D127" t="n">
         <v>4024.464242</v>
@@ -7876,13 +7876,13 @@
         <v>-0.07434425131506607</v>
       </c>
       <c r="F127" t="n">
-        <v>16.44594206667946</v>
+        <v>296.0521247824219</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.2043246141318239</v>
+        <v>3.604592622030477</v>
       </c>
       <c r="H127" t="n">
-        <v>-822.2971033339732</v>
+        <v>14802.6062391211</v>
       </c>
     </row>
     <row r="128">
@@ -7892,10 +7892,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-790.0725658393169</v>
+        <v>96.76214467068655</v>
       </c>
       <c r="C128" t="n">
-        <v>8660.861434985003</v>
+        <v>156711.4966622303</v>
       </c>
       <c r="D128" t="n">
         <v>3421.910404</v>
@@ -7904,13 +7904,13 @@
         <v>-0.1497227461264644</v>
       </c>
       <c r="F128" t="n">
-        <v>30.60909437727717</v>
+        <v>551.8970552950284</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.4472515461172952</v>
+        <v>7.902882459413566</v>
       </c>
       <c r="H128" t="n">
-        <v>-1530.454718863858</v>
+        <v>27594.85276475142</v>
       </c>
     </row>
     <row r="129">
@@ -7920,10 +7920,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-790.2113753716028</v>
+        <v>99.22356132357092</v>
       </c>
       <c r="C129" t="n">
-        <v>8201.557698095741</v>
+        <v>148563.711389912</v>
       </c>
       <c r="D129" t="n">
         <v>3243.99754</v>
@@ -7932,13 +7932,13 @@
         <v>-0.05199226250694094</v>
       </c>
       <c r="F129" t="n">
-        <v>9.005955625279631</v>
+        <v>162.9557054463656</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.1388095322858912</v>
+        <v>2.461416652884365</v>
       </c>
       <c r="H129" t="n">
-        <v>-450.2977812639815</v>
+        <v>8147.785272318279</v>
       </c>
     </row>
     <row r="130">
@@ -7948,10 +7948,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-790.2113753716028</v>
+        <v>91.69274445232897</v>
       </c>
       <c r="C130" t="n">
-        <v>8201.557698095741</v>
+        <v>178518.5627371207</v>
       </c>
       <c r="D130" t="n">
         <v>3898.083677</v>
@@ -7960,13 +7960,13 @@
         <v>0.201629664922619</v>
       </c>
       <c r="F130" t="n">
-        <v>33.07354661021142</v>
+        <v>599.0970269441727</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>7.530816871241953</v>
       </c>
       <c r="H130" t="n">
-        <v>1653.677330510571</v>
+        <v>29954.85134720864</v>
       </c>
     </row>
     <row r="131">
@@ -7976,10 +7976,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-790.2113753716028</v>
+        <v>91.3000528909396</v>
       </c>
       <c r="C131" t="n">
-        <v>8201.557698095741</v>
+        <v>180094.334521434</v>
       </c>
       <c r="D131" t="n">
         <v>3932.491809</v>
@@ -7988,13 +7988,13 @@
         <v>0.008826935194598189</v>
       </c>
       <c r="F131" t="n">
-        <v>1.44789236591698</v>
+        <v>31.51543568626751</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>0.3926915613893673</v>
       </c>
       <c r="H131" t="n">
-        <v>72.39461829584901</v>
+        <v>1575.771784313375</v>
       </c>
     </row>
     <row r="132">
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-790.2549704348528</v>
+        <v>92.23819168232133</v>
       </c>
       <c r="C132" t="n">
-        <v>8030.272108481404</v>
+        <v>176406.8996235167</v>
       </c>
       <c r="D132" t="n">
         <v>3851.973965</v>
@@ -8016,13 +8016,13 @@
         <v>-0.02047501887117089</v>
       </c>
       <c r="F132" t="n">
-        <v>3.358540972830145</v>
+        <v>73.74869795834651</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.04359506324999453</v>
+        <v>0.9381387913817271</v>
       </c>
       <c r="H132" t="n">
-        <v>-167.9270486415072</v>
+        <v>3687.434897917326</v>
       </c>
     </row>
     <row r="133">
@@ -8032,10 +8032,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-790.3482664680932</v>
+        <v>94.24670427987787</v>
       </c>
       <c r="C133" t="n">
-        <v>7679.412544574893</v>
+        <v>168850.4384886427</v>
       </c>
       <c r="D133" t="n">
         <v>3686.973097</v>
@@ -8044,13 +8044,13 @@
         <v>-0.0428354058202987</v>
       </c>
       <c r="F133" t="n">
-        <v>6.879599292284533</v>
+        <v>151.1292226974807</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.09329603324041469</v>
+        <v>2.008512597556541</v>
       </c>
       <c r="H133" t="n">
-        <v>-343.9799646142267</v>
+        <v>7556.461134874037</v>
       </c>
     </row>
     <row r="134">
@@ -8060,10 +8060,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-790.3679951902076</v>
+        <v>94.67181222834135</v>
       </c>
       <c r="C134" t="n">
-        <v>7605.91466226437</v>
+        <v>167266.0968065505</v>
       </c>
       <c r="D134" t="n">
         <v>3652.377835</v>
@@ -8072,13 +8072,13 @@
         <v>-0.009383106708359113</v>
       </c>
       <c r="F134" t="n">
-        <v>1.441134947265156</v>
+        <v>31.68683364184322</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.01972872211433126</v>
+        <v>0.4251079484634749</v>
       </c>
       <c r="H134" t="n">
-        <v>-72.05674736325781</v>
+        <v>1584.341682092161</v>
       </c>
     </row>
     <row r="135">
@@ -8088,10 +8088,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-790.3984607266381</v>
+        <v>95.32839786731878</v>
       </c>
       <c r="C135" t="n">
-        <v>7494.054057542843</v>
+        <v>164854.3402639462</v>
       </c>
       <c r="D135" t="n">
         <v>3599.715363</v>
@@ -8100,13 +8100,13 @@
         <v>-0.01441868130272453</v>
       </c>
       <c r="F135" t="n">
-        <v>2.193345190618192</v>
+        <v>48.23513085208641</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.03046553643050071</v>
+        <v>0.6565856389774321</v>
       </c>
       <c r="H135" t="n">
-        <v>-109.6672595309096</v>
+        <v>2411.75654260432</v>
       </c>
     </row>
     <row r="136">
@@ -8116,10 +8116,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-790.4672195033165</v>
+        <v>96.8107035760914</v>
       </c>
       <c r="C136" t="n">
-        <v>7249.6634725982</v>
+        <v>159583.6455344964</v>
       </c>
       <c r="D136" t="n">
         <v>3484.62588</v>
@@ -8128,13 +8128,13 @@
         <v>-0.03197182871261361</v>
       </c>
       <c r="F136" t="n">
-        <v>4.791972253816537</v>
+        <v>105.4138945889962</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.06875877667843838</v>
+        <v>1.482305708772619</v>
       </c>
       <c r="H136" t="n">
-        <v>-239.5986126908268</v>
+        <v>5270.69472944981</v>
       </c>
     </row>
     <row r="137">
@@ -8144,10 +8144,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-790.4672195033165</v>
+        <v>94.52534959514165</v>
       </c>
       <c r="C137" t="n">
-        <v>7249.6634725982</v>
+        <v>168145.7614357506</v>
       </c>
       <c r="D137" t="n">
         <v>3671.585957</v>
@@ -8156,13 +8156,13 @@
         <v>0.05365284063148831</v>
       </c>
       <c r="F137" t="n">
-        <v>7.779300778544667</v>
+        <v>171.2423180250851</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2.285353980949757</v>
       </c>
       <c r="H137" t="n">
-        <v>388.9650389272334</v>
+        <v>8562.115901254256</v>
       </c>
     </row>
     <row r="138">
@@ -8172,10 +8172,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-790.4979771275812</v>
+        <v>95.22446189022284</v>
       </c>
       <c r="C138" t="n">
-        <v>7136.242405620928</v>
+        <v>165566.700319729</v>
       </c>
       <c r="D138" t="n">
         <v>3615.270267</v>
@@ -8184,13 +8184,13 @@
         <v>-0.01533824637623754</v>
       </c>
       <c r="F138" t="n">
-        <v>2.223942489750421</v>
+        <v>51.5812223204321</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.03075762426464285</v>
+        <v>0.6991122950811945</v>
       </c>
       <c r="H138" t="n">
-        <v>-111.197124487521</v>
+        <v>2579.061116021605</v>
       </c>
     </row>
     <row r="139">
@@ -8200,10 +8200,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-790.4979771275812</v>
+        <v>90.91873311072467</v>
       </c>
       <c r="C139" t="n">
-        <v>7136.242405620928</v>
+        <v>183136.3420375451</v>
       </c>
       <c r="D139" t="n">
         <v>3998.916273</v>
@@ -8212,13 +8212,13 @@
         <v>0.1061182090594722</v>
       </c>
       <c r="F139" t="n">
-        <v>15.14570526997505</v>
+        <v>351.3928343563199</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>4.305728779498174</v>
       </c>
       <c r="H139" t="n">
-        <v>757.2852634987527</v>
+        <v>17569.64171781599</v>
       </c>
     </row>
     <row r="140">
@@ -8228,10 +8228,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-790.5644455845654</v>
+        <v>92.5903879668041</v>
       </c>
       <c r="C140" t="n">
-        <v>6874.860211153329</v>
+        <v>176560.0548665881</v>
       </c>
       <c r="D140" t="n">
         <v>3855.318222</v>
@@ -8240,13 +8240,13 @@
         <v>-0.03590924170369594</v>
       </c>
       <c r="F140" t="n">
-        <v>5.12514106799213</v>
+        <v>131.5257434191387</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.06646845698425112</v>
+        <v>1.671654856079426</v>
       </c>
       <c r="H140" t="n">
-        <v>-256.2570533996065</v>
+        <v>6576.287170956937</v>
       </c>
     </row>
     <row r="141">
@@ -8256,10 +8256,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-790.5644455845654</v>
+        <v>92.13825446619107</v>
       </c>
       <c r="C141" t="n">
-        <v>6874.860211153329</v>
+        <v>178356.8484042429</v>
       </c>
       <c r="D141" t="n">
         <v>3894.552526</v>
@@ -8268,13 +8268,13 @@
         <v>0.01017667070285231</v>
       </c>
       <c r="F141" t="n">
-        <v>1.399263769940983</v>
+        <v>35.93587075309608</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>0.4521335006130324</v>
       </c>
       <c r="H141" t="n">
-        <v>69.96318849704915</v>
+        <v>1796.793537654804</v>
       </c>
     </row>
     <row r="142">
@@ -8284,10 +8284,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-790.5644455845654</v>
+        <v>91.35307850494891</v>
       </c>
       <c r="C142" t="n">
-        <v>6874.860211153329</v>
+        <v>181532.7250236194</v>
       </c>
       <c r="D142" t="n">
         <v>3963.90012</v>
@@ -8296,13 +8296,13 @@
         <v>0.01780630599716807</v>
       </c>
       <c r="F142" t="n">
-        <v>2.448317292151033</v>
+        <v>63.51753238752934</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>0.7851759612421662</v>
       </c>
       <c r="H142" t="n">
-        <v>122.4158646075517</v>
+        <v>3175.876619376467</v>
       </c>
     </row>
     <row r="143">
@@ -8312,10 +8312,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-790.5644455845654</v>
+        <v>90.69691219016833</v>
       </c>
       <c r="C143" t="n">
-        <v>6874.860211153329</v>
+        <v>184226.1627441021</v>
       </c>
       <c r="D143" t="n">
         <v>4022.713307</v>
@@ -8324,13 +8324,13 @@
         <v>0.01483720205341607</v>
       </c>
       <c r="F143" t="n">
-        <v>2.040073800837452</v>
+        <v>53.86875440965321</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>0.6561663147805842</v>
       </c>
       <c r="H143" t="n">
-        <v>102.0036900418726</v>
+        <v>2693.43772048266</v>
       </c>
     </row>
     <row r="144">
@@ -8340,10 +8340,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-790.5644455845654</v>
+        <v>89.93551598829215</v>
       </c>
       <c r="C144" t="n">
-        <v>6874.860211153329</v>
+        <v>187405.4861449488</v>
       </c>
       <c r="D144" t="n">
         <v>4092.136164</v>
@@ -8352,13 +8352,13 @@
         <v>0.01725771928096292</v>
       </c>
       <c r="F144" t="n">
-        <v>2.372888152398913</v>
+        <v>63.58646801693408</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>0.7613962018761823</v>
       </c>
       <c r="H144" t="n">
-        <v>118.6444076199457</v>
+        <v>3179.323400846704</v>
       </c>
     </row>
     <row r="145">
@@ -8368,10 +8368,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-790.5644455845654</v>
+        <v>81.51810993945148</v>
       </c>
       <c r="C145" t="n">
-        <v>6874.860211153329</v>
+        <v>230667.4576418632</v>
       </c>
       <c r="D145" t="n">
         <v>5036.793024</v>
@@ -8380,13 +8380,13 @@
         <v>0.2308468785351004</v>
       </c>
       <c r="F145" t="n">
-        <v>31.74080040219814</v>
+        <v>865.2394299382886</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>8.417406048840681</v>
       </c>
       <c r="H145" t="n">
-        <v>1587.040020109907</v>
+        <v>43261.97149691443</v>
       </c>
     </row>
     <row r="146">
@@ -8396,10 +8396,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-790.5644455845654</v>
+        <v>81.05899929347537</v>
       </c>
       <c r="C146" t="n">
-        <v>6874.860211153329</v>
+        <v>233051.4833544954</v>
       </c>
       <c r="D146" t="n">
         <v>5088.849973</v>
@@ -8408,13 +8408,13 @@
         <v>0.01033533614582784</v>
       </c>
       <c r="F146" t="n">
-        <v>1.421079824756933</v>
+        <v>47.68051425264323</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>0.4591106459761057</v>
       </c>
       <c r="H146" t="n">
-        <v>71.05399123784663</v>
+        <v>2384.025712632161</v>
       </c>
     </row>
     <row r="147">
@@ -8424,10 +8424,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-790.5644455845654</v>
+        <v>79.23717292277318</v>
       </c>
       <c r="C147" t="n">
-        <v>6874.860211153329</v>
+        <v>242911.9522791994</v>
       </c>
       <c r="D147" t="n">
         <v>5304.16054</v>
@@ -8436,13 +8436,13 @@
         <v>0.0423102603028929</v>
       </c>
       <c r="F147" t="n">
-        <v>5.817542501597972</v>
+        <v>197.2093784940802</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1.821826370702183</v>
       </c>
       <c r="H147" t="n">
-        <v>290.8771250798986</v>
+        <v>9860.468924704011</v>
       </c>
     </row>
     <row r="148">
@@ -8452,10 +8452,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-790.5705069056725</v>
+        <v>79.44705646255821</v>
       </c>
       <c r="C148" t="n">
-        <v>6842.219629888706</v>
+        <v>241781.2644307546</v>
       </c>
       <c r="D148" t="n">
         <v>5279.471142</v>
@@ -8464,13 +8464,13 @@
         <v>-0.004654722988456064</v>
       </c>
       <c r="F148" t="n">
-        <v>0.6400113973455461</v>
+        <v>22.61375696889463</v>
       </c>
       <c r="G148" t="n">
-        <v>-0.00606132110709003</v>
+        <v>0.2098835397850228</v>
       </c>
       <c r="H148" t="n">
-        <v>-32.00056986727731</v>
+        <v>1130.687848444732</v>
       </c>
     </row>
     <row r="149">
@@ -8480,10 +8480,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-790.5705069056725</v>
+        <v>75.63727155697899</v>
       </c>
       <c r="C149" t="n">
-        <v>6842.219629888706</v>
+        <v>264209.2447648902</v>
       </c>
       <c r="D149" t="n">
         <v>5769.202533</v>
@@ -8492,13 +8492,13 @@
         <v>0.0927614486049594</v>
       </c>
       <c r="F149" t="n">
-        <v>12.69388409083531</v>
+        <v>448.5596066827109</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>3.809784905579226</v>
       </c>
       <c r="H149" t="n">
-        <v>634.6942045417654</v>
+        <v>22427.98033413554</v>
       </c>
     </row>
     <row r="150">
@@ -8508,10 +8508,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-790.5705069056725</v>
+        <v>71.34269233522505</v>
       </c>
       <c r="C150" t="n">
-        <v>6842.219629888706</v>
+        <v>292166.3722464455</v>
       </c>
       <c r="D150" t="n">
         <v>6379.666905</v>
@@ -8520,13 +8520,13 @@
         <v>0.1058143423650196</v>
       </c>
       <c r="F150" t="n">
-        <v>14.48009940907403</v>
+        <v>559.1425496311072</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>4.294579221753938</v>
       </c>
       <c r="H150" t="n">
-        <v>724.0049704537013</v>
+        <v>27957.12748155536</v>
       </c>
     </row>
     <row r="151">
@@ -8536,10 +8536,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-790.5705069056725</v>
+        <v>65.46187459096211</v>
       </c>
       <c r="C151" t="n">
-        <v>6842.219629888706</v>
+        <v>336222.4848869344</v>
       </c>
       <c r="D151" t="n">
         <v>7341.664419</v>
@@ -8548,13 +8548,13 @@
         <v>0.1507911820985581</v>
       </c>
       <c r="F151" t="n">
-        <v>20.63492772337754</v>
+        <v>881.1222528097777</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>5.880817744262946</v>
       </c>
       <c r="H151" t="n">
-        <v>1031.746386168877</v>
+        <v>44056.11264048889</v>
       </c>
     </row>
     <row r="152">
@@ -8564,10 +8564,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-790.5705069056725</v>
+        <v>61.81038716375503</v>
       </c>
       <c r="C152" t="n">
-        <v>6842.219629888706</v>
+        <v>366000.3091110088</v>
       </c>
       <c r="D152" t="n">
         <v>7991.885039</v>
@@ -8576,13 +8576,13 @@
         <v>0.08856583233595494</v>
       </c>
       <c r="F152" t="n">
-        <v>12.11973753093006</v>
+        <v>595.5564844814875</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>3.651487427207083</v>
       </c>
       <c r="H152" t="n">
-        <v>605.9868765465028</v>
+        <v>29777.82422407437</v>
       </c>
     </row>
     <row r="153">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-790.5705069056725</v>
+        <v>58.76409110498687</v>
       </c>
       <c r="C153" t="n">
-        <v>6842.219629888706</v>
+        <v>392651.7929505776</v>
       </c>
       <c r="D153" t="n">
         <v>8573.839725</v>
@@ -8604,13 +8604,13 @@
         <v>0.07281820035699842</v>
       </c>
       <c r="F153" t="n">
-        <v>9.964762397916466</v>
+        <v>533.0296767913758</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>3.046296058768164</v>
       </c>
       <c r="H153" t="n">
-        <v>498.2381198958233</v>
+        <v>26651.48383956879</v>
       </c>
     </row>
     <row r="154">
@@ -8620,10 +8620,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-790.6238362843069</v>
+        <v>61.76327554001199</v>
       </c>
       <c r="C154" t="n">
-        <v>6405.051492056015</v>
+        <v>368056.1089752192</v>
       </c>
       <c r="D154" t="n">
         <v>8036.774936</v>
@@ -8632,13 +8632,13 @@
         <v>-0.06263993802380065</v>
       </c>
       <c r="F154" t="n">
-        <v>8.571924271229214</v>
+        <v>491.9136795071677</v>
       </c>
       <c r="G154" t="n">
-        <v>-0.05332937863440758</v>
+        <v>2.999184435025121</v>
       </c>
       <c r="H154" t="n">
-        <v>-428.5962135614607</v>
+        <v>24595.68397535838</v>
       </c>
     </row>
     <row r="155">
@@ -8648,10 +8648,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-790.6238362843069</v>
+        <v>58.39082640281207</v>
       </c>
       <c r="C155" t="n">
-        <v>6405.051492056015</v>
+        <v>397959.9128490767</v>
       </c>
       <c r="D155" t="n">
         <v>8689.746413999999</v>
@@ -8660,13 +8660,13 @@
         <v>0.08124794873563938</v>
       </c>
       <c r="F155" t="n">
-        <v>10.40794590551396</v>
+        <v>598.0760774771503</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>3.372449137199916</v>
       </c>
       <c r="H155" t="n">
-        <v>520.3972952756977</v>
+        <v>29903.80387385751</v>
       </c>
     </row>
     <row r="156">
@@ -8676,10 +8676,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-790.6238362843069</v>
+        <v>51.83609134458149</v>
       </c>
       <c r="C156" t="n">
-        <v>6405.051492056015</v>
+        <v>466021.6327781589</v>
       </c>
       <c r="D156" t="n">
         <v>10175.92396</v>
@@ -8688,13 +8688,13 @@
         <v>0.1710265726058046</v>
       </c>
       <c r="F156" t="n">
-        <v>21.9086800810007</v>
+        <v>1361.234398581645</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>6.554735058230587</v>
       </c>
       <c r="H156" t="n">
-        <v>1095.434004050035</v>
+        <v>68061.71992908226</v>
       </c>
     </row>
     <row r="157">
@@ -8704,10 +8704,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-790.6238362843069</v>
+        <v>43.7840017327014</v>
       </c>
       <c r="C157" t="n">
-        <v>6405.051492056015</v>
+        <v>567911.4904185965</v>
       </c>
       <c r="D157" t="n">
         <v>12400.76369</v>
@@ -8716,13 +8716,13 @@
         <v>0.2186376135224186</v>
       </c>
       <c r="F157" t="n">
-        <v>28.00770345422668</v>
+        <v>2037.797152808752</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>8.052089611880094</v>
       </c>
       <c r="H157" t="n">
-        <v>1400.385172711334</v>
+        <v>101889.8576404376</v>
       </c>
     </row>
     <row r="158">
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-790.6905345872218</v>
+        <v>49.57960821775094</v>
       </c>
       <c r="C158" t="n">
-        <v>5657.88411076134</v>
+        <v>502961.9978602931</v>
       </c>
       <c r="D158" t="n">
         <v>10982.54391</v>
@@ -8744,13 +8744,13 @@
         <v>-0.1143655193706864</v>
       </c>
       <c r="F158" t="n">
-        <v>14.65034080969952</v>
+        <v>1298.989851166068</v>
       </c>
       <c r="G158" t="n">
-        <v>-0.0666983029148641</v>
+        <v>5.795606485049539</v>
       </c>
       <c r="H158" t="n">
-        <v>-732.5170404849761</v>
+        <v>64949.49255830338</v>
       </c>
     </row>
     <row r="159">
@@ -8760,10 +8760,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-790.6905345872218</v>
+        <v>46.42404658231124</v>
       </c>
       <c r="C159" t="n">
-        <v>5657.88411076134</v>
+        <v>540999.8053761672</v>
       </c>
       <c r="D159" t="n">
         <v>11813.12732</v>
@@ -8772,13 +8772,13 @@
         <v>0.07562759746798947</v>
       </c>
       <c r="F159" t="n">
-        <v>8.557843640983844</v>
+        <v>760.7561503174807</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>3.155561635439696</v>
       </c>
       <c r="H159" t="n">
-        <v>427.8921820491922</v>
+        <v>38037.80751587403</v>
       </c>
     </row>
     <row r="160">
@@ -8788,10 +8788,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-790.7491100652285</v>
+        <v>51.91294228068006</v>
       </c>
       <c r="C160" t="n">
-        <v>5028.998133837284</v>
+        <v>482045.5986099337</v>
       </c>
       <c r="D160" t="n">
         <v>10525.819</v>
@@ -8800,13 +8800,13 @@
         <v>-0.108972694962878</v>
       </c>
       <c r="F160" t="n">
-        <v>12.33109758674619</v>
+        <v>1179.084135324668</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.05857547800672894</v>
+        <v>5.488895698368816</v>
       </c>
       <c r="H160" t="n">
-        <v>-616.5548793373096</v>
+        <v>58954.20676623342</v>
       </c>
     </row>
     <row r="161">
@@ -8816,10 +8816,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-790.7807961804837</v>
+        <v>54.88941372678941</v>
       </c>
       <c r="C161" t="n">
-        <v>4709.963684797119</v>
+        <v>452064.7407165196</v>
       </c>
       <c r="D161" t="n">
         <v>9871.164991</v>
@@ -8828,13 +8828,13 @@
         <v>-0.06219506615114699</v>
       </c>
       <c r="F161" t="n">
-        <v>6.255577432160093</v>
+        <v>599.6171578682815</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.03168611525520845</v>
+        <v>2.976471446109354</v>
       </c>
       <c r="H161" t="n">
-        <v>-312.7788716080046</v>
+        <v>29980.85789341408</v>
       </c>
     </row>
     <row r="162">
@@ -8844,10 +8844,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-790.7807961804837</v>
+        <v>52.12423424289945</v>
       </c>
       <c r="C162" t="n">
-        <v>4709.963684797119</v>
+        <v>481746.0597764665</v>
       </c>
       <c r="D162" t="n">
         <v>10519.27835</v>
@@ -8856,13 +8856,13 @@
         <v>0.0656572308933055</v>
       </c>
       <c r="F162" t="n">
-        <v>6.184863463036168</v>
+        <v>593.6263811989363</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>2.765179483889964</v>
       </c>
       <c r="H162" t="n">
-        <v>309.2431731518084</v>
+        <v>29681.31905994681</v>
       </c>
     </row>
     <row r="163">
@@ -8872,10 +8872,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-790.7807961804837</v>
+        <v>47.04545663644016</v>
       </c>
       <c r="C163" t="n">
-        <v>4709.963684797119</v>
+        <v>543217.7011496369</v>
       </c>
       <c r="D163" t="n">
         <v>11861.5567</v>
@@ -8884,13 +8884,13 @@
         <v>0.127601752262787</v>
       </c>
       <c r="F163" t="n">
-        <v>12.0199923854841</v>
+        <v>1229.432827463409</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>5.07877760645928</v>
       </c>
       <c r="H163" t="n">
-        <v>600.9996192742052</v>
+        <v>61471.64137317044</v>
       </c>
     </row>
     <row r="164">
@@ -8900,10 +8900,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-790.8384039057865</v>
+        <v>53.55668845003373</v>
       </c>
       <c r="C164" t="n">
-        <v>4101.286393372964</v>
+        <v>474393.1667102117</v>
       </c>
       <c r="D164" t="n">
         <v>10358.72254</v>
@@ -8912,13 +8912,13 @@
         <v>-0.1266978861214733</v>
       </c>
       <c r="F164" t="n">
-        <v>11.934848851454</v>
+        <v>1376.490688788504</v>
       </c>
       <c r="G164" t="n">
-        <v>-0.05760772530284415</v>
+        <v>6.511231813593561</v>
       </c>
       <c r="H164" t="n">
-        <v>-596.7424425727</v>
+        <v>68824.5344394252</v>
       </c>
     </row>
     <row r="165">
@@ -8928,10 +8928,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-790.8384039057865</v>
+        <v>53.34572495439237</v>
       </c>
       <c r="C165" t="n">
-        <v>4101.286393372964</v>
+        <v>476633.6085552652</v>
       </c>
       <c r="D165" t="n">
         <v>10407.64423</v>
@@ -8940,13 +8940,13 @@
         <v>0.004722753197712274</v>
       </c>
       <c r="F165" t="n">
-        <v>0.3873872685807201</v>
+        <v>44.80883690107008</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>0.2109634956413603</v>
       </c>
       <c r="H165" t="n">
-        <v>19.36936342903601</v>
+        <v>2240.441845053504</v>
       </c>
     </row>
     <row r="166">
@@ -8956,10 +8956,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-790.871665950961</v>
+        <v>57.13398330966004</v>
       </c>
       <c r="C166" t="n">
-        <v>3775.667926876302</v>
+        <v>439533.6503880233</v>
       </c>
       <c r="D166" t="n">
         <v>9597.539448</v>
@@ -8968,13 +8968,13 @@
         <v>-0.07783747830896025</v>
       </c>
       <c r="F166" t="n">
-        <v>6.384675813660038</v>
+        <v>741.9991633448381</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.03326204517445625</v>
+        <v>3.78825835526767</v>
       </c>
       <c r="H166" t="n">
-        <v>-319.2337906830019</v>
+        <v>37099.9581672419</v>
       </c>
     </row>
     <row r="167">
@@ -8984,10 +8984,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-790.871665950961</v>
+        <v>53.85529590965432</v>
       </c>
       <c r="C167" t="n">
-        <v>3775.667926876302</v>
+        <v>474173.75754299</v>
       </c>
       <c r="D167" t="n">
         <v>10353.93158</v>
@@ -8996,13 +8996,13 @@
         <v>0.07881104694574848</v>
       </c>
       <c r="F167" t="n">
-        <v>5.951286844732102</v>
+        <v>692.8021430993341</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>3.278687400005725</v>
       </c>
       <c r="H167" t="n">
-        <v>297.5643422366051</v>
+        <v>34640.1071549667</v>
       </c>
     </row>
     <row r="168">
@@ -9012,10 +9012,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-790.8719665441113</v>
+        <v>53.89229140782785</v>
       </c>
       <c r="C168" t="n">
-        <v>3772.495974218935</v>
+        <v>473783.2132920639</v>
       </c>
       <c r="D168" t="n">
         <v>10345.40376</v>
@@ -9024,13 +9024,13 @@
         <v>-0.0008236310945374391</v>
       </c>
       <c r="F168" t="n">
-        <v>0.06219515014446065</v>
+        <v>7.810885018521263</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.0003005931502883202</v>
+        <v>0.03699549817353304</v>
       </c>
       <c r="H168" t="n">
-        <v>-3.109757507223033</v>
+        <v>390.5442509260631</v>
       </c>
     </row>
     <row r="169">
@@ -9040,10 +9040,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-790.8777586626637</v>
+        <v>54.60516807811339</v>
       </c>
       <c r="C169" t="n">
-        <v>3712.331379185259</v>
+        <v>466375.3713034031</v>
       </c>
       <c r="D169" t="n">
         <v>10183.6481</v>
@@ -9052,13 +9052,13 @@
         <v>-0.01563550961881443</v>
       </c>
       <c r="F169" t="n">
-        <v>1.179697941836777</v>
+        <v>148.1568397732174</v>
       </c>
       <c r="G169" t="n">
-        <v>-0.005792118552470293</v>
+        <v>0.7128766702855389</v>
       </c>
       <c r="H169" t="n">
-        <v>-58.98489709183885</v>
+        <v>7407.841988660872</v>
       </c>
     </row>
     <row r="170">
@@ -9068,10 +9068,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-790.9631303089171</v>
+        <v>65.11579457405867</v>
       </c>
       <c r="C170" t="n">
-        <v>2993.818070045101</v>
+        <v>377879.3966429968</v>
       </c>
       <c r="D170" t="n">
         <v>8251.273622999999</v>
@@ -9080,13 +9080,13 @@
         <v>-0.1897526758608245</v>
       </c>
       <c r="F170" t="n">
-        <v>14.08849625765016</v>
+        <v>1769.919493208126</v>
       </c>
       <c r="G170" t="n">
-        <v>-0.08537164625336872</v>
+        <v>10.51062649594528</v>
       </c>
       <c r="H170" t="n">
-        <v>-704.424812882508</v>
+        <v>88495.9746604063</v>
       </c>
     </row>
     <row r="171">
@@ -9096,10 +9096,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-790.964947724848</v>
+        <v>65.34060073760995</v>
       </c>
       <c r="C171" t="n">
-        <v>2978.598389175414</v>
+        <v>375996.0373373268</v>
       </c>
       <c r="D171" t="n">
         <v>8210.149092</v>
@@ -9108,13 +9108,13 @@
         <v>-0.00498402221026424</v>
       </c>
       <c r="F171" t="n">
-        <v>0.2984251150919042</v>
+        <v>37.66718611339893</v>
       </c>
       <c r="G171" t="n">
-        <v>-0.001817415930867143</v>
+        <v>0.2248061635512803</v>
       </c>
       <c r="H171" t="n">
-        <v>-14.92125575459521</v>
+        <v>1883.359305669946</v>
       </c>
     </row>
     <row r="172">
@@ -9124,10 +9124,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-790.964947724848</v>
+        <v>64.77112156553395</v>
       </c>
       <c r="C172" t="n">
-        <v>2978.598389175414</v>
+        <v>380828.2800126861</v>
       </c>
       <c r="D172" t="n">
         <v>8315.664653</v>
@@ -9136,13 +9136,13 @@
         <v>0.01285184468852276</v>
       </c>
       <c r="F172" t="n">
-        <v>0.76560967774333</v>
+        <v>96.64485350718658</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>0.5694791720760054</v>
       </c>
       <c r="H172" t="n">
-        <v>38.2804838871665</v>
+        <v>4832.242675359329</v>
       </c>
     </row>
     <row r="173">
@@ -9152,10 +9152,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-790.980304458506</v>
+        <v>66.69528593663631</v>
       </c>
       <c r="C173" t="n">
-        <v>2853.697776855021</v>
+        <v>365172.2503060051</v>
       </c>
       <c r="D173" t="n">
         <v>7973.803768</v>
@@ -9164,13 +9164,13 @@
         <v>-0.04111047033103585</v>
       </c>
       <c r="F173" t="n">
-        <v>2.449031614125341</v>
+        <v>313.120594133619</v>
       </c>
       <c r="G173" t="n">
-        <v>-0.01535673365799175</v>
+        <v>1.924164371102357</v>
       </c>
       <c r="H173" t="n">
-        <v>-122.4515807062671</v>
+        <v>15656.02970668095</v>
       </c>
     </row>
     <row r="174">
@@ -9180,10 +9180,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-790.980304458506</v>
+        <v>63.10293943633892</v>
       </c>
       <c r="C174" t="n">
-        <v>2853.697776855021</v>
+        <v>396944.6385292927</v>
       </c>
       <c r="D174" t="n">
         <v>8667.577155000001</v>
@@ -9192,13 +9192,13 @@
         <v>0.08700657894093301</v>
       </c>
       <c r="F174" t="n">
-        <v>4.96580961791003</v>
+        <v>635.4477644657517</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>3.592346500297387</v>
       </c>
       <c r="H174" t="n">
-        <v>248.2904808955015</v>
+        <v>31772.38822328758</v>
       </c>
     </row>
     <row r="175">
@@ -9208,10 +9208,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-790.980304458506</v>
+        <v>60.23262032843856</v>
       </c>
       <c r="C175" t="n">
-        <v>2853.697776855021</v>
+        <v>424065.5896400294</v>
       </c>
       <c r="D175" t="n">
         <v>9259.783003</v>
@@ -9220,13 +9220,13 @@
         <v>0.06832426610224961</v>
       </c>
       <c r="F175" t="n">
-        <v>3.899536125624812</v>
+        <v>542.4190222147336</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>2.870319107900367</v>
       </c>
       <c r="H175" t="n">
-        <v>194.9768062812406</v>
+        <v>27120.95111073668</v>
       </c>
     </row>
     <row r="176">
@@ -9236,10 +9236,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-790.9960577999866</v>
+        <v>62.52678094207963</v>
       </c>
       <c r="C176" t="n">
-        <v>2712.143628785323</v>
+        <v>403442.7965164215</v>
       </c>
       <c r="D176" t="n">
         <v>8809.469198000001</v>
@@ -9248,13 +9248,13 @@
         <v>-0.0486311401524319</v>
       </c>
       <c r="F176" t="n">
-        <v>2.775571530778397</v>
+        <v>412.4558624721589</v>
       </c>
       <c r="G176" t="n">
-        <v>-0.01575334148059982</v>
+        <v>2.29416061364107</v>
       </c>
       <c r="H176" t="n">
-        <v>-138.7785765389199</v>
+        <v>20622.79312360795</v>
       </c>
     </row>
     <row r="177">
@@ -9264,10 +9264,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-791.0075986066499</v>
+        <v>64.20918970524124</v>
       </c>
       <c r="C177" t="n">
-        <v>2612.188821798468</v>
+        <v>388865.6407805199</v>
       </c>
       <c r="D177" t="n">
         <v>8491.166316999999</v>
@@ -9276,13 +9276,13 @@
         <v>-0.03613190237072005</v>
       </c>
       <c r="F177" t="n">
-        <v>1.959898176212834</v>
+        <v>291.5431147180323</v>
       </c>
       <c r="G177" t="n">
-        <v>-0.01154080666332586</v>
+        <v>1.682408763161621</v>
       </c>
       <c r="H177" t="n">
-        <v>-97.99490881064168</v>
+        <v>14577.15573590162</v>
       </c>
     </row>
     <row r="178">
@@ -9292,10 +9292,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-791.0579847594572</v>
+        <v>71.55995032625201</v>
       </c>
       <c r="C178" t="n">
-        <v>2237.210653060682</v>
+        <v>334138.7447195917</v>
       </c>
       <c r="D178" t="n">
         <v>7296.164425</v>
@@ -9304,13 +9304,13 @@
         <v>-0.1407347173977159</v>
       </c>
       <c r="F178" t="n">
-        <v>7.3525131125056</v>
+        <v>1094.537921218563</v>
       </c>
       <c r="G178" t="n">
-        <v>-0.05038615280730601</v>
+        <v>7.350760621010759</v>
       </c>
       <c r="H178" t="n">
-        <v>-367.62565562528</v>
+        <v>54726.89606092818</v>
       </c>
     </row>
     <row r="179">
@@ -9320,10 +9320,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-791.0579847594572</v>
+        <v>68.85526984642719</v>
       </c>
       <c r="C179" t="n">
-        <v>2237.210653060682</v>
+        <v>355566.5958632381</v>
       </c>
       <c r="D179" t="n">
         <v>7764.057262</v>
@@ -9332,13 +9332,13 @@
         <v>0.06412860370810521</v>
       </c>
       <c r="F179" t="n">
-        <v>2.869383907633595</v>
+        <v>428.5570228729285</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>2.704680479824814</v>
       </c>
       <c r="H179" t="n">
-        <v>143.4691953816798</v>
+        <v>21427.85114364643</v>
       </c>
     </row>
     <row r="180">
@@ -9348,10 +9348,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-791.0662617300753</v>
+        <v>70.14444392463393</v>
       </c>
       <c r="C180" t="n">
-        <v>2173.492788855359</v>
+        <v>345638.2907913391</v>
       </c>
       <c r="D180" t="n">
         <v>7547.265443</v>
@@ -9360,13 +9360,13 @@
         <v>-0.0279224909972077</v>
       </c>
       <c r="F180" t="n">
-        <v>1.249369886378881</v>
+        <v>198.566101437981</v>
       </c>
       <c r="G180" t="n">
-        <v>-0.008276970618130684</v>
+        <v>1.289174078206735</v>
       </c>
       <c r="H180" t="n">
-        <v>-62.46849431894406</v>
+        <v>9928.305071899053</v>
       </c>
     </row>
     <row r="181">
@@ -9376,10 +9376,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-791.0772900869512</v>
+        <v>71.86314572642388</v>
       </c>
       <c r="C181" t="n">
-        <v>2091.725454587655</v>
+        <v>332890.2538646552</v>
       </c>
       <c r="D181" t="n">
         <v>7268.902712</v>
@@ -9388,13 +9388,13 @@
         <v>-0.03688259451086066</v>
       </c>
       <c r="F181" t="n">
-        <v>1.603281064072638</v>
+        <v>254.9607385336781</v>
       </c>
       <c r="G181" t="n">
-        <v>-0.01102835687583101</v>
+        <v>1.718701801789946</v>
       </c>
       <c r="H181" t="n">
-        <v>-80.16405320363191</v>
+        <v>12748.0369266839</v>
       </c>
     </row>
     <row r="182">
@@ -9404,10 +9404,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-791.0792153603177</v>
+        <v>72.16341775473806</v>
       </c>
       <c r="C182" t="n">
-        <v>2077.545805800876</v>
+        <v>330677.8637913984</v>
       </c>
       <c r="D182" t="n">
         <v>7220.593553</v>
@@ -9416,13 +9416,13 @@
         <v>-0.006646004343991056</v>
       </c>
       <c r="F182" t="n">
-        <v>0.2780323291525244</v>
+        <v>44.24780146513567</v>
       </c>
       <c r="G182" t="n">
-        <v>-0.001925273366460352</v>
+        <v>0.3002720283141864</v>
       </c>
       <c r="H182" t="n">
-        <v>-13.90161645762622</v>
+        <v>2212.390073256784</v>
       </c>
     </row>
     <row r="183">
@@ -9432,10 +9432,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-791.0792153603177</v>
+        <v>71.74202882710513</v>
       </c>
       <c r="C183" t="n">
-        <v>2077.545805800876</v>
+        <v>333812.064823392</v>
       </c>
       <c r="D183" t="n">
         <v>7289.03113</v>
@@ -9444,13 +9444,13 @@
         <v>0.009478109589974951</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3938241365114705</v>
+        <v>62.68402063987367</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>0.421388927632939</v>
       </c>
       <c r="H183" t="n">
-        <v>19.69120682557352</v>
+        <v>3134.201031993684</v>
       </c>
     </row>
     <row r="184">
@@ -9460,10 +9460,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-791.0792153603177</v>
+        <v>71.39776364316845</v>
       </c>
       <c r="C184" t="n">
-        <v>2077.545805800876</v>
+        <v>336392.4290786286</v>
       </c>
       <c r="D184" t="n">
         <v>7345.375275</v>
@@ -9472,13 +9472,13 @@
         <v>0.007729990995387617</v>
       </c>
       <c r="F184" t="n">
-        <v>0.3211882074269217</v>
+        <v>51.60728510473135</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>0.3442651839366827</v>
       </c>
       <c r="H184" t="n">
-        <v>16.05941037134608</v>
+        <v>2580.364255236568</v>
       </c>
     </row>
     <row r="185">
@@ -9488,10 +9488,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-791.0792153603177</v>
+        <v>66.90642602558685</v>
       </c>
       <c r="C185" t="n">
-        <v>2077.545805800876</v>
+        <v>373799.731221476</v>
       </c>
       <c r="D185" t="n">
         <v>8162.191138</v>
@@ -9500,13 +9500,13 @@
         <v>0.1112013794285003</v>
       </c>
       <c r="F185" t="n">
-        <v>4.620519188619053</v>
+        <v>748.1460428569492</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>4.491337617581593</v>
       </c>
       <c r="H185" t="n">
-        <v>231.0259594309526</v>
+        <v>37407.30214284746</v>
       </c>
     </row>
     <row r="186">
@@ -9516,10 +9516,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-791.0792153603177</v>
+        <v>63.06036771035969</v>
       </c>
       <c r="C186" t="n">
-        <v>2077.545805800876</v>
+        <v>408835.0158585891</v>
       </c>
       <c r="D186" t="n">
         <v>8927.21226</v>
@@ -9528,13 +9528,13 @@
         <v>0.09372742062341055</v>
       </c>
       <c r="F186" t="n">
-        <v>3.894460192094023</v>
+        <v>700.7056927422619</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>3.846058315227158</v>
       </c>
       <c r="H186" t="n">
-        <v>194.7230096047011</v>
+        <v>35035.28463711309</v>
       </c>
     </row>
     <row r="187">
@@ -9544,10 +9544,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-791.0926460323354</v>
+        <v>65.65049612639697</v>
       </c>
       <c r="C187" t="n">
-        <v>1961.922198277956</v>
+        <v>386527.8795554855</v>
       </c>
       <c r="D187" t="n">
         <v>8440.119586999999</v>
@@ -9556,13 +9556,13 @@
         <v>-0.05456268528334522</v>
       </c>
       <c r="F187" t="n">
-        <v>2.267129559272941</v>
+        <v>446.142726062073</v>
       </c>
       <c r="G187" t="n">
-        <v>-0.0134306720177574</v>
+        <v>2.590128416037285</v>
       </c>
       <c r="H187" t="n">
-        <v>-113.3564779636471</v>
+        <v>22307.13630310365</v>
       </c>
     </row>
     <row r="188">
@@ -9572,10 +9572,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-791.0926460323354</v>
+        <v>61.29880368693308</v>
       </c>
       <c r="C188" t="n">
-        <v>1961.922198277956</v>
+        <v>428030.4038680297</v>
       </c>
       <c r="D188" t="n">
         <v>9346.357628</v>
@@ -9584,13 +9584,13 @@
         <v>0.1073726541026557</v>
       </c>
       <c r="F188" t="n">
-        <v>4.21313587144042</v>
+        <v>830.0504862508825</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>4.351692439463889</v>
       </c>
       <c r="H188" t="n">
-        <v>210.656793572021</v>
+        <v>41502.52431254413</v>
       </c>
     </row>
     <row r="189">
@@ -9600,10 +9600,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-791.0926460323354</v>
+        <v>59.25156815107368</v>
       </c>
       <c r="C189" t="n">
-        <v>1961.922198277956</v>
+        <v>448488.2832241496</v>
       </c>
       <c r="D189" t="n">
         <v>9793.07042</v>
@@ -9612,13 +9612,13 @@
         <v>0.04779538829776098</v>
       </c>
       <c r="F189" t="n">
-        <v>1.875416665533835</v>
+        <v>409.1575871223986</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>2.047235535859399</v>
       </c>
       <c r="H189" t="n">
-        <v>93.77083327669173</v>
+        <v>20457.87935611993</v>
       </c>
     </row>
     <row r="190">
@@ -9628,10 +9628,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-791.0926460323354</v>
+        <v>56.98537536916898</v>
       </c>
       <c r="C190" t="n">
-        <v>1961.922198277956</v>
+        <v>472338.474983748</v>
       </c>
       <c r="D190" t="n">
         <v>10313.85684</v>
@@ -9640,13 +9640,13 @@
         <v>0.0531790743520458</v>
       </c>
       <c r="F190" t="n">
-        <v>2.086664129103052</v>
+        <v>477.0038351919684</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>2.266192781904703</v>
       </c>
       <c r="H190" t="n">
-        <v>104.3332064551526</v>
+        <v>23850.19175959842</v>
       </c>
     </row>
     <row r="191">
@@ -9656,10 +9656,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-791.1049407380506</v>
+        <v>59.88616180294439</v>
       </c>
       <c r="C191" t="n">
-        <v>1840.432544536201</v>
+        <v>443662.9970819089</v>
       </c>
       <c r="D191" t="n">
         <v>9687.706759999999</v>
@@ -9668,13 +9668,13 @@
         <v>-0.06070959581013548</v>
       </c>
       <c r="F191" t="n">
-        <v>2.382150073367745</v>
+        <v>573.5095580367827</v>
       </c>
       <c r="G191" t="n">
-        <v>-0.01229470571510024</v>
+        <v>2.900786433775413</v>
       </c>
       <c r="H191" t="n">
-        <v>-119.1075036683872</v>
+        <v>28675.47790183913</v>
       </c>
     </row>
     <row r="192">
@@ -9684,10 +9684,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-791.1272109320865</v>
+        <v>65.14734447422256</v>
       </c>
       <c r="C192" t="n">
-        <v>1643.460766981812</v>
+        <v>397111.1265054392</v>
       </c>
       <c r="D192" t="n">
         <v>8671.212541999999</v>
@@ -9696,13 +9696,13 @@
         <v>-0.1049261959700357</v>
       </c>
       <c r="F192" t="n">
-        <v>3.86219171675274</v>
+        <v>931.0374115293953</v>
       </c>
       <c r="G192" t="n">
-        <v>-0.02227019403598849</v>
+        <v>5.261182671278175</v>
       </c>
       <c r="H192" t="n">
-        <v>-193.109585837637</v>
+        <v>46551.87057646977</v>
       </c>
     </row>
     <row r="193">
@@ -9712,10 +9712,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-791.1272109320865</v>
+        <v>62.93132253536712</v>
       </c>
       <c r="C193" t="n">
-        <v>1643.460766981812</v>
+        <v>417737.3172250837</v>
       </c>
       <c r="D193" t="n">
         <v>9121.600536</v>
@@ -9724,13 +9724,13 @@
         <v>0.05194060136555244</v>
       </c>
       <c r="F193" t="n">
-        <v>1.707246811154547</v>
+        <v>412.5238143928896</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>2.216021938855445</v>
       </c>
       <c r="H193" t="n">
-        <v>85.36234055772735</v>
+        <v>20626.19071964448</v>
       </c>
     </row>
     <row r="194">
@@ -9740,10 +9740,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-791.2419313731849</v>
+        <v>91.50793966731473</v>
       </c>
       <c r="C194" t="n">
-        <v>991.3279221725207</v>
+        <v>255227.4128876711</v>
       </c>
       <c r="D194" t="n">
         <v>5573.07765</v>
@@ -9752,13 +9752,13 @@
         <v>-0.3890241489961253</v>
       </c>
       <c r="F194" t="n">
-        <v>12.78691852567237</v>
+        <v>3250.198086748252</v>
       </c>
       <c r="G194" t="n">
-        <v>-0.1147204410983971</v>
+        <v>28.57661713194761</v>
       </c>
       <c r="H194" t="n">
-        <v>-639.3459262836186</v>
+        <v>162509.9043374126</v>
       </c>
     </row>
     <row r="195">
@@ -9768,10 +9768,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-791.2419313731849</v>
+        <v>86.92738308735515</v>
       </c>
       <c r="C195" t="n">
-        <v>991.3279221725207</v>
+        <v>284236.9267474354</v>
       </c>
       <c r="D195" t="n">
         <v>6206.52165</v>
@@ -9780,13 +9780,13 @@
         <v>0.1136614344499577</v>
       </c>
       <c r="F195" t="n">
-        <v>2.253515072888495</v>
+        <v>580.1902771952864</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>4.580556579959572</v>
       </c>
       <c r="H195" t="n">
-        <v>112.6757536444248</v>
+        <v>29009.51385976432</v>
       </c>
     </row>
     <row r="196">
@@ -9796,10 +9796,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-791.2419313731849</v>
+        <v>85.11798813584437</v>
       </c>
       <c r="C196" t="n">
-        <v>991.3279221725207</v>
+        <v>296177.5561565884</v>
       </c>
       <c r="D196" t="n">
         <v>6467.254046</v>
@@ -9808,13 +9808,13 @@
         <v>0.04200942342640509</v>
       </c>
       <c r="F196" t="n">
-        <v>0.8329022887392755</v>
+        <v>238.812588183062</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1.809394951510775</v>
       </c>
       <c r="H196" t="n">
-        <v>41.64511443696377</v>
+        <v>11940.6294091531</v>
       </c>
     </row>
     <row r="197">
@@ -9824,10 +9824,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-791.2419313731849</v>
+        <v>83.31215117724456</v>
       </c>
       <c r="C197" t="n">
-        <v>991.3279221725207</v>
+        <v>308594.3123797695</v>
       </c>
       <c r="D197" t="n">
         <v>6738.38302</v>
@@ -9836,13 +9836,13 @@
         <v>0.04192335295189055</v>
       </c>
       <c r="F197" t="n">
-        <v>0.8311958074460575</v>
+        <v>248.3351244636208</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>1.805836958599812</v>
       </c>
       <c r="H197" t="n">
-        <v>41.55979037230287</v>
+        <v>12416.75622318104</v>
       </c>
     </row>
     <row r="198">
@@ -9852,10 +9852,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-791.2419313731849</v>
+        <v>82.46872628036027</v>
       </c>
       <c r="C198" t="n">
-        <v>991.3279221725207</v>
+        <v>314504.6901910828</v>
       </c>
       <c r="D198" t="n">
         <v>6867.440452</v>
@@ -9864,13 +9864,13 @@
         <v>0.01915258180144227</v>
       </c>
       <c r="F198" t="n">
-        <v>0.37972978242926</v>
+        <v>118.2075562262673</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>0.8434248968842891</v>
       </c>
       <c r="H198" t="n">
-        <v>18.986489121463</v>
+        <v>5910.377811313363</v>
       </c>
     </row>
     <row r="199">
@@ -9880,10 +9880,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-791.2419313731849</v>
+        <v>81.04585150035075</v>
       </c>
       <c r="C199" t="n">
-        <v>991.3279221725207</v>
+        <v>324802.0807426665</v>
       </c>
       <c r="D199" t="n">
         <v>7092.291523</v>
@@ -9892,13 +9892,13 @@
         <v>0.03274161204186588</v>
       </c>
       <c r="F199" t="n">
-        <v>0.6491534846808338</v>
+        <v>205.9478110316731</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>1.422874780009517</v>
       </c>
       <c r="H199" t="n">
-        <v>32.45767423404169</v>
+        <v>10297.39055158366</v>
       </c>
     </row>
     <row r="200">
@@ -9908,10 +9908,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-791.2419313731849</v>
+        <v>78.32233141237562</v>
       </c>
       <c r="C200" t="n">
-        <v>991.3279221725207</v>
+        <v>345785.6441682756</v>
       </c>
       <c r="D200" t="n">
         <v>7550.483012</v>
@@ -9920,13 +9920,13 @@
         <v>0.06460415332817387</v>
       </c>
       <c r="F200" t="n">
-        <v>1.280878021650671</v>
+        <v>419.6712685121827</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>2.723520087975129</v>
       </c>
       <c r="H200" t="n">
-        <v>64.04390108253355</v>
+        <v>20983.56342560914</v>
       </c>
     </row>
     <row r="201">
@@ -9936,10 +9936,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-791.2419313731849</v>
+        <v>71.64987828960619</v>
       </c>
       <c r="C201" t="n">
-        <v>991.3279221725207</v>
+        <v>406171.7372355394</v>
       </c>
       <c r="D201" t="n">
         <v>8869.057618999999</v>
@@ -9948,13 +9948,13 @@
         <v>0.1746344710536248</v>
       </c>
       <c r="F201" t="n">
-        <v>3.462400546585741</v>
+        <v>1207.721861345275</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>6.67245312276942</v>
       </c>
       <c r="H201" t="n">
-        <v>173.1200273292871</v>
+        <v>60386.09306726373</v>
       </c>
     </row>
     <row r="202">
@@ -9964,10 +9964,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-791.2419313731849</v>
+        <v>67.21765239694228</v>
       </c>
       <c r="C202" t="n">
-        <v>991.3279221725207</v>
+        <v>450679.0026257907</v>
       </c>
       <c r="D202" t="n">
         <v>9840.906384</v>
@@ -9976,13 +9976,13 @@
         <v>0.1095774553226522</v>
       </c>
       <c r="F202" t="n">
-        <v>2.172543822039141</v>
+        <v>890.145307805027</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>4.432225892663905</v>
       </c>
       <c r="H202" t="n">
-        <v>108.627191101957</v>
+        <v>44507.26539025135</v>
       </c>
     </row>
     <row r="203">
@@ -9992,10 +9992,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-791.2474107141485</v>
+        <v>69.65885816548274</v>
       </c>
       <c r="C203" t="n">
-        <v>939.1651185418581</v>
+        <v>427429.6566899342</v>
       </c>
       <c r="D203" t="n">
         <v>9333.239873</v>
@@ -10004,13 +10004,13 @@
         <v>-0.05158737327543299</v>
       </c>
       <c r="F203" t="n">
-        <v>1.022800071189464</v>
+        <v>464.9869187171302</v>
       </c>
       <c r="G203" t="n">
-        <v>-0.005479340963625655</v>
+        <v>2.441205768540454</v>
       </c>
       <c r="H203" t="n">
-        <v>-51.14000355947321</v>
+        <v>23249.34593585651</v>
       </c>
     </row>
   </sheetData>

--- a/Results/BITCOIN(07-2016-05-2020)Results.xlsx
+++ b/Results/BITCOIN(07-2016-05-2020)Results.xlsx
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.401647150088404</v>
+        <v>6.273614207086636</v>
       </c>
       <c r="C3" t="n">
-        <v>994943.342776204</v>
+        <v>995042.492917847</v>
       </c>
       <c r="D3" t="n">
         <v>663.7810059</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.93172539885289</v>
+        <v>12.67309089087583</v>
       </c>
       <c r="C4" t="n">
-        <v>989886.685552408</v>
+        <v>990084.985835694</v>
       </c>
       <c r="D4" t="n">
         <v>650.7260132</v>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.39932664529417</v>
+        <v>19.01134011238828</v>
       </c>
       <c r="C5" t="n">
-        <v>984830.028328612</v>
+        <v>985127.478753541</v>
       </c>
       <c r="D5" t="n">
         <v>657.0120239</v>
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.78901338891577</v>
+        <v>26.25323312113745</v>
       </c>
       <c r="C6" t="n">
-        <v>979773.371104816</v>
+        <v>980169.971671388</v>
       </c>
       <c r="D6" t="n">
         <v>575.0300293</v>
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.02361146771516</v>
+        <v>33.34313923836086</v>
       </c>
       <c r="C7" t="n">
-        <v>974716.71388102</v>
+        <v>975212.464589235</v>
       </c>
       <c r="D7" t="n">
         <v>587.3569946</v>
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.399778658213</v>
+        <v>40.57178308504874</v>
       </c>
       <c r="C8" t="n">
-        <v>969660.056657224</v>
+        <v>970254.957507082</v>
       </c>
       <c r="D8" t="n">
         <v>576.0839844</v>
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.73307216846683</v>
+        <v>47.75841072509749</v>
       </c>
       <c r="C9" t="n">
-        <v>964603.399433428</v>
+        <v>965297.450424929</v>
       </c>
       <c r="D9" t="n">
         <v>579.4520264</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.11601878277486</v>
+        <v>54.99369840711936</v>
       </c>
       <c r="C10" t="n">
-        <v>959546.7422096319</v>
+        <v>960339.943342776</v>
       </c>
       <c r="D10" t="n">
         <v>575.5549927</v>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.93751114232833</v>
+        <v>61.67876091948176</v>
       </c>
       <c r="C11" t="n">
-        <v>954490.0849858359</v>
+        <v>955382.436260623</v>
       </c>
       <c r="D11" t="n">
         <v>622.927002</v>
@@ -657,10 +657,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69.93547836585978</v>
+        <v>68.5367687985426</v>
       </c>
       <c r="C12" t="n">
-        <v>949433.4277620399</v>
+        <v>950424.92917847</v>
       </c>
       <c r="D12" t="n">
         <v>607.2180176000001</v>
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.98285256630328</v>
+        <v>75.44319551497722</v>
       </c>
       <c r="C13" t="n">
-        <v>944376.7705382439</v>
+        <v>945467.4220963171</v>
       </c>
       <c r="D13" t="n">
         <v>602.9609985</v>
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.94971538564137</v>
+        <v>82.27072107792854</v>
       </c>
       <c r="C14" t="n">
-        <v>939320.1133144479</v>
+        <v>940509.9150141641</v>
       </c>
       <c r="D14" t="n">
         <v>609.9290161</v>
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90.83293189207721</v>
+        <v>89.01627325423567</v>
       </c>
       <c r="C15" t="n">
-        <v>934263.4560906519</v>
+        <v>935552.4079320111</v>
       </c>
       <c r="D15" t="n">
         <v>617.3410034</v>
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.46922575019079</v>
+        <v>95.51984123518697</v>
       </c>
       <c r="C16" t="n">
-        <v>929206.7988668559</v>
+        <v>930594.9008498581</v>
       </c>
       <c r="D16" t="n">
         <v>640.3109741</v>
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>104.180725138395</v>
+        <v>102.0971106356271</v>
       </c>
       <c r="C17" t="n">
-        <v>924150.1416430599</v>
+        <v>925637.3937677051</v>
       </c>
       <c r="D17" t="n">
         <v>633.1359863</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.3365407105233</v>
+        <v>108.1298098963128</v>
       </c>
       <c r="C18" t="n">
-        <v>919093.4844192639</v>
+        <v>920679.8866855521</v>
       </c>
       <c r="D18" t="n">
         <v>690.2890015</v>
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>116.3765416164279</v>
+        <v>114.0490107840993</v>
       </c>
       <c r="C19" t="n">
-        <v>914036.8271954679</v>
+        <v>915722.3796033991</v>
       </c>
       <c r="D19" t="n">
         <v>703.5250244</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>122.3050799400284</v>
+        <v>119.8589783412278</v>
       </c>
       <c r="C20" t="n">
-        <v>908980.1699716719</v>
+        <v>910764.8725212461</v>
       </c>
       <c r="D20" t="n">
         <v>716.7520142</v>
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.9569889951213</v>
+        <v>125.3978492152189</v>
       </c>
       <c r="C21" t="n">
-        <v>903923.5127478759</v>
+        <v>905807.3654390931</v>
       </c>
       <c r="D21" t="n">
         <v>751.8330078</v>
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.6875740615755</v>
+        <v>131.013822580344</v>
       </c>
       <c r="C22" t="n">
-        <v>898866.8555240799</v>
+        <v>900849.8583569401</v>
       </c>
       <c r="D22" t="n">
         <v>741.5109863</v>
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.147648308134</v>
+        <v>136.3646953419713</v>
       </c>
       <c r="C23" t="n">
-        <v>893810.1983002839</v>
+        <v>895892.3512747871</v>
       </c>
       <c r="D23" t="n">
         <v>778.2479858</v>
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>144.644627994487</v>
+        <v>141.7517354345972</v>
       </c>
       <c r="C24" t="n">
-        <v>888753.5410764879</v>
+        <v>890934.8441926341</v>
       </c>
       <c r="D24" t="n">
         <v>773.0230103</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150.0565939994794</v>
+        <v>147.0554621194898</v>
       </c>
       <c r="C25" t="n">
-        <v>883696.8838526919</v>
+        <v>885977.3371104811</v>
       </c>
       <c r="D25" t="n">
         <v>785.1660156</v>
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>154.6644707896289</v>
+        <v>151.5711813738363</v>
       </c>
       <c r="C26" t="n">
-        <v>878640.2266288958</v>
+        <v>881019.8300283281</v>
       </c>
       <c r="D26" t="n">
         <v>922.1799927</v>
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>159.0879272632544</v>
+        <v>155.9061687179893</v>
       </c>
       <c r="C27" t="n">
-        <v>873583.5694050998</v>
+        <v>876062.3229461751</v>
       </c>
       <c r="D27" t="n">
         <v>960.6270142</v>
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.7911402447961</v>
+        <v>160.5153174399002</v>
       </c>
       <c r="C28" t="n">
-        <v>868526.9121813038</v>
+        <v>871104.8158640221</v>
       </c>
       <c r="D28" t="n">
         <v>903.4869995</v>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>168.9409103890733</v>
+        <v>165.5620921812918</v>
       </c>
       <c r="C29" t="n">
-        <v>863470.2549575078</v>
+        <v>866147.3087818691</v>
       </c>
       <c r="D29" t="n">
         <v>825.1420288</v>
@@ -999,10 +999,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>173.685811819994</v>
+        <v>170.2120955835942</v>
       </c>
       <c r="C30" t="n">
-        <v>858413.5977337118</v>
+        <v>861189.8016997161</v>
       </c>
       <c r="D30" t="n">
         <v>895.5490112</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>178.3055564244333</v>
+        <v>174.7394452959447</v>
       </c>
       <c r="C31" t="n">
-        <v>853356.9405099158</v>
+        <v>856232.2946175631</v>
       </c>
       <c r="D31" t="n">
         <v>919.8109741</v>
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>182.4257623391179</v>
+        <v>178.7772470923356</v>
       </c>
       <c r="C32" t="n">
-        <v>848300.2832861198</v>
+        <v>851274.7875354101</v>
       </c>
       <c r="D32" t="n">
         <v>1031.329956</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>186.7227593402681</v>
+        <v>182.9883041534628</v>
       </c>
       <c r="C33" t="n">
-        <v>843243.6260623238</v>
+        <v>846317.2804532571</v>
       </c>
       <c r="D33" t="n">
         <v>988.8980103</v>
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>190.7727511842767</v>
+        <v>186.9572961605912</v>
       </c>
       <c r="C34" t="n">
-        <v>838186.9688385278</v>
+        <v>841359.7733711042</v>
       </c>
       <c r="D34" t="n">
         <v>1049.209961</v>
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>194.4033521371583</v>
+        <v>190.5152850944151</v>
       </c>
       <c r="C35" t="n">
-        <v>833130.3116147318</v>
+        <v>836402.2662889512</v>
       </c>
       <c r="D35" t="n">
         <v>1170.410034</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>197.7297900672796</v>
+        <v>193.775194265934</v>
       </c>
       <c r="C36" t="n">
-        <v>828073.6543909358</v>
+        <v>831444.7592067982</v>
       </c>
       <c r="D36" t="n">
         <v>1277.430054</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>201.5363079028953</v>
+        <v>197.5055817448374</v>
       </c>
       <c r="C37" t="n">
-        <v>823016.9971671398</v>
+        <v>826487.2521246452</v>
       </c>
       <c r="D37" t="n">
         <v>1116.319946</v>
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>205.4003896101795</v>
+        <v>201.2923818179759</v>
       </c>
       <c r="C38" t="n">
-        <v>817960.3399433438</v>
+        <v>821529.7450424922</v>
       </c>
       <c r="D38" t="n">
         <v>1099.689941</v>
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>209.9376137378425</v>
+        <v>205.7388614630856</v>
       </c>
       <c r="C39" t="n">
-        <v>812903.6827195478</v>
+        <v>816572.2379603392</v>
       </c>
       <c r="D39" t="n">
         <v>936.539978</v>
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.9025780839213</v>
+        <v>209.6245265222429</v>
       </c>
       <c r="C40" t="n">
-        <v>807847.0254957518</v>
+        <v>811614.7308781862</v>
       </c>
       <c r="D40" t="n">
         <v>1071.709961</v>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>217.5262438816739</v>
+        <v>213.1757190040404</v>
       </c>
       <c r="C41" t="n">
-        <v>802790.3682719558</v>
+        <v>806657.2237960332</v>
       </c>
       <c r="D41" t="n">
         <v>1172.650024</v>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>221.1665176813219</v>
+        <v>216.7431873276955</v>
       </c>
       <c r="C42" t="n">
-        <v>797733.7110481597</v>
+        <v>801699.7167138802</v>
       </c>
       <c r="D42" t="n">
         <v>1167.300049</v>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>224.6418241074078</v>
+        <v>220.1489876252597</v>
       </c>
       <c r="C43" t="n">
-        <v>792677.0538243637</v>
+        <v>796742.2096317272</v>
       </c>
       <c r="D43" t="n">
         <v>1222.709961</v>
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>227.8662609846717</v>
+        <v>223.3089357649783</v>
       </c>
       <c r="C44" t="n">
-        <v>787620.3966005677</v>
+        <v>791784.7025495742</v>
       </c>
       <c r="D44" t="n">
         <v>1317.839966</v>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>230.5957473212592</v>
+        <v>225.9838323748341</v>
       </c>
       <c r="C45" t="n">
-        <v>782563.7393767717</v>
+        <v>786827.1954674212</v>
       </c>
       <c r="D45" t="n">
         <v>1556.810059</v>
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>233.0617925166216</v>
+        <v>228.4005566662892</v>
       </c>
       <c r="C46" t="n">
-        <v>777507.0821529757</v>
+        <v>781869.6883852682</v>
       </c>
       <c r="D46" t="n">
         <v>1723.119995</v>
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>235.2033136058637</v>
+        <v>230.4992473337464</v>
       </c>
       <c r="C47" t="n">
-        <v>772450.4249291797</v>
+        <v>776912.1813031152</v>
       </c>
       <c r="D47" t="n">
         <v>1984.23999</v>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>237.1380901797854</v>
+        <v>232.3953283761897</v>
       </c>
       <c r="C48" t="n">
-        <v>767393.7677053837</v>
+        <v>771954.6742209622</v>
       </c>
       <c r="D48" t="n">
         <v>2196.27002</v>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>238.8420873543352</v>
+        <v>234.0652456072486</v>
       </c>
       <c r="C49" t="n">
-        <v>762337.1104815877</v>
+        <v>766997.1671388092</v>
       </c>
       <c r="D49" t="n">
         <v>2493.719971</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>240.3445914543694</v>
+        <v>235.537699625282</v>
       </c>
       <c r="C50" t="n">
-        <v>757280.4532577917</v>
+        <v>762039.6600566562</v>
       </c>
       <c r="D50" t="n">
         <v>2828.139893</v>
@@ -1398,10 +1398,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>242.0348360308826</v>
+        <v>237.194139310265</v>
       </c>
       <c r="C51" t="n">
-        <v>752223.7960339957</v>
+        <v>757082.1529745032</v>
       </c>
       <c r="D51" t="n">
         <v>2514.01001</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>243.5865105681031</v>
+        <v>238.714780356741</v>
       </c>
       <c r="C52" t="n">
-        <v>747167.1388101997</v>
+        <v>752124.6458923502</v>
       </c>
       <c r="D52" t="n">
         <v>2738.52002</v>
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>245.291273312882</v>
+        <v>240.3854478466243</v>
       </c>
       <c r="C53" t="n">
-        <v>742110.4815864037</v>
+        <v>747167.1388101972</v>
       </c>
       <c r="D53" t="n">
         <v>2492.600098</v>
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>246.977319550381</v>
+        <v>242.0377731593734</v>
       </c>
       <c r="C54" t="n">
-        <v>737053.8243626077</v>
+        <v>742209.6317280442</v>
       </c>
       <c r="D54" t="n">
         <v>2520.27002</v>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>248.8827289282484</v>
+        <v>243.9050743496834</v>
       </c>
       <c r="C55" t="n">
-        <v>731997.1671388117</v>
+        <v>737252.1246458913</v>
       </c>
       <c r="D55" t="n">
         <v>2230.120117</v>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>250.4750410775546</v>
+        <v>245.4655402560035</v>
       </c>
       <c r="C56" t="n">
-        <v>726940.5099150157</v>
+        <v>732294.6175637383</v>
       </c>
       <c r="D56" t="n">
         <v>2668.629883</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>251.9888499404863</v>
+        <v>246.9490729416765</v>
       </c>
       <c r="C57" t="n">
-        <v>721883.8526912197</v>
+        <v>727337.1104815853</v>
       </c>
       <c r="D57" t="n">
         <v>2807.02002</v>
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>253.4553214900905</v>
+        <v>248.3862150602887</v>
       </c>
       <c r="C58" t="n">
-        <v>716827.1954674236</v>
+        <v>722379.6033994323</v>
       </c>
       <c r="D58" t="n">
         <v>2897.629883</v>
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>254.6193101498257</v>
+        <v>249.5269239468292</v>
       </c>
       <c r="C59" t="n">
-        <v>711770.5382436276</v>
+        <v>717422.0963172793</v>
       </c>
       <c r="D59" t="n">
         <v>3650.629883</v>
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>255.6462672605024</v>
+        <v>250.5333419152924</v>
       </c>
       <c r="C60" t="n">
-        <v>706713.8810198316</v>
+        <v>712464.5892351263</v>
       </c>
       <c r="D60" t="n">
         <v>4137.75</v>
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>256.6181870711544</v>
+        <v>251.4858233297313</v>
       </c>
       <c r="C61" t="n">
-        <v>701657.2237960356</v>
+        <v>707507.0821529733</v>
       </c>
       <c r="D61" t="n">
         <v>4372.060059</v>
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>257.4851382510828</v>
+        <v>252.3354354860612</v>
       </c>
       <c r="C62" t="n">
-        <v>696600.5665722396</v>
+        <v>702549.5750708203</v>
       </c>
       <c r="D62" t="n">
         <v>4901.419922</v>
@@ -1626,10 +1626,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>258.4897440668124</v>
+        <v>253.3199491854761</v>
       </c>
       <c r="C63" t="n">
-        <v>691543.9093484436</v>
+        <v>697592.0679886673</v>
       </c>
       <c r="D63" t="n">
         <v>4229.810059</v>
@@ -1645,10 +1645,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>259.6578539657066</v>
+        <v>254.4646968863925</v>
       </c>
       <c r="C64" t="n">
-        <v>686487.2521246476</v>
+        <v>692634.5609065143</v>
       </c>
       <c r="D64" t="n">
         <v>3637.75</v>
@@ -1664,10 +1664,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>260.8284835872993</v>
+        <v>255.6119139155533</v>
       </c>
       <c r="C65" t="n">
-        <v>681430.5949008516</v>
+        <v>687677.0538243613</v>
       </c>
       <c r="D65" t="n">
         <v>3629.919922</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>261.848449916666</v>
+        <v>256.6114809183327</v>
       </c>
       <c r="C66" t="n">
-        <v>676373.9376770556</v>
+        <v>682719.5467422083</v>
       </c>
       <c r="D66" t="n">
         <v>4166.109863</v>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>262.8209725320197</v>
+        <v>257.5645530813792</v>
       </c>
       <c r="C67" t="n">
-        <v>671317.2804532596</v>
+        <v>677762.0396600553</v>
       </c>
       <c r="D67" t="n">
         <v>4369.350098</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>263.5739218291062</v>
+        <v>258.302443392524</v>
       </c>
       <c r="C68" t="n">
-        <v>666260.6232294636</v>
+        <v>672804.5325779023</v>
       </c>
       <c r="D68" t="n">
         <v>5643.529785</v>
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>264.2825162199498</v>
+        <v>258.9968658955508</v>
       </c>
       <c r="C69" t="n">
-        <v>661203.9660056676</v>
+        <v>667847.0254957493</v>
       </c>
       <c r="D69" t="n">
         <v>5996.790039</v>
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>265.016694531286</v>
+        <v>259.7163606406603</v>
       </c>
       <c r="C70" t="n">
-        <v>656147.3087818716</v>
+        <v>662889.5184135963</v>
       </c>
       <c r="D70" t="n">
         <v>5787.819824</v>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>265.6097999341296</v>
+        <v>260.297603935447</v>
       </c>
       <c r="C71" t="n">
-        <v>651090.6515580756</v>
+        <v>657932.0113314433</v>
       </c>
       <c r="D71" t="n">
         <v>7164.47998</v>
@@ -1797,10 +1797,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>266.2518217291378</v>
+        <v>260.9267852945551</v>
       </c>
       <c r="C72" t="n">
-        <v>646033.9943342796</v>
+        <v>652974.5042492903</v>
       </c>
       <c r="D72" t="n">
         <v>6618.609863</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>266.8038778385895</v>
+        <v>261.4678002818177</v>
       </c>
       <c r="C73" t="n">
-        <v>640977.3371104836</v>
+        <v>648016.9971671373</v>
       </c>
       <c r="D73" t="n">
         <v>7697.209961</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>267.3194615954567</v>
+        <v>261.9730723635477</v>
       </c>
       <c r="C74" t="n">
-        <v>635920.6798866875</v>
+        <v>643059.4900849843</v>
       </c>
       <c r="D74" t="n">
         <v>8241.709961</v>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>267.7065244250492</v>
+        <v>262.3523939365483</v>
       </c>
       <c r="C75" t="n">
-        <v>630864.0226628915</v>
+        <v>638101.9830028313</v>
       </c>
       <c r="D75" t="n">
         <v>10978.2998</v>
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>267.9636940935846</v>
+        <v>262.604420211713</v>
       </c>
       <c r="C76" t="n">
-        <v>625807.3654390955</v>
+        <v>633144.4759206783</v>
       </c>
       <c r="D76" t="n">
         <v>16523.30078</v>
@@ -1892,10 +1892,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>268.2029519663728</v>
+        <v>262.8388929270455</v>
       </c>
       <c r="C77" t="n">
-        <v>620750.7082152995</v>
+        <v>628186.9688385254</v>
       </c>
       <c r="D77" t="n">
         <v>17760.30078</v>
@@ -1911,10 +1911,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>268.5075890812133</v>
+        <v>263.1374372995891</v>
       </c>
       <c r="C78" t="n">
-        <v>615694.0509915035</v>
+        <v>623229.4617563724</v>
       </c>
       <c r="D78" t="n">
         <v>13948.7002</v>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>268.7970129072731</v>
+        <v>263.4210726491277</v>
       </c>
       <c r="C79" t="n">
-        <v>610637.3937677075</v>
+        <v>618271.9546742194</v>
       </c>
       <c r="D79" t="n">
         <v>14681.90039</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>269.0403565990173</v>
+        <v>263.659549467037</v>
       </c>
       <c r="C80" t="n">
-        <v>605580.7365439115</v>
+        <v>613314.4475920664</v>
       </c>
       <c r="D80" t="n">
         <v>17462.09961</v>
@@ -1968,10 +1968,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>269.3449129238019</v>
+        <v>263.958014665326</v>
       </c>
       <c r="C81" t="n">
-        <v>600524.0793201155</v>
+        <v>608356.9405099134</v>
       </c>
       <c r="D81" t="n">
         <v>13952.40039</v>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>269.7094649829457</v>
+        <v>264.3152756832869</v>
       </c>
       <c r="C82" t="n">
-        <v>595467.4220963195</v>
+        <v>603399.4334277604</v>
       </c>
       <c r="D82" t="n">
         <v>11656.2002</v>
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>270.0897181965229</v>
+        <v>264.6879238325926</v>
       </c>
       <c r="C83" t="n">
-        <v>590410.7648725235</v>
+        <v>598441.9263456074</v>
       </c>
       <c r="D83" t="n">
         <v>11174.90039</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>270.5697491640809</v>
+        <v>265.1583541807993</v>
       </c>
       <c r="C84" t="n">
-        <v>585354.1076487275</v>
+        <v>593484.4192634544</v>
       </c>
       <c r="D84" t="n">
         <v>8852.120117</v>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>271.0570487928335</v>
+        <v>265.6359078169769</v>
       </c>
       <c r="C85" t="n">
-        <v>580297.4504249315</v>
+        <v>588526.9121813014</v>
       </c>
       <c r="D85" t="n">
         <v>8720.080078000001</v>
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>271.4733399302033</v>
+        <v>266.0438731315994</v>
       </c>
       <c r="C86" t="n">
-        <v>575240.7932011355</v>
+        <v>583569.4050991484</v>
       </c>
       <c r="D86" t="n">
         <v>10207.5</v>
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>271.8863857715569</v>
+        <v>266.4486580561259</v>
       </c>
       <c r="C87" t="n">
-        <v>570184.1359773395</v>
+        <v>578611.8980169954</v>
       </c>
       <c r="D87" t="n">
         <v>10287.7002</v>
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>272.2691393214384</v>
+        <v>266.8237565350096</v>
       </c>
       <c r="C88" t="n">
-        <v>565127.4787535435</v>
+        <v>573654.3909348424</v>
       </c>
       <c r="D88" t="n">
         <v>11101.90039</v>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>272.7235803626556</v>
+        <v>267.2691087554025</v>
       </c>
       <c r="C89" t="n">
-        <v>560070.8215297475</v>
+        <v>568696.8838526894</v>
       </c>
       <c r="D89" t="n">
         <v>9350.589844</v>
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>273.2341953182424</v>
+        <v>267.7695114118775</v>
       </c>
       <c r="C90" t="n">
-        <v>555014.1643059514</v>
+        <v>563739.3767705364</v>
       </c>
       <c r="D90" t="n">
         <v>8321.910156</v>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>273.7115392363301</v>
+        <v>268.2373084516034</v>
       </c>
       <c r="C91" t="n">
-        <v>549957.5070821554</v>
+        <v>558781.8696883834</v>
       </c>
       <c r="D91" t="n">
         <v>8901.950194999999</v>
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>274.3280505351706</v>
+        <v>268.8414895244671</v>
       </c>
       <c r="C92" t="n">
-        <v>544900.8498583594</v>
+        <v>553824.3626062304</v>
       </c>
       <c r="D92" t="n">
         <v>6892.47998</v>
@@ -2196,10 +2196,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>274.9689200813543</v>
+        <v>269.4695416797271</v>
       </c>
       <c r="C93" t="n">
-        <v>539844.1926345634</v>
+        <v>548866.8555240774</v>
       </c>
       <c r="D93" t="n">
         <v>6630.509766</v>
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>275.5085353067278</v>
+        <v>269.9983646005932</v>
       </c>
       <c r="C94" t="n">
-        <v>534787.5354107674</v>
+        <v>543909.3484419244</v>
       </c>
       <c r="D94" t="n">
         <v>7874.669922</v>
@@ -2234,10 +2234,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>275.9887469250366</v>
+        <v>270.4689719865358</v>
       </c>
       <c r="C95" t="n">
-        <v>529730.8781869714</v>
+        <v>538951.8413597714</v>
       </c>
       <c r="D95" t="n">
         <v>8848.790039</v>
@@ -2253,10 +2253,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>276.4640980451663</v>
+        <v>270.9348160842629</v>
       </c>
       <c r="C96" t="n">
-        <v>524674.2209631754</v>
+        <v>533994.3342776184</v>
       </c>
       <c r="D96" t="n">
         <v>8939.269531</v>
@@ -2272,10 +2272,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>276.9021567058558</v>
+        <v>271.3641135717386</v>
       </c>
       <c r="C97" t="n">
-        <v>519617.5637393793</v>
+        <v>529036.8271954654</v>
       </c>
       <c r="D97" t="n">
         <v>9700.280273</v>
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>277.4055413852763</v>
+        <v>271.8574305575706</v>
       </c>
       <c r="C98" t="n">
-        <v>514560.9065155833</v>
+        <v>524079.3201133125</v>
       </c>
       <c r="D98" t="n">
         <v>8441.440430000001</v>
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>277.9202495386805</v>
+        <v>272.3618445479069</v>
       </c>
       <c r="C99" t="n">
-        <v>509504.2492917872</v>
+        <v>519121.8130311595</v>
       </c>
       <c r="D99" t="n">
         <v>8255.730469</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>278.487844963507</v>
+        <v>272.9180880642368</v>
       </c>
       <c r="C100" t="n">
-        <v>504447.5920679912</v>
+        <v>514164.3059490065</v>
       </c>
       <c r="D100" t="n">
         <v>7486.47998</v>
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>279.0516567627357</v>
+        <v>273.4706236274809</v>
       </c>
       <c r="C101" t="n">
-        <v>499390.9348441951</v>
+        <v>509206.7988668535</v>
       </c>
       <c r="D101" t="n">
         <v>7536.720215</v>
@@ -2367,10 +2367,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>279.6083918611786</v>
+        <v>274.016224023955</v>
       </c>
       <c r="C102" t="n">
-        <v>494334.277620399</v>
+        <v>504249.2917847005</v>
       </c>
       <c r="D102" t="n">
         <v>7632.52002</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>280.2666405744897</v>
+        <v>274.6613077629999</v>
       </c>
       <c r="C103" t="n">
-        <v>489277.620396603</v>
+        <v>499291.7847025475</v>
       </c>
       <c r="D103" t="n">
         <v>6455.450195</v>
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>280.9643781676859</v>
+        <v>275.3450906043321</v>
       </c>
       <c r="C104" t="n">
-        <v>484220.9631728069</v>
+        <v>494334.2776203945</v>
       </c>
       <c r="D104" t="n">
         <v>6090.100098</v>
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>281.6481794553271</v>
+        <v>276.0152158662204</v>
       </c>
       <c r="C105" t="n">
-        <v>479164.3059490108</v>
+        <v>489376.7705382415</v>
       </c>
       <c r="D105" t="n">
         <v>6214.220215</v>
@@ -2443,10 +2443,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>282.285377925429</v>
+        <v>276.6396703669203</v>
       </c>
       <c r="C106" t="n">
-        <v>474107.6487252148</v>
+        <v>484419.2634560885</v>
       </c>
       <c r="D106" t="n">
         <v>6668.709961</v>
@@ -2462,10 +2462,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>282.965536674481</v>
+        <v>277.3062259409913</v>
       </c>
       <c r="C107" t="n">
-        <v>469050.9915014187</v>
+        <v>479461.7563739355</v>
       </c>
       <c r="D107" t="n">
         <v>6247.5</v>
@@ -2481,10 +2481,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>283.5434577241674</v>
+        <v>277.8725885696838</v>
       </c>
       <c r="C108" t="n">
-        <v>463994.3342776226</v>
+        <v>474504.2492917825</v>
       </c>
       <c r="D108" t="n">
         <v>7352.720215</v>
@@ -2500,10 +2500,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>284.0636267220708</v>
+        <v>278.3823541876292</v>
       </c>
       <c r="C109" t="n">
-        <v>458937.6770538266</v>
+        <v>469546.7422096295</v>
       </c>
       <c r="D109" t="n">
         <v>8169.060059</v>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>284.6348702084336</v>
+        <v>278.9421728042648</v>
       </c>
       <c r="C110" t="n">
-        <v>453881.0198300305</v>
+        <v>464589.2351274765</v>
       </c>
       <c r="D110" t="n">
         <v>7438.67</v>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>285.3218142826266</v>
+        <v>279.615377996974</v>
       </c>
       <c r="C111" t="n">
-        <v>448824.3626062344</v>
+        <v>459631.7280453235</v>
       </c>
       <c r="D111" t="n">
         <v>6185.79</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>285.9672668483412</v>
+        <v>280.2479215113743</v>
       </c>
       <c r="C112" t="n">
-        <v>443767.7053824384</v>
+        <v>454674.2209631705</v>
       </c>
       <c r="D112" t="n">
         <v>6583.43</v>
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>286.5996066402597</v>
+        <v>280.8676145074544</v>
       </c>
       <c r="C113" t="n">
-        <v>438711.0481586423</v>
+        <v>449716.7138810175</v>
       </c>
       <c r="D113" t="n">
         <v>6719.95</v>
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>287.2027871071144</v>
+        <v>281.458731364972</v>
       </c>
       <c r="C114" t="n">
-        <v>433654.3909348462</v>
+        <v>444759.2067988645</v>
       </c>
       <c r="D114" t="n">
         <v>7044.81</v>
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>287.8605549034266</v>
+        <v>282.103343805358</v>
       </c>
       <c r="C115" t="n">
-        <v>428597.7337110502</v>
+        <v>439801.6997167115</v>
       </c>
       <c r="D115" t="n">
         <v>6460.17</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>288.5133480617366</v>
+        <v>282.7430811005017</v>
       </c>
       <c r="C116" t="n">
-        <v>423541.0764872541</v>
+        <v>434844.1926345585</v>
       </c>
       <c r="D116" t="n">
         <v>6509.4</v>
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>289.144270146161</v>
+        <v>283.3613847432376</v>
       </c>
       <c r="C117" t="n">
-        <v>418484.4192634581</v>
+        <v>429886.6855524055</v>
       </c>
       <c r="D117" t="n">
         <v>6735.05</v>
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>289.7839250941074</v>
+        <v>283.9882465922251</v>
       </c>
       <c r="C118" t="n">
-        <v>413427.762039662</v>
+        <v>424929.1784702525</v>
       </c>
       <c r="D118" t="n">
         <v>6643.1</v>
@@ -2690,10 +2690,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>290.425574602175</v>
+        <v>284.6170631101314</v>
       </c>
       <c r="C119" t="n">
-        <v>408371.1048158659</v>
+        <v>419971.6713880996</v>
       </c>
       <c r="D119" t="n">
         <v>6622.45</v>
@@ -2709,10 +2709,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>291.1024203551285</v>
+        <v>285.2803719480258</v>
       </c>
       <c r="C120" t="n">
-        <v>403314.4475920699</v>
+        <v>415014.1643059466</v>
       </c>
       <c r="D120" t="n">
         <v>6278.08</v>
@@ -2728,10 +2728,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>291.7601117960847</v>
+        <v>285.9249095601629</v>
       </c>
       <c r="C121" t="n">
-        <v>398257.7903682738</v>
+        <v>410056.6572237936</v>
       </c>
       <c r="D121" t="n">
         <v>6460.92</v>
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>292.4157817068837</v>
+        <v>286.567466072746</v>
       </c>
       <c r="C122" t="n">
-        <v>393201.1331444777</v>
+        <v>405099.1501416406</v>
       </c>
       <c r="D122" t="n">
         <v>6480.84</v>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>293.0810599467342</v>
+        <v>287.2194387477994</v>
       </c>
       <c r="C123" t="n">
-        <v>388144.4759206817</v>
+        <v>400141.6430594876</v>
       </c>
       <c r="D123" t="n">
         <v>6387.24</v>
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>293.7464538213816</v>
+        <v>287.8715247449539</v>
       </c>
       <c r="C124" t="n">
-        <v>383087.8186968856</v>
+        <v>395184.1359773346</v>
       </c>
       <c r="D124" t="n">
         <v>6386.13</v>
@@ -2804,10 +2804,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>294.5081694882185</v>
+        <v>288.618006098454</v>
       </c>
       <c r="C125" t="n">
-        <v>378031.1614730895</v>
+        <v>390226.6288951816</v>
       </c>
       <c r="D125" t="n">
         <v>5578.58</v>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>295.4855371903091</v>
+        <v>289.5758264465029</v>
       </c>
       <c r="C126" t="n">
-        <v>372974.5042492935</v>
+        <v>385269.1218130286</v>
       </c>
       <c r="D126" t="n">
         <v>4347.69</v>
@@ -2842,10 +2842,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>296.5414024009765</v>
+        <v>290.6105743529569</v>
       </c>
       <c r="C127" t="n">
-        <v>367917.8470254974</v>
+        <v>380311.6147308756</v>
       </c>
       <c r="D127" t="n">
         <v>4024.464242</v>
@@ -2861,10 +2861,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>297.7831917183518</v>
+        <v>291.8275278839847</v>
       </c>
       <c r="C128" t="n">
-        <v>362861.1898017013</v>
+        <v>375354.1076487226</v>
       </c>
       <c r="D128" t="n">
         <v>3421.910404</v>
@@ -2880,10 +2880,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>299.0930853703372</v>
+        <v>293.1112236629305</v>
       </c>
       <c r="C129" t="n">
-        <v>357804.5325779053</v>
+        <v>370396.6005665696</v>
       </c>
       <c r="D129" t="n">
         <v>3243.99754</v>
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>300.1831830020979</v>
+        <v>294.1795193420559</v>
       </c>
       <c r="C130" t="n">
-        <v>352747.8753541092</v>
+        <v>365439.0934844166</v>
       </c>
       <c r="D130" t="n">
         <v>3898.083677</v>
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>301.2637426042762</v>
+        <v>295.2384677521907</v>
       </c>
       <c r="C131" t="n">
-        <v>347691.2181303132</v>
+        <v>360481.5864022636</v>
       </c>
       <c r="D131" t="n">
         <v>3932.491809</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>302.3668891528544</v>
+        <v>296.3195513697972</v>
       </c>
       <c r="C132" t="n">
-        <v>342634.5609065171</v>
+        <v>355524.0793201106</v>
       </c>
       <c r="D132" t="n">
         <v>3851.973965</v>
@@ -2956,10 +2956,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>303.5194041490066</v>
+        <v>297.4490160660265</v>
       </c>
       <c r="C133" t="n">
-        <v>337577.903682721</v>
+        <v>350566.5722379576</v>
       </c>
       <c r="D133" t="n">
         <v>3686.973097</v>
@@ -2975,10 +2975,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>304.6828357480001</v>
+        <v>298.5891790330402</v>
       </c>
       <c r="C134" t="n">
-        <v>332521.246458925</v>
+        <v>345609.0651558046</v>
       </c>
       <c r="D134" t="n">
         <v>3652.377835</v>
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>305.8632879105181</v>
+        <v>299.7460221523078</v>
       </c>
       <c r="C135" t="n">
-        <v>327464.5892351289</v>
+        <v>340651.5580736516</v>
       </c>
       <c r="D135" t="n">
         <v>3599.715363</v>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>307.082727796186</v>
+        <v>300.9410732402624</v>
       </c>
       <c r="C136" t="n">
-        <v>322407.9320113328</v>
+        <v>335694.0509914986</v>
       </c>
       <c r="D136" t="n">
         <v>3484.62588</v>
@@ -3032,10 +3032,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>308.2400728330362</v>
+        <v>302.0752713763755</v>
       </c>
       <c r="C137" t="n">
-        <v>317351.2747875368</v>
+        <v>330736.5439093456</v>
       </c>
       <c r="D137" t="n">
         <v>3671.585957</v>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>309.4154460336209</v>
+        <v>303.2271371129485</v>
       </c>
       <c r="C138" t="n">
-        <v>312294.6175637407</v>
+        <v>325779.0368271926</v>
       </c>
       <c r="D138" t="n">
         <v>3615.270267</v>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>310.4780568748113</v>
+        <v>304.2684957373151</v>
       </c>
       <c r="C139" t="n">
-        <v>307237.9603399446</v>
+        <v>320821.5297450396</v>
       </c>
       <c r="D139" t="n">
         <v>3998.916273</v>
@@ -3089,10 +3089,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>311.5802465100155</v>
+        <v>305.3486415798153</v>
       </c>
       <c r="C140" t="n">
-        <v>302181.3031161486</v>
+        <v>315864.0226628867</v>
       </c>
       <c r="D140" t="n">
         <v>3855.318222</v>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>312.6713325221656</v>
+        <v>306.4179058717224</v>
       </c>
       <c r="C141" t="n">
-        <v>297124.6458923525</v>
+        <v>310906.5155807337</v>
       </c>
       <c r="D141" t="n">
         <v>3894.552526</v>
@@ -3127,10 +3127,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>313.7433302153624</v>
+        <v>307.4684636110553</v>
       </c>
       <c r="C142" t="n">
-        <v>292067.9886685564</v>
+        <v>305949.0084985807</v>
       </c>
       <c r="D142" t="n">
         <v>3963.90012</v>
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>314.7996550042328</v>
+        <v>308.5036619041482</v>
       </c>
       <c r="C143" t="n">
-        <v>287011.3314447604</v>
+        <v>300991.5014164277</v>
       </c>
       <c r="D143" t="n">
         <v>4022.713307</v>
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>315.8380593032111</v>
+        <v>309.521298117147</v>
       </c>
       <c r="C144" t="n">
-        <v>281954.6742209643</v>
+        <v>296033.9943342747</v>
       </c>
       <c r="D144" t="n">
         <v>4092.136164</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>316.6817095712398</v>
+        <v>310.3480753798151</v>
       </c>
       <c r="C145" t="n">
-        <v>276898.0169971682</v>
+        <v>291076.4872521217</v>
       </c>
       <c r="D145" t="n">
         <v>5036.793024</v>
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>317.5167296263108</v>
+        <v>311.1663950337847</v>
       </c>
       <c r="C146" t="n">
-        <v>271841.3597733722</v>
+        <v>286118.9801699687</v>
       </c>
       <c r="D146" t="n">
         <v>5088.849973</v>
@@ -3222,10 +3222,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>318.3178539046311</v>
+        <v>311.9514968265386</v>
       </c>
       <c r="C147" t="n">
-        <v>266784.7025495761</v>
+        <v>281161.4730878157</v>
       </c>
       <c r="D147" t="n">
         <v>5304.16054</v>
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>319.1227246332346</v>
+        <v>312.74027014057</v>
       </c>
       <c r="C148" t="n">
-        <v>261728.0453257801</v>
+        <v>276203.9660056627</v>
       </c>
       <c r="D148" t="n">
         <v>5279.471142</v>
@@ -3260,10 +3260,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>319.8592721474528</v>
+        <v>313.4620867045038</v>
       </c>
       <c r="C149" t="n">
-        <v>256671.388101984</v>
+        <v>271246.4589235097</v>
       </c>
       <c r="D149" t="n">
         <v>5769.202533</v>
@@ -3279,10 +3279,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>320.5253401174548</v>
+        <v>314.1148333151058</v>
       </c>
       <c r="C150" t="n">
-        <v>251614.730878188</v>
+        <v>266288.9518413567</v>
       </c>
       <c r="D150" t="n">
         <v>6379.666905</v>
@@ -3298,10 +3298,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>321.1041314571551</v>
+        <v>314.682048828012</v>
       </c>
       <c r="C151" t="n">
-        <v>246558.073654392</v>
+        <v>261331.4447592037</v>
       </c>
       <c r="D151" t="n">
         <v>7341.664419</v>
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>321.6358322716646</v>
+        <v>315.2031156262313</v>
       </c>
       <c r="C152" t="n">
-        <v>241501.4164305959</v>
+        <v>256373.9376770508</v>
       </c>
       <c r="D152" t="n">
         <v>7991.885039</v>
@@ -3336,10 +3336,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>322.1314435638039</v>
+        <v>315.6888146925278</v>
       </c>
       <c r="C153" t="n">
-        <v>236444.7592067999</v>
+        <v>251416.4305948978</v>
       </c>
       <c r="D153" t="n">
         <v>8573.839725</v>
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>322.6601745309569</v>
+        <v>316.2069710403377</v>
       </c>
       <c r="C154" t="n">
-        <v>231388.1019830039</v>
+        <v>246458.9235127448</v>
       </c>
       <c r="D154" t="n">
         <v>8036.774936</v>
@@ -3374,10 +3374,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>323.1491751970588</v>
+        <v>316.6861916931176</v>
       </c>
       <c r="C155" t="n">
-        <v>226331.4447592078</v>
+        <v>241501.4164305919</v>
       </c>
       <c r="D155" t="n">
         <v>8689.746413999999</v>
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>323.5667580918806</v>
+        <v>317.0954229300429</v>
       </c>
       <c r="C156" t="n">
-        <v>221274.7875354118</v>
+        <v>236543.9093484389</v>
       </c>
       <c r="D156" t="n">
         <v>10175.92396</v>
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>323.9094218092877</v>
+        <v>317.4312333731019</v>
       </c>
       <c r="C157" t="n">
-        <v>216218.1303116158</v>
+        <v>231586.4022662859</v>
       </c>
       <c r="D157" t="n">
         <v>12400.76369</v>
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>324.2963350617658</v>
+        <v>317.8104083605305</v>
       </c>
       <c r="C158" t="n">
-        <v>211161.4730878197</v>
+        <v>226628.895184133</v>
       </c>
       <c r="D158" t="n">
         <v>10982.54391</v>
@@ -3450,10 +3450,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>324.6560443639341</v>
+        <v>318.1629234766554</v>
       </c>
       <c r="C159" t="n">
-        <v>206104.8158640237</v>
+        <v>221671.38810198</v>
       </c>
       <c r="D159" t="n">
         <v>11813.12732</v>
@@ -3469,10 +3469,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>325.059746136186</v>
+        <v>318.5585512134622</v>
       </c>
       <c r="C160" t="n">
-        <v>201048.1586402277</v>
+        <v>216713.881019827</v>
       </c>
       <c r="D160" t="n">
         <v>10525.819</v>
@@ -3488,10 +3488,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>325.4902213423625</v>
+        <v>318.9804169155151</v>
       </c>
       <c r="C161" t="n">
-        <v>195991.5014164316</v>
+        <v>211756.3739376741</v>
       </c>
       <c r="D161" t="n">
         <v>9871.164991</v>
@@ -3507,10 +3507,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>325.8941741272703</v>
+        <v>319.3762906447247</v>
       </c>
       <c r="C162" t="n">
-        <v>190934.8441926356</v>
+        <v>206798.8668555211</v>
       </c>
       <c r="D162" t="n">
         <v>10519.27835</v>
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>326.2524147774797</v>
+        <v>319.7273664819299</v>
       </c>
       <c r="C163" t="n">
-        <v>185878.1869688396</v>
+        <v>201841.3597733681</v>
       </c>
       <c r="D163" t="n">
         <v>11861.5567</v>
@@ -3545,10 +3545,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>326.6626286593839</v>
+        <v>320.1293760861961</v>
       </c>
       <c r="C164" t="n">
-        <v>180821.5297450435</v>
+        <v>196883.8526912152</v>
       </c>
       <c r="D164" t="n">
         <v>10358.72254</v>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>327.0709143089312</v>
+        <v>320.5294960227524</v>
       </c>
       <c r="C165" t="n">
-        <v>175764.8725212475</v>
+        <v>191926.3456090622</v>
       </c>
       <c r="D165" t="n">
         <v>10407.64423</v>
@@ -3583,10 +3583,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>327.5136623494811</v>
+        <v>320.9633891024914</v>
       </c>
       <c r="C166" t="n">
-        <v>170708.2152974514</v>
+        <v>186968.8385269092</v>
       </c>
       <c r="D166" t="n">
         <v>9597.539448</v>
@@ -3602,10 +3602,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>327.9240660451083</v>
+        <v>321.365584724206</v>
       </c>
       <c r="C167" t="n">
-        <v>165651.5580736554</v>
+        <v>182011.3314447563</v>
       </c>
       <c r="D167" t="n">
         <v>10353.93158</v>
@@ -3621,10 +3621,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>328.3348080406148</v>
+        <v>321.7681118798023</v>
       </c>
       <c r="C168" t="n">
-        <v>160594.9008498594</v>
+        <v>177053.8243626033</v>
       </c>
       <c r="D168" t="n">
         <v>10345.40376</v>
@@ -3640,10 +3640,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>328.7520742052521</v>
+        <v>322.1770327211468</v>
       </c>
       <c r="C169" t="n">
-        <v>155538.2436260633</v>
+        <v>172096.3172804503</v>
       </c>
       <c r="D169" t="n">
         <v>10183.6481</v>
@@ -3659,10 +3659,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>329.2670603733096</v>
+        <v>322.6817191658432</v>
       </c>
       <c r="C170" t="n">
-        <v>150481.5864022673</v>
+        <v>167138.8101982974</v>
       </c>
       <c r="D170" t="n">
         <v>8251.273622999999</v>
@@ -3678,10 +3678,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>329.7846261004464</v>
+        <v>323.1889335784372</v>
       </c>
       <c r="C171" t="n">
-        <v>145424.9291784713</v>
+        <v>162181.3031161444</v>
       </c>
       <c r="D171" t="n">
         <v>8210.149092</v>
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>330.2956245548116</v>
+        <v>323.6897120637151</v>
       </c>
       <c r="C172" t="n">
-        <v>140368.2719546752</v>
+        <v>157223.7960339914</v>
       </c>
       <c r="D172" t="n">
         <v>8315.664653</v>
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>330.8285310456579</v>
+        <v>324.2119604247446</v>
       </c>
       <c r="C173" t="n">
-        <v>135311.6147308792</v>
+        <v>152266.2889518385</v>
       </c>
       <c r="D173" t="n">
         <v>7973.803768</v>
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>331.3187824398727</v>
+        <v>324.6924067910751</v>
       </c>
       <c r="C174" t="n">
-        <v>130254.9575070832</v>
+        <v>147308.7818696855</v>
       </c>
       <c r="D174" t="n">
         <v>8667.577155000001</v>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>331.7776799953905</v>
+        <v>325.1421263954826</v>
       </c>
       <c r="C175" t="n">
-        <v>125198.3002832871</v>
+        <v>142351.2747875325</v>
       </c>
       <c r="D175" t="n">
         <v>9259.783003</v>
@@ -3773,10 +3773,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>332.2600350260055</v>
+        <v>325.6148343254852</v>
       </c>
       <c r="C176" t="n">
-        <v>120141.6430594911</v>
+        <v>137393.7677053796</v>
       </c>
       <c r="D176" t="n">
         <v>8809.469198000001</v>
@@ -3792,10 +3792,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>332.7604717888793</v>
+        <v>326.1052623531015</v>
       </c>
       <c r="C177" t="n">
-        <v>115084.9858356951</v>
+        <v>132436.2606232266</v>
       </c>
       <c r="D177" t="n">
         <v>8491.166316999999</v>
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>333.342872559638</v>
+        <v>326.6760151084451</v>
       </c>
       <c r="C178" t="n">
-        <v>110028.328611899</v>
+        <v>127478.7535410736</v>
       </c>
       <c r="D178" t="n">
         <v>7296.164425</v>
@@ -3830,10 +3830,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>333.8901755535894</v>
+        <v>327.2123720425174</v>
       </c>
       <c r="C179" t="n">
-        <v>104971.671388103</v>
+        <v>122521.2464589207</v>
       </c>
       <c r="D179" t="n">
         <v>7764.057262</v>
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>334.4531995808738</v>
+        <v>327.7641355892562</v>
       </c>
       <c r="C180" t="n">
-        <v>99915.01416430695</v>
+        <v>117563.7393767677</v>
       </c>
       <c r="D180" t="n">
         <v>7547.265443</v>
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>335.0377846211561</v>
+        <v>328.3370289287328</v>
       </c>
       <c r="C181" t="n">
-        <v>94858.35694051092</v>
+        <v>112606.2322946147</v>
       </c>
       <c r="D181" t="n">
         <v>7268.902712</v>
@@ -3887,10 +3887,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>335.6262808096636</v>
+        <v>328.9137551934702</v>
       </c>
       <c r="C182" t="n">
-        <v>89801.69971671488</v>
+        <v>107648.7252124617</v>
       </c>
       <c r="D182" t="n">
         <v>7220.593553</v>
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>336.2092515377229</v>
+        <v>329.4850665069682</v>
       </c>
       <c r="C183" t="n">
-        <v>84745.04249291884</v>
+        <v>102691.2181303087</v>
       </c>
       <c r="D183" t="n">
         <v>7289.03113</v>
@@ -3925,10 +3925,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>336.7877504742122</v>
+        <v>330.0519954647278</v>
       </c>
       <c r="C184" t="n">
-        <v>79688.38526912281</v>
+        <v>97733.71104815575</v>
       </c>
       <c r="D184" t="n">
         <v>7345.375275</v>
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>337.3083572221869</v>
+        <v>330.562190077743</v>
       </c>
       <c r="C185" t="n">
-        <v>74631.72804532677</v>
+        <v>92776.20396600277</v>
       </c>
       <c r="D185" t="n">
         <v>8162.191138</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>337.7843503610241</v>
+        <v>331.0286633538034</v>
       </c>
       <c r="C186" t="n">
-        <v>69575.07082153074</v>
+        <v>87818.69688384979</v>
       </c>
       <c r="D186" t="n">
         <v>8927.21226</v>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>338.2878138180167</v>
+        <v>331.5220575416562</v>
       </c>
       <c r="C187" t="n">
-        <v>64518.4135977347</v>
+        <v>82861.1898016968</v>
       </c>
       <c r="D187" t="n">
         <v>8440.119586999999</v>
@@ -4001,10 +4001,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>338.7424606391455</v>
+        <v>331.9676114263623</v>
       </c>
       <c r="C188" t="n">
-        <v>59461.75637393867</v>
+        <v>77903.68271954382</v>
       </c>
       <c r="D188" t="n">
         <v>9346.357628</v>
@@ -4020,10 +4020,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>339.1763686580263</v>
+        <v>332.3928412848655</v>
       </c>
       <c r="C189" t="n">
-        <v>54405.09915014263</v>
+        <v>72946.17563739084</v>
       </c>
       <c r="D189" t="n">
         <v>9793.07042</v>
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>339.5883669871307</v>
+        <v>332.7965996473879</v>
       </c>
       <c r="C190" t="n">
-        <v>49348.4419263466</v>
+        <v>67988.66855523786</v>
       </c>
       <c r="D190" t="n">
         <v>10313.85684</v>
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>340.0269941968485</v>
+        <v>333.2264543129113</v>
       </c>
       <c r="C191" t="n">
-        <v>44291.78470255056</v>
+        <v>63031.16147308489</v>
       </c>
       <c r="D191" t="n">
         <v>9687.706759999999</v>
@@ -4077,10 +4077,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>340.5170400542324</v>
+        <v>333.7066992531475</v>
       </c>
       <c r="C192" t="n">
-        <v>39235.12747875453</v>
+        <v>58073.65439093192</v>
       </c>
       <c r="D192" t="n">
         <v>8671.212541999999</v>
@@ -4096,10 +4096,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>340.9828894156391</v>
+        <v>334.1632316273261</v>
       </c>
       <c r="C193" t="n">
-        <v>34178.47025495849</v>
+        <v>53116.14730877894</v>
       </c>
       <c r="D193" t="n">
         <v>9121.600536</v>
@@ -4115,10 +4115,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>341.7453571312473</v>
+        <v>334.9104499886221</v>
       </c>
       <c r="C194" t="n">
-        <v>29121.81303116246</v>
+        <v>48158.64022662597</v>
       </c>
       <c r="D194" t="n">
         <v>5573.07765</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>342.4300066055148</v>
+        <v>335.5814064734042</v>
       </c>
       <c r="C195" t="n">
-        <v>24065.15580736643</v>
+        <v>43201.13314447299</v>
       </c>
       <c r="D195" t="n">
         <v>6206.52165</v>
@@ -4153,10 +4153,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>343.0870539017055</v>
+        <v>336.2253128236711</v>
       </c>
       <c r="C196" t="n">
-        <v>19008.4985835704</v>
+        <v>38243.62606232002</v>
       </c>
       <c r="D196" t="n">
         <v>6467.254046</v>
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>343.7176639118653</v>
+        <v>336.8433106336277</v>
       </c>
       <c r="C197" t="n">
-        <v>13951.84135977436</v>
+        <v>33286.11898016705</v>
       </c>
       <c r="D197" t="n">
         <v>6738.38302</v>
@@ -4191,10 +4191,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>344.3364230863208</v>
+        <v>337.4496946245942</v>
       </c>
       <c r="C198" t="n">
-        <v>8895.184135978327</v>
+        <v>28328.61189801407</v>
       </c>
       <c r="D198" t="n">
         <v>6867.440452</v>
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>344.9355653763582</v>
+        <v>338.0368540688308</v>
       </c>
       <c r="C199" t="n">
-        <v>3838.526912182293</v>
+        <v>23371.1048158611</v>
       </c>
       <c r="D199" t="n">
         <v>7092.291523</v>
@@ -4229,10 +4229,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>345.4983494761236</v>
+        <v>338.5883824866009</v>
       </c>
       <c r="C200" t="n">
-        <v>-1218.130311613741</v>
+        <v>18413.59773370813</v>
       </c>
       <c r="D200" t="n">
         <v>7550.483012</v>
@@ -4248,10 +4248,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>345.9774637143263</v>
+        <v>339.0579144400395</v>
       </c>
       <c r="C201" t="n">
-        <v>-6274.787535409775</v>
+        <v>13456.09065155515</v>
       </c>
       <c r="D201" t="n">
         <v>8869.057618999999</v>
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>346.4092625363953</v>
+        <v>339.4810772856671</v>
       </c>
       <c r="C202" t="n">
-        <v>-11331.44475920581</v>
+        <v>8498.583569402181</v>
       </c>
       <c r="D202" t="n">
         <v>9840.906384</v>
@@ -4286,10 +4286,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>346.8645483580954</v>
+        <v>339.9272573909332</v>
       </c>
       <c r="C203" t="n">
-        <v>-16388.10198300184</v>
+        <v>3541.076487249206</v>
       </c>
       <c r="D203" t="n">
         <v>9333.239873</v>
@@ -10083,10 +10083,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.884630272673224</v>
+        <v>5.76693766721976</v>
       </c>
       <c r="C3" t="n">
-        <v>996015.7720822205</v>
+        <v>996093.8941982554</v>
       </c>
       <c r="D3" t="n">
         <v>663.7810059</v>
@@ -10102,16 +10102,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.98832905083925</v>
+        <v>35.27087641847735</v>
       </c>
       <c r="C4" t="n">
-        <v>976034.726995961</v>
+        <v>976503.0978336607</v>
       </c>
       <c r="D4" t="n">
         <v>650.7260132</v>
       </c>
       <c r="E4" t="n">
-        <v>391.7851977697939</v>
+        <v>391.8159272918946</v>
       </c>
     </row>
     <row r="5">
@@ -10121,10 +10121,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.98832905083925</v>
+        <v>35.27087641847735</v>
       </c>
       <c r="C5" t="n">
-        <v>976034.726995961</v>
+        <v>976503.0978336607</v>
       </c>
       <c r="D5" t="n">
         <v>657.0120239</v>
@@ -10140,16 +10140,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>247.7853795022298</v>
+        <v>242.931588434411</v>
       </c>
       <c r="C6" t="n">
-        <v>851809.26958671</v>
+        <v>854654.9903693942</v>
       </c>
       <c r="D6" t="n">
         <v>575.0300293</v>
       </c>
       <c r="E6" t="n">
-        <v>2435.793282534334</v>
+        <v>2436.96214928533</v>
       </c>
     </row>
     <row r="7">
@@ -10159,10 +10159,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.7853795022298</v>
+        <v>242.931588434411</v>
       </c>
       <c r="C7" t="n">
-        <v>851809.26958671</v>
+        <v>854654.9903693942</v>
       </c>
       <c r="D7" t="n">
         <v>587.3569946</v>
@@ -10178,16 +10178,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>276.1641983129341</v>
+        <v>270.8357425492666</v>
       </c>
       <c r="C8" t="n">
-        <v>835133.714913413</v>
+        <v>838251.7900798047</v>
       </c>
       <c r="D8" t="n">
         <v>576.0839844</v>
       </c>
       <c r="E8" t="n">
-        <v>326.9716602607245</v>
+        <v>328.0640057917894</v>
       </c>
     </row>
     <row r="9">
@@ -10197,10 +10197,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>276.1641983129341</v>
+        <v>270.8357425492666</v>
       </c>
       <c r="C9" t="n">
-        <v>835133.714913413</v>
+        <v>838251.7900798047</v>
       </c>
       <c r="D9" t="n">
         <v>579.4520264</v>
@@ -10216,16 +10216,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285.9227612327723</v>
+        <v>280.4348403180218</v>
       </c>
       <c r="C10" t="n">
-        <v>829404.7935111213</v>
+        <v>832614.2302367205</v>
       </c>
       <c r="D10" t="n">
         <v>575.5549927</v>
       </c>
       <c r="E10" t="n">
-        <v>112.3317922017994</v>
+        <v>112.7511968616831</v>
       </c>
     </row>
     <row r="11">
@@ -10235,10 +10235,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>285.9227612327723</v>
+        <v>280.4348403180218</v>
       </c>
       <c r="C11" t="n">
-        <v>829404.7935111213</v>
+        <v>832614.2302367205</v>
       </c>
       <c r="D11" t="n">
         <v>622.927002</v>
@@ -10254,16 +10254,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>320.3682889897732</v>
+        <v>314.3220809836331</v>
       </c>
       <c r="C12" t="n">
-        <v>808070.5295297336</v>
+        <v>811617.3495235505</v>
       </c>
       <c r="D12" t="n">
         <v>607.2180176000001</v>
       </c>
       <c r="E12" t="n">
-        <v>418.3189015958372</v>
+        <v>419.9376142634003</v>
       </c>
     </row>
     <row r="13">
@@ -10273,16 +10273,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>329.7638127661117</v>
+        <v>323.5701087603566</v>
       </c>
       <c r="C13" t="n">
-        <v>802292.0924441698</v>
+        <v>805927.3494598679</v>
       </c>
       <c r="D13" t="n">
         <v>602.9609985</v>
       </c>
       <c r="E13" t="n">
-        <v>113.3026879522313</v>
+        <v>113.8000012736514</v>
       </c>
     </row>
     <row r="14">
@@ -10292,10 +10292,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>329.7638127661117</v>
+        <v>323.5701087603566</v>
       </c>
       <c r="C14" t="n">
-        <v>802292.0924441698</v>
+        <v>805927.3494598679</v>
       </c>
       <c r="D14" t="n">
         <v>609.9290161</v>
@@ -10311,10 +10311,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>329.7638127661117</v>
+        <v>323.5701087603566</v>
       </c>
       <c r="C15" t="n">
-        <v>802292.0924441698</v>
+        <v>805927.3494598679</v>
       </c>
       <c r="D15" t="n">
         <v>617.3410034</v>
@@ -10330,10 +10330,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>329.7638127661117</v>
+        <v>323.5701087603566</v>
       </c>
       <c r="C16" t="n">
-        <v>802292.0924441698</v>
+        <v>805927.3494598679</v>
       </c>
       <c r="D16" t="n">
         <v>640.3109741</v>
@@ -10349,16 +10349,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>343.9630735269378</v>
+        <v>337.5484356603656</v>
       </c>
       <c r="C17" t="n">
-        <v>793122.2282183026</v>
+        <v>796896.5517163363</v>
       </c>
       <c r="D17" t="n">
         <v>633.1359863</v>
       </c>
       <c r="E17" t="n">
-        <v>179.8012593307307</v>
+        <v>180.6159548706333</v>
       </c>
     </row>
     <row r="18">
@@ -10368,10 +10368,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>343.9630735269378</v>
+        <v>337.5484356603656</v>
       </c>
       <c r="C18" t="n">
-        <v>793122.2282183026</v>
+        <v>796896.5517163363</v>
       </c>
       <c r="D18" t="n">
         <v>690.2890015</v>
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>343.9630735269378</v>
+        <v>337.5484356603656</v>
       </c>
       <c r="C19" t="n">
-        <v>793122.2282183026</v>
+        <v>796896.5517163363</v>
       </c>
       <c r="D19" t="n">
         <v>703.5250244</v>
@@ -10406,10 +10406,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>343.9630735269378</v>
+        <v>337.5484356603656</v>
       </c>
       <c r="C20" t="n">
-        <v>793122.2282183026</v>
+        <v>796896.5517163363</v>
       </c>
       <c r="D20" t="n">
         <v>716.7520142</v>
@@ -10425,10 +10425,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>343.9630735269378</v>
+        <v>337.5484356603656</v>
       </c>
       <c r="C21" t="n">
-        <v>793122.2282183026</v>
+        <v>796896.5517163363</v>
       </c>
       <c r="D21" t="n">
         <v>751.8330078</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>358.6478013827398</v>
+        <v>352.0079532521499</v>
       </c>
       <c r="C22" t="n">
-        <v>782015.5634416818</v>
+        <v>785955.8464603095</v>
       </c>
       <c r="D22" t="n">
         <v>741.5109863</v>
       </c>
       <c r="E22" t="n">
-        <v>217.7777407180561</v>
+        <v>218.8141051205357</v>
       </c>
     </row>
     <row r="23">
@@ -10463,10 +10463,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>358.6478013827398</v>
+        <v>352.0079532521499</v>
       </c>
       <c r="C23" t="n">
-        <v>782015.5634416818</v>
+        <v>785955.8464603095</v>
       </c>
       <c r="D23" t="n">
         <v>778.2479858</v>
@@ -10482,16 +10482,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>365.4396692415008</v>
+        <v>358.6975209941476</v>
       </c>
       <c r="C24" t="n">
-        <v>776660.2879011877</v>
+        <v>780679.1221812025</v>
       </c>
       <c r="D24" t="n">
         <v>773.0230103</v>
       </c>
       <c r="E24" t="n">
-        <v>105.0054027547862</v>
+        <v>105.5344855821379</v>
       </c>
     </row>
     <row r="25">
@@ -10501,10 +10501,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>365.4396692415008</v>
+        <v>358.6975209941476</v>
       </c>
       <c r="C25" t="n">
-        <v>776660.2879011877</v>
+        <v>780679.1221812025</v>
       </c>
       <c r="D25" t="n">
         <v>785.1660156</v>
@@ -10520,10 +10520,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>365.4396692415008</v>
+        <v>358.6975209941476</v>
       </c>
       <c r="C26" t="n">
-        <v>776660.2879011877</v>
+        <v>780679.1221812025</v>
       </c>
       <c r="D26" t="n">
         <v>922.1799927</v>
@@ -10539,10 +10539,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>365.4396692415008</v>
+        <v>358.6975209941476</v>
       </c>
       <c r="C27" t="n">
-        <v>776660.2879011877</v>
+        <v>780679.1221812025</v>
       </c>
       <c r="D27" t="n">
         <v>960.6270142</v>
@@ -10558,16 +10558,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.5719004435546</v>
+        <v>409.0663999905241</v>
       </c>
       <c r="C28" t="n">
-        <v>729539.0356317742</v>
+        <v>734242.7677397588</v>
       </c>
       <c r="D28" t="n">
         <v>903.4869995</v>
       </c>
       <c r="E28" t="n">
-        <v>923.9461229296762</v>
+        <v>928.7270888288739</v>
       </c>
     </row>
     <row r="29">
@@ -10577,16 +10577,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>493.239001307122</v>
+        <v>484.6845867517334</v>
       </c>
       <c r="C29" t="n">
-        <v>665012.5635400204</v>
+        <v>670573.641170043</v>
       </c>
       <c r="D29" t="n">
         <v>825.1420288</v>
       </c>
       <c r="E29" t="n">
-        <v>1265.224942975565</v>
+        <v>1273.382531394317</v>
       </c>
     </row>
     <row r="30">
@@ -10596,10 +10596,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>493.239001307122</v>
+        <v>484.6845867517334</v>
       </c>
       <c r="C30" t="n">
-        <v>665012.5635400204</v>
+        <v>670573.641170043</v>
       </c>
       <c r="D30" t="n">
         <v>895.5490112</v>
@@ -10615,10 +10615,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.239001307122</v>
+        <v>484.6845867517334</v>
       </c>
       <c r="C31" t="n">
-        <v>665012.5635400204</v>
+        <v>670573.641170043</v>
       </c>
       <c r="D31" t="n">
         <v>919.8109741</v>
@@ -10634,10 +10634,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>493.239001307122</v>
+        <v>484.6845867517334</v>
       </c>
       <c r="C32" t="n">
-        <v>665012.5635400204</v>
+        <v>670573.641170043</v>
       </c>
       <c r="D32" t="n">
         <v>1031.329956</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>520.9067397394018</v>
+        <v>512.0257107819571</v>
       </c>
       <c r="C33" t="n">
-        <v>637104.7806251344</v>
+        <v>642984.2706059066</v>
       </c>
       <c r="D33" t="n">
         <v>988.8980103</v>
       </c>
       <c r="E33" t="n">
-        <v>547.2114297036469</v>
+        <v>551.7874112827296</v>
       </c>
     </row>
     <row r="34">
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>520.9067397394018</v>
+        <v>512.0257107819571</v>
       </c>
       <c r="C34" t="n">
-        <v>637104.7806251344</v>
+        <v>642984.2706059066</v>
       </c>
       <c r="D34" t="n">
         <v>1049.209961</v>
@@ -10691,10 +10691,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>520.9067397394018</v>
+        <v>512.0257107819571</v>
       </c>
       <c r="C35" t="n">
-        <v>637104.7806251344</v>
+        <v>642984.2706059066</v>
       </c>
       <c r="D35" t="n">
         <v>1170.410034</v>
@@ -10710,10 +10710,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>520.9067397394018</v>
+        <v>512.0257107819571</v>
       </c>
       <c r="C36" t="n">
-        <v>637104.7806251344</v>
+        <v>642984.2706059066</v>
       </c>
       <c r="D36" t="n">
         <v>1277.430054</v>
@@ -10729,16 +10729,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>592.8860761487341</v>
+        <v>583.2164330567938</v>
       </c>
       <c r="C37" t="n">
-        <v>555145.772312881</v>
+        <v>561890.7774982059</v>
       </c>
       <c r="D37" t="n">
         <v>1116.319946</v>
       </c>
       <c r="E37" t="n">
-        <v>1607.039378671634</v>
+        <v>1621.869862154014</v>
       </c>
     </row>
     <row r="38">
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>600.4064681608286</v>
+        <v>590.6759623246089</v>
       </c>
       <c r="C38" t="n">
-        <v>546710.2708758423</v>
+        <v>553520.1965794188</v>
       </c>
       <c r="D38" t="n">
         <v>1099.689941</v>
       </c>
       <c r="E38" t="n">
-        <v>165.4019889615421</v>
+        <v>167.4116183757419</v>
       </c>
     </row>
     <row r="39">
@@ -10767,16 +10767,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>687.012400073564</v>
+        <v>676.6069797406041</v>
       </c>
       <c r="C39" t="n">
-        <v>463978.1549562552</v>
+        <v>471399.9586607518</v>
       </c>
       <c r="D39" t="n">
         <v>936.539978</v>
       </c>
       <c r="E39" t="n">
-        <v>1622.198351364454</v>
+        <v>1642.404758373341</v>
       </c>
     </row>
     <row r="40">
@@ -10786,10 +10786,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>687.012400073564</v>
+        <v>676.6069797406041</v>
       </c>
       <c r="C40" t="n">
-        <v>463978.1549562552</v>
+        <v>471399.9586607518</v>
       </c>
       <c r="D40" t="n">
         <v>1071.709961</v>
@@ -10805,10 +10805,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>687.012400073564</v>
+        <v>676.6069797406041</v>
       </c>
       <c r="C41" t="n">
-        <v>463978.1549562552</v>
+        <v>471399.9586607518</v>
       </c>
       <c r="D41" t="n">
         <v>1172.650024</v>
@@ -10824,16 +10824,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>688.825819925007</v>
+        <v>678.4125585446831</v>
       </c>
       <c r="C42" t="n">
-        <v>461819.0137731793</v>
+        <v>469249.2931235326</v>
       </c>
       <c r="D42" t="n">
         <v>1167.300049</v>
       </c>
       <c r="E42" t="n">
-        <v>42.33610162893973</v>
+        <v>43.01331074438448</v>
       </c>
     </row>
     <row r="43">
@@ -10843,10 +10843,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>688.825819925007</v>
+        <v>678.4125585446831</v>
       </c>
       <c r="C43" t="n">
-        <v>461819.0137731793</v>
+        <v>469249.2931235326</v>
       </c>
       <c r="D43" t="n">
         <v>1222.709961</v>
@@ -10862,10 +10862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>688.825819925007</v>
+        <v>678.4125585446831</v>
       </c>
       <c r="C44" t="n">
-        <v>461819.0137731793</v>
+        <v>469249.2931235326</v>
       </c>
       <c r="D44" t="n">
         <v>1317.839966</v>
@@ -10881,10 +10881,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>688.825819925007</v>
+        <v>678.4125585446831</v>
       </c>
       <c r="C45" t="n">
-        <v>461819.0137731793</v>
+        <v>469249.2931235326</v>
       </c>
       <c r="D45" t="n">
         <v>1556.810059</v>
@@ -10900,10 +10900,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>688.825819925007</v>
+        <v>678.4125585446831</v>
       </c>
       <c r="C46" t="n">
-        <v>461819.0137731793</v>
+        <v>469249.2931235326</v>
       </c>
       <c r="D46" t="n">
         <v>1723.119995</v>
@@ -10919,10 +10919,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>688.825819925007</v>
+        <v>678.4125585446831</v>
       </c>
       <c r="C47" t="n">
-        <v>461819.0137731793</v>
+        <v>469249.2931235326</v>
       </c>
       <c r="D47" t="n">
         <v>1984.23999</v>
@@ -10938,10 +10938,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>688.825819925007</v>
+        <v>678.4125585446831</v>
       </c>
       <c r="C48" t="n">
-        <v>461819.0137731793</v>
+        <v>469249.2931235326</v>
       </c>
       <c r="D48" t="n">
         <v>2196.27002</v>
@@ -10957,10 +10957,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>688.825819925007</v>
+        <v>678.4125585446831</v>
       </c>
       <c r="C49" t="n">
-        <v>461819.0137731793</v>
+        <v>469249.2931235326</v>
       </c>
       <c r="D49" t="n">
         <v>2493.719971</v>
@@ -10976,10 +10976,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>688.825819925007</v>
+        <v>678.4125585446831</v>
       </c>
       <c r="C50" t="n">
-        <v>461819.0137731793</v>
+        <v>469249.2931235326</v>
       </c>
       <c r="D50" t="n">
         <v>2828.139893</v>
@@ -10995,16 +10995,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>709.2297192300706</v>
+        <v>698.7300958038917</v>
       </c>
       <c r="C51" t="n">
-        <v>409497.494535298</v>
+        <v>417128.3828702688</v>
       </c>
       <c r="D51" t="n">
         <v>2514.01001</v>
       </c>
       <c r="E51" t="n">
-        <v>1025.912141919241</v>
+        <v>1042.418205065276</v>
       </c>
     </row>
     <row r="52">
@@ -11014,10 +11014,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>709.2297192300706</v>
+        <v>698.7300958038917</v>
       </c>
       <c r="C52" t="n">
-        <v>409497.494535298</v>
+        <v>417128.3828702688</v>
       </c>
       <c r="D52" t="n">
         <v>2738.52002</v>
@@ -11033,16 +11033,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>723.9825864404927</v>
+        <v>713.4573235154636</v>
       </c>
       <c r="C53" t="n">
-        <v>371989.0363157293</v>
+        <v>379670.1285466643</v>
       </c>
       <c r="D53" t="n">
         <v>2492.600098</v>
       </c>
       <c r="E53" t="n">
-        <v>735.4599650895809</v>
+        <v>749.1650864720914</v>
       </c>
     </row>
     <row r="54">
@@ -11052,10 +11052,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>723.9825864404927</v>
+        <v>713.4573235154636</v>
       </c>
       <c r="C54" t="n">
-        <v>371989.0363157293</v>
+        <v>379670.1285466643</v>
       </c>
       <c r="D54" t="n">
         <v>2520.27002</v>
@@ -11071,16 +11071,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>743.1859472175977</v>
+        <v>732.6652111361393</v>
       </c>
       <c r="C55" t="n">
-        <v>328306.7191090382</v>
+        <v>335960.0299875376</v>
       </c>
       <c r="D55" t="n">
         <v>2230.120117</v>
       </c>
       <c r="E55" t="n">
-        <v>856.5160236606104</v>
+        <v>874.2019711825336</v>
       </c>
     </row>
     <row r="56">
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>743.1859472175977</v>
+        <v>732.6652111361393</v>
       </c>
       <c r="C56" t="n">
-        <v>328306.7191090382</v>
+        <v>335960.0299875376</v>
       </c>
       <c r="D56" t="n">
         <v>2668.629883</v>
@@ -11109,10 +11109,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>743.1859472175977</v>
+        <v>732.6652111361393</v>
       </c>
       <c r="C57" t="n">
-        <v>328306.7191090382</v>
+        <v>335960.0299875376</v>
       </c>
       <c r="D57" t="n">
         <v>2807.02002</v>
@@ -11128,10 +11128,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>743.1859472175977</v>
+        <v>732.6652111361393</v>
       </c>
       <c r="C58" t="n">
-        <v>328306.7191090382</v>
+        <v>335960.0299875376</v>
       </c>
       <c r="D58" t="n">
         <v>2897.629883</v>
@@ -11147,10 +11147,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>743.1859472175977</v>
+        <v>732.6652111361393</v>
       </c>
       <c r="C59" t="n">
-        <v>328306.7191090382</v>
+        <v>335960.0299875376</v>
       </c>
       <c r="D59" t="n">
         <v>3650.629883</v>
@@ -11166,10 +11166,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>743.1859472175977</v>
+        <v>732.6652111361393</v>
       </c>
       <c r="C60" t="n">
-        <v>328306.7191090382</v>
+        <v>335960.0299875376</v>
       </c>
       <c r="D60" t="n">
         <v>4137.75</v>
@@ -11185,10 +11185,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>743.1859472175977</v>
+        <v>732.6652111361393</v>
       </c>
       <c r="C61" t="n">
-        <v>328306.7191090382</v>
+        <v>335960.0299875376</v>
       </c>
       <c r="D61" t="n">
         <v>4372.060059</v>
@@ -11204,10 +11204,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>743.1859472175977</v>
+        <v>732.6652111361393</v>
       </c>
       <c r="C62" t="n">
-        <v>328306.7191090382</v>
+        <v>335960.0299875376</v>
       </c>
       <c r="D62" t="n">
         <v>4901.419922</v>
@@ -11223,16 +11223,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>753.8213528662986</v>
+        <v>743.3308770297784</v>
       </c>
       <c r="C63" t="n">
-        <v>282421.2583987293</v>
+        <v>289925.6005152435</v>
       </c>
       <c r="D63" t="n">
         <v>4229.810059</v>
       </c>
       <c r="E63" t="n">
-        <v>899.7149158884106</v>
+        <v>920.6885894458807</v>
       </c>
     </row>
     <row r="64">
@@ -11242,16 +11242,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>764.6883470056409</v>
+        <v>754.2635080332576</v>
       </c>
       <c r="C64" t="n">
-        <v>242099.2223097291</v>
+        <v>249343.785787788</v>
       </c>
       <c r="D64" t="n">
         <v>3637.75</v>
       </c>
       <c r="E64" t="n">
-        <v>790.6281586078474</v>
+        <v>811.6362945491101</v>
       </c>
     </row>
     <row r="65">
@@ -11261,16 +11261,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>764.8319057294547</v>
+        <v>754.408405508889</v>
       </c>
       <c r="C65" t="n">
-        <v>241567.6935047499</v>
+        <v>248807.0855495821</v>
       </c>
       <c r="D65" t="n">
         <v>3629.919922</v>
       </c>
       <c r="E65" t="n">
-        <v>10.42213343096424</v>
+        <v>10.73400476411882</v>
       </c>
     </row>
     <row r="66">
@@ -11280,10 +11280,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>764.8319057294547</v>
+        <v>754.408405508889</v>
       </c>
       <c r="C66" t="n">
-        <v>241567.6935047499</v>
+        <v>248807.0855495821</v>
       </c>
       <c r="D66" t="n">
         <v>4166.109863</v>
@@ -11299,10 +11299,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>764.8319057294547</v>
+        <v>754.408405508889</v>
       </c>
       <c r="C67" t="n">
-        <v>241567.6935047499</v>
+        <v>248807.0855495821</v>
       </c>
       <c r="D67" t="n">
         <v>4369.350098</v>
@@ -11318,10 +11318,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>764.8319057294547</v>
+        <v>754.408405508889</v>
       </c>
       <c r="C68" t="n">
-        <v>241567.6935047499</v>
+        <v>248807.0855495821</v>
       </c>
       <c r="D68" t="n">
         <v>5643.529785</v>
@@ -11337,10 +11337,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>764.8319057294547</v>
+        <v>754.408405508889</v>
       </c>
       <c r="C69" t="n">
-        <v>241567.6935047499</v>
+        <v>248807.0855495821</v>
       </c>
       <c r="D69" t="n">
         <v>5996.790039</v>
@@ -11356,16 +11356,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>766.2863242484281</v>
+        <v>755.8764504907014</v>
       </c>
       <c r="C70" t="n">
-        <v>232981.4229215125</v>
+        <v>240136.9020309526</v>
       </c>
       <c r="D70" t="n">
         <v>5787.819824</v>
       </c>
       <c r="E70" t="n">
-        <v>168.3582467301445</v>
+        <v>173.4036703725909</v>
       </c>
     </row>
     <row r="71">
@@ -11375,10 +11375,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>766.2863242484281</v>
+        <v>755.8764504907014</v>
       </c>
       <c r="C71" t="n">
-        <v>232981.4229215125</v>
+        <v>240136.9020309526</v>
       </c>
       <c r="D71" t="n">
         <v>7164.47998</v>
@@ -11394,16 +11394,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>768.9683266215629</v>
+        <v>758.5855368134954</v>
       </c>
       <c r="C72" t="n">
-        <v>214875.2730149044</v>
+        <v>221840.590341398</v>
       </c>
       <c r="D72" t="n">
         <v>6618.609863</v>
       </c>
       <c r="E72" t="n">
-        <v>355.0225471883937</v>
+        <v>365.9262337910914</v>
       </c>
     </row>
     <row r="73">
@@ -11413,10 +11413,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>768.9683266215629</v>
+        <v>758.5855368134954</v>
       </c>
       <c r="C73" t="n">
-        <v>214875.2730149044</v>
+        <v>221840.590341398</v>
       </c>
       <c r="D73" t="n">
         <v>7697.209961</v>
@@ -11432,10 +11432,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>768.9683266215629</v>
+        <v>758.5855368134954</v>
       </c>
       <c r="C74" t="n">
-        <v>214875.2730149044</v>
+        <v>221840.590341398</v>
       </c>
       <c r="D74" t="n">
         <v>8241.709961</v>
@@ -11451,10 +11451,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>768.9683266215629</v>
+        <v>758.5855368134954</v>
       </c>
       <c r="C75" t="n">
-        <v>214875.2730149044</v>
+        <v>221840.590341398</v>
       </c>
       <c r="D75" t="n">
         <v>10978.2998</v>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>768.9683266215629</v>
+        <v>758.5855368134954</v>
       </c>
       <c r="C76" t="n">
-        <v>214875.2730149044</v>
+        <v>221840.590341398</v>
       </c>
       <c r="D76" t="n">
         <v>16523.30078</v>
@@ -11489,10 +11489,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>768.9683266215629</v>
+        <v>758.5855368134954</v>
       </c>
       <c r="C77" t="n">
-        <v>214875.2730149044</v>
+        <v>221840.590341398</v>
       </c>
       <c r="D77" t="n">
         <v>17760.30078</v>
@@ -11508,16 +11508,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>772.2743792998109</v>
+        <v>761.9304928626524</v>
       </c>
       <c r="C78" t="n">
-        <v>167837.8326075301</v>
+        <v>174230.6014517382</v>
       </c>
       <c r="D78" t="n">
         <v>13948.7002</v>
       </c>
       <c r="E78" t="n">
-        <v>922.3027530857711</v>
+        <v>952.1997777931949</v>
       </c>
     </row>
     <row r="79">
@@ -11527,10 +11527,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>772.2743792998109</v>
+        <v>761.9304928626524</v>
       </c>
       <c r="C79" t="n">
-        <v>167837.8326075301</v>
+        <v>174230.6014517382</v>
       </c>
       <c r="D79" t="n">
         <v>14681.90039</v>
@@ -11546,10 +11546,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>772.2743792998109</v>
+        <v>761.9304928626524</v>
       </c>
       <c r="C80" t="n">
-        <v>167837.8326075301</v>
+        <v>174230.6014517382</v>
       </c>
       <c r="D80" t="n">
         <v>17462.09961</v>
@@ -11565,16 +11565,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>774.6921458779253</v>
+        <v>764.3901525243607</v>
       </c>
       <c r="C81" t="n">
-        <v>133429.5123131688</v>
+        <v>139212.074489201</v>
       </c>
       <c r="D81" t="n">
         <v>13952.40039</v>
       </c>
       <c r="E81" t="n">
-        <v>674.6729469482611</v>
+        <v>700.3705392507455</v>
       </c>
     </row>
     <row r="82">
@@ -11584,16 +11584,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>776.5760366489076</v>
+        <v>766.316376573576</v>
       </c>
       <c r="C82" t="n">
-        <v>111031.3241720379</v>
+        <v>116301.408011947</v>
       </c>
       <c r="D82" t="n">
         <v>11656.2002</v>
       </c>
       <c r="E82" t="n">
-        <v>439.1801596300172</v>
+        <v>458.2133295450785</v>
       </c>
     </row>
     <row r="83">
@@ -11603,16 +11603,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>776.986297947989</v>
+        <v>766.7375161731435</v>
       </c>
       <c r="C83" t="n">
-        <v>106355.0024379096</v>
+        <v>111499.1701798547</v>
       </c>
       <c r="D83" t="n">
         <v>11174.90039</v>
       </c>
       <c r="E83" t="n">
-        <v>91.69258302212431</v>
+        <v>96.04475664184702</v>
       </c>
     </row>
     <row r="84">
@@ -11622,16 +11622,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>779.4836231036945</v>
+        <v>769.3032693829103</v>
       </c>
       <c r="C84" t="n">
-        <v>83806.24774340834</v>
+        <v>88323.29711512517</v>
       </c>
       <c r="D84" t="n">
         <v>8852.120117</v>
       </c>
       <c r="E84" t="n">
-        <v>442.1324449902202</v>
+        <v>463.5174612945902</v>
       </c>
     </row>
     <row r="85">
@@ -11641,16 +11641,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>779.6269785736667</v>
+        <v>769.4513298861091</v>
       </c>
       <c r="C85" t="n">
-        <v>82531.17514207562</v>
+        <v>87005.84870259256</v>
       </c>
       <c r="D85" t="n">
         <v>8720.080078000001</v>
       </c>
       <c r="E85" t="n">
-        <v>25.0014235555436</v>
+        <v>26.34896825065229</v>
       </c>
     </row>
     <row r="86">
@@ -11660,10 +11660,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>779.6269785736667</v>
+        <v>769.4513298861091</v>
       </c>
       <c r="C86" t="n">
-        <v>82531.17514207562</v>
+        <v>87005.84870259256</v>
       </c>
       <c r="D86" t="n">
         <v>10207.5</v>
@@ -11679,10 +11679,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>779.6269785736667</v>
+        <v>769.4513298861091</v>
       </c>
       <c r="C87" t="n">
-        <v>82531.17514207562</v>
+        <v>87005.84870259256</v>
       </c>
       <c r="D87" t="n">
         <v>10287.7002</v>
@@ -11698,10 +11698,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>779.6269785736667</v>
+        <v>769.4513298861091</v>
       </c>
       <c r="C88" t="n">
-        <v>82531.17514207562</v>
+        <v>87005.84870259256</v>
       </c>
       <c r="D88" t="n">
         <v>11101.90039</v>
@@ -11717,16 +11717,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>781.019317156823</v>
+        <v>770.8898016866417</v>
       </c>
       <c r="C89" t="n">
-        <v>69251.60438670407</v>
+        <v>73280.78767306094</v>
       </c>
       <c r="D89" t="n">
         <v>9350.589844</v>
       </c>
       <c r="E89" t="n">
-        <v>260.3837403014028</v>
+        <v>274.5012205906323</v>
       </c>
     </row>
     <row r="90">
@@ -11736,16 +11736,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>781.9347952863252</v>
+        <v>771.8391691394405</v>
       </c>
       <c r="C90" t="n">
-        <v>61480.707108334</v>
+        <v>65219.00129834477</v>
       </c>
       <c r="D90" t="n">
         <v>8321.910156</v>
       </c>
       <c r="E90" t="n">
-        <v>152.3705348700015</v>
+        <v>161.2357274943234</v>
       </c>
     </row>
     <row r="91">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>781.9347952863252</v>
+        <v>771.8391691394405</v>
       </c>
       <c r="C91" t="n">
-        <v>61480.707108334</v>
+        <v>65219.00129834477</v>
       </c>
       <c r="D91" t="n">
         <v>8901.950194999999</v>
@@ -11774,16 +11774,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>783.9483329317998</v>
+        <v>773.9324192349773</v>
       </c>
       <c r="C92" t="n">
-        <v>47324.87383971587</v>
+        <v>50496.87438342665</v>
       </c>
       <c r="D92" t="n">
         <v>6892.47998</v>
       </c>
       <c r="E92" t="n">
-        <v>277.5653582081986</v>
+        <v>294.4425382983624</v>
       </c>
     </row>
     <row r="93">
@@ -11793,16 +11793,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>784.2196136630068</v>
+        <v>774.2160935765454</v>
       </c>
       <c r="C93" t="n">
-        <v>45490.16971136821</v>
+        <v>48577.58306492544</v>
       </c>
       <c r="D93" t="n">
         <v>6630.509766</v>
       </c>
       <c r="E93" t="n">
-        <v>35.97459075191501</v>
+        <v>38.3858263700242</v>
       </c>
     </row>
     <row r="94">
@@ -11812,10 +11812,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>784.2196136630068</v>
+        <v>774.2160935765454</v>
       </c>
       <c r="C94" t="n">
-        <v>45490.16971136821</v>
+        <v>48577.58306492544</v>
       </c>
       <c r="D94" t="n">
         <v>7874.669922</v>
@@ -11831,10 +11831,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>784.2196136630068</v>
+        <v>774.2160935765454</v>
       </c>
       <c r="C95" t="n">
-        <v>45490.16971136821</v>
+        <v>48577.58306492544</v>
       </c>
       <c r="D95" t="n">
         <v>8848.790039</v>
@@ -11850,10 +11850,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>784.2196136630068</v>
+        <v>774.2160935765454</v>
       </c>
       <c r="C96" t="n">
-        <v>45490.16971136821</v>
+        <v>48577.58306492544</v>
       </c>
       <c r="D96" t="n">
         <v>8939.269531</v>
@@ -11869,10 +11869,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>784.2196136630068</v>
+        <v>774.2160935765454</v>
       </c>
       <c r="C97" t="n">
-        <v>45490.16971136821</v>
+        <v>48577.58306492544</v>
       </c>
       <c r="D97" t="n">
         <v>9700.280273</v>
@@ -11888,16 +11888,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>784.9189517713808</v>
+        <v>774.9479596513532</v>
       </c>
       <c r="C98" t="n">
-        <v>39468.68030945553</v>
+        <v>42273.49747999853</v>
       </c>
       <c r="D98" t="n">
         <v>8441.440430000001</v>
       </c>
       <c r="E98" t="n">
-        <v>118.0684196453467</v>
+        <v>126.0817116985382</v>
       </c>
     </row>
     <row r="99">
@@ -11907,16 +11907,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>785.0241275506174</v>
+        <v>775.0583566811902</v>
       </c>
       <c r="C99" t="n">
-        <v>38583.01136650591</v>
+        <v>41343.48919131311</v>
       </c>
       <c r="D99" t="n">
         <v>8255.730469</v>
       </c>
       <c r="E99" t="n">
-        <v>17.3660577048945</v>
+        <v>18.60016577370823</v>
       </c>
     </row>
     <row r="100">
@@ -11926,16 +11926,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>785.5043370297051</v>
+        <v>775.5626321125513</v>
       </c>
       <c r="C100" t="n">
-        <v>34916.0311420825</v>
+        <v>37491.19539407676</v>
       </c>
       <c r="D100" t="n">
         <v>7486.47998</v>
       </c>
       <c r="E100" t="n">
-        <v>71.90157302790993</v>
+        <v>77.04587594472697</v>
       </c>
     </row>
     <row r="101">
@@ -11945,10 +11945,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>785.5043370297051</v>
+        <v>775.5626321125513</v>
       </c>
       <c r="C101" t="n">
-        <v>34916.0311420825</v>
+        <v>37491.19539407676</v>
       </c>
       <c r="D101" t="n">
         <v>7536.720215</v>
@@ -11964,10 +11964,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>785.5043370297051</v>
+        <v>775.5626321125513</v>
       </c>
       <c r="C102" t="n">
-        <v>34916.0311420825</v>
+        <v>37491.19539407676</v>
       </c>
       <c r="D102" t="n">
         <v>7632.52002</v>
@@ -11983,16 +11983,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>786.3384648603335</v>
+        <v>776.4403664795354</v>
       </c>
       <c r="C103" t="n">
-        <v>29423.66706185992</v>
+        <v>31709.38877111206</v>
       </c>
       <c r="D103" t="n">
         <v>6455.450195</v>
       </c>
       <c r="E103" t="n">
-        <v>107.6934133376976</v>
+        <v>115.6361324592942</v>
       </c>
     </row>
     <row r="104">
@@ -12002,16 +12002,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>786.6119004616656</v>
+        <v>776.7291498678503</v>
       </c>
       <c r="C104" t="n">
-        <v>27725.11187574108</v>
+        <v>29914.7767900128</v>
       </c>
       <c r="D104" t="n">
         <v>6090.100098</v>
       </c>
       <c r="E104" t="n">
-        <v>33.30500364938914</v>
+        <v>35.89223962198508</v>
       </c>
     </row>
     <row r="105">
@@ -12021,10 +12021,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>786.6119004616656</v>
+        <v>776.7291498678503</v>
       </c>
       <c r="C105" t="n">
-        <v>27725.11187574108</v>
+        <v>29914.7767900128</v>
       </c>
       <c r="D105" t="n">
         <v>6214.220215</v>
@@ -12040,10 +12040,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>786.6119004616656</v>
+        <v>776.7291498678503</v>
       </c>
       <c r="C106" t="n">
-        <v>27725.11187574108</v>
+        <v>29914.7767900128</v>
       </c>
       <c r="D106" t="n">
         <v>6668.709961</v>
@@ -12059,16 +12059,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>786.8922009447704</v>
+        <v>777.0255390725293</v>
       </c>
       <c r="C107" t="n">
-        <v>25938.91106218022</v>
+        <v>28025.29561018421</v>
       </c>
       <c r="D107" t="n">
         <v>6247.5</v>
       </c>
       <c r="E107" t="n">
-        <v>35.02354536393827</v>
+        <v>37.78962359657191</v>
       </c>
     </row>
     <row r="108">
@@ -12078,10 +12078,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>786.8922009447704</v>
+        <v>777.0255390725293</v>
       </c>
       <c r="C108" t="n">
-        <v>25938.91106218022</v>
+        <v>28025.29561018421</v>
       </c>
       <c r="D108" t="n">
         <v>7352.720215</v>
@@ -12097,10 +12097,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>786.8922009447704</v>
+        <v>777.0255390725293</v>
       </c>
       <c r="C109" t="n">
-        <v>25938.91106218022</v>
+        <v>28025.29561018421</v>
       </c>
       <c r="D109" t="n">
         <v>8169.060059</v>
@@ -12116,16 +12116,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>787.2039744545268</v>
+        <v>777.3556529257414</v>
       </c>
       <c r="C110" t="n">
-        <v>23573.34720328393</v>
+        <v>25519.57314439533</v>
       </c>
       <c r="D110" t="n">
         <v>7438.67</v>
       </c>
       <c r="E110" t="n">
-        <v>46.38360507639787</v>
+        <v>50.11444931577749</v>
       </c>
     </row>
     <row r="111">
@@ -12135,16 +12135,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>787.8458343847778</v>
+        <v>778.0366080515155</v>
       </c>
       <c r="C111" t="n">
-        <v>19523.52825057715</v>
+        <v>21221.36354494408</v>
       </c>
       <c r="D111" t="n">
         <v>6185.79</v>
       </c>
       <c r="E111" t="n">
-        <v>79.40821475895659</v>
+        <v>85.96419198902498</v>
       </c>
     </row>
     <row r="112">
@@ -12154,10 +12154,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>787.8458343847778</v>
+        <v>778.0366080515155</v>
       </c>
       <c r="C112" t="n">
-        <v>19523.52825057715</v>
+        <v>21221.36354494408</v>
       </c>
       <c r="D112" t="n">
         <v>6583.43</v>
@@ -12173,10 +12173,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>787.8458343847778</v>
+        <v>778.0366080515155</v>
       </c>
       <c r="C113" t="n">
-        <v>19523.52825057715</v>
+        <v>21221.36354494408</v>
       </c>
       <c r="D113" t="n">
         <v>6719.95</v>
@@ -12192,10 +12192,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>787.8458343847778</v>
+        <v>778.0366080515155</v>
       </c>
       <c r="C114" t="n">
-        <v>19523.52825057715</v>
+        <v>21221.36354494408</v>
       </c>
       <c r="D114" t="n">
         <v>7044.81</v>
@@ -12211,16 +12211,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>788.0966378886994</v>
+        <v>778.3037700327629</v>
       </c>
       <c r="C115" t="n">
-        <v>17870.89031320967</v>
+        <v>19460.22903841855</v>
       </c>
       <c r="D115" t="n">
         <v>6460.17</v>
       </c>
       <c r="E115" t="n">
-        <v>32.40466543857799</v>
+        <v>35.2226901305106</v>
       </c>
     </row>
     <row r="116">
@@ -12230,10 +12230,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>788.0966378886994</v>
+        <v>778.3037700327629</v>
       </c>
       <c r="C116" t="n">
-        <v>17870.89031320967</v>
+        <v>19460.22903841855</v>
       </c>
       <c r="D116" t="n">
         <v>6509.4</v>
@@ -12249,10 +12249,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>788.0966378886994</v>
+        <v>778.3037700327629</v>
       </c>
       <c r="C117" t="n">
-        <v>17870.89031320967</v>
+        <v>19460.22903841855</v>
       </c>
       <c r="D117" t="n">
         <v>6735.05</v>
@@ -12268,16 +12268,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>788.1333649608866</v>
+        <v>778.3429635412936</v>
       </c>
       <c r="C118" t="n">
-        <v>17622.02906769767</v>
+        <v>19194.54904196974</v>
       </c>
       <c r="D118" t="n">
         <v>6643.1</v>
       </c>
       <c r="E118" t="n">
-        <v>4.879632264941243</v>
+        <v>5.313599928976273</v>
       </c>
     </row>
     <row r="119">
@@ -12287,16 +12287,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>788.1416365031141</v>
+        <v>778.3517930099025</v>
       </c>
       <c r="C119" t="n">
-        <v>17566.15563537648</v>
+        <v>19134.88300687819</v>
       </c>
       <c r="D119" t="n">
         <v>6622.45</v>
       </c>
       <c r="E119" t="n">
-        <v>1.095557496494006</v>
+        <v>1.19332070183103</v>
       </c>
     </row>
     <row r="120">
@@ -12306,16 +12306,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>788.2871343288159</v>
+        <v>778.50711454136</v>
       </c>
       <c r="C120" t="n">
-        <v>16634.43970600325</v>
+        <v>18139.86157808996</v>
       </c>
       <c r="D120" t="n">
         <v>6278.08</v>
       </c>
       <c r="E120" t="n">
-        <v>18.26893979163178</v>
+        <v>19.90042857576468</v>
       </c>
     </row>
     <row r="121">
@@ -12325,10 +12325,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>788.2871343288159</v>
+        <v>778.50711454136</v>
       </c>
       <c r="C121" t="n">
-        <v>16634.43970600325</v>
+        <v>18139.86157808996</v>
       </c>
       <c r="D121" t="n">
         <v>6460.92</v>
@@ -12344,10 +12344,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>788.2871343288159</v>
+        <v>778.50711454136</v>
       </c>
       <c r="C122" t="n">
-        <v>16634.43970600325</v>
+        <v>18139.86157808996</v>
       </c>
       <c r="D122" t="n">
         <v>6480.84</v>
@@ -12363,16 +12363,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>788.3247474602224</v>
+        <v>778.5473113300168</v>
       </c>
       <c r="C123" t="n">
-        <v>16389.39072660991</v>
+        <v>17877.87531647738</v>
       </c>
       <c r="D123" t="n">
         <v>6387.24</v>
       </c>
       <c r="E123" t="n">
-        <v>4.804881948889066</v>
+        <v>5.239725232251457</v>
       </c>
     </row>
     <row r="124">
@@ -12382,16 +12382,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>788.3251934601598</v>
+        <v>778.5477881055588</v>
       </c>
       <c r="C124" t="n">
-        <v>16386.48554875834</v>
+        <v>17874.76842811852</v>
       </c>
       <c r="D124" t="n">
         <v>6386.13</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0569642715994127</v>
+        <v>0.06213776717732243</v>
       </c>
     </row>
     <row r="125">
@@ -12401,16 +12401,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>788.6966378644775</v>
+        <v>778.9448648940817</v>
       </c>
       <c r="C125" t="n">
-        <v>14272.9105772188</v>
+        <v>15614.43717207971</v>
       </c>
       <c r="D125" t="n">
         <v>5578.58</v>
       </c>
       <c r="E125" t="n">
-        <v>41.44264650077528</v>
+        <v>45.20662512077615</v>
       </c>
     </row>
     <row r="126">
@@ -12420,16 +12420,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>789.4209896790678</v>
+        <v>779.7214506452112</v>
       </c>
       <c r="C126" t="n">
-        <v>11060.66829362679</v>
+        <v>12169.17788194832</v>
       </c>
       <c r="D126" t="n">
         <v>4347.69</v>
       </c>
       <c r="E126" t="n">
-        <v>62.9851428155296</v>
+        <v>68.90518580262791</v>
       </c>
     </row>
     <row r="127">
@@ -12439,16 +12439,16 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>789.6253142931996</v>
+        <v>779.9417568020223</v>
       </c>
       <c r="C127" t="n">
-        <v>10221.92524822614</v>
+        <v>11264.46946319501</v>
       </c>
       <c r="D127" t="n">
         <v>4024.464242</v>
       </c>
       <c r="E127" t="n">
-        <v>16.44594206667946</v>
+        <v>18.09416837506618</v>
       </c>
     </row>
     <row r="128">
@@ -12458,16 +12458,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>790.0725658393169</v>
+        <v>780.4247666300182</v>
       </c>
       <c r="C128" t="n">
-        <v>8660.861434985005</v>
+        <v>9577.922161507749</v>
       </c>
       <c r="D128" t="n">
         <v>3421.910404</v>
       </c>
       <c r="E128" t="n">
-        <v>30.60909437727717</v>
+        <v>33.73094603374512</v>
       </c>
     </row>
     <row r="129">
@@ -12477,16 +12477,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>790.2113753716028</v>
+        <v>780.5752039470657</v>
       </c>
       <c r="C129" t="n">
-        <v>8201.557698095743</v>
+        <v>9079.944318215592</v>
       </c>
       <c r="D129" t="n">
         <v>3243.99754</v>
       </c>
       <c r="E129" t="n">
-        <v>9.005955625279633</v>
+        <v>9.959556865843163</v>
       </c>
     </row>
     <row r="130">
@@ -12496,10 +12496,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>790.2113753716028</v>
+        <v>780.5752039470657</v>
       </c>
       <c r="C130" t="n">
-        <v>8201.557698095743</v>
+        <v>9079.944318215592</v>
       </c>
       <c r="D130" t="n">
         <v>3898.083677</v>
@@ -12515,10 +12515,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>790.2113753716028</v>
+        <v>780.5752039470657</v>
       </c>
       <c r="C131" t="n">
-        <v>8201.557698095743</v>
+        <v>9079.944318215592</v>
       </c>
       <c r="D131" t="n">
         <v>3932.491809</v>
@@ -12534,16 +12534,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>790.2549704348528</v>
+        <v>780.6225027586088</v>
       </c>
       <c r="C132" t="n">
-        <v>8030.272108481406</v>
+        <v>8894.032286950947</v>
       </c>
       <c r="D132" t="n">
         <v>3851.973965</v>
       </c>
       <c r="E132" t="n">
-        <v>3.358540972830145</v>
+        <v>3.718240625292903</v>
       </c>
     </row>
     <row r="133">
@@ -12553,16 +12553,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>790.3482664680932</v>
+        <v>780.7237673686072</v>
       </c>
       <c r="C133" t="n">
-        <v>7679.412544574894</v>
+        <v>8513.052804560564</v>
       </c>
       <c r="D133" t="n">
         <v>3686.973097</v>
       </c>
       <c r="E133" t="n">
-        <v>6.879599292284535</v>
+        <v>7.619589647807665</v>
       </c>
     </row>
     <row r="134">
@@ -12572,16 +12572,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>790.3679951902076</v>
+        <v>780.7452003387866</v>
       </c>
       <c r="C134" t="n">
-        <v>7605.914662264371</v>
+        <v>8433.173921681477</v>
       </c>
       <c r="D134" t="n">
         <v>3652.377835</v>
       </c>
       <c r="E134" t="n">
-        <v>1.441134947265156</v>
+        <v>1.597577657581752</v>
       </c>
     </row>
     <row r="135">
@@ -12591,16 +12591,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>790.3984607266381</v>
+        <v>780.7783038845361</v>
       </c>
       <c r="C135" t="n">
-        <v>7494.054057542843</v>
+        <v>8311.578674534305</v>
       </c>
       <c r="D135" t="n">
         <v>3599.715363</v>
       </c>
       <c r="E135" t="n">
-        <v>2.193345190618192</v>
+        <v>2.431904942943456</v>
       </c>
     </row>
     <row r="136">
@@ -12610,16 +12610,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>790.4672195033165</v>
+        <v>780.8530383470832</v>
       </c>
       <c r="C136" t="n">
-        <v>7249.663472598199</v>
+        <v>8045.842304820682</v>
       </c>
       <c r="D136" t="n">
         <v>3484.62588</v>
       </c>
       <c r="E136" t="n">
-        <v>4.791972253816537</v>
+        <v>5.314727394272458</v>
       </c>
     </row>
     <row r="137">
@@ -12629,10 +12629,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>790.4672195033165</v>
+        <v>780.8530383470832</v>
       </c>
       <c r="C137" t="n">
-        <v>7249.663472598199</v>
+        <v>8045.842304820682</v>
       </c>
       <c r="D137" t="n">
         <v>3671.585957</v>
@@ -12648,16 +12648,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>790.4979771275812</v>
+        <v>780.886491151552</v>
       </c>
       <c r="C138" t="n">
-        <v>7136.242405620928</v>
+        <v>7922.433193244988</v>
       </c>
       <c r="D138" t="n">
         <v>3615.270267</v>
       </c>
       <c r="E138" t="n">
-        <v>2.22394248975042</v>
+        <v>2.468182231513891</v>
       </c>
     </row>
     <row r="139">
@@ -12667,10 +12667,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>790.4979771275812</v>
+        <v>780.886491151552</v>
       </c>
       <c r="C139" t="n">
-        <v>7136.242405620928</v>
+        <v>7922.433193244988</v>
       </c>
       <c r="D139" t="n">
         <v>3998.916273</v>
@@ -12686,16 +12686,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>790.5644455845654</v>
+        <v>780.9588065302044</v>
       </c>
       <c r="C140" t="n">
-        <v>6874.86021115333</v>
+        <v>7637.94462482737</v>
       </c>
       <c r="D140" t="n">
         <v>3855.318222</v>
       </c>
       <c r="E140" t="n">
-        <v>5.12514106799213</v>
+        <v>5.68977136835236</v>
       </c>
     </row>
     <row r="141">
@@ -12705,10 +12705,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>790.5644455845654</v>
+        <v>780.9588065302044</v>
       </c>
       <c r="C141" t="n">
-        <v>6874.86021115333</v>
+        <v>7637.94462482737</v>
       </c>
       <c r="D141" t="n">
         <v>3894.552526</v>
@@ -12724,10 +12724,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>790.5644455845654</v>
+        <v>780.9588065302044</v>
       </c>
       <c r="C142" t="n">
-        <v>6874.86021115333</v>
+        <v>7637.94462482737</v>
       </c>
       <c r="D142" t="n">
         <v>3963.90012</v>
@@ -12743,10 +12743,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>790.5644455845654</v>
+        <v>780.9588065302044</v>
       </c>
       <c r="C143" t="n">
-        <v>6874.86021115333</v>
+        <v>7637.94462482737</v>
       </c>
       <c r="D143" t="n">
         <v>4022.713307</v>
@@ -12762,10 +12762,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>790.5644455845654</v>
+        <v>780.9588065302044</v>
       </c>
       <c r="C144" t="n">
-        <v>6874.86021115333</v>
+        <v>7637.94462482737</v>
       </c>
       <c r="D144" t="n">
         <v>4092.136164</v>
@@ -12781,10 +12781,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>790.5644455845654</v>
+        <v>780.9588065302044</v>
       </c>
       <c r="C145" t="n">
-        <v>6874.86021115333</v>
+        <v>7637.94462482737</v>
       </c>
       <c r="D145" t="n">
         <v>5036.793024</v>
@@ -12800,10 +12800,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>790.5644455845654</v>
+        <v>780.9588065302044</v>
       </c>
       <c r="C146" t="n">
-        <v>6874.86021115333</v>
+        <v>7637.94462482737</v>
       </c>
       <c r="D146" t="n">
         <v>5088.849973</v>
@@ -12819,10 +12819,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>790.5644455845654</v>
+        <v>780.9588065302044</v>
       </c>
       <c r="C147" t="n">
-        <v>6874.86021115333</v>
+        <v>7637.94462482737</v>
       </c>
       <c r="D147" t="n">
         <v>5304.16054</v>
@@ -12838,16 +12838,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>790.5705069056725</v>
+        <v>780.9654059537382</v>
       </c>
       <c r="C148" t="n">
-        <v>6842.219629888707</v>
+        <v>7602.392108397631</v>
       </c>
       <c r="D148" t="n">
         <v>5279.471142</v>
       </c>
       <c r="E148" t="n">
-        <v>0.6400113973455462</v>
+        <v>0.7110503285947677</v>
       </c>
     </row>
     <row r="149">
@@ -12857,10 +12857,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>790.5705069056725</v>
+        <v>780.9654059537382</v>
       </c>
       <c r="C149" t="n">
-        <v>6842.219629888707</v>
+        <v>7602.392108397631</v>
       </c>
       <c r="D149" t="n">
         <v>5769.202533</v>
@@ -12876,10 +12876,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>790.5705069056725</v>
+        <v>780.9654059537382</v>
       </c>
       <c r="C150" t="n">
-        <v>6842.219629888707</v>
+        <v>7602.392108397631</v>
       </c>
       <c r="D150" t="n">
         <v>6379.666905</v>
@@ -12895,10 +12895,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>790.5705069056725</v>
+        <v>780.9654059537382</v>
       </c>
       <c r="C151" t="n">
-        <v>6842.219629888707</v>
+        <v>7602.392108397631</v>
       </c>
       <c r="D151" t="n">
         <v>7341.664419</v>
@@ -12914,10 +12914,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>790.5705069056725</v>
+        <v>780.9654059537382</v>
       </c>
       <c r="C152" t="n">
-        <v>6842.219629888707</v>
+        <v>7602.392108397631</v>
       </c>
       <c r="D152" t="n">
         <v>7991.885039</v>
@@ -12933,10 +12933,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>790.5705069056725</v>
+        <v>780.9654059537382</v>
       </c>
       <c r="C153" t="n">
-        <v>6842.219629888707</v>
+        <v>7602.392108397631</v>
       </c>
       <c r="D153" t="n">
         <v>8573.839725</v>
@@ -12952,16 +12952,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>790.6238362843069</v>
+        <v>781.0234751552288</v>
       </c>
       <c r="C154" t="n">
-        <v>6405.051492056017</v>
+        <v>7126.178737894972</v>
       </c>
       <c r="D154" t="n">
         <v>8036.774936</v>
       </c>
       <c r="E154" t="n">
-        <v>8.571924271229218</v>
+        <v>9.524267410053175</v>
       </c>
     </row>
     <row r="155">
@@ -12971,10 +12971,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>790.6238362843069</v>
+        <v>781.0234751552288</v>
       </c>
       <c r="C155" t="n">
-        <v>6405.051492056017</v>
+        <v>7126.178737894972</v>
       </c>
       <c r="D155" t="n">
         <v>8689.746413999999</v>
@@ -12990,10 +12990,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>790.6238362843069</v>
+        <v>781.0234751552288</v>
       </c>
       <c r="C156" t="n">
-        <v>6405.051492056017</v>
+        <v>7126.178737894972</v>
       </c>
       <c r="D156" t="n">
         <v>10175.92396</v>
@@ -13009,10 +13009,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>790.6238362843069</v>
+        <v>781.0234751552288</v>
       </c>
       <c r="C157" t="n">
-        <v>6405.051492056017</v>
+        <v>7126.178737894972</v>
       </c>
       <c r="D157" t="n">
         <v>12400.76369</v>
@@ -13028,16 +13028,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>790.6905345872218</v>
+        <v>781.0961986841655</v>
       </c>
       <c r="C158" t="n">
-        <v>5657.884110761342</v>
+        <v>6311.189605407271</v>
       </c>
       <c r="D158" t="n">
         <v>10982.54391</v>
       </c>
       <c r="E158" t="n">
-        <v>14.65034080969953</v>
+        <v>16.29978264975402</v>
       </c>
     </row>
     <row r="159">
@@ -13047,10 +13047,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>790.6905345872218</v>
+        <v>781.0961986841655</v>
       </c>
       <c r="C159" t="n">
-        <v>5657.884110761342</v>
+        <v>6311.189605407271</v>
       </c>
       <c r="D159" t="n">
         <v>11813.12732</v>
@@ -13066,16 +13066,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>790.7491100652285</v>
+        <v>781.1602309834981</v>
       </c>
       <c r="C160" t="n">
-        <v>5028.998133837285</v>
+        <v>5623.442265684339</v>
       </c>
       <c r="D160" t="n">
         <v>10525.819</v>
       </c>
       <c r="E160" t="n">
-        <v>12.3310975867462</v>
+        <v>13.75494679445865</v>
       </c>
     </row>
     <row r="161">
@@ -13085,16 +13085,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>790.7807961804837</v>
+        <v>781.1949538715006</v>
       </c>
       <c r="C161" t="n">
-        <v>4709.963684797121</v>
+        <v>5273.691901972946</v>
       </c>
       <c r="D161" t="n">
         <v>9871.164991</v>
       </c>
       <c r="E161" t="n">
-        <v>6.255577432160095</v>
+        <v>6.995007274227868</v>
       </c>
     </row>
     <row r="162">
@@ -13104,10 +13104,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>790.7807961804837</v>
+        <v>781.1949538715006</v>
       </c>
       <c r="C162" t="n">
-        <v>4709.963684797121</v>
+        <v>5273.691901972946</v>
       </c>
       <c r="D162" t="n">
         <v>10519.27835</v>
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>790.7807961804837</v>
+        <v>781.1949538715006</v>
       </c>
       <c r="C163" t="n">
-        <v>4709.963684797121</v>
+        <v>5273.691901972946</v>
       </c>
       <c r="D163" t="n">
         <v>11861.5567</v>
@@ -13142,16 +13142,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>790.8384039057865</v>
+        <v>781.2581665216306</v>
       </c>
       <c r="C164" t="n">
-        <v>4101.286393372966</v>
+        <v>4605.526285937041</v>
       </c>
       <c r="D164" t="n">
         <v>10358.72254</v>
       </c>
       <c r="E164" t="n">
-        <v>11.934848851454</v>
+        <v>13.36331232071808</v>
       </c>
     </row>
     <row r="165">
@@ -13161,10 +13161,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>790.8384039057865</v>
+        <v>781.2581665216306</v>
       </c>
       <c r="C165" t="n">
-        <v>4101.286393372966</v>
+        <v>4605.526285937041</v>
       </c>
       <c r="D165" t="n">
         <v>10407.64423</v>
@@ -13180,16 +13180,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>790.871665950961</v>
+        <v>781.2947709975215</v>
       </c>
       <c r="C166" t="n">
-        <v>3775.667926876304</v>
+        <v>4247.043733554071</v>
       </c>
       <c r="D166" t="n">
         <v>9597.539448</v>
       </c>
       <c r="E166" t="n">
-        <v>6.384675813660041</v>
+        <v>7.169651047659414</v>
       </c>
     </row>
     <row r="167">
@@ -13199,10 +13199,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>790.871665950961</v>
+        <v>781.2947709975215</v>
       </c>
       <c r="C167" t="n">
-        <v>3775.667926876304</v>
+        <v>4247.043733554071</v>
       </c>
       <c r="D167" t="n">
         <v>10353.93158</v>
@@ -13218,16 +13218,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>790.8719665441113</v>
+        <v>781.2951023560081</v>
       </c>
       <c r="C168" t="n">
-        <v>3772.495974218936</v>
+        <v>4243.545736275256</v>
       </c>
       <c r="D168" t="n">
         <v>10345.40376</v>
       </c>
       <c r="E168" t="n">
-        <v>0.06219515014446067</v>
+        <v>0.06995994557631023</v>
       </c>
     </row>
     <row r="169">
@@ -13237,16 +13237,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>790.8777586626637</v>
+        <v>781.3014873959796</v>
       </c>
       <c r="C169" t="n">
-        <v>3712.331379185261</v>
+        <v>4177.195736097845</v>
       </c>
       <c r="D169" t="n">
         <v>10183.6481</v>
       </c>
       <c r="E169" t="n">
-        <v>1.179697941836777</v>
+        <v>1.327000003548214</v>
       </c>
     </row>
     <row r="170">
@@ -13256,16 +13256,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>790.9631303089171</v>
+        <v>781.3956281823164</v>
       </c>
       <c r="C170" t="n">
-        <v>2993.818070045102</v>
+        <v>3384.561667578852</v>
       </c>
       <c r="D170" t="n">
         <v>8251.273622999999</v>
       </c>
       <c r="E170" t="n">
-        <v>14.08849625765017</v>
+        <v>15.85268137037985</v>
       </c>
     </row>
     <row r="171">
@@ -13275,16 +13275,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>790.964947724848</v>
+        <v>781.3976417091997</v>
       </c>
       <c r="C171" t="n">
-        <v>2978.598389175415</v>
+        <v>3367.69293705563</v>
       </c>
       <c r="D171" t="n">
         <v>8210.149092</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2984251150919042</v>
+        <v>0.3373746104644395</v>
       </c>
     </row>
     <row r="172">
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>790.964947724848</v>
+        <v>781.3976417091997</v>
       </c>
       <c r="C172" t="n">
-        <v>2978.598389175415</v>
+        <v>3367.69293705563</v>
       </c>
       <c r="D172" t="n">
         <v>8315.664653</v>
@@ -13313,16 +13313,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>790.980304458506</v>
+        <v>781.414657238514</v>
       </c>
       <c r="C173" t="n">
-        <v>2853.697776855022</v>
+        <v>3229.245496482766</v>
       </c>
       <c r="D173" t="n">
         <v>7973.803768</v>
       </c>
       <c r="E173" t="n">
-        <v>2.449031614125342</v>
+        <v>2.76894881145729</v>
       </c>
     </row>
     <row r="174">
@@ -13332,10 +13332,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>790.980304458506</v>
+        <v>781.414657238514</v>
       </c>
       <c r="C174" t="n">
-        <v>2853.697776855022</v>
+        <v>3229.245496482766</v>
       </c>
       <c r="D174" t="n">
         <v>8667.577155000001</v>
@@ -13351,10 +13351,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>790.980304458506</v>
+        <v>781.414657238514</v>
       </c>
       <c r="C175" t="n">
-        <v>2853.697776855022</v>
+        <v>3229.245496482766</v>
       </c>
       <c r="D175" t="n">
         <v>9259.783003</v>
@@ -13370,16 +13370,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>790.9960577999866</v>
+        <v>781.4321271960177</v>
       </c>
       <c r="C176" t="n">
-        <v>2712.143628785324</v>
+        <v>3072.203606156703</v>
       </c>
       <c r="D176" t="n">
         <v>8809.469198000001</v>
       </c>
       <c r="E176" t="n">
-        <v>2.775571530778399</v>
+        <v>3.140837806521258</v>
       </c>
     </row>
     <row r="177">
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>791.0075986066499</v>
+        <v>781.4449386833311</v>
       </c>
       <c r="C177" t="n">
-        <v>2612.188821798469</v>
+        <v>2961.199045396075</v>
       </c>
       <c r="D177" t="n">
         <v>8491.166316999999</v>
       </c>
       <c r="E177" t="n">
-        <v>1.959898176212834</v>
+        <v>2.220091215212561</v>
       </c>
     </row>
     <row r="178">
@@ -13408,16 +13408,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>791.0579847594572</v>
+        <v>781.5009144833276</v>
       </c>
       <c r="C178" t="n">
-        <v>2237.210653060683</v>
+        <v>2544.455534583872</v>
       </c>
       <c r="D178" t="n">
         <v>7296.164425</v>
       </c>
       <c r="E178" t="n">
-        <v>7.352513112505602</v>
+        <v>8.334870216244056</v>
       </c>
     </row>
     <row r="179">
@@ -13427,10 +13427,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>791.0579847594572</v>
+        <v>781.5009144833276</v>
       </c>
       <c r="C179" t="n">
-        <v>2237.210653060683</v>
+        <v>2544.455534583872</v>
       </c>
       <c r="D179" t="n">
         <v>7764.057262</v>
@@ -13446,16 +13446,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>791.0662617300753</v>
+        <v>781.5101398890786</v>
       </c>
       <c r="C180" t="n">
-        <v>2173.49278885536</v>
+        <v>2473.407997826659</v>
       </c>
       <c r="D180" t="n">
         <v>7547.265443</v>
       </c>
       <c r="E180" t="n">
-        <v>1.249369886378882</v>
+        <v>1.420950735144269</v>
       </c>
     </row>
     <row r="181">
@@ -13465,16 +13465,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>791.0772900869512</v>
+        <v>781.522439020557</v>
       </c>
       <c r="C181" t="n">
-        <v>2091.725454587656</v>
+        <v>2382.182293582898</v>
       </c>
       <c r="D181" t="n">
         <v>7268.902712</v>
       </c>
       <c r="E181" t="n">
-        <v>1.603281064072639</v>
+        <v>1.824514084875208</v>
       </c>
     </row>
     <row r="182">
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>791.0792153603177</v>
+        <v>781.5245877849045</v>
       </c>
       <c r="C182" t="n">
-        <v>2077.545805800877</v>
+        <v>2366.350299711567</v>
       </c>
       <c r="D182" t="n">
         <v>7220.593553</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2780323291525245</v>
+        <v>0.3166398774266104</v>
       </c>
     </row>
     <row r="183">
@@ -13503,10 +13503,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>791.0792153603177</v>
+        <v>781.5245877849045</v>
       </c>
       <c r="C183" t="n">
-        <v>2077.545805800877</v>
+        <v>2366.350299711567</v>
       </c>
       <c r="D183" t="n">
         <v>7289.03113</v>
@@ -13522,10 +13522,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>791.0792153603177</v>
+        <v>781.5245877849045</v>
       </c>
       <c r="C184" t="n">
-        <v>2077.545805800877</v>
+        <v>2366.350299711567</v>
       </c>
       <c r="D184" t="n">
         <v>7345.375275</v>
@@ -13541,10 +13541,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>791.0792153603177</v>
+        <v>781.5245877849045</v>
       </c>
       <c r="C185" t="n">
-        <v>2077.545805800877</v>
+        <v>2366.350299711567</v>
       </c>
       <c r="D185" t="n">
         <v>8162.191138</v>
@@ -13560,10 +13560,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>791.0792153603177</v>
+        <v>781.5245877849045</v>
       </c>
       <c r="C186" t="n">
-        <v>2077.545805800877</v>
+        <v>2366.350299711567</v>
       </c>
       <c r="D186" t="n">
         <v>8927.21226</v>
@@ -13579,16 +13579,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>791.0926460323354</v>
+        <v>781.5395795319805</v>
       </c>
       <c r="C187" t="n">
-        <v>1961.922198277957</v>
+        <v>2237.235873038256</v>
       </c>
       <c r="D187" t="n">
         <v>8440.119586999999</v>
       </c>
       <c r="E187" t="n">
-        <v>2.267129559272942</v>
+        <v>2.582288533466238</v>
       </c>
     </row>
     <row r="188">
@@ -13598,10 +13598,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>791.0926460323354</v>
+        <v>781.5395795319805</v>
       </c>
       <c r="C188" t="n">
-        <v>1961.922198277957</v>
+        <v>2237.235873038256</v>
       </c>
       <c r="D188" t="n">
         <v>9346.357628</v>
@@ -13617,10 +13617,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>791.0926460323354</v>
+        <v>781.5395795319805</v>
       </c>
       <c r="C189" t="n">
-        <v>1961.922198277957</v>
+        <v>2237.235873038256</v>
       </c>
       <c r="D189" t="n">
         <v>9793.07042</v>
@@ -13636,10 +13636,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>791.0926460323354</v>
+        <v>781.5395795319805</v>
       </c>
       <c r="C190" t="n">
-        <v>1961.922198277957</v>
+        <v>2237.235873038256</v>
       </c>
       <c r="D190" t="n">
         <v>10313.85684</v>
@@ -13655,16 +13655,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>791.1049407380506</v>
+        <v>781.5533191357041</v>
       </c>
       <c r="C191" t="n">
-        <v>1840.432544536202</v>
+        <v>2101.414187454167</v>
       </c>
       <c r="D191" t="n">
         <v>9687.706759999999</v>
       </c>
       <c r="E191" t="n">
-        <v>2.382150073367745</v>
+        <v>2.716433711681762</v>
       </c>
     </row>
     <row r="192">
@@ -13674,16 +13674,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>791.1272109320865</v>
+        <v>781.5782387796252</v>
       </c>
       <c r="C192" t="n">
-        <v>1643.460766981812</v>
+        <v>1880.920790607138</v>
       </c>
       <c r="D192" t="n">
         <v>8671.212541999999</v>
       </c>
       <c r="E192" t="n">
-        <v>3.862191716752741</v>
+        <v>4.409867936940588</v>
       </c>
     </row>
     <row r="193">
@@ -13693,10 +13693,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>791.1272109320865</v>
+        <v>781.5782387796252</v>
       </c>
       <c r="C193" t="n">
-        <v>1643.460766981812</v>
+        <v>1880.920790607138</v>
       </c>
       <c r="D193" t="n">
         <v>9121.600536</v>
@@ -13712,16 +13712,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>791.2419313731849</v>
+        <v>781.7069090014903</v>
       </c>
       <c r="C194" t="n">
-        <v>991.327922172521</v>
+        <v>1149.197180712077</v>
       </c>
       <c r="D194" t="n">
         <v>5573.07765</v>
       </c>
       <c r="E194" t="n">
-        <v>12.78691852567238</v>
+        <v>14.63447219790122</v>
       </c>
     </row>
     <row r="195">
@@ -13731,10 +13731,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>791.2419313731849</v>
+        <v>781.7069090014903</v>
       </c>
       <c r="C195" t="n">
-        <v>991.327922172521</v>
+        <v>1149.197180712077</v>
       </c>
       <c r="D195" t="n">
         <v>6206.52165</v>
@@ -13750,10 +13750,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>791.2419313731849</v>
+        <v>781.7069090014903</v>
       </c>
       <c r="C196" t="n">
-        <v>991.327922172521</v>
+        <v>1149.197180712077</v>
       </c>
       <c r="D196" t="n">
         <v>6467.254046</v>
@@ -13769,10 +13769,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>791.2419313731849</v>
+        <v>781.7069090014903</v>
       </c>
       <c r="C197" t="n">
-        <v>991.327922172521</v>
+        <v>1149.197180712077</v>
       </c>
       <c r="D197" t="n">
         <v>6738.38302</v>
@@ -13788,10 +13788,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>791.2419313731849</v>
+        <v>781.7069090014903</v>
       </c>
       <c r="C198" t="n">
-        <v>991.327922172521</v>
+        <v>1149.197180712077</v>
       </c>
       <c r="D198" t="n">
         <v>6867.440452</v>
@@ -13807,10 +13807,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>791.2419313731849</v>
+        <v>781.7069090014903</v>
       </c>
       <c r="C199" t="n">
-        <v>991.327922172521</v>
+        <v>1149.197180712077</v>
       </c>
       <c r="D199" t="n">
         <v>7092.291523</v>
@@ -13826,10 +13826,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>791.2419313731849</v>
+        <v>781.7069090014903</v>
       </c>
       <c r="C200" t="n">
-        <v>991.327922172521</v>
+        <v>1149.197180712077</v>
       </c>
       <c r="D200" t="n">
         <v>7550.483012</v>
@@ -13845,10 +13845,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>791.2419313731849</v>
+        <v>781.7069090014903</v>
       </c>
       <c r="C201" t="n">
-        <v>991.327922172521</v>
+        <v>1149.197180712077</v>
       </c>
       <c r="D201" t="n">
         <v>8869.057618999999</v>
@@ -13864,10 +13864,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>791.2419313731849</v>
+        <v>781.7069090014903</v>
       </c>
       <c r="C202" t="n">
-        <v>991.327922172521</v>
+        <v>1149.197180712077</v>
       </c>
       <c r="D202" t="n">
         <v>9840.906384</v>
@@ -13883,16 +13883,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>791.2474107141485</v>
+        <v>781.7131338905364</v>
       </c>
       <c r="C203" t="n">
-        <v>939.1651185418583</v>
+        <v>1089.913116783608</v>
       </c>
       <c r="D203" t="n">
         <v>9333.239873</v>
       </c>
       <c r="E203" t="n">
-        <v>1.022800071189464</v>
+        <v>1.185681278569383</v>
       </c>
     </row>
   </sheetData>

--- a/Results/BITCOIN(07-2016-05-2020)Results.xlsx
+++ b/Results/BITCOIN(07-2016-05-2020)Results.xlsx
@@ -6163,22 +6163,22 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>bitcoin_change</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash_change</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>net_worth</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>percent_changes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>bitcoin_change</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>cash_change</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>net_worth</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       <c r="C2" t="n">
         <v>1000000</v>
       </c>
-      <c r="I2" t="n">
+      <c r="H2" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -6212,16 +6212,16 @@
         <v>78.12211603489249</v>
       </c>
       <c r="F3" t="n">
+        <v>5.76693766721976</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-3906.105801744624</v>
+      </c>
+      <c r="H3" t="n">
+        <v>999921.8778839651</v>
+      </c>
+      <c r="I3" t="n">
         <v>-0.003906105801744624</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.76693766721976</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-3906.105801744624</v>
-      </c>
-      <c r="I3" t="n">
-        <v>999921.8778839651</v>
       </c>
     </row>
     <row r="4">
@@ -6243,16 +6243,16 @@
         <v>391.8159272918946</v>
       </c>
       <c r="F4" t="n">
+        <v>29.50393875125759</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19590.79636459473</v>
+      </c>
+      <c r="H4" t="n">
+        <v>999454.7746275263</v>
+      </c>
+      <c r="I4" t="n">
         <v>-0.01966762016984668</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29.50393875125759</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-19590.79636459473</v>
-      </c>
-      <c r="I4" t="n">
-        <v>999454.7746275263</v>
       </c>
     </row>
     <row r="5">
@@ -6274,16 +6274,16 @@
         <v>188.6603208431735</v>
       </c>
       <c r="F5" t="n">
+        <v>-14.07029914984103</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9433.016042158675</v>
+      </c>
+      <c r="H5" t="n">
+        <v>999865.1480549345</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.009659996023653692</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-14.07029914984103</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9433.016042158675</v>
-      </c>
-      <c r="I5" t="n">
-        <v>999865.1480549345</v>
       </c>
     </row>
     <row r="6">
@@ -6305,16 +6305,16 @@
         <v>2460.503193957221</v>
       </c>
       <c r="F6" t="n">
+        <v>209.6667136682767</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-123025.1596978611</v>
+      </c>
+      <c r="H6" t="n">
+        <v>995666.579249823</v>
+      </c>
+      <c r="I6" t="n">
         <v>-0.124780052141752</v>
-      </c>
-      <c r="G6" t="n">
-        <v>209.6667136682767</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-123025.1596978611</v>
-      </c>
-      <c r="I6" t="n">
-        <v>995666.579249823</v>
       </c>
     </row>
     <row r="7">
@@ -6336,16 +6336,16 @@
         <v>369.9658399437112</v>
       </c>
       <c r="F7" t="n">
+        <v>-30.86423814461858</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18498.29199718556</v>
+      </c>
+      <c r="H7" t="n">
+        <v>998882.438174051</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.02143708097298143</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-30.86423814461858</v>
-      </c>
-      <c r="H7" t="n">
-        <v>18498.29199718556</v>
-      </c>
-      <c r="I7" t="n">
-        <v>998882.438174051</v>
       </c>
     </row>
     <row r="8">
@@ -6367,16 +6367,16 @@
         <v>338.3337736285382</v>
       </c>
       <c r="F8" t="n">
+        <v>28.77767019519727</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-16916.68868142691</v>
+      </c>
+      <c r="H8" t="n">
+        <v>996289.4679462638</v>
+      </c>
+      <c r="I8" t="n">
         <v>-0.01919277424741856</v>
-      </c>
-      <c r="G8" t="n">
-        <v>28.77767019519727</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-16916.68868142691</v>
-      </c>
-      <c r="I8" t="n">
-        <v>996289.4679462638</v>
       </c>
     </row>
     <row r="9">
@@ -6398,16 +6398,16 @@
         <v>101.0841238837365</v>
       </c>
       <c r="F9" t="n">
+        <v>-8.547941580385311</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5054.206194186823</v>
+      </c>
+      <c r="H9" t="n">
+        <v>997161.0951539598</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.005846442691004377</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-8.547941580385311</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5054.206194186823</v>
-      </c>
-      <c r="I9" t="n">
-        <v>997161.0951539598</v>
       </c>
     </row>
     <row r="10">
@@ -6429,16 +6429,16 @@
         <v>116.9606071747014</v>
       </c>
       <c r="F10" t="n">
+        <v>9.957466835054644</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-5848.030358735068</v>
+      </c>
+      <c r="H10" t="n">
+        <v>996185.8799757968</v>
+      </c>
+      <c r="I10" t="n">
         <v>-0.006725377636888121</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9.957466835054644</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-5848.030358735068</v>
-      </c>
-      <c r="I10" t="n">
-        <v>996185.8799757968</v>
       </c>
     </row>
     <row r="11">
@@ -6460,16 +6460,16 @@
         <v>1421.763165869854</v>
       </c>
       <c r="F11" t="n">
+        <v>-111.8371733829943</v>
+      </c>
+      <c r="G11" t="n">
+        <v>71088.15829349271</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1008512.217722164</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.08230666035537643</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-111.8371733829943</v>
-      </c>
-      <c r="H11" t="n">
-        <v>71088.15829349271</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1008512.217722164</v>
       </c>
     </row>
     <row r="12">
@@ -6491,16 +6491,16 @@
         <v>471.4694547090718</v>
       </c>
       <c r="F12" t="n">
+        <v>38.04564853337862</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-23573.47273545359</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1006181.5416608</v>
+      </c>
+      <c r="I12" t="n">
         <v>-0.02521801808167558</v>
-      </c>
-      <c r="G12" t="n">
-        <v>38.04564853337862</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-23573.47273545359</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1006181.5416608</v>
       </c>
     </row>
     <row r="13">
@@ -6522,16 +6522,16 @@
         <v>127.7647505820397</v>
       </c>
       <c r="F13" t="n">
+        <v>10.38288180179857</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-6388.237529101983</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1005387.98455752</v>
+      </c>
+      <c r="I13" t="n">
         <v>-0.007010692991004707</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10.38288180179857</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-6388.237529101983</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1005387.98455752</v>
       </c>
     </row>
     <row r="14">
@@ -6553,16 +6553,16 @@
         <v>209.1292075046715</v>
       </c>
       <c r="F14" t="n">
+        <v>-16.80085861999525</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10456.46037523358</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1006759.250925375</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.01155633219616949</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-16.80085861999525</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10456.46037523358</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1006759.250925375</v>
       </c>
     </row>
     <row r="15">
@@ -6584,16 +6584,16 @@
         <v>222.4539487505988</v>
       </c>
       <c r="F15" t="n">
+        <v>-17.65676251657731</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11122.69743752994</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1008093.360262979</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.01215221296962324</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-17.65676251657731</v>
-      </c>
-      <c r="H15" t="n">
-        <v>11122.69743752994</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1008093.360262979</v>
       </c>
     </row>
     <row r="16">
@@ -6615,16 +6615,16 @@
         <v>689.3914517231533</v>
       </c>
       <c r="F16" t="n">
+        <v>-52.75589908780624</v>
+      </c>
+      <c r="G16" t="n">
+        <v>34469.57258615766</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1011822.229751417</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.0372079135736863</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-52.75589908780624</v>
-      </c>
-      <c r="H16" t="n">
-        <v>34469.57258615766</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1011822.229751417</v>
       </c>
     </row>
     <row r="17">
@@ -6646,16 +6646,16 @@
         <v>215.3409475414733</v>
       </c>
       <c r="F17" t="n">
+        <v>16.66578216663308</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-10767.04737707366</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1011035.988764946</v>
+      </c>
+      <c r="I17" t="n">
         <v>-0.01120547373108022</v>
-      </c>
-      <c r="G17" t="n">
-        <v>16.66578216663308</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-10767.04737707366</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1011035.988764946</v>
       </c>
     </row>
     <row r="18">
@@ -6677,16 +6677,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1016536.044436159</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.09026973104782439</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1016536.044436159</v>
       </c>
     </row>
     <row r="19">
@@ -6708,16 +6708,16 @@
         <v>364.3585856663898</v>
       </c>
       <c r="F19" t="n">
+        <v>-25.37730724344808</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18217.92928331949</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1018174.156691001</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.01917461073729706</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-25.37730724344808</v>
-      </c>
-      <c r="H19" t="n">
-        <v>18217.92928331949</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1018174.156691001</v>
       </c>
     </row>
     <row r="20">
@@ -6739,16 +6739,16 @@
         <v>364.1099242999769</v>
       </c>
       <c r="F20" t="n">
+        <v>-24.89199323787386</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18205.49621499885</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1019475.485610271</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.0188010224814399</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-24.89199323787386</v>
-      </c>
-      <c r="H20" t="n">
-        <v>18205.49621499885</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1019475.485610271</v>
       </c>
     </row>
     <row r="21">
@@ -6770,16 +6770,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1021087.968278932</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.04894439486041148</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1021087.968278932</v>
       </c>
     </row>
     <row r="22">
@@ -6801,16 +6801,16 @@
         <v>270.8842723551611</v>
       </c>
       <c r="F22" t="n">
+        <v>17.90038123593327</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-13544.21361775805</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1020342.636761323</v>
+      </c>
+      <c r="I22" t="n">
         <v>-0.01372914116953194</v>
-      </c>
-      <c r="G22" t="n">
-        <v>17.90038123593327</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-13544.21361775805</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1020342.636761323</v>
       </c>
     </row>
     <row r="23">
@@ -6832,16 +6832,16 @@
         <v>964.1013999117731</v>
       </c>
       <c r="F23" t="n">
+        <v>-60.70169079476065</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>975447.8747243925</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.04954343250301756</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-60.70169079476065</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>975447.8747243925</v>
       </c>
     </row>
     <row r="24">
@@ -6863,16 +6863,16 @@
         <v>130.6480325824787</v>
       </c>
       <c r="F24" t="n">
+        <v>8.281452830307112</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-6532.401629123937</v>
+      </c>
+      <c r="H24" t="n">
+        <v>975300.6987509809</v>
+      </c>
+      <c r="I24" t="n">
         <v>-0.006713766813837641</v>
-      </c>
-      <c r="G24" t="n">
-        <v>8.281452830307112</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-6532.401629123937</v>
-      </c>
-      <c r="I24" t="n">
-        <v>975300.6987509809</v>
       </c>
     </row>
     <row r="25">
@@ -6894,16 +6894,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>975439.6719242784</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.01570846551551873</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>975439.6719242784</v>
       </c>
     </row>
     <row r="26">
@@ -6925,16 +6925,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>977007.7571480991</v>
+      </c>
+      <c r="I26" t="n">
         <v>0.1745031934364836</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>977007.7571480991</v>
       </c>
     </row>
     <row r="27">
@@ -6956,16 +6956,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>977447.7721567143</v>
+      </c>
+      <c r="I27" t="n">
         <v>0.04169145048076037</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>977447.7721567143</v>
       </c>
     </row>
     <row r="28">
@@ -6987,16 +6987,16 @@
         <v>1149.731922150781</v>
       </c>
       <c r="F28" t="n">
+        <v>62.35492510303493</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-57486.59610753904</v>
+      </c>
+      <c r="H28" t="n">
+        <v>975644.0893411115</v>
+      </c>
+      <c r="I28" t="n">
         <v>-0.05948199858566911</v>
-      </c>
-      <c r="G28" t="n">
-        <v>62.35492510303493</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-57486.59610753904</v>
-      </c>
-      <c r="I28" t="n">
-        <v>975644.0893411115</v>
       </c>
     </row>
     <row r="29">
@@ -7018,16 +7018,16 @@
         <v>1576.40340533125</v>
       </c>
       <c r="F29" t="n">
+        <v>93.61269231863812</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-78820.17026656249</v>
+      </c>
+      <c r="H29" t="n">
+        <v>968285.8556917006</v>
+      </c>
+      <c r="I29" t="n">
         <v>-0.08671399892124289</v>
-      </c>
-      <c r="G29" t="n">
-        <v>93.61269231863812</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-78820.17026656249</v>
-      </c>
-      <c r="I29" t="n">
-        <v>968285.8556917006</v>
       </c>
     </row>
     <row r="30">
@@ -7049,16 +7049,16 @@
         <v>1416.680685725974</v>
       </c>
       <c r="F30" t="n">
+        <v>-77.51374043454776</v>
+      </c>
+      <c r="G30" t="n">
+        <v>70834.03428629869</v>
+      </c>
+      <c r="H30" t="n">
+        <v>981489.5331625905</v>
+      </c>
+      <c r="I30" t="n">
         <v>0.08532710726466385</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-77.51374043454776</v>
-      </c>
-      <c r="H30" t="n">
-        <v>70834.03428629869</v>
-      </c>
-      <c r="I30" t="n">
-        <v>981489.5331625905</v>
       </c>
     </row>
     <row r="31">
@@ -7080,16 +7080,16 @@
         <v>488.1824652412614</v>
       </c>
       <c r="F31" t="n">
+        <v>-26.00636594951211</v>
+      </c>
+      <c r="G31" t="n">
+        <v>24409.12326206307</v>
+      </c>
+      <c r="H31" t="n">
+        <v>984158.8318082987</v>
+      </c>
+      <c r="I31" t="n">
         <v>0.02709171982389874</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-26.00636594951211</v>
-      </c>
-      <c r="H31" t="n">
-        <v>24409.12326206307</v>
-      </c>
-      <c r="I31" t="n">
-        <v>984158.8318082987</v>
       </c>
     </row>
     <row r="32">
@@ -7111,16 +7111,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>991284.0272415749</v>
+      </c>
+      <c r="I32" t="n">
         <v>0.1212411952457049</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>991284.0272415749</v>
       </c>
     </row>
     <row r="33">
@@ -7142,16 +7142,16 @@
         <v>761.4653447259083</v>
       </c>
       <c r="F33" t="n">
+        <v>37.73068759664133</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-38073.26723629541</v>
+      </c>
+      <c r="H33" t="n">
+        <v>987811.4906462366</v>
+      </c>
+      <c r="I33" t="n">
         <v>-0.04114293922438924</v>
-      </c>
-      <c r="G33" t="n">
-        <v>37.73068759664133</v>
-      </c>
-      <c r="H33" t="n">
-        <v>-38073.26723629541</v>
-      </c>
-      <c r="I33" t="n">
-        <v>987811.4906462366</v>
       </c>
     </row>
     <row r="34">
@@ -7173,16 +7173,16 @@
         <v>1082.332180936672</v>
       </c>
       <c r="F34" t="n">
+        <v>-50.54686748813371</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>940906.2896314618</v>
+      </c>
+      <c r="I34" t="n">
         <v>0.06098905051058126</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-50.54686748813371</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>940906.2896314618</v>
       </c>
     </row>
     <row r="35">
@@ -7204,16 +7204,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>947096.7095380456</v>
+      </c>
+      <c r="I35" t="n">
         <v>0.1155155569477099</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>947096.7095380456</v>
       </c>
     </row>
     <row r="36">
@@ -7235,16 +7235,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>952562.8684751856</v>
+      </c>
+      <c r="I36" t="n">
         <v>0.09143805751070648</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>952562.8684751856</v>
       </c>
     </row>
     <row r="37">
@@ -7266,16 +7266,16 @@
         <v>2238.176639105797</v>
       </c>
       <c r="F37" t="n">
+        <v>98.24303122877645</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-111908.8319552898</v>
+      </c>
+      <c r="H37" t="n">
+        <v>942095.8253426163</v>
+      </c>
+      <c r="I37" t="n">
         <v>-0.1261204928563547</v>
-      </c>
-      <c r="G37" t="n">
-        <v>98.24303122877645</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-111908.8319552898</v>
-      </c>
-      <c r="I37" t="n">
-        <v>942095.8253426163</v>
       </c>
     </row>
     <row r="38">
@@ -7297,16 +7297,16 @@
         <v>231.0276441451618</v>
       </c>
       <c r="F38" t="n">
+        <v>10.29413304701032</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-11551.38220725809</v>
+      </c>
+      <c r="H38" t="n">
+        <v>939381.6207794992</v>
+      </c>
+      <c r="I38" t="n">
         <v>-0.01489716730368265</v>
-      </c>
-      <c r="G38" t="n">
-        <v>10.29413304701032</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-11551.38220725809</v>
-      </c>
-      <c r="I38" t="n">
-        <v>939381.6207794992</v>
       </c>
     </row>
     <row r="39">
@@ -7328,16 +7328,16 @@
         <v>2266.514748147122</v>
       </c>
       <c r="F39" t="n">
+        <v>118.5846042540311</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-113325.7374073561</v>
+      </c>
+      <c r="H39" t="n">
+        <v>911074.2174844062</v>
+      </c>
+      <c r="I39" t="n">
         <v>-0.1483599666753704</v>
-      </c>
-      <c r="G39" t="n">
-        <v>118.5846042540311</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-113325.7374073561</v>
-      </c>
-      <c r="I39" t="n">
-        <v>911074.2174844062</v>
       </c>
     </row>
     <row r="40">
@@ -7359,16 +7359,16 @@
         <v>1877.810784280078</v>
       </c>
       <c r="F40" t="n">
+        <v>-85.85599815071961</v>
+      </c>
+      <c r="G40" t="n">
+        <v>93890.53921400387</v>
+      </c>
+      <c r="H40" t="n">
+        <v>950556.0214633198</v>
+      </c>
+      <c r="I40" t="n">
         <v>0.1443291115971987</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-85.85599815071961</v>
-      </c>
-      <c r="H40" t="n">
-        <v>93890.53921400387</v>
-      </c>
-      <c r="I40" t="n">
-        <v>950556.0214633198</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>1402.281295450858</v>
       </c>
       <c r="F41" t="n">
+        <v>-58.59530300669831</v>
+      </c>
+      <c r="G41" t="n">
+        <v>70114.0647725429</v>
+      </c>
+      <c r="H41" t="n">
+        <v>971373.2973242671</v>
+      </c>
+      <c r="I41" t="n">
         <v>0.09418598937516082</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-58.59530300669831</v>
-      </c>
-      <c r="H41" t="n">
-        <v>70114.0647725429</v>
-      </c>
-      <c r="I41" t="n">
-        <v>971373.2973242671</v>
       </c>
     </row>
     <row r="42">
@@ -7421,16 +7421,16 @@
         <v>74.32301556647357</v>
       </c>
       <c r="F42" t="n">
+        <v>3.119872877480882</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-3716.150778323678</v>
+      </c>
+      <c r="H42" t="n">
+        <v>970583.4338321812</v>
+      </c>
+      <c r="I42" t="n">
         <v>-0.004562294708996727</v>
-      </c>
-      <c r="G42" t="n">
-        <v>3.119872877480882</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-3716.150778323678</v>
-      </c>
-      <c r="I42" t="n">
-        <v>970583.4338321812</v>
       </c>
     </row>
     <row r="43">
@@ -7452,16 +7452,16 @@
         <v>769.7665413600755</v>
       </c>
       <c r="F43" t="n">
+        <v>-30.8483301271181</v>
+      </c>
+      <c r="G43" t="n">
+        <v>38488.32706800377</v>
+      </c>
+      <c r="H43" t="n">
+        <v>978936.9545183936</v>
+      </c>
+      <c r="I43" t="n">
         <v>0.04746843971048276</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-30.8483301271181</v>
-      </c>
-      <c r="H43" t="n">
-        <v>38488.32706800377</v>
-      </c>
-      <c r="I43" t="n">
-        <v>978936.9545183936</v>
       </c>
     </row>
     <row r="44">
@@ -7483,16 +7483,16 @@
         <v>1321.566706845096</v>
       </c>
       <c r="F44" t="n">
+        <v>-49.13856788845462</v>
+      </c>
+      <c r="G44" t="n">
+        <v>66078.33534225482</v>
+      </c>
+      <c r="H44" t="n">
+        <v>990344.0189655703</v>
+      </c>
+      <c r="I44" t="n">
         <v>0.07780259262973321</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-49.13856788845462</v>
-      </c>
-      <c r="H44" t="n">
-        <v>66078.33534225482</v>
-      </c>
-      <c r="I44" t="n">
-        <v>990344.0189655703</v>
       </c>
     </row>
     <row r="45">
@@ -7514,16 +7514,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1003936.51438128</v>
+      </c>
+      <c r="I45" t="n">
         <v>0.1813346833950852</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1003936.51438128</v>
       </c>
     </row>
     <row r="46">
@@ -7545,16 +7545,16 @@
         <v>1955.765637281084</v>
       </c>
       <c r="F46" t="n">
+        <v>-55.61569507918866</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>917563.621383038</v>
+      </c>
+      <c r="I46" t="n">
         <v>0.1068273775844097</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-55.61569507918866</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>917563.621383038</v>
       </c>
     </row>
     <row r="47">
@@ -7576,16 +7576,16 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>917893.6217588134</v>
+      </c>
+      <c r="I47" t="n">
         <v>0.1515390662041502</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>917893.6217588134</v>
       </c>
     </row>
     <row r="48">
@@ -7607,16 +7607,16 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>918161.5828147091</v>
+      </c>
+      <c r="I48" t="n">
         <v>0.1068570490810438</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>918161.5828147091</v>
       </c>
     </row>
     <row r="49">
@@ -7638,16 +7638,16 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>918537.4965612009</v>
+      </c>
+      <c r="I49" t="n">
         <v>0.1354341443863082</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>918537.4965612009</v>
       </c>
     </row>
     <row r="50">
@@ -7669,16 +7669,16 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>918960.1325218319</v>
+      </c>
+      <c r="I50" t="n">
         <v>0.1341048417180118</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>918960.1325218319</v>
       </c>
     </row>
     <row r="51">
@@ -7700,16 +7700,16 @@
         <v>2033.492657479468</v>
       </c>
       <c r="F51" t="n">
+        <v>39.63434505835319</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-101674.6328739734</v>
+      </c>
+      <c r="H51" t="n">
+        <v>916529.6462161551</v>
+      </c>
+      <c r="I51" t="n">
         <v>-0.1110729648761403</v>
-      </c>
-      <c r="G51" t="n">
-        <v>39.63434505835319</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-101674.6328739734</v>
-      </c>
-      <c r="I51" t="n">
-        <v>916529.6462161551</v>
       </c>
     </row>
     <row r="52">
@@ -7731,16 +7731,16 @@
         <v>1453.346152571043</v>
       </c>
       <c r="F52" t="n">
+        <v>-26.00454294870596</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>854497.7250532737</v>
+      </c>
+      <c r="I52" t="n">
         <v>0.08930354656781973</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-26.00454294870596</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>854497.7250532737</v>
       </c>
     </row>
     <row r="53">
@@ -7762,16 +7762,16 @@
         <v>1461.430446224386</v>
       </c>
       <c r="F53" t="n">
+        <v>28.72907367790487</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-73071.52231121928</v>
+      </c>
+      <c r="H53" t="n">
+        <v>849373.6640329161</v>
+      </c>
+      <c r="I53" t="n">
         <v>-0.08980030096694347</v>
-      </c>
-      <c r="G53" t="n">
-        <v>28.72907367790487</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-73071.52231121928</v>
-      </c>
-      <c r="I53" t="n">
-        <v>849373.6640329161</v>
       </c>
     </row>
     <row r="54">
@@ -7793,16 +7793,16 @@
         <v>164.4342846508141</v>
       </c>
       <c r="F54" t="n">
+        <v>-3.196990752558288</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8221.714232540706</v>
+      </c>
+      <c r="H54" t="n">
+        <v>850745.1340283094</v>
+      </c>
+      <c r="I54" t="n">
         <v>0.01110082681221175</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-3.196990752558288</v>
-      </c>
-      <c r="H54" t="n">
-        <v>8221.714232540706</v>
-      </c>
-      <c r="I54" t="n">
-        <v>850745.1340283094</v>
       </c>
     </row>
     <row r="55">
@@ -7824,16 +7824,16 @@
         <v>1724.27633664121</v>
       </c>
       <c r="F55" t="n">
+        <v>37.88564564364194</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-86213.8168320605</v>
+      </c>
+      <c r="H55" t="n">
+        <v>837291.3525157019</v>
+      </c>
+      <c r="I55" t="n">
         <v>-0.1151265144994265</v>
-      </c>
-      <c r="G55" t="n">
-        <v>37.88564564364194</v>
-      </c>
-      <c r="H55" t="n">
-        <v>-86213.8168320605</v>
-      </c>
-      <c r="I55" t="n">
-        <v>837291.3525157019</v>
       </c>
     </row>
     <row r="56">
@@ -7855,16 +7855,16 @@
         <v>2605.93577692795</v>
       </c>
       <c r="F56" t="n">
+        <v>-47.84884328954716</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>743940.7775751309</v>
+      </c>
+      <c r="I56" t="n">
         <v>0.1966305593395085</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-47.84884328954716</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>743940.7775751309</v>
       </c>
     </row>
     <row r="57">
@@ -7886,16 +7886,16 @@
         <v>687.2733250780641</v>
       </c>
       <c r="F57" t="n">
+        <v>-11.99720439786003</v>
+      </c>
+      <c r="G57" t="n">
+        <v>34363.6662539032</v>
+      </c>
+      <c r="H57" t="n">
+        <v>748843.7570742165</v>
+      </c>
+      <c r="I57" t="n">
         <v>0.05185812310713747</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-11.99720439786003</v>
-      </c>
-      <c r="H57" t="n">
-        <v>34363.6662539032</v>
-      </c>
-      <c r="I57" t="n">
-        <v>748843.7570742165</v>
       </c>
     </row>
     <row r="58">
@@ -7917,16 +7917,16 @@
         <v>449.9868500663309</v>
       </c>
       <c r="F58" t="n">
+        <v>-7.609445147777768</v>
+      </c>
+      <c r="G58" t="n">
+        <v>22499.34250331654</v>
+      </c>
+      <c r="H58" t="n">
+        <v>750966.8796197147</v>
+      </c>
+      <c r="I58" t="n">
         <v>0.03227973521898862</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-7.609445147777768</v>
-      </c>
-      <c r="H58" t="n">
-        <v>22499.34250331654</v>
-      </c>
-      <c r="I58" t="n">
-        <v>750966.8796197147</v>
       </c>
     </row>
     <row r="59">
@@ -7948,16 +7948,16 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>759141.3166515141</v>
+      </c>
+      <c r="I59" t="n">
         <v>0.2598675574191682</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>759141.3166515141</v>
       </c>
     </row>
     <row r="60">
@@ -7979,16 +7979,16 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>764429.407917569</v>
+      </c>
+      <c r="I60" t="n">
         <v>0.1334345394115101</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>764429.407917569</v>
       </c>
     </row>
     <row r="61">
@@ -8010,16 +8010,16 @@
         <v>814.8805401607552</v>
       </c>
       <c r="F61" t="n">
+        <v>-9.132799167678817</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>727043.8906969866</v>
+      </c>
+      <c r="I61" t="n">
         <v>0.05662740837411646</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-9.132799167678817</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>727043.8906969866</v>
       </c>
     </row>
     <row r="62">
@@ -8041,16 +8041,16 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>727955.9919827105</v>
+      </c>
+      <c r="I62" t="n">
         <v>0.1210779028321668</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>727955.9919827105</v>
       </c>
     </row>
     <row r="63">
@@ -8072,16 +8072,16 @@
         <v>1971.797966595473</v>
       </c>
       <c r="F63" t="n">
+        <v>22.84218416796246</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-98589.89832977366</v>
+      </c>
+      <c r="H63" t="n">
+        <v>724826.99215333</v>
+      </c>
+      <c r="I63" t="n">
         <v>-0.1370235306682217</v>
-      </c>
-      <c r="G63" t="n">
-        <v>22.84218416796246</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-98589.89832977366</v>
-      </c>
-      <c r="I63" t="n">
-        <v>724826.99215333</v>
       </c>
     </row>
     <row r="64">
@@ -8103,16 +8103,16 @@
         <v>1738.245497503358</v>
       </c>
       <c r="F64" t="n">
+        <v>23.41393151746671</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-86912.2748751679</v>
+      </c>
+      <c r="H64" t="n">
+        <v>708544.6663393504</v>
+      </c>
+      <c r="I64" t="n">
         <v>-0.1399732022813274</v>
-      </c>
-      <c r="G64" t="n">
-        <v>23.41393151746671</v>
-      </c>
-      <c r="H64" t="n">
-        <v>-86912.2748751679</v>
-      </c>
-      <c r="I64" t="n">
-        <v>708544.6663393504</v>
       </c>
     </row>
     <row r="65">
@@ -8134,16 +8134,16 @@
         <v>22.98854249953722</v>
       </c>
       <c r="F65" t="n">
+        <v>0.3103205047720951</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1149.427124976861</v>
+      </c>
+      <c r="H65" t="n">
+        <v>708145.9973680043</v>
+      </c>
+      <c r="I65" t="n">
         <v>-0.002152450828121767</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.3103205047720951</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-1149.427124976861</v>
-      </c>
-      <c r="I65" t="n">
-        <v>708145.9973680043</v>
       </c>
     </row>
     <row r="66">
@@ -8165,16 +8165,16 @@
         <v>1574.214873274943</v>
       </c>
       <c r="F66" t="n">
+        <v>-18.51524115471272</v>
+      </c>
+      <c r="G66" t="n">
+        <v>78710.74366374713</v>
+      </c>
+      <c r="H66" t="n">
+        <v>735612.5366085563</v>
+      </c>
+      <c r="I66" t="n">
         <v>0.1477139861268817</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-18.51524115471272</v>
-      </c>
-      <c r="H66" t="n">
-        <v>78710.74366374713</v>
-      </c>
-      <c r="I66" t="n">
-        <v>735612.5366085563</v>
       </c>
     </row>
     <row r="67">
@@ -8196,16 +8196,16 @@
         <v>596.6986254687964</v>
       </c>
       <c r="F67" t="n">
+        <v>-6.691666264361456</v>
+      </c>
+      <c r="G67" t="n">
+        <v>29834.93127343982</v>
+      </c>
+      <c r="H67" t="n">
+        <v>742260.5550979017</v>
+      </c>
+      <c r="I67" t="n">
         <v>0.04878417556987989</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-6.691666264361456</v>
-      </c>
-      <c r="H67" t="n">
-        <v>29834.93127343982</v>
-      </c>
-      <c r="I67" t="n">
-        <v>742260.5550979017</v>
       </c>
     </row>
     <row r="68">
@@ -8227,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>771671.8786628998</v>
+      </c>
+      <c r="I68" t="n">
         <v>0.2916176681706589</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>771671.8786628998</v>
       </c>
     </row>
     <row r="69">
@@ -8258,16 +8258,16 @@
         <v>802.9826262201219</v>
       </c>
       <c r="F69" t="n">
+        <v>-6.561201647698035</v>
+      </c>
+      <c r="G69" t="n">
+        <v>40149.13131100609</v>
+      </c>
+      <c r="H69" t="n">
+        <v>780629.0107698026</v>
+      </c>
+      <c r="I69" t="n">
         <v>0.06259562143871998</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-6.561201647698035</v>
-      </c>
-      <c r="H69" t="n">
-        <v>40149.13131100609</v>
-      </c>
-      <c r="I69" t="n">
-        <v>780629.0107698026</v>
       </c>
     </row>
     <row r="70">
@@ -8289,16 +8289,16 @@
         <v>475.0023534843617</v>
       </c>
       <c r="F70" t="n">
+        <v>4.021395970935415</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-23750.11767421808</v>
+      </c>
+      <c r="H70" t="n">
+        <v>776701.5375131638</v>
+      </c>
+      <c r="I70" t="n">
         <v>-0.03484701209163015</v>
-      </c>
-      <c r="G70" t="n">
-        <v>4.021395970935415</v>
-      </c>
-      <c r="H70" t="n">
-        <v>-23750.11767421808</v>
-      </c>
-      <c r="I70" t="n">
-        <v>776701.5375131638</v>
       </c>
     </row>
     <row r="71">
@@ -8320,16 +8320,16 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>804981.9229302619</v>
+      </c>
+      <c r="I71" t="n">
         <v>0.2378547014009467</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>804981.9229302619</v>
       </c>
     </row>
     <row r="72">
@@ -8351,16 +8351,16 @@
         <v>1002.376834809556</v>
       </c>
       <c r="F72" t="n">
+        <v>7.42096390667229</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-50118.84174047778</v>
+      </c>
+      <c r="H72" t="n">
+        <v>792765.8727504699</v>
+      </c>
+      <c r="I72" t="n">
         <v>-0.07619117068144846</v>
-      </c>
-      <c r="G72" t="n">
-        <v>7.42096390667229</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-50118.84174047778</v>
-      </c>
-      <c r="I72" t="n">
-        <v>792765.8727504699</v>
       </c>
     </row>
     <row r="73">
@@ -8382,16 +8382,16 @@
         <v>1980.624545268001</v>
       </c>
       <c r="F73" t="n">
+        <v>-12.60854299283315</v>
+      </c>
+      <c r="G73" t="n">
+        <v>99031.22726340005</v>
+      </c>
+      <c r="H73" t="n">
+        <v>824908.1618539045</v>
+      </c>
+      <c r="I73" t="n">
         <v>0.1629647494453021</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-12.60854299283315</v>
-      </c>
-      <c r="H73" t="n">
-        <v>99031.22726340005</v>
-      </c>
-      <c r="I73" t="n">
-        <v>824908.1618539045</v>
       </c>
     </row>
     <row r="74">
@@ -8413,16 +8413,16 @@
         <v>999.8609001595219</v>
       </c>
       <c r="F74" t="n">
+        <v>-5.94454116192558</v>
+      </c>
+      <c r="G74" t="n">
+        <v>49993.04500797609</v>
+      </c>
+      <c r="H74" t="n">
+        <v>834268.9133156326</v>
+      </c>
+      <c r="I74" t="n">
         <v>0.07073991780903181</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-5.94454116192558</v>
-      </c>
-      <c r="H74" t="n">
-        <v>49993.04500797609</v>
-      </c>
-      <c r="I74" t="n">
-        <v>834268.9133156326</v>
       </c>
     </row>
     <row r="75">
@@ -8444,16 +8444,16 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>860021.9470682001</v>
+      </c>
+      <c r="I75" t="n">
         <v>0.3320415122528722</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>860021.9470682001</v>
       </c>
     </row>
     <row r="76">
@@ -8475,16 +8475,16 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>912203.8982546232</v>
+      </c>
+      <c r="I76" t="n">
         <v>0.5050874070682603</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>912203.8982546232</v>
       </c>
     </row>
     <row r="77">
@@ -8506,16 +8506,16 @@
         <v>1133.005242595351</v>
       </c>
       <c r="F77" t="n">
+        <v>-3.125918731606763</v>
+      </c>
+      <c r="G77" t="n">
+        <v>56650.26212976756</v>
+      </c>
+      <c r="H77" t="n">
+        <v>924977.8524980255</v>
+      </c>
+      <c r="I77" t="n">
         <v>0.07486397642154402</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-3.125918731606763</v>
-      </c>
-      <c r="H77" t="n">
-        <v>56650.26212976756</v>
-      </c>
-      <c r="I77" t="n">
-        <v>924977.8524980255</v>
       </c>
     </row>
     <row r="78">
@@ -8537,16 +8537,16 @@
         <v>3491.158803411061</v>
       </c>
       <c r="F78" t="n">
+        <v>12.26399441627844</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-174557.9401705531</v>
+      </c>
+      <c r="H78" t="n">
+        <v>897531.8855315986</v>
+      </c>
+      <c r="I78" t="n">
         <v>-0.2146135151208853</v>
-      </c>
-      <c r="G78" t="n">
-        <v>12.26399441627844</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-174557.9401705531</v>
-      </c>
-      <c r="I78" t="n">
-        <v>897531.8855315986</v>
       </c>
     </row>
     <row r="79">
@@ -8568,16 +8568,16 @@
         <v>671.5599508018668</v>
       </c>
       <c r="F79" t="n">
+        <v>-2.241292796925962</v>
+      </c>
+      <c r="G79" t="n">
+        <v>33577.99754009334</v>
+      </c>
+      <c r="H79" t="n">
+        <v>911803.3598313896</v>
+      </c>
+      <c r="I79" t="n">
         <v>0.05256405109344894</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-2.241292796925962</v>
-      </c>
-      <c r="H79" t="n">
-        <v>33577.99754009334</v>
-      </c>
-      <c r="I79" t="n">
-        <v>911803.3598313896</v>
       </c>
     </row>
     <row r="80">
@@ -8599,16 +8599,16 @@
         <v>2546.467495327006</v>
       </c>
       <c r="F80" t="n">
+        <v>-7.145584440462558</v>
+      </c>
+      <c r="G80" t="n">
+        <v>127323.3747663503</v>
+      </c>
+      <c r="H80" t="n">
+        <v>959687.6832225237</v>
+      </c>
+      <c r="I80" t="n">
         <v>0.1893623540651198</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-7.145584440462558</v>
-      </c>
-      <c r="H80" t="n">
-        <v>127323.3747663503</v>
-      </c>
-      <c r="I80" t="n">
-        <v>959687.6832225237</v>
       </c>
     </row>
     <row r="81">
@@ -8630,16 +8630,16 @@
         <v>3214.638331602922</v>
       </c>
       <c r="F81" t="n">
+        <v>11.28961854918093</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-160731.9165801461</v>
+      </c>
+      <c r="H81" t="n">
+        <v>924317.78361298</v>
+      </c>
+      <c r="I81" t="n">
         <v>-0.2009895315217481</v>
-      </c>
-      <c r="G81" t="n">
-        <v>11.28961854918093</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-160731.9165801461</v>
-      </c>
-      <c r="I81" t="n">
-        <v>924317.78361298</v>
       </c>
     </row>
     <row r="82">
@@ -8661,16 +8661,16 @@
         <v>2103.158329279259</v>
       </c>
       <c r="F82" t="n">
+        <v>8.841196647830714</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-105157.9164639629</v>
+      </c>
+      <c r="H82" t="n">
+        <v>875254.009378589</v>
+      </c>
+      <c r="I82" t="n">
         <v>-0.1645738457767984</v>
-      </c>
-      <c r="G82" t="n">
-        <v>8.841196647830714</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-105157.9164639629</v>
-      </c>
-      <c r="I82" t="n">
-        <v>875254.009378589</v>
       </c>
     </row>
     <row r="83">
@@ -8692,16 +8692,16 @@
         <v>440.8368698384355</v>
       </c>
       <c r="F83" t="n">
+        <v>1.932993214097306</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-22041.84349192178</v>
+      </c>
+      <c r="H83" t="n">
+        <v>860714.6288086565</v>
+      </c>
+      <c r="I83" t="n">
         <v>-0.0412913129271749</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1.932993214097306</v>
-      </c>
-      <c r="H83" t="n">
-        <v>-22041.84349192178</v>
-      </c>
-      <c r="I83" t="n">
-        <v>860714.6288086565</v>
       </c>
     </row>
     <row r="84">
@@ -8723,16 +8723,16 @@
         <v>2127.503821104334</v>
       </c>
       <c r="F84" t="n">
+        <v>11.77657847569313</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-106375.1910552167</v>
+      </c>
+      <c r="H84" t="n">
+        <v>786056.8322616052</v>
+      </c>
+      <c r="I84" t="n">
         <v>-0.2078569107496089</v>
-      </c>
-      <c r="G84" t="n">
-        <v>11.77657847569313</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-106375.1910552167</v>
-      </c>
-      <c r="I84" t="n">
-        <v>786056.8322616052</v>
       </c>
     </row>
     <row r="85">
@@ -8754,16 +8754,16 @@
         <v>120.9394150521375</v>
       </c>
       <c r="F85" t="n">
+        <v>0.6795845089204623</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-6046.970752606874</v>
+      </c>
+      <c r="H85" t="n">
+        <v>780257.878689758</v>
+      </c>
+      <c r="I85" t="n">
         <v>-0.01491620507345173</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.6795845089204623</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-6046.970752606874</v>
-      </c>
-      <c r="I85" t="n">
-        <v>780257.878689758</v>
       </c>
     </row>
     <row r="86">
@@ -8785,16 +8785,16 @@
         <v>1362.372327863191</v>
       </c>
       <c r="F86" t="n">
+        <v>-6.539921044849017</v>
+      </c>
+      <c r="G86" t="n">
+        <v>68118.61639315954</v>
+      </c>
+      <c r="H86" t="n">
+        <v>846593.4299611379</v>
+      </c>
+      <c r="I86" t="n">
         <v>0.1705741127025461</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-6.539921044849017</v>
-      </c>
-      <c r="H86" t="n">
-        <v>68118.61639315954</v>
-      </c>
-      <c r="I86" t="n">
-        <v>846593.4299611379</v>
       </c>
     </row>
     <row r="87">
@@ -8816,16 +8816,16 @@
         <v>73.45775833241301</v>
       </c>
       <c r="F87" t="n">
+        <v>-0.3498770462117702</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3672.88791662065</v>
+      </c>
+      <c r="H87" t="n">
+        <v>849645.6738074119</v>
+      </c>
+      <c r="I87" t="n">
         <v>0.007856987509184355</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-0.3498770462117702</v>
-      </c>
-      <c r="H87" t="n">
-        <v>3672.88791662065</v>
-      </c>
-      <c r="I87" t="n">
-        <v>849645.6738074119</v>
       </c>
     </row>
     <row r="88">
@@ -8847,16 +8847,16 @@
         <v>745.7502698400423</v>
       </c>
       <c r="F88" t="n">
+        <v>-3.291487217366582</v>
+      </c>
+      <c r="G88" t="n">
+        <v>37287.51349200212</v>
+      </c>
+      <c r="H88" t="n">
+        <v>880347.4786906535</v>
+      </c>
+      <c r="I88" t="n">
         <v>0.07914307125707273</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-3.291487217366582</v>
-      </c>
-      <c r="H88" t="n">
-        <v>37287.51349200212</v>
-      </c>
-      <c r="I88" t="n">
-        <v>880347.4786906535</v>
       </c>
     </row>
     <row r="89">
@@ -8878,16 +8878,16 @@
         <v>1604.077631390887</v>
       </c>
       <c r="F89" t="n">
+        <v>8.405865859744523</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-80203.88156954435</v>
+      </c>
+      <c r="H89" t="n">
+        <v>820073.597096176</v>
+      </c>
+      <c r="I89" t="n">
         <v>-0.1577487172896532</v>
-      </c>
-      <c r="G89" t="n">
-        <v>8.405865859744523</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-80203.88156954435</v>
-      </c>
-      <c r="I89" t="n">
-        <v>820073.597096176</v>
       </c>
     </row>
     <row r="90">
@@ -8909,16 +8909,16 @@
         <v>942.1984474174213</v>
       </c>
       <c r="F90" t="n">
+        <v>5.547731597434665</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-47109.92237087106</v>
+      </c>
+      <c r="H90" t="n">
+        <v>776023.1565966397</v>
+      </c>
+      <c r="I90" t="n">
         <v>-0.1100122778521907</v>
-      </c>
-      <c r="G90" t="n">
-        <v>5.547731597434665</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-47109.92237087106</v>
-      </c>
-      <c r="I90" t="n">
-        <v>776023.1565966397</v>
       </c>
     </row>
     <row r="91">
@@ -8940,16 +8940,16 @@
         <v>531.2759944237763</v>
       </c>
       <c r="F91" t="n">
+        <v>-2.924361870883848</v>
+      </c>
+      <c r="G91" t="n">
+        <v>26563.79972118881</v>
+      </c>
+      <c r="H91" t="n">
+        <v>804079.7174164896</v>
+      </c>
+      <c r="I91" t="n">
         <v>0.06970034861308824</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-2.924361870883848</v>
-      </c>
-      <c r="H91" t="n">
-        <v>26563.79972118881</v>
-      </c>
-      <c r="I91" t="n">
-        <v>804079.7174164896</v>
       </c>
     </row>
     <row r="92">
@@ -8971,16 +8971,16 @@
         <v>1840.533782081007</v>
       </c>
       <c r="F92" t="n">
+        <v>13.08471777700678</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-92026.68910405037</v>
+      </c>
+      <c r="H92" t="n">
+        <v>712757.9775873951</v>
+      </c>
+      <c r="I92" t="n">
         <v>-0.2257337067700814</v>
-      </c>
-      <c r="G92" t="n">
-        <v>13.08471777700678</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-92026.68910405037</v>
-      </c>
-      <c r="I92" t="n">
-        <v>712757.9775873951</v>
       </c>
     </row>
     <row r="93">
@@ -9002,16 +9002,16 @@
         <v>239.9463426562861</v>
       </c>
       <c r="F93" t="n">
+        <v>1.773222754372159</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-11997.31713281431</v>
+      </c>
+      <c r="H93" t="n">
+        <v>697424.7568255153</v>
+      </c>
+      <c r="I93" t="n">
         <v>-0.03800812113494161</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1.773222754372159</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-11997.31713281431</v>
-      </c>
-      <c r="I93" t="n">
-        <v>697424.7568255153</v>
       </c>
     </row>
     <row r="94">
@@ -9033,16 +9033,16 @@
         <v>1139.563443311439</v>
       </c>
       <c r="F94" t="n">
+        <v>-7.090914193909305</v>
+      </c>
+      <c r="G94" t="n">
+        <v>56978.17216557192</v>
+      </c>
+      <c r="H94" t="n">
+        <v>772452.1184242305</v>
+      </c>
+      <c r="I94" t="n">
         <v>0.1876417047720551</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-7.090914193909305</v>
-      </c>
-      <c r="H94" t="n">
-        <v>56978.17216557192</v>
-      </c>
-      <c r="I94" t="n">
-        <v>772452.1184242305</v>
       </c>
     </row>
     <row r="95">
@@ -9064,16 +9064,16 @@
         <v>892.2257069350007</v>
       </c>
       <c r="F95" t="n">
+        <v>-4.940682222894704</v>
+      </c>
+      <c r="G95" t="n">
+        <v>44611.28534675004</v>
+      </c>
+      <c r="H95" t="n">
+        <v>824287.6858900047</v>
+      </c>
+      <c r="I95" t="n">
         <v>0.1237029776039925</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-4.940682222894704</v>
-      </c>
-      <c r="H95" t="n">
-        <v>44611.28534675004</v>
-      </c>
-      <c r="I95" t="n">
-        <v>824287.6858900047</v>
       </c>
     </row>
     <row r="96">
@@ -9095,16 +9095,16 @@
         <v>82.87286886286543</v>
       </c>
       <c r="F96" t="n">
+        <v>-0.4542620132661046</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4143.643443143272</v>
+      </c>
+      <c r="H96" t="n">
+        <v>828655.3140857795</v>
+      </c>
+      <c r="I96" t="n">
         <v>0.01022506937120473</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-0.4542620132661046</v>
-      </c>
-      <c r="H96" t="n">
-        <v>4143.643443143272</v>
-      </c>
-      <c r="I96" t="n">
-        <v>828655.3140857795</v>
       </c>
     </row>
     <row r="97">
@@ -9126,16 +9126,16 @@
         <v>697.0324659315914</v>
       </c>
       <c r="F97" t="n">
+        <v>-3.52099010228753</v>
+      </c>
+      <c r="G97" t="n">
+        <v>34851.62329657957</v>
+      </c>
+      <c r="H97" t="n">
+        <v>865045.1445020561</v>
+      </c>
+      <c r="I97" t="n">
         <v>0.08513119996672359</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-3.52099010228753</v>
-      </c>
-      <c r="H97" t="n">
-        <v>34851.62329657957</v>
-      </c>
-      <c r="I97" t="n">
-        <v>865045.1445020561</v>
       </c>
     </row>
     <row r="98">
@@ -9157,16 +9157,16 @@
         <v>1153.009007038729</v>
       </c>
       <c r="F98" t="n">
+        <v>6.692867386010533</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-57650.45035193647</v>
+      </c>
+      <c r="H98" t="n">
+        <v>809282.6033262529</v>
+      </c>
+      <c r="I98" t="n">
         <v>-0.1297735537089465</v>
-      </c>
-      <c r="G98" t="n">
-        <v>6.692867386010533</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-57650.45035193647</v>
-      </c>
-      <c r="I98" t="n">
-        <v>809282.6033262529</v>
       </c>
     </row>
     <row r="99">
@@ -9188,16 +9188,16 @@
         <v>170.0972994463854</v>
       </c>
       <c r="F99" t="n">
+        <v>1.009573617279496</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-8504.864972319268</v>
+      </c>
+      <c r="H99" t="n">
+        <v>799813.3194337584</v>
+      </c>
+      <c r="I99" t="n">
         <v>-0.02199979524110679</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1.009573617279496</v>
-      </c>
-      <c r="H99" t="n">
-        <v>-8504.864972319268</v>
-      </c>
-      <c r="I99" t="n">
-        <v>799813.3194337584</v>
       </c>
     </row>
     <row r="100">
@@ -9219,16 +9219,16 @@
         <v>704.5794962862064</v>
       </c>
       <c r="F100" t="n">
+        <v>4.611565837383581</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-35228.97481431032</v>
+      </c>
+      <c r="H100" t="n">
+        <v>759812.8996075138</v>
+      </c>
+      <c r="I100" t="n">
         <v>-0.09317776202705631</v>
-      </c>
-      <c r="G100" t="n">
-        <v>4.611565837383581</v>
-      </c>
-      <c r="H100" t="n">
-        <v>-35228.97481431032</v>
-      </c>
-      <c r="I100" t="n">
-        <v>759812.8996075138</v>
       </c>
     </row>
     <row r="101">
@@ -9250,16 +9250,16 @@
         <v>46.01653164448075</v>
       </c>
       <c r="F101" t="n">
+        <v>-0.2991765630481954</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2300.826582224037</v>
+      </c>
+      <c r="H101" t="n">
+        <v>762657.0384266691</v>
+      </c>
+      <c r="I101" t="n">
         <v>0.006710795344970683</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-0.2991765630481954</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2300.826582224037</v>
-      </c>
-      <c r="I101" t="n">
-        <v>762657.0384266691</v>
       </c>
     </row>
     <row r="102">
@@ -9281,16 +9281,16 @@
         <v>87.74590242895063</v>
       </c>
       <c r="F102" t="n">
+        <v>-0.5633197433812405</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4387.295121447532</v>
+      </c>
+      <c r="H102" t="n">
+        <v>768051.6789186788</v>
+      </c>
+      <c r="I102" t="n">
         <v>0.0127110735528345</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-0.5633197433812405</v>
-      </c>
-      <c r="H102" t="n">
-        <v>4387.295121447532</v>
-      </c>
-      <c r="I102" t="n">
-        <v>768051.6789186788</v>
       </c>
     </row>
     <row r="103">
@@ -9312,16 +9312,16 @@
         <v>1078.113405518021</v>
       </c>
       <c r="F103" t="n">
+        <v>8.183403988044095</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-53905.67027590105</v>
+      </c>
+      <c r="H103" t="n">
+        <v>702432.058064428</v>
+      </c>
+      <c r="I103" t="n">
         <v>-0.1542177186454337</v>
-      </c>
-      <c r="G103" t="n">
-        <v>8.183403988044095</v>
-      </c>
-      <c r="H103" t="n">
-        <v>-53905.67027590105</v>
-      </c>
-      <c r="I103" t="n">
-        <v>702432.058064428</v>
       </c>
     </row>
     <row r="104">
@@ -9343,16 +9343,16 @@
         <v>334.6350649019568</v>
       </c>
       <c r="F104" t="n">
+        <v>2.692421785576353</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-16731.75324509784</v>
+      </c>
+      <c r="H104" t="n">
+        <v>679074.6102890967</v>
+      </c>
+      <c r="I104" t="n">
         <v>-0.05659560308946051</v>
-      </c>
-      <c r="G104" t="n">
-        <v>2.692421785576353</v>
-      </c>
-      <c r="H104" t="n">
-        <v>-16731.75324509784</v>
-      </c>
-      <c r="I104" t="n">
-        <v>679074.6102890967</v>
       </c>
     </row>
     <row r="105">
@@ -9374,16 +9374,16 @@
         <v>113.6853219664906</v>
       </c>
       <c r="F105" t="n">
+        <v>-0.8964247457648291</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5684.266098324528</v>
+      </c>
+      <c r="H105" t="n">
+        <v>687344.0023743494</v>
+      </c>
+      <c r="I105" t="n">
         <v>0.02038063660739528</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-0.8964247457648291</v>
-      </c>
-      <c r="H105" t="n">
-        <v>5684.266098324528</v>
-      </c>
-      <c r="I105" t="n">
-        <v>687344.0023743494</v>
       </c>
     </row>
     <row r="106">
@@ -9405,16 +9405,16 @@
         <v>416.2807315471533</v>
       </c>
       <c r="F106" t="n">
+        <v>-3.058725895278221</v>
+      </c>
+      <c r="G106" t="n">
+        <v>20814.03657735767</v>
+      </c>
+      <c r="H106" t="n">
+        <v>717216.5604610393</v>
+      </c>
+      <c r="I106" t="n">
         <v>0.07313705183845005</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-3.058725895278221</v>
-      </c>
-      <c r="H106" t="n">
-        <v>20814.03657735767</v>
-      </c>
-      <c r="I106" t="n">
-        <v>717216.5604610393</v>
       </c>
     </row>
     <row r="107">
@@ -9436,16 +9436,16 @@
         <v>385.7987825758956</v>
       </c>
       <c r="F107" t="n">
+        <v>3.025872804516828</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-19289.93912879478</v>
+      </c>
+      <c r="H107" t="n">
+        <v>690819.7713580717</v>
+      </c>
+      <c r="I107" t="n">
         <v>-0.06316213532502131</v>
-      </c>
-      <c r="G107" t="n">
-        <v>3.025872804516828</v>
-      </c>
-      <c r="H107" t="n">
-        <v>-19289.93912879478</v>
-      </c>
-      <c r="I107" t="n">
-        <v>690819.7713580717</v>
       </c>
     </row>
     <row r="108">
@@ -9467,16 +9467,16 @@
         <v>1012.304201954213</v>
       </c>
       <c r="F108" t="n">
+        <v>-6.746197930197789</v>
+      </c>
+      <c r="G108" t="n">
+        <v>50615.21009771065</v>
+      </c>
+      <c r="H108" t="n">
+        <v>763427.0257226785</v>
+      </c>
+      <c r="I108" t="n">
         <v>0.1769059967987195</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-6.746197930197789</v>
-      </c>
-      <c r="H108" t="n">
-        <v>50615.21009771065</v>
-      </c>
-      <c r="I108" t="n">
-        <v>763427.0257226785</v>
       </c>
     </row>
     <row r="109">
@@ -9498,16 +9498,16 @@
         <v>747.7100428386995</v>
       </c>
       <c r="F109" t="n">
+        <v>-4.484945860904983</v>
+      </c>
+      <c r="G109" t="n">
+        <v>37385.50214193497</v>
+      </c>
+      <c r="H109" t="n">
+        <v>811549.1429986781</v>
+      </c>
+      <c r="I109" t="n">
         <v>0.1110255551863128</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-4.484945860904983</v>
-      </c>
-      <c r="H109" t="n">
-        <v>37385.50214193497</v>
-      </c>
-      <c r="I109" t="n">
-        <v>811549.1429986781</v>
       </c>
     </row>
     <row r="110">
@@ -9529,16 +9529,16 @@
         <v>668.9860678953341</v>
       </c>
       <c r="F110" t="n">
+        <v>4.406744394746826</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-33449.30339476671</v>
+      </c>
+      <c r="H110" t="n">
+        <v>771769.4078647816</v>
+      </c>
+      <c r="I110" t="n">
         <v>-0.08940931437948194</v>
-      </c>
-      <c r="G110" t="n">
-        <v>4.406744394746826</v>
-      </c>
-      <c r="H110" t="n">
-        <v>-33449.30339476671</v>
-      </c>
-      <c r="I110" t="n">
-        <v>771769.4078647816</v>
       </c>
     </row>
     <row r="111">
@@ -9560,16 +9560,16 @@
         <v>1147.550208846292</v>
       </c>
       <c r="F111" t="n">
+        <v>9.090182536663601</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-57377.51044231463</v>
+      </c>
+      <c r="H111" t="n">
+        <v>698011.8225120594</v>
+      </c>
+      <c r="I111" t="n">
         <v>-0.1684279582237147</v>
-      </c>
-      <c r="G111" t="n">
-        <v>9.090182536663601</v>
-      </c>
-      <c r="H111" t="n">
-        <v>-57377.51044231463</v>
-      </c>
-      <c r="I111" t="n">
-        <v>698011.8225120594</v>
       </c>
     </row>
     <row r="112">
@@ -9591,16 +9591,16 @@
         <v>364.2103513869167</v>
       </c>
       <c r="F112" t="n">
+        <v>-2.710791672116042</v>
+      </c>
+      <c r="G112" t="n">
+        <v>18210.51756934583</v>
+      </c>
+      <c r="H112" t="n">
+        <v>725035.6808030646</v>
+      </c>
+      <c r="I112" t="n">
         <v>0.06428281593781883</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-2.710791672116042</v>
-      </c>
-      <c r="H112" t="n">
-        <v>18210.51756934583</v>
-      </c>
-      <c r="I112" t="n">
-        <v>725035.6808030646</v>
       </c>
     </row>
     <row r="113">
@@ -9622,16 +9622,16 @@
         <v>125.0427451245892</v>
       </c>
       <c r="F113" t="n">
+        <v>-0.9117768005870387</v>
+      </c>
+      <c r="G113" t="n">
+        <v>6252.13725622946</v>
+      </c>
+      <c r="H113" t="n">
+        <v>733943.5864580182</v>
+      </c>
+      <c r="I113" t="n">
         <v>0.02073691069852638</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-0.9117768005870387</v>
-      </c>
-      <c r="H113" t="n">
-        <v>6252.13725622946</v>
-      </c>
-      <c r="I113" t="n">
-        <v>733943.5864580182</v>
       </c>
     </row>
     <row r="114">
@@ -9653,16 +9653,16 @@
         <v>297.548975836319</v>
       </c>
       <c r="F114" t="n">
+        <v>-2.069594469684722</v>
+      </c>
+      <c r="G114" t="n">
+        <v>14877.44879181595</v>
+      </c>
+      <c r="H114" t="n">
+        <v>754844.4437156406</v>
+      </c>
+      <c r="I114" t="n">
         <v>0.04834262159688697</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-2.069594469684722</v>
-      </c>
-      <c r="H114" t="n">
-        <v>14877.44879181595</v>
-      </c>
-      <c r="I114" t="n">
-        <v>754844.4437156406</v>
       </c>
     </row>
     <row r="115">
@@ -9684,16 +9684,16 @@
         <v>535.4892360799893</v>
       </c>
       <c r="F115" t="n">
+        <v>4.061653573809895</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-26774.46180399946</v>
+      </c>
+      <c r="H115" t="n">
+        <v>718439.816871523</v>
+      </c>
+      <c r="I115" t="n">
         <v>-0.08298875342273253</v>
-      </c>
-      <c r="G115" t="n">
-        <v>4.061653573809895</v>
-      </c>
-      <c r="H115" t="n">
-        <v>-26774.46180399946</v>
-      </c>
-      <c r="I115" t="n">
-        <v>718439.816871523</v>
       </c>
     </row>
     <row r="116">
@@ -9715,16 +9715,16 @@
         <v>45.09122723764646</v>
       </c>
       <c r="F116" t="n">
+        <v>-0.3394276176982021</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2254.561361882323</v>
+      </c>
+      <c r="H116" t="n">
+        <v>721705.2478903441</v>
+      </c>
+      <c r="I116" t="n">
         <v>0.007620542493463727</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-0.3394276176982021</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2254.561361882323</v>
-      </c>
-      <c r="I116" t="n">
-        <v>721705.2478903441</v>
       </c>
     </row>
     <row r="117">
@@ -9746,16 +9746,16 @@
         <v>206.6795739625236</v>
       </c>
       <c r="F117" t="n">
+        <v>-1.503670963714249</v>
+      </c>
+      <c r="G117" t="n">
+        <v>10333.97869812618</v>
+      </c>
+      <c r="H117" t="n">
+        <v>736596.0440109735</v>
+      </c>
+      <c r="I117" t="n">
         <v>0.03466525332595947</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-1.503670963714249</v>
-      </c>
-      <c r="H117" t="n">
-        <v>10333.97869812618</v>
-      </c>
-      <c r="I117" t="n">
-        <v>736596.0440109735</v>
       </c>
     </row>
     <row r="118">
@@ -9777,16 +9777,16 @@
         <v>84.21975105629939</v>
       </c>
       <c r="F118" t="n">
+        <v>0.6212111516850071</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-4210.98755281497</v>
+      </c>
+      <c r="H118" t="n">
+        <v>730666.463864787</v>
+      </c>
+      <c r="I118" t="n">
         <v>-0.0136524598926511</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.6212111516850071</v>
-      </c>
-      <c r="H118" t="n">
-        <v>-4210.98755281497</v>
-      </c>
-      <c r="I118" t="n">
-        <v>730666.463864787</v>
       </c>
     </row>
     <row r="119">
@@ -9808,16 +9808,16 @@
         <v>18.91395170541199</v>
       </c>
       <c r="F119" t="n">
+        <v>0.1399457351229813</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-945.6975852705993</v>
+      </c>
+      <c r="H119" t="n">
+        <v>729321.9791930717</v>
+      </c>
+      <c r="I119" t="n">
         <v>-0.003108488506871874</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.1399457351229813</v>
-      </c>
-      <c r="H119" t="n">
-        <v>-945.6975852705993</v>
-      </c>
-      <c r="I119" t="n">
-        <v>729321.9791930717</v>
       </c>
     </row>
     <row r="120">
@@ -9839,16 +9839,16 @@
         <v>315.4187674960073</v>
       </c>
       <c r="F120" t="n">
+        <v>2.46182266032041</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-15770.93837480037</v>
+      </c>
+      <c r="H120" t="n">
+        <v>706852.4695476496</v>
+      </c>
+      <c r="I120" t="n">
         <v>-0.05200039260394566</v>
-      </c>
-      <c r="G120" t="n">
-        <v>2.46182266032041</v>
-      </c>
-      <c r="H120" t="n">
-        <v>-15770.93837480037</v>
-      </c>
-      <c r="I120" t="n">
-        <v>706852.4695476496</v>
       </c>
     </row>
     <row r="121">
@@ -9870,16 +9870,16 @@
         <v>167.4686164560503</v>
       </c>
       <c r="F121" t="n">
+        <v>-1.27009190739809</v>
+      </c>
+      <c r="G121" t="n">
+        <v>8373.430822802515</v>
+      </c>
+      <c r="H121" t="n">
+        <v>719232.5631946998</v>
+      </c>
+      <c r="I121" t="n">
         <v>0.02912355369794589</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-1.27009190739809</v>
-      </c>
-      <c r="H121" t="n">
-        <v>8373.430822802515</v>
-      </c>
-      <c r="I121" t="n">
-        <v>719232.5631946998</v>
       </c>
     </row>
     <row r="122">
@@ -9901,16 +9901,16 @@
         <v>18.2453229042033</v>
       </c>
       <c r="F122" t="n">
+        <v>-0.1379482940955126</v>
+      </c>
+      <c r="G122" t="n">
+        <v>912.266145210165</v>
+      </c>
+      <c r="H122" t="n">
+        <v>720556.0458639769</v>
+      </c>
+      <c r="I122" t="n">
         <v>0.003083152244571992</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-0.1379482940955126</v>
-      </c>
-      <c r="H122" t="n">
-        <v>912.266145210165</v>
-      </c>
-      <c r="I122" t="n">
-        <v>720556.0458639769</v>
       </c>
     </row>
     <row r="123">
@@ -9932,16 +9932,16 @@
         <v>85.73103533300349</v>
       </c>
       <c r="F123" t="n">
+        <v>0.6576895077243334</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-4286.551766650175</v>
+      </c>
+      <c r="H123" t="n">
+        <v>714350.1838361351</v>
+      </c>
+      <c r="I123" t="n">
         <v>-0.01444257225915165</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.6576895077243334</v>
-      </c>
-      <c r="H123" t="n">
-        <v>-4286.551766650175</v>
-      </c>
-      <c r="I123" t="n">
-        <v>714350.1838361351</v>
       </c>
     </row>
     <row r="124">
@@ -9963,16 +9963,16 @@
         <v>1.016682149782109</v>
       </c>
       <c r="F124" t="n">
+        <v>0.007800878676024972</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-50.83410748910546</v>
+      </c>
+      <c r="H124" t="n">
+        <v>714275.8586421181</v>
+      </c>
+      <c r="I124" t="n">
         <v>-0.0001737839818136899</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.007800878676024972</v>
-      </c>
-      <c r="H124" t="n">
-        <v>-50.83410748910546</v>
-      </c>
-      <c r="I124" t="n">
-        <v>714275.8586421181</v>
       </c>
     </row>
     <row r="125">
@@ -9994,16 +9994,16 @@
         <v>739.6591622133196</v>
       </c>
       <c r="F125" t="n">
+        <v>6.496868190194039</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-36982.95811066598</v>
+      </c>
+      <c r="H125" t="n">
+        <v>660196.3064042587</v>
+      </c>
+      <c r="I125" t="n">
         <v>-0.1264537364569779</v>
-      </c>
-      <c r="G125" t="n">
-        <v>6.496868190194039</v>
-      </c>
-      <c r="H125" t="n">
-        <v>-36982.95811066598</v>
-      </c>
-      <c r="I125" t="n">
-        <v>660196.3064042587</v>
       </c>
     </row>
     <row r="126">
@@ -10025,16 +10025,16 @@
         <v>1127.408911122225</v>
       </c>
       <c r="F126" t="n">
+        <v>12.70629613541652</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-56370.44555611126</v>
+      </c>
+      <c r="H126" t="n">
+        <v>569769.8300925565</v>
+      </c>
+      <c r="I126" t="n">
         <v>-0.2206457557299528</v>
-      </c>
-      <c r="G126" t="n">
-        <v>12.70629613541652</v>
-      </c>
-      <c r="H126" t="n">
-        <v>-56370.44555611126</v>
-      </c>
-      <c r="I126" t="n">
-        <v>569769.8300925565</v>
       </c>
     </row>
     <row r="127">
@@ -10056,16 +10056,16 @@
         <v>296.0521247824219</v>
       </c>
       <c r="F127" t="n">
+        <v>3.604592622030477</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-14802.6062391211</v>
+      </c>
+      <c r="H127" t="n">
+        <v>541917.2727667517</v>
+      </c>
+      <c r="I127" t="n">
         <v>-0.07434425131506607</v>
-      </c>
-      <c r="G127" t="n">
-        <v>3.604592622030477</v>
-      </c>
-      <c r="H127" t="n">
-        <v>-14802.6062391211</v>
-      </c>
-      <c r="I127" t="n">
-        <v>541917.2727667517</v>
       </c>
     </row>
     <row r="128">
@@ -10087,16 +10087,16 @@
         <v>551.8970552950284</v>
       </c>
       <c r="F128" t="n">
+        <v>7.902882459413566</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-27594.85276475142</v>
+      </c>
+      <c r="H128" t="n">
+        <v>487822.8862242058</v>
+      </c>
+      <c r="I128" t="n">
         <v>-0.1497227461264644</v>
-      </c>
-      <c r="G128" t="n">
-        <v>7.902882459413566</v>
-      </c>
-      <c r="H128" t="n">
-        <v>-27594.85276475142</v>
-      </c>
-      <c r="I128" t="n">
-        <v>487822.8862242058</v>
       </c>
     </row>
     <row r="129">
@@ -10118,16 +10118,16 @@
         <v>162.9557054463656</v>
       </c>
       <c r="F129" t="n">
+        <v>2.461416652884365</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-8147.785272318279</v>
+      </c>
+      <c r="H129" t="n">
+        <v>470444.7002336152</v>
+      </c>
+      <c r="I129" t="n">
         <v>-0.05199226250694094</v>
-      </c>
-      <c r="G129" t="n">
-        <v>2.461416652884365</v>
-      </c>
-      <c r="H129" t="n">
-        <v>-8147.785272318279</v>
-      </c>
-      <c r="I129" t="n">
-        <v>470444.7002336152</v>
       </c>
     </row>
     <row r="130">
@@ -10149,16 +10149,16 @@
         <v>599.0970269441727</v>
       </c>
       <c r="F130" t="n">
+        <v>-7.530816871241953</v>
+      </c>
+      <c r="G130" t="n">
+        <v>29954.85134720864</v>
+      </c>
+      <c r="H130" t="n">
+        <v>535944.5531860765</v>
+      </c>
+      <c r="I130" t="n">
         <v>0.201629664922619</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-7.530816871241953</v>
-      </c>
-      <c r="H130" t="n">
-        <v>29954.85134720864</v>
-      </c>
-      <c r="I130" t="n">
-        <v>535944.5531860765</v>
       </c>
     </row>
     <row r="131">
@@ -10180,16 +10180,16 @@
         <v>31.51543568626751</v>
       </c>
       <c r="F131" t="n">
+        <v>-0.3926915613893673</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1575.771784313375</v>
+      </c>
+      <c r="H131" t="n">
+        <v>539131.0446763209</v>
+      </c>
+      <c r="I131" t="n">
         <v>0.008826935194598189</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-0.3926915613893673</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1575.771784313375</v>
-      </c>
-      <c r="I131" t="n">
-        <v>539131.0446763209</v>
       </c>
     </row>
     <row r="132">
@@ -10211,16 +10211,16 @@
         <v>73.74869795834651</v>
       </c>
       <c r="F132" t="n">
+        <v>0.9381387913817271</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-3687.434897917326</v>
+      </c>
+      <c r="H132" t="n">
+        <v>531706.012562498</v>
+      </c>
+      <c r="I132" t="n">
         <v>-0.02047501887117089</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.9381387913817271</v>
-      </c>
-      <c r="H132" t="n">
-        <v>-3687.434897917326</v>
-      </c>
-      <c r="I132" t="n">
-        <v>531706.012562498</v>
       </c>
     </row>
     <row r="133">
@@ -10242,16 +10242,16 @@
         <v>151.1292226974807</v>
       </c>
       <c r="F133" t="n">
+        <v>2.008512597556541</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-7556.461134874037</v>
+      </c>
+      <c r="H133" t="n">
+        <v>516335.5016494672</v>
+      </c>
+      <c r="I133" t="n">
         <v>-0.0428354058202987</v>
-      </c>
-      <c r="G133" t="n">
-        <v>2.008512597556541</v>
-      </c>
-      <c r="H133" t="n">
-        <v>-7556.461134874037</v>
-      </c>
-      <c r="I133" t="n">
-        <v>516335.5016494672</v>
       </c>
     </row>
     <row r="134">
@@ -10273,16 +10273,16 @@
         <v>31.68683364184322</v>
       </c>
       <c r="F134" t="n">
+        <v>0.4251079484634749</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1584.341682092161</v>
+      </c>
+      <c r="H134" t="n">
+        <v>513043.3253886264</v>
+      </c>
+      <c r="I134" t="n">
         <v>-0.009383106708359113</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.4251079484634749</v>
-      </c>
-      <c r="H134" t="n">
-        <v>-1584.341682092161</v>
-      </c>
-      <c r="I134" t="n">
-        <v>513043.3253886264</v>
       </c>
     </row>
     <row r="135">
@@ -10304,16 +10304,16 @@
         <v>48.23513085208641</v>
       </c>
       <c r="F135" t="n">
+        <v>0.6565856389774321</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2411.75654260432</v>
+      </c>
+      <c r="H135" t="n">
+        <v>508009.43859711</v>
+      </c>
+      <c r="I135" t="n">
         <v>-0.01441868130272453</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.6565856389774321</v>
-      </c>
-      <c r="H135" t="n">
-        <v>-2411.75654260432</v>
-      </c>
-      <c r="I135" t="n">
-        <v>508009.43859711</v>
       </c>
     </row>
     <row r="136">
@@ -10335,16 +10335,16 @@
         <v>105.4138945889962</v>
       </c>
       <c r="F136" t="n">
+        <v>1.482305708772619</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-5270.69472944981</v>
+      </c>
+      <c r="H136" t="n">
+        <v>496932.728676753</v>
+      </c>
+      <c r="I136" t="n">
         <v>-0.03197182871261361</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1.482305708772619</v>
-      </c>
-      <c r="H136" t="n">
-        <v>-5270.69472944981</v>
-      </c>
-      <c r="I136" t="n">
-        <v>496932.728676753</v>
       </c>
     </row>
     <row r="137">
@@ -10366,16 +10366,16 @@
         <v>171.2423180250851</v>
       </c>
       <c r="F137" t="n">
+        <v>-2.285353980949757</v>
+      </c>
+      <c r="G137" t="n">
+        <v>8562.115901254256</v>
+      </c>
+      <c r="H137" t="n">
+        <v>515203.7075897883</v>
+      </c>
+      <c r="I137" t="n">
         <v>0.05365284063148831</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-2.285353980949757</v>
-      </c>
-      <c r="H137" t="n">
-        <v>8562.115901254256</v>
-      </c>
-      <c r="I137" t="n">
-        <v>515203.7075897883</v>
       </c>
     </row>
     <row r="138">
@@ -10397,16 +10397,16 @@
         <v>51.5812223204321</v>
       </c>
       <c r="F138" t="n">
+        <v>0.6991122950811945</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2579.061116021605</v>
+      </c>
+      <c r="H138" t="n">
+        <v>509828.8660825263</v>
+      </c>
+      <c r="I138" t="n">
         <v>-0.01533824637623754</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.6991122950811945</v>
-      </c>
-      <c r="H138" t="n">
-        <v>-2579.061116021605</v>
-      </c>
-      <c r="I138" t="n">
-        <v>509828.8660825263</v>
       </c>
     </row>
     <row r="139">
@@ -10428,16 +10428,16 @@
         <v>351.3928343563199</v>
       </c>
       <c r="F139" t="n">
+        <v>-4.305728779498174</v>
+      </c>
+      <c r="G139" t="n">
+        <v>17569.64171781599</v>
+      </c>
+      <c r="H139" t="n">
+        <v>546712.7433945658</v>
+      </c>
+      <c r="I139" t="n">
         <v>0.1061182090594722</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-4.305728779498174</v>
-      </c>
-      <c r="H139" t="n">
-        <v>17569.64171781599</v>
-      </c>
-      <c r="I139" t="n">
-        <v>546712.7433945658</v>
       </c>
     </row>
     <row r="140">
@@ -10459,16 +10459,16 @@
         <v>131.5257434191387</v>
       </c>
       <c r="F140" t="n">
+        <v>1.671654856079426</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-6576.287170956937</v>
+      </c>
+      <c r="H140" t="n">
+        <v>533525.4647770575</v>
+      </c>
+      <c r="I140" t="n">
         <v>-0.03590924170369594</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1.671654856079426</v>
-      </c>
-      <c r="H140" t="n">
-        <v>-6576.287170956937</v>
-      </c>
-      <c r="I140" t="n">
-        <v>533525.4647770575</v>
       </c>
     </row>
     <row r="141">
@@ -10490,16 +10490,16 @@
         <v>35.93587075309608</v>
       </c>
       <c r="F141" t="n">
+        <v>-0.4521335006130324</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1796.793537654804</v>
+      </c>
+      <c r="H141" t="n">
+        <v>537194.1200767781</v>
+      </c>
+      <c r="I141" t="n">
         <v>0.01017667070285231</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-0.4521335006130324</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1796.793537654804</v>
-      </c>
-      <c r="I141" t="n">
-        <v>537194.1200767781</v>
       </c>
     </row>
     <row r="142">
@@ -10521,16 +10521,16 @@
         <v>63.51753238752934</v>
       </c>
       <c r="F142" t="n">
+        <v>-0.7851759612421662</v>
+      </c>
+      <c r="G142" t="n">
+        <v>3175.876619376467</v>
+      </c>
+      <c r="H142" t="n">
+        <v>543647.2038717557</v>
+      </c>
+      <c r="I142" t="n">
         <v>0.01780630599716807</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-0.7851759612421662</v>
-      </c>
-      <c r="H142" t="n">
-        <v>3175.876619376467</v>
-      </c>
-      <c r="I142" t="n">
-        <v>543647.2038717557</v>
       </c>
     </row>
     <row r="143">
@@ -10552,16 +10552,16 @@
         <v>53.86875440965321</v>
       </c>
       <c r="F143" t="n">
+        <v>-0.6561663147805842</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2693.43772048266</v>
+      </c>
+      <c r="H143" t="n">
+        <v>549073.8383153027</v>
+      </c>
+      <c r="I143" t="n">
         <v>0.01483720205341607</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-0.6561663147805842</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2693.43772048266</v>
-      </c>
-      <c r="I143" t="n">
-        <v>549073.8383153027</v>
       </c>
     </row>
     <row r="144">
@@ -10583,16 +10583,16 @@
         <v>63.58646801693408</v>
       </c>
       <c r="F144" t="n">
+        <v>-0.7613962018761823</v>
+      </c>
+      <c r="G144" t="n">
+        <v>3179.323400846704</v>
+      </c>
+      <c r="H144" t="n">
+        <v>555433.8635486393</v>
+      </c>
+      <c r="I144" t="n">
         <v>0.01725771928096292</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-0.7613962018761823</v>
-      </c>
-      <c r="H144" t="n">
-        <v>3179.323400846704</v>
-      </c>
-      <c r="I144" t="n">
-        <v>555433.8635486393</v>
       </c>
     </row>
     <row r="145">
@@ -10614,16 +10614,16 @@
         <v>865.2394299382886</v>
       </c>
       <c r="F145" t="n">
+        <v>-8.417406048840681</v>
+      </c>
+      <c r="G145" t="n">
+        <v>43261.97149691443</v>
+      </c>
+      <c r="H145" t="n">
+        <v>641257.3051145575</v>
+      </c>
+      <c r="I145" t="n">
         <v>0.2308468785351004</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-8.417406048840681</v>
-      </c>
-      <c r="H145" t="n">
-        <v>43261.97149691443</v>
-      </c>
-      <c r="I145" t="n">
-        <v>641257.3051145575</v>
       </c>
     </row>
     <row r="146">
@@ -10645,16 +10645,16 @@
         <v>47.68051425264323</v>
       </c>
       <c r="F146" t="n">
+        <v>-0.4591106459761057</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2384.025712632161</v>
+      </c>
+      <c r="H146" t="n">
+        <v>645548.5697205046</v>
+      </c>
+      <c r="I146" t="n">
         <v>0.01033533614582784</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-0.4591106459761057</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2384.025712632161</v>
-      </c>
-      <c r="I146" t="n">
-        <v>645548.5697205046</v>
       </c>
     </row>
     <row r="147">
@@ -10676,16 +10676,16 @@
         <v>197.2093784940802</v>
       </c>
       <c r="F147" t="n">
+        <v>-1.821826370702183</v>
+      </c>
+      <c r="G147" t="n">
+        <v>9860.468924704011</v>
+      </c>
+      <c r="H147" t="n">
+        <v>663198.6381973294</v>
+      </c>
+      <c r="I147" t="n">
         <v>0.0423102603028929</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1.821826370702183</v>
-      </c>
-      <c r="H147" t="n">
-        <v>9860.468924704011</v>
-      </c>
-      <c r="I147" t="n">
-        <v>663198.6381973294</v>
       </c>
     </row>
     <row r="148">
@@ -10707,16 +10707,16 @@
         <v>22.61375696889463</v>
       </c>
       <c r="F148" t="n">
+        <v>0.2098835397850228</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1130.687848444732</v>
+      </c>
+      <c r="H148" t="n">
+        <v>661219.7063416752</v>
+      </c>
+      <c r="I148" t="n">
         <v>-0.004654722988456064</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.2098835397850228</v>
-      </c>
-      <c r="H148" t="n">
-        <v>-1130.687848444732</v>
-      </c>
-      <c r="I148" t="n">
-        <v>661219.7063416752</v>
       </c>
     </row>
     <row r="149">
@@ -10738,16 +10738,16 @@
         <v>448.5596066827109</v>
       </c>
       <c r="F149" t="n">
+        <v>-3.809784905579226</v>
+      </c>
+      <c r="G149" t="n">
+        <v>22427.98033413554</v>
+      </c>
+      <c r="H149" t="n">
+        <v>700575.9834206222</v>
+      </c>
+      <c r="I149" t="n">
         <v>0.0927614486049594</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-3.809784905579226</v>
-      </c>
-      <c r="H149" t="n">
-        <v>22427.98033413554</v>
-      </c>
-      <c r="I149" t="n">
-        <v>700575.9834206222</v>
       </c>
     </row>
     <row r="150">
@@ -10769,16 +10769,16 @@
         <v>559.1425496311072</v>
       </c>
       <c r="F150" t="n">
+        <v>-4.294579221753938</v>
+      </c>
+      <c r="G150" t="n">
+        <v>27957.12748155536</v>
+      </c>
+      <c r="H150" t="n">
+        <v>747308.9854510779</v>
+      </c>
+      <c r="I150" t="n">
         <v>0.1058143423650196</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-4.294579221753938</v>
-      </c>
-      <c r="H150" t="n">
-        <v>27957.12748155536</v>
-      </c>
-      <c r="I150" t="n">
-        <v>747308.9854510779</v>
       </c>
     </row>
     <row r="151">
@@ -10800,16 +10800,16 @@
         <v>881.1222528097777</v>
       </c>
       <c r="F151" t="n">
+        <v>-5.880817744262946</v>
+      </c>
+      <c r="G151" t="n">
+        <v>44056.11264048889</v>
+      </c>
+      <c r="H151" t="n">
+        <v>816821.6003724411</v>
+      </c>
+      <c r="I151" t="n">
         <v>0.1507911820985581</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-5.880817744262946</v>
-      </c>
-      <c r="H151" t="n">
-        <v>44056.11264048889</v>
-      </c>
-      <c r="I151" t="n">
-        <v>816821.6003724411</v>
       </c>
     </row>
     <row r="152">
@@ -10831,16 +10831,16 @@
         <v>595.5564844814875</v>
       </c>
       <c r="F152" t="n">
+        <v>-3.651487427207083</v>
+      </c>
+      <c r="G152" t="n">
+        <v>29777.82422407437</v>
+      </c>
+      <c r="H152" t="n">
+        <v>859981.8175398202</v>
+      </c>
+      <c r="I152" t="n">
         <v>0.08856583233595494</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-3.651487427207083</v>
-      </c>
-      <c r="H152" t="n">
-        <v>29777.82422407437</v>
-      </c>
-      <c r="I152" t="n">
-        <v>859981.8175398202</v>
       </c>
     </row>
     <row r="153">
@@ -10862,16 +10862,16 @@
         <v>533.0296767913758</v>
       </c>
       <c r="F153" t="n">
+        <v>-3.046296058768164</v>
+      </c>
+      <c r="G153" t="n">
+        <v>26651.48383956879</v>
+      </c>
+      <c r="H153" t="n">
+        <v>896485.6916700331</v>
+      </c>
+      <c r="I153" t="n">
         <v>0.07281820035699842</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-3.046296058768164</v>
-      </c>
-      <c r="H153" t="n">
-        <v>26651.48383956879</v>
-      </c>
-      <c r="I153" t="n">
-        <v>896485.6916700331</v>
       </c>
     </row>
     <row r="154">
@@ -10893,16 +10893,16 @@
         <v>491.9136795071677</v>
       </c>
       <c r="F154" t="n">
+        <v>2.999184435025121</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-24595.68397535838</v>
+      </c>
+      <c r="H154" t="n">
+        <v>864433.6538004493</v>
+      </c>
+      <c r="I154" t="n">
         <v>-0.06263993802380065</v>
-      </c>
-      <c r="G154" t="n">
-        <v>2.999184435025121</v>
-      </c>
-      <c r="H154" t="n">
-        <v>-24595.68397535838</v>
-      </c>
-      <c r="I154" t="n">
-        <v>864433.6538004493</v>
       </c>
     </row>
     <row r="155">
@@ -10924,16 +10924,16 @@
         <v>598.0760774771503</v>
       </c>
       <c r="F155" t="n">
+        <v>-3.372449137199916</v>
+      </c>
+      <c r="G155" t="n">
+        <v>29903.80387385751</v>
+      </c>
+      <c r="H155" t="n">
+        <v>905361.3871934094</v>
+      </c>
+      <c r="I155" t="n">
         <v>0.08124794873563938</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-3.372449137199916</v>
-      </c>
-      <c r="H155" t="n">
-        <v>29903.80387385751</v>
-      </c>
-      <c r="I155" t="n">
-        <v>905361.3871934094</v>
       </c>
     </row>
     <row r="156">
@@ -10955,16 +10955,16 @@
         <v>1361.234398581645</v>
       </c>
       <c r="F156" t="n">
+        <v>-6.554735058230587</v>
+      </c>
+      <c r="G156" t="n">
+        <v>68061.71992908226</v>
+      </c>
+      <c r="H156" t="n">
+        <v>993501.7566842344</v>
+      </c>
+      <c r="I156" t="n">
         <v>0.1710265726058046</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-6.554735058230587</v>
-      </c>
-      <c r="H156" t="n">
-        <v>68061.71992908226</v>
-      </c>
-      <c r="I156" t="n">
-        <v>993501.7566842344</v>
       </c>
     </row>
     <row r="157">
@@ -10986,16 +10986,16 @@
         <v>2037.797152808752</v>
       </c>
       <c r="F157" t="n">
+        <v>-8.052089611880094</v>
+      </c>
+      <c r="G157" t="n">
+        <v>101889.8576404376</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1110866.549308377</v>
+      </c>
+      <c r="I157" t="n">
         <v>0.2186376135224186</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-8.052089611880094</v>
-      </c>
-      <c r="H157" t="n">
-        <v>101889.8576404376</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1110866.549308377</v>
       </c>
     </row>
     <row r="158">
@@ -11017,16 +11017,16 @@
         <v>1298.989851166068</v>
       </c>
       <c r="F158" t="n">
+        <v>5.795606485049539</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-64949.49255830338</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1047472.22215234</v>
+      </c>
+      <c r="I158" t="n">
         <v>-0.1143655193706864</v>
-      </c>
-      <c r="G158" t="n">
-        <v>5.795606485049539</v>
-      </c>
-      <c r="H158" t="n">
-        <v>-64949.49255830338</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1047472.22215234</v>
       </c>
     </row>
     <row r="159">
@@ -11048,16 +11048,16 @@
         <v>760.7561503174807</v>
       </c>
       <c r="F159" t="n">
+        <v>-3.155561635439696</v>
+      </c>
+      <c r="G159" t="n">
+        <v>38037.80751587403</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1089412.978362621</v>
+      </c>
+      <c r="I159" t="n">
         <v>0.07562759746798947</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-3.155561635439696</v>
-      </c>
-      <c r="H159" t="n">
-        <v>38037.80751587403</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1089412.978362621</v>
       </c>
     </row>
     <row r="160">
@@ -11079,16 +11079,16 @@
         <v>1179.084135324668</v>
       </c>
       <c r="F160" t="n">
+        <v>5.488895698368816</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-58954.20676623342</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1028471.832813819</v>
+      </c>
+      <c r="I160" t="n">
         <v>-0.108972694962878</v>
-      </c>
-      <c r="G160" t="n">
-        <v>5.488895698368816</v>
-      </c>
-      <c r="H160" t="n">
-        <v>-58954.20676623342</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1028471.832813819</v>
       </c>
     </row>
     <row r="161">
@@ -11110,16 +11110,16 @@
         <v>599.6171578682815</v>
       </c>
       <c r="F161" t="n">
+        <v>2.976471446109354</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-29980.85789341408</v>
+      </c>
+      <c r="H161" t="n">
+        <v>993887.1998729181</v>
+      </c>
+      <c r="I161" t="n">
         <v>-0.06219506615114699</v>
-      </c>
-      <c r="G161" t="n">
-        <v>2.976471446109354</v>
-      </c>
-      <c r="H161" t="n">
-        <v>-29980.85789341408</v>
-      </c>
-      <c r="I161" t="n">
-        <v>993887.1998729181</v>
       </c>
     </row>
     <row r="162">
@@ -11141,16 +11141,16 @@
         <v>593.6263811989363</v>
       </c>
       <c r="F162" t="n">
+        <v>-2.765179483889964</v>
+      </c>
+      <c r="G162" t="n">
+        <v>29681.31905994681</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1030055.388558127</v>
+      </c>
+      <c r="I162" t="n">
         <v>0.0656572308933055</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-2.765179483889964</v>
-      </c>
-      <c r="H162" t="n">
-        <v>29681.31905994681</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1030055.388558127</v>
       </c>
     </row>
     <row r="163">
@@ -11172,16 +11172,16 @@
         <v>1229.432827463409</v>
       </c>
       <c r="F163" t="n">
+        <v>-5.07877760645928</v>
+      </c>
+      <c r="G163" t="n">
+        <v>61471.64137317044</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1101250.052520163</v>
+      </c>
+      <c r="I163" t="n">
         <v>0.127601752262787</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-5.07877760645928</v>
-      </c>
-      <c r="H163" t="n">
-        <v>61471.64137317044</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1101250.052520163</v>
       </c>
     </row>
     <row r="164">
@@ -11203,16 +11203,16 @@
         <v>1376.490688788504</v>
       </c>
       <c r="F164" t="n">
+        <v>6.511231813593561</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-68824.5344394252</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1029172.042525334</v>
+      </c>
+      <c r="I164" t="n">
         <v>-0.1266978861214733</v>
-      </c>
-      <c r="G164" t="n">
-        <v>6.511231813593561</v>
-      </c>
-      <c r="H164" t="n">
-        <v>-68824.5344394252</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1029172.042525334</v>
       </c>
     </row>
     <row r="165">
@@ -11234,16 +11234,16 @@
         <v>44.80883690107008</v>
       </c>
       <c r="F165" t="n">
+        <v>-0.2109634956413603</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2240.441845053504</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1031836.935072014</v>
+      </c>
+      <c r="I165" t="n">
         <v>0.004722753197712274</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-0.2109634956413603</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2240.441845053504</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1031836.935072014</v>
       </c>
     </row>
     <row r="166">
@@ -11265,16 +11265,16 @@
         <v>741.9991633448381</v>
       </c>
       <c r="F166" t="n">
+        <v>3.78825835526767</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-37099.9581672419</v>
+      </c>
+      <c r="H166" t="n">
+        <v>987879.309023859</v>
+      </c>
+      <c r="I166" t="n">
         <v>-0.07783747830896025</v>
-      </c>
-      <c r="G166" t="n">
-        <v>3.78825835526767</v>
-      </c>
-      <c r="H166" t="n">
-        <v>-37099.9581672419</v>
-      </c>
-      <c r="I166" t="n">
-        <v>987879.309023859</v>
       </c>
     </row>
     <row r="167">
@@ -11296,16 +11296,16 @@
         <v>692.8021430993341</v>
       </c>
       <c r="F167" t="n">
+        <v>-3.278687400005725</v>
+      </c>
+      <c r="G167" t="n">
+        <v>34640.1071549667</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1031787.806612205</v>
+      </c>
+      <c r="I167" t="n">
         <v>0.07881104694574848</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-3.278687400005725</v>
-      </c>
-      <c r="H167" t="n">
-        <v>34640.1071549667</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1031787.806612205</v>
       </c>
     </row>
     <row r="168">
@@ -11327,16 +11327,16 @@
         <v>7.810885018521263</v>
       </c>
       <c r="F168" t="n">
+        <v>0.03699549817353304</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-390.5442509260631</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1031320.727457622</v>
+      </c>
+      <c r="I168" t="n">
         <v>-0.0008236310945374391</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.03699549817353304</v>
-      </c>
-      <c r="H168" t="n">
-        <v>-390.5442509260631</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1031320.727457622</v>
       </c>
     </row>
     <row r="169">
@@ -11358,16 +11358,16 @@
         <v>148.1568397732174</v>
       </c>
       <c r="F169" t="n">
+        <v>0.7128766702855389</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-7407.841988660872</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1022455.187452263</v>
+      </c>
+      <c r="I169" t="n">
         <v>-0.01563550961881443</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.7128766702855389</v>
-      </c>
-      <c r="H169" t="n">
-        <v>-7407.841988660872</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1022455.187452263</v>
       </c>
     </row>
     <row r="170">
@@ -11389,16 +11389,16 @@
         <v>1769.919493208126</v>
       </c>
       <c r="F170" t="n">
+        <v>10.51062649594528</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-88495.9746604063</v>
+      </c>
+      <c r="H170" t="n">
+        <v>915167.6348526136</v>
+      </c>
+      <c r="I170" t="n">
         <v>-0.1897526758608245</v>
-      </c>
-      <c r="G170" t="n">
-        <v>10.51062649594528</v>
-      </c>
-      <c r="H170" t="n">
-        <v>-88495.9746604063</v>
-      </c>
-      <c r="I170" t="n">
-        <v>915167.6348526136</v>
       </c>
     </row>
     <row r="171">
@@ -11420,16 +11420,16 @@
         <v>37.66718611339893</v>
       </c>
       <c r="F171" t="n">
+        <v>0.2248061635512803</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1883.359305669946</v>
+      </c>
+      <c r="H171" t="n">
+        <v>912452.1111539496</v>
+      </c>
+      <c r="I171" t="n">
         <v>-0.00498402221026424</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.2248061635512803</v>
-      </c>
-      <c r="H171" t="n">
-        <v>-1883.359305669946</v>
-      </c>
-      <c r="I171" t="n">
-        <v>912452.1111539496</v>
       </c>
     </row>
     <row r="172">
@@ -11451,16 +11451,16 @@
         <v>96.64485350718658</v>
       </c>
       <c r="F172" t="n">
+        <v>-0.5694791720760054</v>
+      </c>
+      <c r="G172" t="n">
+        <v>4832.242675359329</v>
+      </c>
+      <c r="H172" t="n">
+        <v>919443.2061503627</v>
+      </c>
+      <c r="I172" t="n">
         <v>0.01285184468852276</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-0.5694791720760054</v>
-      </c>
-      <c r="H172" t="n">
-        <v>4832.242675359329</v>
-      </c>
-      <c r="I172" t="n">
-        <v>919443.2061503627</v>
       </c>
     </row>
     <row r="173">
@@ -11482,16 +11482,16 @@
         <v>313.120594133619</v>
       </c>
       <c r="F173" t="n">
+        <v>1.924164371102357</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-15656.02970668095</v>
+      </c>
+      <c r="H173" t="n">
+        <v>896987.3726153931</v>
+      </c>
+      <c r="I173" t="n">
         <v>-0.04111047033103585</v>
-      </c>
-      <c r="G173" t="n">
-        <v>1.924164371102357</v>
-      </c>
-      <c r="H173" t="n">
-        <v>-15656.02970668095</v>
-      </c>
-      <c r="I173" t="n">
-        <v>896987.3726153931</v>
       </c>
     </row>
     <row r="174">
@@ -11513,16 +11513,16 @@
         <v>635.4477644657517</v>
       </c>
       <c r="F174" t="n">
+        <v>-3.592346500297387</v>
+      </c>
+      <c r="G174" t="n">
+        <v>31772.38822328758</v>
+      </c>
+      <c r="H174" t="n">
+        <v>943894.2348010526</v>
+      </c>
+      <c r="I174" t="n">
         <v>0.08700657894093301</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-3.592346500297387</v>
-      </c>
-      <c r="H174" t="n">
-        <v>31772.38822328758</v>
-      </c>
-      <c r="I174" t="n">
-        <v>943894.2348010526</v>
       </c>
     </row>
     <row r="175">
@@ -11544,16 +11544,16 @@
         <v>542.4190222147336</v>
       </c>
       <c r="F175" t="n">
+        <v>-2.870319107900367</v>
+      </c>
+      <c r="G175" t="n">
+        <v>27120.95111073668</v>
+      </c>
+      <c r="H175" t="n">
+        <v>981806.5835834572</v>
+      </c>
+      <c r="I175" t="n">
         <v>0.06832426610224961</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-2.870319107900367</v>
-      </c>
-      <c r="H175" t="n">
-        <v>27120.95111073668</v>
-      </c>
-      <c r="I175" t="n">
-        <v>981806.5835834572</v>
       </c>
     </row>
     <row r="176">
@@ -11575,16 +11575,16 @@
         <v>412.4558624721589</v>
       </c>
       <c r="F176" t="n">
+        <v>2.29416061364107</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-20622.79312360795</v>
+      </c>
+      <c r="H176" t="n">
+        <v>954270.5472757654</v>
+      </c>
+      <c r="I176" t="n">
         <v>-0.0486311401524319</v>
-      </c>
-      <c r="G176" t="n">
-        <v>2.29416061364107</v>
-      </c>
-      <c r="H176" t="n">
-        <v>-20622.79312360795</v>
-      </c>
-      <c r="I176" t="n">
-        <v>954270.5472757654</v>
       </c>
     </row>
     <row r="177">
@@ -11606,16 +11606,16 @@
         <v>291.5431147180323</v>
       </c>
       <c r="F177" t="n">
+        <v>1.682408763161621</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-14577.15573590162</v>
+      </c>
+      <c r="H177" t="n">
+        <v>934076.5496475275</v>
+      </c>
+      <c r="I177" t="n">
         <v>-0.03613190237072005</v>
-      </c>
-      <c r="G177" t="n">
-        <v>1.682408763161621</v>
-      </c>
-      <c r="H177" t="n">
-        <v>-14577.15573590162</v>
-      </c>
-      <c r="I177" t="n">
-        <v>934076.5496475275</v>
       </c>
     </row>
     <row r="178">
@@ -11637,16 +11637,16 @@
         <v>1094.537921218563</v>
       </c>
       <c r="F178" t="n">
+        <v>7.350760621010759</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-54726.89606092818</v>
+      </c>
+      <c r="H178" t="n">
+        <v>856251.9085447588</v>
+      </c>
+      <c r="I178" t="n">
         <v>-0.1407347173977159</v>
-      </c>
-      <c r="G178" t="n">
-        <v>7.350760621010759</v>
-      </c>
-      <c r="H178" t="n">
-        <v>-54726.89606092818</v>
-      </c>
-      <c r="I178" t="n">
-        <v>856251.9085447588</v>
       </c>
     </row>
     <row r="179">
@@ -11668,16 +11668,16 @@
         <v>428.5570228729285</v>
       </c>
       <c r="F179" t="n">
+        <v>-2.704680479824814</v>
+      </c>
+      <c r="G179" t="n">
+        <v>21427.85114364643</v>
+      </c>
+      <c r="H179" t="n">
+        <v>890162.8537413608</v>
+      </c>
+      <c r="I179" t="n">
         <v>0.06412860370810521</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-2.704680479824814</v>
-      </c>
-      <c r="H179" t="n">
-        <v>21427.85114364643</v>
-      </c>
-      <c r="I179" t="n">
-        <v>890162.8537413608</v>
       </c>
     </row>
     <row r="180">
@@ -11699,16 +11699,16 @@
         <v>198.566101437981</v>
       </c>
       <c r="F180" t="n">
+        <v>1.289174078206735</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-9928.305071899053</v>
+      </c>
+      <c r="H180" t="n">
+        <v>875037.02844218</v>
+      </c>
+      <c r="I180" t="n">
         <v>-0.0279224909972077</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1.289174078206735</v>
-      </c>
-      <c r="H180" t="n">
-        <v>-9928.305071899053</v>
-      </c>
-      <c r="I180" t="n">
-        <v>875037.02844218</v>
       </c>
     </row>
     <row r="181">
@@ -11730,16 +11730,16 @@
         <v>254.9607385336781</v>
       </c>
       <c r="F181" t="n">
+        <v>1.718701801789946</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-12748.0369266839</v>
+      </c>
+      <c r="H181" t="n">
+        <v>855256.4687283089</v>
+      </c>
+      <c r="I181" t="n">
         <v>-0.03688259451086066</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1.718701801789946</v>
-      </c>
-      <c r="H181" t="n">
-        <v>-12748.0369266839</v>
-      </c>
-      <c r="I181" t="n">
-        <v>855256.4687283089</v>
       </c>
     </row>
     <row r="182">
@@ -11761,16 +11761,16 @@
         <v>44.24780146513567</v>
       </c>
       <c r="F182" t="n">
+        <v>0.3002720283141864</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-2212.390073256784</v>
+      </c>
+      <c r="H182" t="n">
+        <v>851740.5727937057</v>
+      </c>
+      <c r="I182" t="n">
         <v>-0.006646004343991056</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.3002720283141864</v>
-      </c>
-      <c r="H182" t="n">
-        <v>-2212.390073256784</v>
-      </c>
-      <c r="I182" t="n">
-        <v>851740.5727937057</v>
       </c>
     </row>
     <row r="183">
@@ -11792,16 +11792,16 @@
         <v>62.68402063987367</v>
       </c>
       <c r="F183" t="n">
+        <v>-0.421388927632939</v>
+      </c>
+      <c r="G183" t="n">
+        <v>3134.201031993684</v>
+      </c>
+      <c r="H183" t="n">
+        <v>856741.9462735187</v>
+      </c>
+      <c r="I183" t="n">
         <v>0.009478109589974951</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-0.421388927632939</v>
-      </c>
-      <c r="H183" t="n">
-        <v>3134.201031993684</v>
-      </c>
-      <c r="I183" t="n">
-        <v>856741.9462735187</v>
       </c>
     </row>
     <row r="184">
@@ -11823,16 +11823,16 @@
         <v>51.60728510473135</v>
       </c>
       <c r="F184" t="n">
+        <v>-0.3442651839366827</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2580.364255236568</v>
+      </c>
+      <c r="H184" t="n">
+        <v>860835.7968334521</v>
+      </c>
+      <c r="I184" t="n">
         <v>0.007729990995387617</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-0.3442651839366827</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2580.364255236568</v>
-      </c>
-      <c r="I184" t="n">
-        <v>860835.7968334521</v>
       </c>
     </row>
     <row r="185">
@@ -11854,16 +11854,16 @@
         <v>748.1460428569492</v>
       </c>
       <c r="F185" t="n">
+        <v>-4.491337617581593</v>
+      </c>
+      <c r="G185" t="n">
+        <v>37407.30214284746</v>
+      </c>
+      <c r="H185" t="n">
+        <v>919902.7688027737</v>
+      </c>
+      <c r="I185" t="n">
         <v>0.1112013794285003</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-4.491337617581593</v>
-      </c>
-      <c r="H185" t="n">
-        <v>37407.30214284746</v>
-      </c>
-      <c r="I185" t="n">
-        <v>919902.7688027737</v>
       </c>
     </row>
     <row r="186">
@@ -11885,16 +11885,16 @@
         <v>700.7056927422619</v>
       </c>
       <c r="F186" t="n">
+        <v>-3.846058315227158</v>
+      </c>
+      <c r="G186" t="n">
+        <v>35035.28463711309</v>
+      </c>
+      <c r="H186" t="n">
+        <v>971788.3036026203</v>
+      </c>
+      <c r="I186" t="n">
         <v>0.09372742062341055</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-3.846058315227158</v>
-      </c>
-      <c r="H186" t="n">
-        <v>35035.28463711309</v>
-      </c>
-      <c r="I186" t="n">
-        <v>971788.3036026203</v>
       </c>
     </row>
     <row r="187">
@@ -11916,16 +11916,16 @@
         <v>446.142726062073</v>
       </c>
       <c r="F187" t="n">
+        <v>2.590128416037285</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-22307.13630310365</v>
+      </c>
+      <c r="H187" t="n">
+        <v>940625.9178081562</v>
+      </c>
+      <c r="I187" t="n">
         <v>-0.05456268528334522</v>
-      </c>
-      <c r="G187" t="n">
-        <v>2.590128416037285</v>
-      </c>
-      <c r="H187" t="n">
-        <v>-22307.13630310365</v>
-      </c>
-      <c r="I187" t="n">
-        <v>940625.9178081562</v>
       </c>
     </row>
     <row r="188">
@@ -11947,16 +11947,16 @@
         <v>830.0504862508825</v>
       </c>
       <c r="F188" t="n">
+        <v>-4.351692439463889</v>
+      </c>
+      <c r="G188" t="n">
+        <v>41502.52431254413</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1000950.945294671</v>
+      </c>
+      <c r="I188" t="n">
         <v>0.1073726541026557</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-4.351692439463889</v>
-      </c>
-      <c r="H188" t="n">
-        <v>41502.52431254413</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1000950.945294671</v>
       </c>
     </row>
     <row r="189">
@@ -11978,16 +11978,16 @@
         <v>409.1575871223986</v>
       </c>
       <c r="F189" t="n">
+        <v>-2.047235535859399</v>
+      </c>
+      <c r="G189" t="n">
+        <v>20457.87935611993</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1028743.062623043</v>
+      </c>
+      <c r="I189" t="n">
         <v>0.04779538829776098</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-2.047235535859399</v>
-      </c>
-      <c r="H189" t="n">
-        <v>20457.87935611993</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1028743.062623043</v>
       </c>
     </row>
     <row r="190">
@@ -12009,16 +12009,16 @@
         <v>477.0038351919684</v>
       </c>
       <c r="F190" t="n">
+        <v>-2.266192781904703</v>
+      </c>
+      <c r="G190" t="n">
+        <v>23850.19175959842</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1060077.478515019</v>
+      </c>
+      <c r="I190" t="n">
         <v>0.0531790743520458</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-2.266192781904703</v>
-      </c>
-      <c r="H190" t="n">
-        <v>23850.19175959842</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1060077.478515019</v>
       </c>
     </row>
     <row r="191">
@@ -12040,16 +12040,16 @@
         <v>573.5095580367827</v>
       </c>
       <c r="F191" t="n">
+        <v>2.900786433775413</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-28675.47790183913</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1023822.571610747</v>
+      </c>
+      <c r="I191" t="n">
         <v>-0.06070959581013548</v>
-      </c>
-      <c r="G191" t="n">
-        <v>2.900786433775413</v>
-      </c>
-      <c r="H191" t="n">
-        <v>-28675.47790183913</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1023822.571610747</v>
       </c>
     </row>
     <row r="192">
@@ -12071,16 +12071,16 @@
         <v>931.0374115293953</v>
       </c>
       <c r="F192" t="n">
+        <v>5.261182671278175</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-46551.87057646977</v>
+      </c>
+      <c r="H192" t="n">
+        <v>962017.5969883122</v>
+      </c>
+      <c r="I192" t="n">
         <v>-0.1049261959700357</v>
-      </c>
-      <c r="G192" t="n">
-        <v>5.261182671278175</v>
-      </c>
-      <c r="H192" t="n">
-        <v>-46551.87057646977</v>
-      </c>
-      <c r="I192" t="n">
-        <v>962017.5969883122</v>
       </c>
     </row>
     <row r="193">
@@ -12102,16 +12102,16 @@
         <v>412.5238143928896</v>
       </c>
       <c r="F193" t="n">
+        <v>-2.216021938855445</v>
+      </c>
+      <c r="G193" t="n">
+        <v>20626.19071964448</v>
+      </c>
+      <c r="H193" t="n">
+        <v>991771.7025948772</v>
+      </c>
+      <c r="I193" t="n">
         <v>0.05194060136555244</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-2.216021938855445</v>
-      </c>
-      <c r="H193" t="n">
-        <v>20626.19071964448</v>
-      </c>
-      <c r="I193" t="n">
-        <v>991771.7025948772</v>
       </c>
     </row>
     <row r="194">
@@ -12133,16 +12133,16 @@
         <v>3250.198086748252</v>
       </c>
       <c r="F194" t="n">
+        <v>28.57661713194761</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-162509.9043374126</v>
+      </c>
+      <c r="H194" t="n">
+        <v>765208.2662451313</v>
+      </c>
+      <c r="I194" t="n">
         <v>-0.3890241489961253</v>
-      </c>
-      <c r="G194" t="n">
-        <v>28.57661713194761</v>
-      </c>
-      <c r="H194" t="n">
-        <v>-162509.9043374126</v>
-      </c>
-      <c r="I194" t="n">
-        <v>765208.2662451313</v>
       </c>
     </row>
     <row r="195">
@@ -12164,16 +12164,16 @@
         <v>580.1902771952864</v>
       </c>
       <c r="F195" t="n">
+        <v>-4.580556579959572</v>
+      </c>
+      <c r="G195" t="n">
+        <v>29009.51385976432</v>
+      </c>
+      <c r="H195" t="n">
+        <v>823753.6118569489</v>
+      </c>
+      <c r="I195" t="n">
         <v>0.1136614344499577</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-4.580556579959572</v>
-      </c>
-      <c r="H195" t="n">
-        <v>29009.51385976432</v>
-      </c>
-      <c r="I195" t="n">
-        <v>823753.6118569489</v>
       </c>
     </row>
     <row r="196">
@@ -12195,16 +12195,16 @@
         <v>238.812588183062</v>
       </c>
       <c r="F196" t="n">
+        <v>-1.809394951510775</v>
+      </c>
+      <c r="G196" t="n">
+        <v>11940.6294091531</v>
+      </c>
+      <c r="H196" t="n">
+        <v>846657.2093155079</v>
+      </c>
+      <c r="I196" t="n">
         <v>0.04200942342640509</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-1.809394951510775</v>
-      </c>
-      <c r="H196" t="n">
-        <v>11940.6294091531</v>
-      </c>
-      <c r="I196" t="n">
-        <v>846657.2093155079</v>
       </c>
     </row>
     <row r="197">
@@ -12226,16 +12226,16 @@
         <v>248.3351244636208</v>
       </c>
       <c r="F197" t="n">
+        <v>-1.805836958599812</v>
+      </c>
+      <c r="G197" t="n">
+        <v>12416.75622318104</v>
+      </c>
+      <c r="H197" t="n">
+        <v>869983.4972321873</v>
+      </c>
+      <c r="I197" t="n">
         <v>0.04192335295189055</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-1.805836958599812</v>
-      </c>
-      <c r="H197" t="n">
-        <v>12416.75622318104</v>
-      </c>
-      <c r="I197" t="n">
-        <v>869983.4972321873</v>
       </c>
     </row>
     <row r="198">
@@ -12257,16 +12257,16 @@
         <v>118.2075562262673</v>
       </c>
       <c r="F198" t="n">
+        <v>-0.8434248968842891</v>
+      </c>
+      <c r="G198" t="n">
+        <v>5910.377811313363</v>
+      </c>
+      <c r="H198" t="n">
+        <v>880853.7570737444</v>
+      </c>
+      <c r="I198" t="n">
         <v>0.01915258180144227</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-0.8434248968842891</v>
-      </c>
-      <c r="H198" t="n">
-        <v>5910.377811313363</v>
-      </c>
-      <c r="I198" t="n">
-        <v>880853.7570737444</v>
       </c>
     </row>
     <row r="199">
@@ -12288,16 +12288,16 @@
         <v>205.9478110316731</v>
       </c>
       <c r="F199" t="n">
+        <v>-1.422874780009517</v>
+      </c>
+      <c r="G199" t="n">
+        <v>10297.39055158366</v>
+      </c>
+      <c r="H199" t="n">
+        <v>899602.8863129209</v>
+      </c>
+      <c r="I199" t="n">
         <v>0.03274161204186588</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-1.422874780009517</v>
-      </c>
-      <c r="H199" t="n">
-        <v>10297.39055158366</v>
-      </c>
-      <c r="I199" t="n">
-        <v>899602.8863129209</v>
       </c>
     </row>
     <row r="200">
@@ -12319,16 +12319,16 @@
         <v>419.6712685121827</v>
       </c>
       <c r="F200" t="n">
+        <v>-2.723520087975129</v>
+      </c>
+      <c r="G200" t="n">
+        <v>20983.56342560914</v>
+      </c>
+      <c r="H200" t="n">
+        <v>937157.0769576516</v>
+      </c>
+      <c r="I200" t="n">
         <v>0.06460415332817387</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-2.723520087975129</v>
-      </c>
-      <c r="H200" t="n">
-        <v>20983.56342560914</v>
-      </c>
-      <c r="I200" t="n">
-        <v>937157.0769576516</v>
       </c>
     </row>
     <row r="201">
@@ -12350,16 +12350,16 @@
         <v>1207.721861345275</v>
       </c>
       <c r="F201" t="n">
+        <v>-6.67245312276942</v>
+      </c>
+      <c r="G201" t="n">
+        <v>60386.09306726373</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1041638.636180394</v>
+      </c>
+      <c r="I201" t="n">
         <v>0.1746344710536248</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-6.67245312276942</v>
-      </c>
-      <c r="H201" t="n">
-        <v>60386.09306726373</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1041638.636180394</v>
       </c>
     </row>
     <row r="202">
@@ -12381,16 +12381,16 @@
         <v>890.145307805027</v>
       </c>
       <c r="F202" t="n">
+        <v>-4.432225892663905</v>
+      </c>
+      <c r="G202" t="n">
+        <v>44507.26539025135</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1112161.627216353</v>
+      </c>
+      <c r="I202" t="n">
         <v>0.1095774553226522</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-4.432225892663905</v>
-      </c>
-      <c r="H202" t="n">
-        <v>44507.26539025135</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1112161.627216353</v>
       </c>
     </row>
     <row r="203">
@@ -12412,16 +12412,16 @@
         <v>464.9869187171302</v>
       </c>
       <c r="F203" t="n">
+        <v>2.441205768540454</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-23249.34593585651</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1077572.489227669</v>
+      </c>
+      <c r="I203" t="n">
         <v>-0.05158737327543299</v>
-      </c>
-      <c r="G203" t="n">
-        <v>2.441205768540454</v>
-      </c>
-      <c r="H203" t="n">
-        <v>-23249.34593585651</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1077572.489227669</v>
       </c>
     </row>
   </sheetData>
